--- a/BackTest/2019-10-10 BackTest VET.xlsx
+++ b/BackTest/2019-10-10 BackTest VET.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.2200000000000015</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>23.80952380952353</v>
+      </c>
       <c r="L12" t="n">
         <v>4.57</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.2300000000000013</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>15.78947368421008</v>
+      </c>
       <c r="L13" t="n">
         <v>4.576000000000001</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.2500000000000009</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>10.00000000000022</v>
+      </c>
       <c r="L14" t="n">
         <v>4.577</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.2500000000000009</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
       <c r="L15" t="n">
         <v>4.579</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.2600000000000007</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>17.64705882352966</v>
+      </c>
       <c r="L16" t="n">
         <v>4.58</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.2600000000000007</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" t="n">
         <v>4.583</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.2600000000000007</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>27.27272727272786</v>
+      </c>
       <c r="L18" t="n">
         <v>4.583</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.3200000000000012</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>62.50000000000063</v>
+      </c>
       <c r="L19" t="n">
         <v>4.592</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.3200000000000012</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>45.45454545454633</v>
+      </c>
       <c r="L20" t="n">
         <v>4.601999999999999</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.3500000000000014</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>23.07692307692329</v>
+      </c>
       <c r="L21" t="n">
         <v>4.603999999999999</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.4100000000000019</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-22.22222222222217</v>
+      </c>
       <c r="L22" t="n">
         <v>4.600999999999999</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>0.4200000000000026</v>
       </c>
       <c r="K23" t="n">
-        <v>7.317073170731718</v>
+        <v>-5.882352941176286</v>
       </c>
       <c r="L23" t="n">
         <v>4.597999999999999</v>
@@ -1466,7 +1488,7 @@
         <v>0.4600000000000026</v>
       </c>
       <c r="K24" t="n">
-        <v>9.523809523809474</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L24" t="n">
         <v>4.600999999999999</v>
@@ -1515,7 +1537,7 @@
         <v>0.4600000000000026</v>
       </c>
       <c r="K25" t="n">
-        <v>12.19512195121963</v>
+        <v>10.00000000000013</v>
       </c>
       <c r="L25" t="n">
         <v>4.603999999999999</v>
@@ -1564,7 +1586,7 @@
         <v>0.5000000000000027</v>
       </c>
       <c r="K26" t="n">
-        <v>-2.32558139534878</v>
+        <v>-8.333333333333087</v>
       </c>
       <c r="L26" t="n">
         <v>4.601999999999999</v>
@@ -1613,7 +1635,7 @@
         <v>0.5000000000000027</v>
       </c>
       <c r="K27" t="n">
-        <v>2.439024390244061</v>
+        <v>-8.333333333333087</v>
       </c>
       <c r="L27" t="n">
         <v>4.6</v>
@@ -1662,7 +1684,7 @@
         <v>0.5000000000000027</v>
       </c>
       <c r="K28" t="n">
-        <v>-5.263157894736719</v>
+        <v>-44.44444444444412</v>
       </c>
       <c r="L28" t="n">
         <v>4.598000000000001</v>
@@ -1711,7 +1733,7 @@
         <v>0.530000000000002</v>
       </c>
       <c r="K29" t="n">
-        <v>10.5263157894737</v>
+        <v>-23.80952380952405</v>
       </c>
       <c r="L29" t="n">
         <v>4.593000000000001</v>
@@ -1760,7 +1782,7 @@
         <v>0.5500000000000016</v>
       </c>
       <c r="K30" t="n">
-        <v>7.692307692307762</v>
+        <v>-20</v>
       </c>
       <c r="L30" t="n">
         <v>4.586</v>
@@ -1809,7 +1831,7 @@
         <v>0.5600000000000014</v>
       </c>
       <c r="K31" t="n">
-        <v>-8.571428571428399</v>
+        <v>6.666666666667139</v>
       </c>
       <c r="L31" t="n">
         <v>4.581000000000001</v>
@@ -1860,7 +1882,7 @@
         <v>0.5700000000000021</v>
       </c>
       <c r="K32" t="n">
-        <v>-8.57142857142863</v>
+        <v>-6.666666666667139</v>
       </c>
       <c r="L32" t="n">
         <v>4.581000000000001</v>
@@ -1911,7 +1933,7 @@
         <v>0.5700000000000021</v>
       </c>
       <c r="K33" t="n">
-        <v>-11.76470588235293</v>
+        <v>-45.45454545454633</v>
       </c>
       <c r="L33" t="n">
         <v>4.580000000000001</v>
@@ -1962,7 +1984,7 @@
         <v>0.5800000000000018</v>
       </c>
       <c r="K34" t="n">
-        <v>-9.09090909090914</v>
+        <v>-50.00000000000075</v>
       </c>
       <c r="L34" t="n">
         <v>4.574000000000001</v>
@@ -2013,7 +2035,7 @@
         <v>0.5900000000000016</v>
       </c>
       <c r="K35" t="n">
-        <v>-5.882352941176594</v>
+        <v>-11.11111111111199</v>
       </c>
       <c r="L35" t="n">
         <v>4.569000000000001</v>
@@ -2064,7 +2086,7 @@
         <v>0.6000000000000014</v>
       </c>
       <c r="K36" t="n">
-        <v>-11.76470588235293</v>
+        <v>-20.00000000000071</v>
       </c>
       <c r="L36" t="n">
         <v>4.567000000000001</v>
@@ -2115,7 +2137,7 @@
         <v>0.6100000000000012</v>
       </c>
       <c r="K37" t="n">
-        <v>-8.57142857142863</v>
+        <v>-9.090909090909825</v>
       </c>
       <c r="L37" t="n">
         <v>4.566000000000001</v>
@@ -2166,7 +2188,7 @@
         <v>0.6500000000000012</v>
       </c>
       <c r="K38" t="n">
-        <v>-17.948717948718</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L38" t="n">
         <v>4.561000000000001</v>
@@ -2217,7 +2239,7 @@
         <v>0.6600000000000019</v>
       </c>
       <c r="K39" t="n">
-        <v>-35.29411764705878</v>
+        <v>-45.45454545454516</v>
       </c>
       <c r="L39" t="n">
         <v>4.554</v>
@@ -2268,7 +2290,7 @@
         <v>0.6600000000000019</v>
       </c>
       <c r="K40" t="n">
-        <v>-35.29411764705878</v>
+        <v>-39.99999999999982</v>
       </c>
       <c r="L40" t="n">
         <v>4.549000000000001</v>
@@ -2319,7 +2341,7 @@
         <v>0.7100000000000017</v>
       </c>
       <c r="K41" t="n">
-        <v>-11.11111111111111</v>
+        <v>14.28571428571465</v>
       </c>
       <c r="L41" t="n">
         <v>4.550000000000001</v>
@@ -2370,7 +2392,7 @@
         <v>0.740000000000002</v>
       </c>
       <c r="K42" t="n">
-        <v>-3.030303030302965</v>
+        <v>-5.882352941176348</v>
       </c>
       <c r="L42" t="n">
         <v>4.549</v>
@@ -2421,7 +2443,7 @@
         <v>0.7500000000000018</v>
       </c>
       <c r="K43" t="n">
-        <v>-9.090909090909188</v>
+        <v>-5.882352941176348</v>
       </c>
       <c r="L43" t="n">
         <v>4.547</v>
@@ -2472,7 +2494,7 @@
         <v>0.7500000000000018</v>
       </c>
       <c r="K44" t="n">
-        <v>-24.13793103448293</v>
+        <v>-12.49999999999972</v>
       </c>
       <c r="L44" t="n">
         <v>4.546</v>
@@ -2523,7 +2545,7 @@
         <v>0.7700000000000022</v>
       </c>
       <c r="K45" t="n">
-        <v>-29.03225806451641</v>
+        <v>-17.64705882352947</v>
       </c>
       <c r="L45" t="n">
         <v>4.542</v>
@@ -2574,7 +2596,7 @@
         <v>0.7700000000000022</v>
       </c>
       <c r="K46" t="n">
-        <v>-18.51851851851881</v>
+        <v>-24.99999999999986</v>
       </c>
       <c r="L46" t="n">
         <v>4.539</v>
@@ -2625,7 +2647,7 @@
         <v>0.7700000000000022</v>
       </c>
       <c r="K47" t="n">
-        <v>-18.51851851851881</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>4.534999999999999</v>
@@ -2676,7 +2698,7 @@
         <v>0.7800000000000029</v>
       </c>
       <c r="K48" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>4.536</v>
@@ -2727,7 +2749,7 @@
         <v>0.7900000000000036</v>
       </c>
       <c r="K49" t="n">
-        <v>-30.76923076923061</v>
+        <v>-7.692307692308114</v>
       </c>
       <c r="L49" t="n">
         <v>4.534999999999999</v>
@@ -2778,7 +2800,7 @@
         <v>0.8000000000000043</v>
       </c>
       <c r="K50" t="n">
-        <v>-19.99999999999972</v>
+        <v>-55.5555555555538</v>
       </c>
       <c r="L50" t="n">
         <v>4.534999999999999</v>
@@ -2829,7 +2851,7 @@
         <v>0.8000000000000043</v>
       </c>
       <c r="K51" t="n">
-        <v>-16.66666666666648</v>
+        <v>-33.33333333333136</v>
       </c>
       <c r="L51" t="n">
         <v>4.529999999999999</v>
@@ -2880,7 +2902,7 @@
         <v>0.8100000000000049</v>
       </c>
       <c r="K52" t="n">
-        <v>-16.66666666666648</v>
+        <v>-33.33333333333235</v>
       </c>
       <c r="L52" t="n">
         <v>4.526999999999999</v>
@@ -2931,7 +2953,7 @@
         <v>0.8200000000000056</v>
       </c>
       <c r="K53" t="n">
-        <v>-11.99999999999957</v>
+        <v>-14.2857142857132</v>
       </c>
       <c r="L53" t="n">
         <v>4.526</v>
@@ -2982,7 +3004,7 @@
         <v>0.8200000000000056</v>
       </c>
       <c r="K54" t="n">
-        <v>-8.333333333333025</v>
+        <v>20</v>
       </c>
       <c r="L54" t="n">
         <v>4.525</v>
@@ -3033,7 +3055,7 @@
         <v>0.8400000000000061</v>
       </c>
       <c r="K55" t="n">
-        <v>-19.99999999999957</v>
+        <v>-14.2857142857132</v>
       </c>
       <c r="L55" t="n">
         <v>4.523999999999999</v>
@@ -3084,7 +3106,7 @@
         <v>0.8500000000000059</v>
       </c>
       <c r="K56" t="n">
-        <v>-11.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
         <v>4.523999999999999</v>
@@ -3135,7 +3157,7 @@
         <v>0.8700000000000054</v>
       </c>
       <c r="K57" t="n">
-        <v>-23.07692307692255</v>
+        <v>-33.33333333333267</v>
       </c>
       <c r="L57" t="n">
         <v>4.522</v>
@@ -3186,7 +3208,7 @@
         <v>0.8800000000000052</v>
       </c>
       <c r="K58" t="n">
-        <v>-13.04347826086906</v>
+        <v>-33.33333333333201</v>
       </c>
       <c r="L58" t="n">
         <v>4.518</v>
@@ -3237,7 +3259,7 @@
         <v>0.890000000000005</v>
       </c>
       <c r="K59" t="n">
-        <v>-13.0434782608695</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L59" t="n">
         <v>4.516</v>
@@ -3288,7 +3310,7 @@
         <v>0.9100000000000046</v>
       </c>
       <c r="K60" t="n">
-        <v>-19.99999999999972</v>
+        <v>-45.45454545454516</v>
       </c>
       <c r="L60" t="n">
         <v>4.511</v>
@@ -3339,7 +3361,7 @@
         <v>0.9100000000000046</v>
       </c>
       <c r="K61" t="n">
-        <v>-49.99999999999911</v>
+        <v>-39.99999999999929</v>
       </c>
       <c r="L61" t="n">
         <v>4.506</v>
@@ -3390,7 +3412,7 @@
         <v>0.930000000000005</v>
       </c>
       <c r="K62" t="n">
-        <v>-47.36842105263074</v>
+        <v>-63.63636363636422</v>
       </c>
       <c r="L62" t="n">
         <v>4.5</v>
@@ -3441,7 +3463,7 @@
         <v>0.930000000000005</v>
       </c>
       <c r="K63" t="n">
-        <v>-44.44444444444368</v>
+        <v>-63.63636363636422</v>
       </c>
       <c r="L63" t="n">
         <v>4.493</v>
@@ -3492,7 +3514,7 @@
         <v>0.9600000000000053</v>
       </c>
       <c r="K64" t="n">
-        <v>-23.80952380952333</v>
+        <v>-16.66666666666642</v>
       </c>
       <c r="L64" t="n">
         <v>4.489</v>
@@ -3543,7 +3565,7 @@
         <v>0.9700000000000051</v>
       </c>
       <c r="K65" t="n">
-        <v>-9.999999999999645</v>
+        <v>-16.66666666666642</v>
       </c>
       <c r="L65" t="n">
         <v>4.488</v>
@@ -3594,7 +3616,7 @@
         <v>0.9700000000000051</v>
       </c>
       <c r="K66" t="n">
-        <v>-9.999999999999645</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>4.486</v>
@@ -3645,7 +3667,7 @@
         <v>0.9700000000000051</v>
       </c>
       <c r="K67" t="n">
-        <v>-9.999999999999645</v>
+        <v>11.11111111111089</v>
       </c>
       <c r="L67" t="n">
         <v>4.486</v>
@@ -3696,7 +3718,7 @@
         <v>0.9900000000000047</v>
       </c>
       <c r="K68" t="n">
-        <v>-23.80952380952353</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L68" t="n">
         <v>4.485</v>
@@ -3747,7 +3769,7 @@
         <v>1.020000000000004</v>
       </c>
       <c r="K69" t="n">
-        <v>-4.347826086956421</v>
+        <v>27.27272727272683</v>
       </c>
       <c r="L69" t="n">
         <v>4.486</v>
@@ -3798,7 +3820,7 @@
         <v>1.050000000000003</v>
       </c>
       <c r="K70" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
         <v>4.486</v>
@@ -3849,7 +3871,7 @@
         <v>1.070000000000004</v>
       </c>
       <c r="K71" t="n">
-        <v>-25.92592592592607</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
         <v>4.484</v>
@@ -3900,7 +3922,7 @@
         <v>1.090000000000004</v>
       </c>
       <c r="K72" t="n">
-        <v>-14.28571428571401</v>
+        <v>12.50000000000035</v>
       </c>
       <c r="L72" t="n">
         <v>4.486000000000001</v>
@@ -3951,7 +3973,7 @@
         <v>1.100000000000005</v>
       </c>
       <c r="K73" t="n">
-        <v>-21.42857142857165</v>
+        <v>-14.28571428571465</v>
       </c>
       <c r="L73" t="n">
         <v>4.487</v>
@@ -4002,7 +4024,7 @@
         <v>1.110000000000006</v>
       </c>
       <c r="K74" t="n">
-        <v>-17.24137931034477</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L74" t="n">
         <v>4.486000000000001</v>
@@ -4053,7 +4075,7 @@
         <v>1.150000000000005</v>
       </c>
       <c r="K75" t="n">
-        <v>3.225806451612848</v>
+        <v>11.11111111111089</v>
       </c>
       <c r="L75" t="n">
         <v>4.488000000000001</v>
@@ -4104,7 +4126,7 @@
         <v>1.190000000000005</v>
       </c>
       <c r="K76" t="n">
-        <v>11.76470588235299</v>
+        <v>27.27272727272713</v>
       </c>
       <c r="L76" t="n">
         <v>4.494000000000002</v>
@@ -4155,7 +4177,7 @@
         <v>1.200000000000006</v>
       </c>
       <c r="K77" t="n">
-        <v>21.21212121212129</v>
+        <v>42.85714285714262</v>
       </c>
       <c r="L77" t="n">
         <v>4.501000000000001</v>
@@ -4206,7 +4228,7 @@
         <v>1.210000000000005</v>
       </c>
       <c r="K78" t="n">
-        <v>27.27272727272723</v>
+        <v>36.8421052631578</v>
       </c>
       <c r="L78" t="n">
         <v>4.511000000000001</v>
@@ -4257,7 +4279,7 @@
         <v>1.230000000000005</v>
       </c>
       <c r="K79" t="n">
-        <v>29.41176470588226</v>
+        <v>66.66666666666568</v>
       </c>
       <c r="L79" t="n">
         <v>4.520000000000001</v>
@@ -4308,7 +4330,7 @@
         <v>1.270000000000005</v>
       </c>
       <c r="K80" t="n">
-        <v>22.22222222222198</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L80" t="n">
         <v>4.528000000000001</v>
@@ -4359,7 +4381,7 @@
         <v>1.290000000000004</v>
       </c>
       <c r="K81" t="n">
-        <v>15.78947368421043</v>
+        <v>29.99999999999978</v>
       </c>
       <c r="L81" t="n">
         <v>4.536000000000001</v>
@@ -4410,7 +4432,7 @@
         <v>1.320000000000005</v>
       </c>
       <c r="K82" t="n">
-        <v>28.20512820512831</v>
+        <v>45.45454545454574</v>
       </c>
       <c r="L82" t="n">
         <v>4.545000000000002</v>
@@ -4461,7 +4483,7 @@
         <v>1.330000000000005</v>
       </c>
       <c r="K83" t="n">
-        <v>30.00000000000006</v>
+        <v>45.45454545454552</v>
       </c>
       <c r="L83" t="n">
         <v>4.556000000000002</v>
@@ -4512,7 +4534,7 @@
         <v>1.350000000000004</v>
       </c>
       <c r="K84" t="n">
-        <v>28.20512820512815</v>
+        <v>40.00000000000018</v>
       </c>
       <c r="L84" t="n">
         <v>4.568000000000002</v>
@@ -4563,7 +4585,7 @@
         <v>1.350000000000004</v>
       </c>
       <c r="K85" t="n">
-        <v>26.31578947368419</v>
+        <v>25.00000000000014</v>
       </c>
       <c r="L85" t="n">
         <v>4.576000000000002</v>
@@ -4614,7 +4636,7 @@
         <v>1.350000000000004</v>
       </c>
       <c r="K86" t="n">
-        <v>26.31578947368419</v>
+        <v>19.99999999999976</v>
       </c>
       <c r="L86" t="n">
         <v>4.580000000000002</v>
@@ -4665,7 +4687,7 @@
         <v>1.380000000000003</v>
       </c>
       <c r="K87" t="n">
-        <v>17.07317073170745</v>
+        <v>-5.88235294117641</v>
       </c>
       <c r="L87" t="n">
         <v>4.580000000000002</v>
@@ -4716,7 +4738,7 @@
         <v>1.400000000000003</v>
       </c>
       <c r="K88" t="n">
-        <v>26.82926829268289</v>
+        <v>-5.88235294117641</v>
       </c>
       <c r="L88" t="n">
         <v>4.581000000000001</v>
@@ -4767,7 +4789,7 @@
         <v>1.410000000000003</v>
       </c>
       <c r="K89" t="n">
-        <v>17.94871794871808</v>
+        <v>14.28571428571483</v>
       </c>
       <c r="L89" t="n">
         <v>4.579000000000002</v>
@@ -4818,7 +4840,7 @@
         <v>1.420000000000003</v>
       </c>
       <c r="K90" t="n">
-        <v>29.72972972972964</v>
+        <v>38.46153846153888</v>
       </c>
       <c r="L90" t="n">
         <v>4.582000000000001</v>
@@ -4869,7 +4891,7 @@
         <v>1.440000000000002</v>
       </c>
       <c r="K91" t="n">
-        <v>29.72972972972995</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
         <v>4.585000000000001</v>
@@ -4920,7 +4942,7 @@
         <v>1.440000000000002</v>
       </c>
       <c r="K92" t="n">
-        <v>25.71428571428583</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L92" t="n">
         <v>4.585000000000001</v>
@@ -4971,7 +4993,7 @@
         <v>1.450000000000003</v>
       </c>
       <c r="K93" t="n">
-        <v>25.71428571428583</v>
+        <v>-40.00000000000053</v>
       </c>
       <c r="L93" t="n">
         <v>4.583000000000001</v>
@@ -5022,7 +5044,7 @@
         <v>1.450000000000003</v>
       </c>
       <c r="K94" t="n">
-        <v>23.52941176470584</v>
+        <v>-40.00000000000053</v>
       </c>
       <c r="L94" t="n">
         <v>4.579000000000002</v>
@@ -5073,7 +5095,7 @@
         <v>1.460000000000004</v>
       </c>
       <c r="K95" t="n">
-        <v>16.12903225806481</v>
+        <v>-27.27272727272683</v>
       </c>
       <c r="L95" t="n">
         <v>4.576000000000001</v>
@@ -5124,7 +5146,7 @@
         <v>1.460000000000004</v>
       </c>
       <c r="K96" t="n">
-        <v>3.703703703703972</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>4.573000000000001</v>
@@ -5175,7 +5197,7 @@
         <v>1.480000000000003</v>
       </c>
       <c r="K97" t="n">
-        <v>7.142857142857053</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
         <v>4.575000000000001</v>
@@ -5226,7 +5248,7 @@
         <v>1.510000000000003</v>
       </c>
       <c r="K98" t="n">
-        <v>-6.666666666666863</v>
+        <v>-20.00000000000036</v>
       </c>
       <c r="L98" t="n">
         <v>4.572000000000001</v>
@@ -5277,7 +5299,7 @@
         <v>1.540000000000004</v>
       </c>
       <c r="K99" t="n">
-        <v>-3.225806451612848</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
         <v>4.573000000000002</v>
@@ -5328,7 +5350,7 @@
         <v>1.560000000000003</v>
       </c>
       <c r="K100" t="n">
-        <v>3.448275862069219</v>
+        <v>0</v>
       </c>
       <c r="L100" t="n">
         <v>4.571000000000002</v>
@@ -5379,7 +5401,7 @@
         <v>1.560000000000003</v>
       </c>
       <c r="K101" t="n">
-        <v>11.11111111111126</v>
+        <v>0</v>
       </c>
       <c r="L101" t="n">
         <v>4.571000000000002</v>
@@ -5430,7 +5452,7 @@
         <v>1.580000000000003</v>
       </c>
       <c r="K102" t="n">
-        <v>7.692307692307587</v>
+        <v>23.07692307692329</v>
       </c>
       <c r="L102" t="n">
         <v>4.573000000000002</v>
@@ -5481,7 +5503,7 @@
         <v>1.610000000000003</v>
       </c>
       <c r="K103" t="n">
-        <v>-7.142857142857347</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
         <v>4.573000000000002</v>
@@ -5532,7 +5554,7 @@
         <v>1.640000000000003</v>
       </c>
       <c r="K104" t="n">
-        <v>-3.448275862068902</v>
+        <v>11.11111111111089</v>
       </c>
       <c r="L104" t="n">
         <v>4.576000000000002</v>
@@ -5583,7 +5605,7 @@
         <v>1.640000000000003</v>
       </c>
       <c r="K105" t="n">
-        <v>-3.448275862068902</v>
+        <v>11.11111111111089</v>
       </c>
       <c r="L105" t="n">
         <v>4.578000000000002</v>
@@ -5634,7 +5656,7 @@
         <v>1.670000000000003</v>
       </c>
       <c r="K106" t="n">
-        <v>-12.50000000000004</v>
+        <v>-15.78947368421063</v>
       </c>
       <c r="L106" t="n">
         <v>4.577000000000003</v>
@@ -5685,7 +5707,7 @@
         <v>1.680000000000004</v>
       </c>
       <c r="K107" t="n">
-        <v>0</v>
+        <v>5.88235294117684</v>
       </c>
       <c r="L107" t="n">
         <v>4.575000000000003</v>
@@ -5736,7 +5758,7 @@
         <v>1.680000000000004</v>
       </c>
       <c r="K108" t="n">
-        <v>-7.142857142856962</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L108" t="n">
         <v>4.576000000000002</v>
@@ -5787,7 +5809,7 @@
         <v>1.700000000000004</v>
       </c>
       <c r="K109" t="n">
-        <v>3.448275862068881</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L109" t="n">
         <v>4.576000000000002</v>
@@ -5838,7 +5860,7 @@
         <v>1.720000000000003</v>
       </c>
       <c r="K110" t="n">
-        <v>-6.666666666666508</v>
+        <v>0</v>
       </c>
       <c r="L110" t="n">
         <v>4.576000000000002</v>
@@ -5889,7 +5911,7 @@
         <v>1.720000000000003</v>
       </c>
       <c r="K111" t="n">
-        <v>0</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L111" t="n">
         <v>4.576000000000002</v>
@@ -5940,7 +5962,7 @@
         <v>1.740000000000003</v>
       </c>
       <c r="K112" t="n">
-        <v>6.666666666666508</v>
+        <v>23.07692307692329</v>
       </c>
       <c r="L112" t="n">
         <v>4.576000000000002</v>
@@ -5991,7 +6013,7 @@
         <v>1.760000000000002</v>
       </c>
       <c r="K113" t="n">
-        <v>3.225806451613125</v>
+        <v>-16.66666666666642</v>
       </c>
       <c r="L113" t="n">
         <v>4.577000000000002</v>
@@ -6042,7 +6064,7 @@
         <v>1.760000000000002</v>
       </c>
       <c r="K114" t="n">
-        <v>3.225806451613125</v>
+        <v>-16.66666666666642</v>
       </c>
       <c r="L114" t="n">
         <v>4.575000000000001</v>
@@ -6093,7 +6115,7 @@
         <v>1.770000000000003</v>
       </c>
       <c r="K115" t="n">
-        <v>-3.225806451613125</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
         <v>4.572000000000001</v>
@@ -6144,7 +6166,7 @@
         <v>1.770000000000003</v>
       </c>
       <c r="K116" t="n">
-        <v>-3.225806451613125</v>
+        <v>-11.11111111111199</v>
       </c>
       <c r="L116" t="n">
         <v>4.572000000000001</v>
@@ -6195,7 +6217,7 @@
         <v>1.780000000000003</v>
       </c>
       <c r="K117" t="n">
-        <v>-13.33333333333335</v>
+        <v>-20.00000000000071</v>
       </c>
       <c r="L117" t="n">
         <v>4.570000000000001</v>
@@ -6246,7 +6268,7 @@
         <v>1.790000000000003</v>
       </c>
       <c r="K118" t="n">
-        <v>0</v>
+        <v>-33.33333333333399</v>
       </c>
       <c r="L118" t="n">
         <v>4.569000000000001</v>
@@ -6297,7 +6319,7 @@
         <v>1.810000000000003</v>
       </c>
       <c r="K119" t="n">
-        <v>-3.70370370370363</v>
+        <v>11.11111111111089</v>
       </c>
       <c r="L119" t="n">
         <v>4.568000000000001</v>
@@ -6348,7 +6370,7 @@
         <v>1.830000000000004</v>
       </c>
       <c r="K120" t="n">
-        <v>-3.703703703703947</v>
+        <v>-9.090909090909678</v>
       </c>
       <c r="L120" t="n">
         <v>4.567000000000001</v>
@@ -6399,7 +6421,7 @@
         <v>1.860000000000004</v>
       </c>
       <c r="K121" t="n">
-        <v>6.666666666666508</v>
+        <v>0</v>
       </c>
       <c r="L121" t="n">
         <v>4.569000000000001</v>
@@ -6450,7 +6472,7 @@
         <v>1.870000000000004</v>
       </c>
       <c r="K122" t="n">
-        <v>-3.448275862068881</v>
+        <v>9.090909090908797</v>
       </c>
       <c r="L122" t="n">
         <v>4.568000000000001</v>
@@ -6501,7 +6523,7 @@
         <v>1.870000000000004</v>
       </c>
       <c r="K123" t="n">
-        <v>7.69230769230785</v>
+        <v>9.090909090908797</v>
       </c>
       <c r="L123" t="n">
         <v>4.569000000000001</v>
@@ -6552,7 +6574,7 @@
         <v>1.870000000000004</v>
       </c>
       <c r="K124" t="n">
-        <v>-4.347826086956421</v>
+        <v>20.00000000000036</v>
       </c>
       <c r="L124" t="n">
         <v>4.57</v>
@@ -6603,7 +6625,7 @@
         <v>1.870000000000004</v>
       </c>
       <c r="K125" t="n">
-        <v>-4.347826086956421</v>
+        <v>20.00000000000036</v>
       </c>
       <c r="L125" t="n">
         <v>4.572</v>
@@ -6654,7 +6676,7 @@
         <v>1.870000000000004</v>
       </c>
       <c r="K126" t="n">
-        <v>10.00000000000022</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L126" t="n">
         <v>4.574</v>
@@ -6705,7 +6727,7 @@
         <v>1.880000000000003</v>
       </c>
       <c r="K127" t="n">
-        <v>9.999999999999822</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L127" t="n">
         <v>4.578</v>
@@ -6756,7 +6778,7 @@
         <v>1.890000000000003</v>
       </c>
       <c r="K128" t="n">
-        <v>4.761904761904681</v>
+        <v>0</v>
       </c>
       <c r="L128" t="n">
         <v>4.58</v>
@@ -6807,7 +6829,7 @@
         <v>1.890000000000003</v>
       </c>
       <c r="K129" t="n">
-        <v>-5.263157894736744</v>
+        <v>33.33333333333432</v>
       </c>
       <c r="L129" t="n">
         <v>4.58</v>
@@ -6858,7 +6880,7 @@
         <v>1.890000000000003</v>
       </c>
       <c r="K130" t="n">
-        <v>5.882352941176348</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L130" t="n">
         <v>4.581999999999999</v>
@@ -6909,7 +6931,7 @@
         <v>1.890000000000003</v>
       </c>
       <c r="K131" t="n">
-        <v>5.882352941176348</v>
+        <v>0</v>
       </c>
       <c r="L131" t="n">
         <v>4.580999999999999</v>
@@ -6960,7 +6982,7 @@
         <v>1.890000000000003</v>
       </c>
       <c r="K132" t="n">
-        <v>-6.666666666666508</v>
+        <v>0</v>
       </c>
       <c r="L132" t="n">
         <v>4.580999999999999</v>
@@ -7011,7 +7033,7 @@
         <v>1.890000000000003</v>
       </c>
       <c r="K133" t="n">
-        <v>7.692307692307482</v>
+        <v>0</v>
       </c>
       <c r="L133" t="n">
         <v>4.580999999999999</v>
@@ -7062,7 +7084,7 @@
         <v>1.920000000000003</v>
       </c>
       <c r="K134" t="n">
-        <v>-12.50000000000021</v>
+        <v>-60.00000000000071</v>
       </c>
       <c r="L134" t="n">
         <v>4.577999999999999</v>
@@ -7113,7 +7135,7 @@
         <v>1.960000000000004</v>
       </c>
       <c r="K135" t="n">
-        <v>15.78947368421063</v>
+        <v>11.11111111111089</v>
       </c>
       <c r="L135" t="n">
         <v>4.578999999999999</v>
@@ -7164,7 +7186,7 @@
         <v>1.990000000000004</v>
       </c>
       <c r="K136" t="n">
-        <v>0</v>
+        <v>-27.27272727272742</v>
       </c>
       <c r="L136" t="n">
         <v>4.577</v>
@@ -7215,7 +7237,7 @@
         <v>2.000000000000004</v>
       </c>
       <c r="K137" t="n">
-        <v>0</v>
+        <v>-27.27272727272742</v>
       </c>
       <c r="L137" t="n">
         <v>4.572999999999999</v>
@@ -7266,7 +7288,7 @@
         <v>2.000000000000004</v>
       </c>
       <c r="K138" t="n">
-        <v>-4.761904761904641</v>
+        <v>-27.27272727272742</v>
       </c>
       <c r="L138" t="n">
         <v>4.569999999999999</v>
@@ -7317,7 +7339,7 @@
         <v>2.000000000000004</v>
       </c>
       <c r="K139" t="n">
-        <v>-15.78947368421063</v>
+        <v>-27.27272727272742</v>
       </c>
       <c r="L139" t="n">
         <v>4.566999999999998</v>
@@ -7368,7 +7390,7 @@
         <v>2.020000000000003</v>
       </c>
       <c r="K140" t="n">
-        <v>-15.78947368421023</v>
+        <v>-38.46153846153836</v>
       </c>
       <c r="L140" t="n">
         <v>4.561999999999999</v>
@@ -7419,7 +7441,7 @@
         <v>2.020000000000003</v>
       </c>
       <c r="K141" t="n">
-        <v>-37.49999999999993</v>
+        <v>-38.46153846153836</v>
       </c>
       <c r="L141" t="n">
         <v>4.556999999999999</v>
@@ -7470,7 +7492,7 @@
         <v>2.020000000000003</v>
       </c>
       <c r="K142" t="n">
-        <v>-33.33333333333333</v>
+        <v>-38.46153846153836</v>
       </c>
       <c r="L142" t="n">
         <v>4.552</v>
@@ -7521,7 +7543,7 @@
         <v>2.030000000000004</v>
       </c>
       <c r="K143" t="n">
-        <v>-37.50000000000028</v>
+        <v>-27.27272727272742</v>
       </c>
       <c r="L143" t="n">
         <v>4.545999999999999</v>
@@ -7572,7 +7594,7 @@
         <v>2.030000000000004</v>
       </c>
       <c r="K144" t="n">
-        <v>-37.50000000000028</v>
+        <v>-100</v>
       </c>
       <c r="L144" t="n">
         <v>4.542999999999999</v>
@@ -7623,7 +7645,7 @@
         <v>2.060000000000004</v>
       </c>
       <c r="K145" t="n">
-        <v>-15.78947368421063</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L145" t="n">
         <v>4.538999999999999</v>
@@ -7674,7 +7696,7 @@
         <v>2.070000000000004</v>
       </c>
       <c r="K146" t="n">
-        <v>-10.00000000000022</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L146" t="n">
         <v>4.538999999999999</v>
@@ -7725,7 +7747,7 @@
         <v>2.080000000000004</v>
       </c>
       <c r="K147" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L147" t="n">
         <v>4.538999999999999</v>
@@ -7776,7 +7798,7 @@
         <v>2.080000000000004</v>
       </c>
       <c r="K148" t="n">
-        <v>-15.78947368421063</v>
+        <v>0</v>
       </c>
       <c r="L148" t="n">
         <v>4.538999999999999</v>
@@ -7827,7 +7849,7 @@
         <v>2.110000000000004</v>
       </c>
       <c r="K149" t="n">
-        <v>-27.27272727272742</v>
+        <v>-11.11111111111177</v>
       </c>
       <c r="L149" t="n">
         <v>4.535999999999999</v>
@@ -7878,7 +7900,7 @@
         <v>2.130000000000004</v>
       </c>
       <c r="K150" t="n">
-        <v>-16.6666666666666</v>
+        <v>9.090909090908797</v>
       </c>
       <c r="L150" t="n">
         <v>4.536999999999998</v>
@@ -7929,7 +7951,7 @@
         <v>2.150000000000004</v>
       </c>
       <c r="K151" t="n">
-        <v>-7.69230769230785</v>
+        <v>23.07692307692244</v>
       </c>
       <c r="L151" t="n">
         <v>4.539999999999998</v>
@@ -7980,7 +8002,7 @@
         <v>2.210000000000004</v>
       </c>
       <c r="K152" t="n">
-        <v>-25</v>
+        <v>-11.11111111111089</v>
       </c>
       <c r="L152" t="n">
         <v>4.536999999999998</v>
@@ -8031,7 +8053,7 @@
         <v>2.220000000000003</v>
       </c>
       <c r="K153" t="n">
-        <v>-21.21212121212129</v>
+        <v>-5.263157894736744</v>
       </c>
       <c r="L153" t="n">
         <v>4.535999999999999</v>
@@ -8082,7 +8104,7 @@
         <v>2.240000000000004</v>
       </c>
       <c r="K154" t="n">
-        <v>-6.249999999999861</v>
+        <v>-11.11111111111089</v>
       </c>
       <c r="L154" t="n">
         <v>4.536999999999999</v>
@@ -8133,7 +8155,7 @@
         <v>2.250000000000004</v>
       </c>
       <c r="K155" t="n">
-        <v>-17.24137931034477</v>
+        <v>-11.11111111111089</v>
       </c>
       <c r="L155" t="n">
         <v>4.536</v>
@@ -8184,7 +8206,7 @@
         <v>2.290000000000004</v>
       </c>
       <c r="K156" t="n">
-        <v>-19.99999999999988</v>
+        <v>-23.80952380952373</v>
       </c>
       <c r="L156" t="n">
         <v>4.529999999999999</v>
@@ -8235,7 +8257,7 @@
         <v>2.300000000000003</v>
       </c>
       <c r="K157" t="n">
-        <v>-19.99999999999988</v>
+        <v>-27.27272727272713</v>
       </c>
       <c r="L157" t="n">
         <v>4.523999999999999</v>
@@ -8286,7 +8308,7 @@
         <v>2.300000000000003</v>
       </c>
       <c r="K158" t="n">
-        <v>-19.99999999999988</v>
+        <v>-15.78947368421023</v>
       </c>
       <c r="L158" t="n">
         <v>4.518</v>
@@ -8337,7 +8359,7 @@
         <v>2.310000000000003</v>
       </c>
       <c r="K159" t="n">
-        <v>-22.58064516129016</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L159" t="n">
         <v>4.514</v>
@@ -8388,7 +8410,7 @@
         <v>2.310000000000003</v>
       </c>
       <c r="K160" t="n">
-        <v>-17.24137931034477</v>
+        <v>-49.99999999999972</v>
       </c>
       <c r="L160" t="n">
         <v>4.508000000000001</v>
@@ -8439,7 +8461,7 @@
         <v>2.310000000000003</v>
       </c>
       <c r="K161" t="n">
-        <v>-17.24137931034477</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L161" t="n">
         <v>4.5</v>
@@ -8490,7 +8512,7 @@
         <v>2.350000000000003</v>
       </c>
       <c r="K162" t="n">
-        <v>-27.27272727272723</v>
+        <v>-53.84615384615342</v>
       </c>
       <c r="L162" t="n">
         <v>4.494</v>
@@ -8541,7 +8563,7 @@
         <v>2.360000000000004</v>
       </c>
       <c r="K163" t="n">
-        <v>-27.27272727272723</v>
+        <v>-83.3333333333337</v>
       </c>
       <c r="L163" t="n">
         <v>4.486</v>
@@ -8592,7 +8614,7 @@
         <v>2.370000000000004</v>
       </c>
       <c r="K164" t="n">
-        <v>-29.41176470588226</v>
+        <v>-100</v>
       </c>
       <c r="L164" t="n">
         <v>4.475</v>
@@ -8643,7 +8665,7 @@
         <v>2.390000000000003</v>
       </c>
       <c r="K165" t="n">
-        <v>-45.4545454545454</v>
+        <v>-100</v>
       </c>
       <c r="L165" t="n">
         <v>4.461</v>
@@ -8694,7 +8716,7 @@
         <v>2.450000000000003</v>
       </c>
       <c r="K166" t="n">
-        <v>-26.31578947368419</v>
+        <v>-20.00000000000024</v>
       </c>
       <c r="L166" t="n">
         <v>4.457</v>
@@ -8745,7 +8767,7 @@
         <v>2.460000000000003</v>
       </c>
       <c r="K167" t="n">
-        <v>-21.05263157894744</v>
+        <v>-12.50000000000035</v>
       </c>
       <c r="L167" t="n">
         <v>4.455</v>
@@ -8796,7 +8818,7 @@
         <v>2.470000000000003</v>
       </c>
       <c r="K168" t="n">
-        <v>-17.94871794871781</v>
+        <v>0</v>
       </c>
       <c r="L168" t="n">
         <v>4.454</v>
@@ -8847,7 +8869,7 @@
         <v>2.500000000000003</v>
       </c>
       <c r="K169" t="n">
-        <v>-2.564102564102518</v>
+        <v>15.78947368421023</v>
       </c>
       <c r="L169" t="n">
         <v>4.456999999999999</v>
@@ -8898,7 +8920,7 @@
         <v>2.500000000000003</v>
       </c>
       <c r="K170" t="n">
-        <v>-8.108108108108212</v>
+        <v>15.78947368421023</v>
       </c>
       <c r="L170" t="n">
         <v>4.459999999999999</v>
@@ -8949,7 +8971,7 @@
         <v>2.510000000000002</v>
       </c>
       <c r="K171" t="n">
-        <v>-16.66666666666663</v>
+        <v>37.49999999999993</v>
       </c>
       <c r="L171" t="n">
         <v>4.461999999999999</v>
@@ -9000,7 +9022,7 @@
         <v>2.520000000000002</v>
       </c>
       <c r="K172" t="n">
-        <v>3.225806451612848</v>
+        <v>50.00000000000055</v>
       </c>
       <c r="L172" t="n">
         <v>4.468999999999999</v>
@@ -9051,7 +9073,7 @@
         <v>2.530000000000002</v>
       </c>
       <c r="K173" t="n">
-        <v>3.225806451612848</v>
+        <v>62.50000000000042</v>
       </c>
       <c r="L173" t="n">
         <v>4.478</v>
@@ -9102,7 +9124,7 @@
         <v>2.560000000000001</v>
       </c>
       <c r="K174" t="n">
-        <v>-12.5000000000001</v>
+        <v>52.94117647058872</v>
       </c>
       <c r="L174" t="n">
         <v>4.484999999999999</v>
@@ -9153,7 +9175,7 @@
         <v>2.560000000000001</v>
       </c>
       <c r="K175" t="n">
-        <v>-16.12903225806457</v>
+        <v>27.27272727272786</v>
       </c>
       <c r="L175" t="n">
         <v>4.494</v>
@@ -9204,7 +9226,7 @@
         <v>2.560000000000001</v>
       </c>
       <c r="K176" t="n">
-        <v>-3.703703703703655</v>
+        <v>20.00000000000071</v>
       </c>
       <c r="L176" t="n">
         <v>4.497</v>
@@ -9255,7 +9277,7 @@
         <v>2.610000000000001</v>
       </c>
       <c r="K177" t="n">
-        <v>-16.12903225806457</v>
+        <v>-28.57142857142902</v>
       </c>
       <c r="L177" t="n">
         <v>4.494</v>
@@ -9306,7 +9328,7 @@
         <v>2.610000000000001</v>
       </c>
       <c r="K178" t="n">
-        <v>-16.12903225806457</v>
+        <v>-63.63636363636394</v>
       </c>
       <c r="L178" t="n">
         <v>4.489999999999999</v>
@@ -9357,7 +9379,7 @@
         <v>2.610000000000001</v>
       </c>
       <c r="K179" t="n">
-        <v>-13.33333333333343</v>
+        <v>-63.63636363636394</v>
       </c>
       <c r="L179" t="n">
         <v>4.482999999999999</v>
@@ -9408,7 +9430,7 @@
         <v>2.640000000000001</v>
       </c>
       <c r="K180" t="n">
-        <v>-21.21212121212141</v>
+        <v>-69.23076923076965</v>
       </c>
       <c r="L180" t="n">
         <v>4.473</v>
@@ -9459,7 +9481,7 @@
         <v>2.640000000000001</v>
       </c>
       <c r="K181" t="n">
-        <v>-21.21212121212141</v>
+        <v>-83.33333333333358</v>
       </c>
       <c r="L181" t="n">
         <v>4.464</v>
@@ -9510,7 +9532,7 @@
         <v>2.660000000000002</v>
       </c>
       <c r="K182" t="n">
-        <v>-16.12903225806481</v>
+        <v>-100</v>
       </c>
       <c r="L182" t="n">
         <v>4.452</v>
@@ -9561,7 +9583,7 @@
         <v>2.700000000000002</v>
       </c>
       <c r="K183" t="n">
-        <v>0</v>
+        <v>-42.85714285714304</v>
       </c>
       <c r="L183" t="n">
         <v>4.443000000000001</v>
@@ -9612,7 +9634,7 @@
         <v>2.700000000000002</v>
       </c>
       <c r="K184" t="n">
-        <v>3.030303030302981</v>
+        <v>-42.85714285714304</v>
       </c>
       <c r="L184" t="n">
         <v>4.437</v>
@@ -9663,7 +9685,7 @@
         <v>2.720000000000002</v>
       </c>
       <c r="K185" t="n">
-        <v>3.030303030302981</v>
+        <v>-50</v>
       </c>
       <c r="L185" t="n">
         <v>4.429</v>
@@ -9714,7 +9736,7 @@
         <v>2.730000000000001</v>
       </c>
       <c r="K186" t="n">
-        <v>-14.28571428571438</v>
+        <v>-16.66666666666704</v>
       </c>
       <c r="L186" t="n">
         <v>4.422</v>
@@ -9765,7 +9787,7 @@
         <v>2.750000000000001</v>
       </c>
       <c r="K187" t="n">
-        <v>-24.1379310344827</v>
+        <v>-28.57142857142867</v>
       </c>
       <c r="L187" t="n">
         <v>4.418</v>
@@ -9816,7 +9838,7 @@
         <v>2.760000000000002</v>
       </c>
       <c r="K188" t="n">
-        <v>-31.03448275862113</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L188" t="n">
         <v>4.413</v>
@@ -9867,7 +9889,7 @@
         <v>2.800000000000002</v>
       </c>
       <c r="K189" t="n">
-        <v>-26.66666666666678</v>
+        <v>12.49999999999972</v>
       </c>
       <c r="L189" t="n">
         <v>4.412000000000001</v>
@@ -9918,7 +9940,7 @@
         <v>2.810000000000002</v>
       </c>
       <c r="K190" t="n">
-        <v>-22.58064516129016</v>
+        <v>17.64705882352947</v>
       </c>
       <c r="L190" t="n">
         <v>4.415000000000001</v>
@@ -9969,7 +9991,7 @@
         <v>2.830000000000003</v>
       </c>
       <c r="K191" t="n">
-        <v>-25</v>
+        <v>17.64705882352947</v>
       </c>
       <c r="L191" t="n">
         <v>4.416000000000001</v>
@@ -10020,7 +10042,7 @@
         <v>2.860000000000003</v>
       </c>
       <c r="K192" t="n">
-        <v>-35.29411764705878</v>
+        <v>-24.99999999999986</v>
       </c>
       <c r="L192" t="n">
         <v>4.416000000000001</v>
@@ -10071,7 +10093,7 @@
         <v>2.880000000000003</v>
       </c>
       <c r="K193" t="n">
-        <v>-31.42857142857114</v>
+        <v>-11.11111111111078</v>
       </c>
       <c r="L193" t="n">
         <v>4.414000000000001</v>
@@ -10122,7 +10144,7 @@
         <v>2.880000000000003</v>
       </c>
       <c r="K194" t="n">
-        <v>-24.99999999999986</v>
+        <v>0</v>
       </c>
       <c r="L194" t="n">
         <v>4.412000000000001</v>
@@ -10173,7 +10195,7 @@
         <v>2.890000000000003</v>
       </c>
       <c r="K195" t="n">
-        <v>-21.21212121212118</v>
+        <v>0</v>
       </c>
       <c r="L195" t="n">
         <v>4.413000000000001</v>
@@ -10224,7 +10246,7 @@
         <v>2.890000000000003</v>
       </c>
       <c r="K196" t="n">
-        <v>-21.21212121212118</v>
+        <v>14.28571428571374</v>
       </c>
       <c r="L196" t="n">
         <v>4.413000000000001</v>
@@ -10275,7 +10297,7 @@
         <v>2.890000000000003</v>
       </c>
       <c r="K197" t="n">
-        <v>-7.142857142857256</v>
+        <v>23.07692307692297</v>
       </c>
       <c r="L197" t="n">
         <v>4.415000000000001</v>
@@ -10326,7 +10348,7 @@
         <v>2.900000000000003</v>
       </c>
       <c r="K198" t="n">
-        <v>-3.448275862069176</v>
+        <v>0</v>
       </c>
       <c r="L198" t="n">
         <v>4.419000000000001</v>
@@ -10377,7 +10399,7 @@
         <v>2.900000000000003</v>
       </c>
       <c r="K199" t="n">
-        <v>-3.448275862069176</v>
+        <v>-11.11111111111177</v>
       </c>
       <c r="L199" t="n">
         <v>4.419000000000001</v>
@@ -10428,7 +10450,7 @@
         <v>2.910000000000004</v>
       </c>
       <c r="K200" t="n">
-        <v>11.11111111111111</v>
+        <v>25.00000000000028</v>
       </c>
       <c r="L200" t="n">
         <v>4.419000000000001</v>
@@ -10479,7 +10501,7 @@
         <v>2.930000000000003</v>
       </c>
       <c r="K201" t="n">
-        <v>17.24137931034466</v>
+        <v>100</v>
       </c>
       <c r="L201" t="n">
         <v>4.423000000000001</v>
@@ -10530,7 +10552,7 @@
         <v>2.970000000000003</v>
       </c>
       <c r="K202" t="n">
-        <v>35.48387096774188</v>
+        <v>100</v>
       </c>
       <c r="L202" t="n">
         <v>4.434000000000001</v>
@@ -10581,7 +10603,7 @@
         <v>2.970000000000003</v>
       </c>
       <c r="K203" t="n">
-        <v>25.9259259259259</v>
+        <v>100</v>
       </c>
       <c r="L203" t="n">
         <v>4.443000000000001</v>
@@ -10632,7 +10654,7 @@
         <v>2.970000000000003</v>
       </c>
       <c r="K204" t="n">
-        <v>25.9259259259259</v>
+        <v>100</v>
       </c>
       <c r="L204" t="n">
         <v>4.452000000000001</v>
@@ -10683,7 +10705,7 @@
         <v>2.970000000000003</v>
       </c>
       <c r="K205" t="n">
-        <v>35.99999999999969</v>
+        <v>100</v>
       </c>
       <c r="L205" t="n">
         <v>4.460000000000001</v>
@@ -10734,7 +10756,7 @@
         <v>2.970000000000003</v>
       </c>
       <c r="K206" t="n">
-        <v>33.33333333333309</v>
+        <v>100</v>
       </c>
       <c r="L206" t="n">
         <v>4.468000000000001</v>

--- a/BackTest/2019-10-10 BackTest VET.xlsx
+++ b/BackTest/2019-10-10 BackTest VET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S206"/>
+  <dimension ref="A1:M185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>closegap_abs_cumsum</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CMO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>MA5</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -523,20 +489,12 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.009999999999999787</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -566,20 +524,12 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.04000000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -609,20 +559,12 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02999999999999936</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.05000000000000071</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,20 +594,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.07000000000000117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +629,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02999999999999936</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.09000000000000163</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +664,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.1200000000000019</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02999999999999936</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.1500000000000021</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.1600000000000019</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0699999999999994</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.2100000000000017</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>4.564</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +804,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.2200000000000015</v>
-      </c>
-      <c r="K12" t="n">
-        <v>23.80952380952353</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0699999999999994</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.2300000000000013</v>
-      </c>
-      <c r="K13" t="n">
-        <v>15.78947368421008</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4.576000000000001</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +874,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.2500000000000009</v>
-      </c>
-      <c r="K14" t="n">
-        <v>10.00000000000022</v>
-      </c>
-      <c r="L14" t="n">
-        <v>4.577</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.2500000000000009</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>4.579</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.2600000000000007</v>
-      </c>
-      <c r="K16" t="n">
-        <v>17.64705882352966</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +979,12 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.2600000000000007</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4.583</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1014,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.2600000000000007</v>
-      </c>
-      <c r="K18" t="n">
-        <v>27.27272727272786</v>
-      </c>
-      <c r="L18" t="n">
-        <v>4.583</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1049,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1200000000000001</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.3200000000000012</v>
-      </c>
-      <c r="K19" t="n">
-        <v>62.50000000000063</v>
-      </c>
-      <c r="L19" t="n">
-        <v>4.592</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1084,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1200000000000001</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.3200000000000012</v>
-      </c>
-      <c r="K20" t="n">
-        <v>45.45454545454633</v>
-      </c>
-      <c r="L20" t="n">
-        <v>4.601999999999999</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1119,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.3500000000000014</v>
-      </c>
-      <c r="K21" t="n">
-        <v>23.07692307692329</v>
-      </c>
-      <c r="L21" t="n">
-        <v>4.603999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>4.584000000000001</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1154,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.02999999999999936</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.4100000000000019</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-22.22222222222217</v>
-      </c>
-      <c r="L22" t="n">
-        <v>4.600999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>4.585500000000001</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1189,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.4200000000000026</v>
-      </c>
-      <c r="K23" t="n">
-        <v>-5.882352941176286</v>
-      </c>
-      <c r="L23" t="n">
-        <v>4.597999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>4.587000000000002</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1224,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.08000000000000007</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.4600000000000026</v>
-      </c>
-      <c r="K24" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L24" t="n">
-        <v>4.600999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>4.589000000000001</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1259,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.08000000000000007</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.4600000000000026</v>
-      </c>
-      <c r="K25" t="n">
-        <v>10.00000000000013</v>
-      </c>
-      <c r="L25" t="n">
-        <v>4.603999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>4.591500000000002</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1294,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.5000000000000027</v>
-      </c>
-      <c r="K26" t="n">
-        <v>-8.333333333333087</v>
-      </c>
-      <c r="L26" t="n">
-        <v>4.601999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>4.591000000000002</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1329,12 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.5000000000000027</v>
-      </c>
-      <c r="K27" t="n">
-        <v>-8.333333333333087</v>
-      </c>
-      <c r="L27" t="n">
-        <v>4.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>4.591500000000002</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1364,12 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.5000000000000027</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-44.44444444444412</v>
-      </c>
-      <c r="L28" t="n">
-        <v>4.598000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>4.590500000000001</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1399,12 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0699999999999994</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.530000000000002</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-23.80952380952405</v>
-      </c>
-      <c r="L29" t="n">
-        <v>4.593000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>4.592500000000001</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1434,12 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.5500000000000016</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L30" t="n">
-        <v>4.586</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>4.594000000000001</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1469,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.5600000000000014</v>
-      </c>
-      <c r="K31" t="n">
-        <v>6.666666666667139</v>
-      </c>
-      <c r="L31" t="n">
-        <v>4.581000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>4.592500000000001</v>
-      </c>
-      <c r="N31" t="n">
-        <v>4.583</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1504,12 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.02999999999999936</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.5700000000000021</v>
-      </c>
-      <c r="K32" t="n">
-        <v>-6.666666666667139</v>
-      </c>
-      <c r="L32" t="n">
-        <v>4.581000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>4.591000000000001</v>
-      </c>
-      <c r="N32" t="n">
-        <v>4.584000000000001</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1539,12 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.02999999999999936</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.5700000000000021</v>
-      </c>
-      <c r="K33" t="n">
-        <v>-45.45454545454633</v>
-      </c>
-      <c r="L33" t="n">
-        <v>4.580000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>4.589000000000001</v>
-      </c>
-      <c r="N33" t="n">
-        <v>4.584666666666667</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1574,12 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.5800000000000018</v>
-      </c>
-      <c r="K34" t="n">
-        <v>-50.00000000000075</v>
-      </c>
-      <c r="L34" t="n">
-        <v>4.574000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>4.587500000000001</v>
-      </c>
-      <c r="N34" t="n">
-        <v>4.584000000000001</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1609,12 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.02999999999999936</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.5900000000000016</v>
-      </c>
-      <c r="K35" t="n">
-        <v>-11.11111111111199</v>
-      </c>
-      <c r="L35" t="n">
-        <v>4.569000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>4.586500000000002</v>
-      </c>
-      <c r="N35" t="n">
-        <v>4.584000000000001</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1644,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.6000000000000014</v>
-      </c>
-      <c r="K36" t="n">
-        <v>-20.00000000000071</v>
-      </c>
-      <c r="L36" t="n">
-        <v>4.567000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>4.584500000000001</v>
-      </c>
-      <c r="N36" t="n">
-        <v>4.583000000000001</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1679,12 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.02999999999999936</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.6100000000000012</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-9.090909090909825</v>
-      </c>
-      <c r="L37" t="n">
-        <v>4.566000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>4.583000000000001</v>
-      </c>
-      <c r="N37" t="n">
-        <v>4.583000000000001</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1714,12 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.01000000000000068</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.6500000000000012</v>
-      </c>
-      <c r="K38" t="n">
-        <v>-66.66666666666717</v>
-      </c>
-      <c r="L38" t="n">
-        <v>4.561000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>4.579500000000001</v>
-      </c>
-      <c r="N38" t="n">
-        <v>4.580666666666668</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2235,26 +1751,10 @@
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0.6600000000000019</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-45.45454545454516</v>
-      </c>
-      <c r="L39" t="n">
-        <v>4.554</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>4.573500000000001</v>
-      </c>
-      <c r="N39" t="n">
-        <v>4.579666666666668</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2286,26 +1786,10 @@
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0.6600000000000019</v>
-      </c>
-      <c r="K40" t="n">
-        <v>-39.99999999999982</v>
-      </c>
-      <c r="L40" t="n">
-        <v>4.549000000000001</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>4.567500000000001</v>
-      </c>
-      <c r="N40" t="n">
-        <v>4.579000000000002</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +1819,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.7100000000000017</v>
-      </c>
-      <c r="K41" t="n">
-        <v>14.28571428571465</v>
-      </c>
-      <c r="L41" t="n">
-        <v>4.550000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>4.5655</v>
-      </c>
-      <c r="N41" t="n">
-        <v>4.578333333333335</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +1854,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.740000000000002</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-5.882352941176348</v>
-      </c>
-      <c r="L42" t="n">
-        <v>4.549</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>4.565</v>
-      </c>
-      <c r="N42" t="n">
-        <v>4.577000000000002</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +1889,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.7500000000000018</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-5.882352941176348</v>
-      </c>
-      <c r="L43" t="n">
-        <v>4.547</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>4.5635</v>
-      </c>
-      <c r="N43" t="n">
-        <v>4.575000000000002</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +1924,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.7500000000000018</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-12.49999999999972</v>
-      </c>
-      <c r="L44" t="n">
-        <v>4.546</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="N44" t="n">
-        <v>4.573666666666668</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +1959,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.01000000000000068</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.7700000000000022</v>
-      </c>
-      <c r="K45" t="n">
-        <v>-17.64705882352947</v>
-      </c>
-      <c r="L45" t="n">
-        <v>4.542</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>4.5555</v>
-      </c>
-      <c r="N45" t="n">
-        <v>4.571666666666668</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +1994,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.01000000000000068</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.7700000000000022</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-24.99999999999986</v>
-      </c>
-      <c r="L46" t="n">
-        <v>4.539</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>4.553</v>
-      </c>
-      <c r="N46" t="n">
-        <v>4.569333333333335</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2029,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.01000000000000068</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.7700000000000022</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>4.534999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>4.5505</v>
-      </c>
-      <c r="N47" t="n">
-        <v>4.567000000000002</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2694,26 +2066,10 @@
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0.7800000000000029</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>4.536</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>4.5485</v>
-      </c>
-      <c r="N48" t="n">
-        <v>4.565000000000001</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2099,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.01000000000000068</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.7900000000000036</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-7.692307692308114</v>
-      </c>
-      <c r="L49" t="n">
-        <v>4.534999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>4.5445</v>
-      </c>
-      <c r="N49" t="n">
-        <v>4.560666666666668</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2796,26 +2136,10 @@
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0.8000000000000043</v>
-      </c>
-      <c r="K50" t="n">
-        <v>-55.5555555555538</v>
-      </c>
-      <c r="L50" t="n">
-        <v>4.534999999999999</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>4.542</v>
-      </c>
-      <c r="N50" t="n">
-        <v>4.556666666666668</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2847,26 +2171,10 @@
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0.8000000000000043</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-33.33333333333136</v>
-      </c>
-      <c r="L51" t="n">
-        <v>4.529999999999999</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>4.540000000000001</v>
-      </c>
-      <c r="N51" t="n">
-        <v>4.553666666666668</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2204,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.01000000000000068</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.8100000000000049</v>
-      </c>
-      <c r="K52" t="n">
-        <v>-33.33333333333235</v>
-      </c>
-      <c r="L52" t="n">
-        <v>4.526999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>4.538</v>
-      </c>
-      <c r="N52" t="n">
-        <v>4.552333333333335</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2949,26 +2241,10 @@
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0.8200000000000056</v>
-      </c>
-      <c r="K53" t="n">
-        <v>-14.2857142857132</v>
-      </c>
-      <c r="L53" t="n">
-        <v>4.526</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>4.5365</v>
-      </c>
-      <c r="N53" t="n">
-        <v>4.551000000000002</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3000,26 +2276,10 @@
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0.8200000000000056</v>
-      </c>
-      <c r="K54" t="n">
-        <v>20</v>
-      </c>
-      <c r="L54" t="n">
-        <v>4.525</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>4.535500000000001</v>
-      </c>
-      <c r="N54" t="n">
-        <v>4.548333333333335</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2309,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.02000000000000046</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.8400000000000061</v>
-      </c>
-      <c r="K55" t="n">
-        <v>-14.2857142857132</v>
-      </c>
-      <c r="L55" t="n">
-        <v>4.523999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>4.533</v>
-      </c>
-      <c r="N55" t="n">
-        <v>4.545000000000001</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2344,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>-0.01000000000000068</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.8500000000000059</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4.523999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>4.5315</v>
-      </c>
-      <c r="N56" t="n">
-        <v>4.543333333333335</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2379,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.03000000000000025</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.8700000000000054</v>
-      </c>
-      <c r="K57" t="n">
-        <v>-33.33333333333267</v>
-      </c>
-      <c r="L57" t="n">
-        <v>4.522</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>4.5285</v>
-      </c>
-      <c r="N57" t="n">
-        <v>4.541000000000001</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2414,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.8800000000000052</v>
-      </c>
-      <c r="K58" t="n">
-        <v>-33.33333333333201</v>
-      </c>
-      <c r="L58" t="n">
-        <v>4.518</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>4.527</v>
-      </c>
-      <c r="N58" t="n">
-        <v>4.538333333333336</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2449,12 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.03000000000000025</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.890000000000005</v>
-      </c>
-      <c r="K59" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L59" t="n">
-        <v>4.516</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>4.5255</v>
-      </c>
-      <c r="N59" t="n">
-        <v>4.535000000000002</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2484,12 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.9100000000000046</v>
-      </c>
-      <c r="K60" t="n">
-        <v>-45.45454545454516</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4.511</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>4.523000000000001</v>
-      </c>
-      <c r="N60" t="n">
-        <v>4.531666666666668</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2519,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.9100000000000046</v>
-      </c>
-      <c r="K61" t="n">
-        <v>-39.99999999999929</v>
-      </c>
-      <c r="L61" t="n">
-        <v>4.506</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>4.518000000000001</v>
-      </c>
-      <c r="N61" t="n">
-        <v>4.528666666666668</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +2554,12 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.07000000000000028</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.930000000000005</v>
-      </c>
-      <c r="K62" t="n">
-        <v>-63.63636363636422</v>
-      </c>
-      <c r="L62" t="n">
-        <v>4.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>4.513500000000001</v>
-      </c>
-      <c r="N62" t="n">
-        <v>4.525333333333335</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +2589,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.07000000000000028</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.930000000000005</v>
-      </c>
-      <c r="K63" t="n">
-        <v>-63.63636363636422</v>
-      </c>
-      <c r="L63" t="n">
-        <v>4.493</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>4.5095</v>
-      </c>
-      <c r="N63" t="n">
-        <v>4.522000000000002</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +2624,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.9600000000000053</v>
-      </c>
-      <c r="K64" t="n">
-        <v>-16.66666666666642</v>
-      </c>
-      <c r="L64" t="n">
-        <v>4.489</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>4.507</v>
-      </c>
-      <c r="N64" t="n">
-        <v>4.520000000000001</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,28 +2659,12 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>-0.03000000000000025</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.9700000000000051</v>
-      </c>
-      <c r="K65" t="n">
-        <v>-16.66666666666642</v>
-      </c>
-      <c r="L65" t="n">
-        <v>4.488</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>4.505999999999999</v>
-      </c>
-      <c r="N65" t="n">
-        <v>4.518000000000002</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,28 +2694,12 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.03000000000000025</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.9700000000000051</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" t="n">
-        <v>4.486</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>4.505</v>
-      </c>
-      <c r="N66" t="n">
-        <v>4.516333333333335</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +2729,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.03000000000000025</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.9700000000000051</v>
-      </c>
-      <c r="K67" t="n">
-        <v>11.11111111111089</v>
-      </c>
-      <c r="L67" t="n">
-        <v>4.486</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>4.504</v>
-      </c>
-      <c r="N67" t="n">
-        <v>4.514333333333335</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,28 +2764,12 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.9900000000000047</v>
-      </c>
-      <c r="K68" t="n">
-        <v>-19.99999999999964</v>
-      </c>
-      <c r="L68" t="n">
-        <v>4.485</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>4.5015</v>
-      </c>
-      <c r="N68" t="n">
-        <v>4.513000000000001</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +2799,12 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>-0.02000000000000046</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1.020000000000004</v>
-      </c>
-      <c r="K69" t="n">
-        <v>27.27272727272683</v>
-      </c>
-      <c r="L69" t="n">
-        <v>4.486</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>4.501</v>
-      </c>
-      <c r="N69" t="n">
-        <v>4.512333333333333</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,28 +2834,12 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1.050000000000003</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>4.486</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>4.498500000000001</v>
-      </c>
-      <c r="N70" t="n">
-        <v>4.510666666666666</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3865,28 +2869,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>-0.07000000000000028</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1.070000000000004</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
-      <c r="L71" t="n">
-        <v>4.484</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>4.495</v>
-      </c>
-      <c r="N71" t="n">
-        <v>4.506666666666666</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,28 +2904,12 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1.090000000000004</v>
-      </c>
-      <c r="K72" t="n">
-        <v>12.50000000000035</v>
-      </c>
-      <c r="L72" t="n">
-        <v>4.486000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>4.493</v>
-      </c>
-      <c r="N72" t="n">
-        <v>4.504333333333332</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,28 +2939,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.0600000000000005</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1.100000000000005</v>
-      </c>
-      <c r="K73" t="n">
-        <v>-14.28571428571465</v>
-      </c>
-      <c r="L73" t="n">
-        <v>4.487</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="N73" t="n">
-        <v>4.501999999999999</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,28 +2974,12 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1.110000000000006</v>
-      </c>
-      <c r="K74" t="n">
-        <v>-14.28571428571392</v>
-      </c>
-      <c r="L74" t="n">
-        <v>4.486000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>4.487500000000001</v>
-      </c>
-      <c r="N74" t="n">
-        <v>4.499999999999999</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,28 +3009,12 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>-0.01000000000000068</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1.150000000000005</v>
-      </c>
-      <c r="K75" t="n">
-        <v>11.11111111111089</v>
-      </c>
-      <c r="L75" t="n">
-        <v>4.488000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>4.488</v>
-      </c>
-      <c r="N75" t="n">
-        <v>4.499999999999999</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,28 +3044,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0.02999999999999936</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1.190000000000005</v>
-      </c>
-      <c r="K76" t="n">
-        <v>27.27272727272713</v>
-      </c>
-      <c r="L76" t="n">
-        <v>4.494000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="N76" t="n">
-        <v>4.501333333333332</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,28 +3079,12 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1.200000000000006</v>
-      </c>
-      <c r="K77" t="n">
-        <v>42.85714285714262</v>
-      </c>
-      <c r="L77" t="n">
-        <v>4.501000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>4.4935</v>
-      </c>
-      <c r="N77" t="n">
-        <v>4.502999999999998</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,28 +3114,12 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1.210000000000005</v>
-      </c>
-      <c r="K78" t="n">
-        <v>36.8421052631578</v>
-      </c>
-      <c r="L78" t="n">
-        <v>4.511000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>4.498</v>
-      </c>
-      <c r="N78" t="n">
-        <v>4.504666666666665</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,28 +3149,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0.0699999999999994</v>
-      </c>
-      <c r="J79" t="n">
-        <v>1.230000000000005</v>
-      </c>
-      <c r="K79" t="n">
-        <v>66.66666666666568</v>
-      </c>
-      <c r="L79" t="n">
-        <v>4.520000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>4.503</v>
-      </c>
-      <c r="N79" t="n">
-        <v>4.507333333333332</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,28 +3184,12 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0.02999999999999936</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1.270000000000005</v>
-      </c>
-      <c r="K80" t="n">
-        <v>49.99999999999956</v>
-      </c>
-      <c r="L80" t="n">
-        <v>4.528000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>4.507</v>
-      </c>
-      <c r="N80" t="n">
-        <v>4.508333333333331</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,28 +3219,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1.290000000000004</v>
-      </c>
-      <c r="K81" t="n">
-        <v>29.99999999999978</v>
-      </c>
-      <c r="L81" t="n">
-        <v>4.536000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="N81" t="n">
-        <v>4.508666666666665</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,28 +3254,12 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1.320000000000005</v>
-      </c>
-      <c r="K82" t="n">
-        <v>45.45454545454574</v>
-      </c>
-      <c r="L82" t="n">
-        <v>4.545000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>4.515500000000001</v>
-      </c>
-      <c r="N82" t="n">
-        <v>4.510333333333331</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,28 +3289,12 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1.330000000000005</v>
-      </c>
-      <c r="K83" t="n">
-        <v>45.45454545454552</v>
-      </c>
-      <c r="L83" t="n">
-        <v>4.556000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>4.521500000000001</v>
-      </c>
-      <c r="N83" t="n">
-        <v>4.511999999999998</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,28 +3324,12 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0.0699999999999994</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1.350000000000004</v>
-      </c>
-      <c r="K84" t="n">
-        <v>40.00000000000018</v>
-      </c>
-      <c r="L84" t="n">
-        <v>4.568000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>4.527000000000001</v>
-      </c>
-      <c r="N84" t="n">
-        <v>4.51433333333333</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3359,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0.0699999999999994</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1.350000000000004</v>
-      </c>
-      <c r="K85" t="n">
-        <v>25.00000000000014</v>
-      </c>
-      <c r="L85" t="n">
-        <v>4.576000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>4.532000000000001</v>
-      </c>
-      <c r="N85" t="n">
-        <v>4.517333333333331</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,28 +3394,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0.0699999999999994</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1.350000000000004</v>
-      </c>
-      <c r="K86" t="n">
-        <v>19.99999999999976</v>
-      </c>
-      <c r="L86" t="n">
-        <v>4.580000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>4.537000000000001</v>
-      </c>
-      <c r="N86" t="n">
-        <v>4.519999999999997</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,28 +3429,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J87" t="n">
-        <v>1.380000000000003</v>
-      </c>
-      <c r="K87" t="n">
-        <v>-5.88235294117641</v>
-      </c>
-      <c r="L87" t="n">
-        <v>4.580000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>4.5405</v>
-      </c>
-      <c r="N87" t="n">
-        <v>4.52233333333333</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,28 +3464,12 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1.400000000000003</v>
-      </c>
-      <c r="K88" t="n">
-        <v>-5.88235294117641</v>
-      </c>
-      <c r="L88" t="n">
-        <v>4.581000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>4.546</v>
-      </c>
-      <c r="N88" t="n">
-        <v>4.525666666666663</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,28 +3499,12 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1.410000000000003</v>
-      </c>
-      <c r="K89" t="n">
-        <v>14.28571428571483</v>
-      </c>
-      <c r="L89" t="n">
-        <v>4.579000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>4.5495</v>
-      </c>
-      <c r="N89" t="n">
-        <v>4.528333333333331</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,28 +3534,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1.420000000000003</v>
-      </c>
-      <c r="K90" t="n">
-        <v>38.46153846153888</v>
-      </c>
-      <c r="L90" t="n">
-        <v>4.582000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>4.555</v>
-      </c>
-      <c r="N90" t="n">
-        <v>4.531999999999997</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,28 +3569,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1.440000000000002</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0</v>
-      </c>
-      <c r="L91" t="n">
-        <v>4.585000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>4.560499999999999</v>
-      </c>
-      <c r="N91" t="n">
-        <v>4.534999999999997</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,28 +3604,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1.440000000000002</v>
-      </c>
-      <c r="K92" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L92" t="n">
-        <v>4.585000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>4.565</v>
-      </c>
-      <c r="N92" t="n">
-        <v>4.538666666666663</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,28 +3639,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0.02999999999999936</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1.450000000000003</v>
-      </c>
-      <c r="K93" t="n">
-        <v>-40.00000000000053</v>
-      </c>
-      <c r="L93" t="n">
-        <v>4.583000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>4.5695</v>
-      </c>
-      <c r="N93" t="n">
-        <v>4.541999999999997</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,28 +3674,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0.02999999999999936</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1.450000000000003</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-40.00000000000053</v>
-      </c>
-      <c r="L94" t="n">
-        <v>4.579000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>4.5735</v>
-      </c>
-      <c r="N94" t="n">
-        <v>4.54433333333333</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,28 +3709,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1.460000000000004</v>
-      </c>
-      <c r="K95" t="n">
-        <v>-27.27272727272683</v>
-      </c>
-      <c r="L95" t="n">
-        <v>4.576000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>4.576</v>
-      </c>
-      <c r="N95" t="n">
-        <v>4.546666666666663</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5140,28 +3744,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1.460000000000004</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0</v>
-      </c>
-      <c r="L96" t="n">
-        <v>4.573000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>4.5765</v>
-      </c>
-      <c r="N96" t="n">
-        <v>4.548999999999996</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,28 +3779,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1.480000000000003</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0</v>
-      </c>
-      <c r="L97" t="n">
-        <v>4.575000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>4.577500000000001</v>
-      </c>
-      <c r="N97" t="n">
-        <v>4.551999999999996</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,28 +3814,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0.02999999999999936</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1.510000000000003</v>
-      </c>
-      <c r="K98" t="n">
-        <v>-20.00000000000036</v>
-      </c>
-      <c r="L98" t="n">
-        <v>4.572000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>4.576500000000001</v>
-      </c>
-      <c r="N98" t="n">
-        <v>4.554666666666663</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,28 +3849,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1.540000000000004</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0</v>
-      </c>
-      <c r="L99" t="n">
-        <v>4.573000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>4.576000000000001</v>
-      </c>
-      <c r="N99" t="n">
-        <v>4.557333333333331</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,28 +3884,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1.560000000000003</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0</v>
-      </c>
-      <c r="L100" t="n">
-        <v>4.571000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>4.576500000000001</v>
-      </c>
-      <c r="N100" t="n">
-        <v>4.560333333333331</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5395,28 +3919,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1.560000000000003</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0</v>
-      </c>
-      <c r="L101" t="n">
-        <v>4.571000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>4.578000000000001</v>
-      </c>
-      <c r="N101" t="n">
-        <v>4.563999999999997</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,28 +3954,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="J102" t="n">
-        <v>1.580000000000003</v>
-      </c>
-      <c r="K102" t="n">
-        <v>23.07692307692329</v>
-      </c>
-      <c r="L102" t="n">
-        <v>4.573000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>4.579000000000001</v>
-      </c>
-      <c r="N102" t="n">
-        <v>4.567666666666664</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,28 +3989,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0.02999999999999936</v>
-      </c>
-      <c r="J103" t="n">
-        <v>1.610000000000003</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0</v>
-      </c>
-      <c r="L103" t="n">
-        <v>4.573000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>4.578000000000001</v>
-      </c>
-      <c r="N103" t="n">
-        <v>4.570666666666664</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,28 +4024,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="J104" t="n">
-        <v>1.640000000000003</v>
-      </c>
-      <c r="K104" t="n">
-        <v>11.11111111111089</v>
-      </c>
-      <c r="L104" t="n">
-        <v>4.576000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>4.577500000000001</v>
-      </c>
-      <c r="N104" t="n">
-        <v>4.574333333333331</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5599,28 +4059,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="J105" t="n">
-        <v>1.640000000000003</v>
-      </c>
-      <c r="K105" t="n">
-        <v>11.11111111111089</v>
-      </c>
-      <c r="L105" t="n">
-        <v>4.578000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>4.577000000000002</v>
-      </c>
-      <c r="N105" t="n">
-        <v>4.576666666666664</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,28 +4094,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0.02999999999999936</v>
-      </c>
-      <c r="J106" t="n">
-        <v>1.670000000000003</v>
-      </c>
-      <c r="K106" t="n">
-        <v>-15.78947368421063</v>
-      </c>
-      <c r="L106" t="n">
-        <v>4.577000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>4.575000000000002</v>
-      </c>
-      <c r="N106" t="n">
-        <v>4.576666666666664</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5701,28 +4129,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J107" t="n">
-        <v>1.680000000000004</v>
-      </c>
-      <c r="K107" t="n">
-        <v>5.88235294117684</v>
-      </c>
-      <c r="L107" t="n">
-        <v>4.575000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>4.575000000000003</v>
-      </c>
-      <c r="N107" t="n">
-        <v>4.576666666666664</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,28 +4164,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J108" t="n">
-        <v>1.680000000000004</v>
-      </c>
-      <c r="K108" t="n">
-        <v>-14.28571428571392</v>
-      </c>
-      <c r="L108" t="n">
-        <v>4.576000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>4.574000000000003</v>
-      </c>
-      <c r="N108" t="n">
-        <v>4.57633333333333</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,28 +4199,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="J109" t="n">
-        <v>1.700000000000004</v>
-      </c>
-      <c r="K109" t="n">
-        <v>14.28571428571392</v>
-      </c>
-      <c r="L109" t="n">
-        <v>4.576000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>4.574500000000002</v>
-      </c>
-      <c r="N109" t="n">
-        <v>4.575999999999997</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,28 +4234,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J110" t="n">
-        <v>1.720000000000003</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0</v>
-      </c>
-      <c r="L110" t="n">
-        <v>4.576000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>4.573500000000003</v>
-      </c>
-      <c r="N110" t="n">
-        <v>4.57633333333333</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5905,28 +4269,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J111" t="n">
-        <v>1.720000000000003</v>
-      </c>
-      <c r="K111" t="n">
-        <v>-14.28571428571392</v>
-      </c>
-      <c r="L111" t="n">
-        <v>4.576000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>4.573500000000003</v>
-      </c>
-      <c r="N111" t="n">
-        <v>4.57733333333333</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5956,28 +4304,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="J112" t="n">
-        <v>1.740000000000003</v>
-      </c>
-      <c r="K112" t="n">
-        <v>23.07692307692329</v>
-      </c>
-      <c r="L112" t="n">
-        <v>4.576000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>4.574500000000003</v>
-      </c>
-      <c r="N112" t="n">
-        <v>4.577999999999998</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6007,28 +4339,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J113" t="n">
-        <v>1.760000000000002</v>
-      </c>
-      <c r="K113" t="n">
-        <v>-16.66666666666642</v>
-      </c>
-      <c r="L113" t="n">
-        <v>4.577000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>4.575000000000003</v>
-      </c>
-      <c r="N113" t="n">
-        <v>4.577666666666663</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6058,28 +4374,12 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J114" t="n">
-        <v>1.760000000000002</v>
-      </c>
-      <c r="K114" t="n">
-        <v>-16.66666666666642</v>
-      </c>
-      <c r="L114" t="n">
-        <v>4.575000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
-        <v>4.575500000000003</v>
-      </c>
-      <c r="N114" t="n">
-        <v>4.576666666666664</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6109,28 +4409,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0.02999999999999936</v>
-      </c>
-      <c r="J115" t="n">
-        <v>1.770000000000003</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0</v>
-      </c>
-      <c r="L115" t="n">
-        <v>4.572000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
-        <v>4.575000000000003</v>
-      </c>
-      <c r="N115" t="n">
-        <v>4.57533333333333</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6160,28 +4444,12 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0.02999999999999936</v>
-      </c>
-      <c r="J116" t="n">
-        <v>1.770000000000003</v>
-      </c>
-      <c r="K116" t="n">
-        <v>-11.11111111111199</v>
-      </c>
-      <c r="L116" t="n">
-        <v>4.572000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
-        <v>4.574500000000003</v>
-      </c>
-      <c r="N116" t="n">
-        <v>4.573999999999997</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6211,28 +4479,12 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J117" t="n">
-        <v>1.780000000000003</v>
-      </c>
-      <c r="K117" t="n">
-        <v>-20.00000000000071</v>
-      </c>
-      <c r="L117" t="n">
-        <v>4.570000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>4.572500000000003</v>
-      </c>
-      <c r="N117" t="n">
-        <v>4.573333333333331</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6262,28 +4514,12 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0.02999999999999936</v>
-      </c>
-      <c r="J118" t="n">
-        <v>1.790000000000003</v>
-      </c>
-      <c r="K118" t="n">
-        <v>-33.33333333333399</v>
-      </c>
-      <c r="L118" t="n">
-        <v>4.569000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
-        <v>4.572500000000003</v>
-      </c>
-      <c r="N118" t="n">
-        <v>4.572333333333331</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6313,28 +4549,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J119" t="n">
-        <v>1.810000000000003</v>
-      </c>
-      <c r="K119" t="n">
-        <v>11.11111111111089</v>
-      </c>
-      <c r="L119" t="n">
-        <v>4.568000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
-        <v>4.572000000000003</v>
-      </c>
-      <c r="N119" t="n">
-        <v>4.572333333333331</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6364,28 +4584,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0.02999999999999936</v>
-      </c>
-      <c r="J120" t="n">
-        <v>1.830000000000004</v>
-      </c>
-      <c r="K120" t="n">
-        <v>-9.090909090909678</v>
-      </c>
-      <c r="L120" t="n">
-        <v>4.567000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
-        <v>4.571500000000003</v>
-      </c>
-      <c r="N120" t="n">
-        <v>4.571333333333331</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6415,28 +4619,12 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="J121" t="n">
-        <v>1.860000000000004</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0</v>
-      </c>
-      <c r="L121" t="n">
-        <v>4.569000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
-        <v>4.572500000000003</v>
-      </c>
-      <c r="N121" t="n">
-        <v>4.571999999999998</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6466,28 +4654,12 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J122" t="n">
-        <v>1.870000000000004</v>
-      </c>
-      <c r="K122" t="n">
-        <v>9.090909090908797</v>
-      </c>
-      <c r="L122" t="n">
-        <v>4.568000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
-        <v>4.572000000000004</v>
-      </c>
-      <c r="N122" t="n">
-        <v>4.572333333333332</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6517,28 +4689,12 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J123" t="n">
-        <v>1.870000000000004</v>
-      </c>
-      <c r="K123" t="n">
-        <v>9.090909090908797</v>
-      </c>
-      <c r="L123" t="n">
-        <v>4.569000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
-        <v>4.573000000000003</v>
-      </c>
-      <c r="N123" t="n">
-        <v>4.572999999999999</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6568,28 +4724,12 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J124" t="n">
-        <v>1.870000000000004</v>
-      </c>
-      <c r="K124" t="n">
-        <v>20.00000000000036</v>
-      </c>
-      <c r="L124" t="n">
-        <v>4.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
-        <v>4.572500000000003</v>
-      </c>
-      <c r="N124" t="n">
-        <v>4.573666666666666</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6619,28 +4759,12 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J125" t="n">
-        <v>1.870000000000004</v>
-      </c>
-      <c r="K125" t="n">
-        <v>20.00000000000036</v>
-      </c>
-      <c r="L125" t="n">
-        <v>4.572</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
-        <v>4.572000000000003</v>
-      </c>
-      <c r="N125" t="n">
-        <v>4.574</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6670,28 +4794,12 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J126" t="n">
-        <v>1.870000000000004</v>
-      </c>
-      <c r="K126" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L126" t="n">
-        <v>4.574</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
-        <v>4.573000000000002</v>
-      </c>
-      <c r="N126" t="n">
-        <v>4.574333333333334</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6721,28 +4829,12 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="J127" t="n">
-        <v>1.880000000000003</v>
-      </c>
-      <c r="K127" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L127" t="n">
-        <v>4.578</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
-        <v>4.574000000000003</v>
-      </c>
-      <c r="N127" t="n">
-        <v>4.574333333333334</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6772,28 +4864,12 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J128" t="n">
-        <v>1.890000000000003</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0</v>
-      </c>
-      <c r="L128" t="n">
-        <v>4.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
-        <v>4.574500000000002</v>
-      </c>
-      <c r="N128" t="n">
-        <v>4.575000000000001</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6823,28 +4899,12 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J129" t="n">
-        <v>1.890000000000003</v>
-      </c>
-      <c r="K129" t="n">
-        <v>33.33333333333432</v>
-      </c>
-      <c r="L129" t="n">
-        <v>4.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
-        <v>4.574000000000002</v>
-      </c>
-      <c r="N129" t="n">
-        <v>4.574666666666668</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6874,28 +4934,12 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J130" t="n">
-        <v>1.890000000000003</v>
-      </c>
-      <c r="K130" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L130" t="n">
-        <v>4.581999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
-        <v>4.574500000000002</v>
-      </c>
-      <c r="N130" t="n">
-        <v>4.575000000000002</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6925,28 +4969,12 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J131" t="n">
-        <v>1.890000000000003</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0</v>
-      </c>
-      <c r="L131" t="n">
-        <v>4.580999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
-        <v>4.575000000000001</v>
-      </c>
-      <c r="N131" t="n">
-        <v>4.575333333333336</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6976,28 +5004,12 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J132" t="n">
-        <v>1.890000000000003</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0</v>
-      </c>
-      <c r="L132" t="n">
-        <v>4.580999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
-        <v>4.574500000000001</v>
-      </c>
-      <c r="N132" t="n">
-        <v>4.575000000000003</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7027,28 +5039,12 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J133" t="n">
-        <v>1.890000000000003</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0</v>
-      </c>
-      <c r="L133" t="n">
-        <v>4.580999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
-        <v>4.575000000000001</v>
-      </c>
-      <c r="N133" t="n">
-        <v>4.575666666666669</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7078,28 +5074,12 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J134" t="n">
-        <v>1.920000000000003</v>
-      </c>
-      <c r="K134" t="n">
-        <v>-60.00000000000071</v>
-      </c>
-      <c r="L134" t="n">
-        <v>4.577999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
-        <v>4.574000000000001</v>
-      </c>
-      <c r="N134" t="n">
-        <v>4.574333333333337</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7129,28 +5109,12 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0.05999999999999961</v>
-      </c>
-      <c r="J135" t="n">
-        <v>1.960000000000004</v>
-      </c>
-      <c r="K135" t="n">
-        <v>11.11111111111089</v>
-      </c>
-      <c r="L135" t="n">
-        <v>4.578999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
-        <v>4.575500000000001</v>
-      </c>
-      <c r="N135" t="n">
-        <v>4.574333333333337</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7180,28 +5144,12 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0.02999999999999936</v>
-      </c>
-      <c r="J136" t="n">
-        <v>1.990000000000004</v>
-      </c>
-      <c r="K136" t="n">
-        <v>-27.27272727272742</v>
-      </c>
-      <c r="L136" t="n">
-        <v>4.577</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
-        <v>4.575500000000001</v>
-      </c>
-      <c r="N136" t="n">
-        <v>4.574333333333337</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7231,28 +5179,12 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J137" t="n">
-        <v>2.000000000000004</v>
-      </c>
-      <c r="K137" t="n">
-        <v>-27.27272727272742</v>
-      </c>
-      <c r="L137" t="n">
-        <v>4.572999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
-        <v>4.575500000000001</v>
-      </c>
-      <c r="N137" t="n">
-        <v>4.573666666666671</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7282,28 +5214,12 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J138" t="n">
-        <v>2.000000000000004</v>
-      </c>
-      <c r="K138" t="n">
-        <v>-27.27272727272742</v>
-      </c>
-      <c r="L138" t="n">
-        <v>4.569999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
-        <v>4.575000000000001</v>
-      </c>
-      <c r="N138" t="n">
-        <v>4.573000000000005</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7333,28 +5249,12 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J139" t="n">
-        <v>2.000000000000004</v>
-      </c>
-      <c r="K139" t="n">
-        <v>-27.27272727272742</v>
-      </c>
-      <c r="L139" t="n">
-        <v>4.566999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
-        <v>4.573500000000001</v>
-      </c>
-      <c r="N139" t="n">
-        <v>4.571666666666672</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7386,26 +5286,10 @@
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>2.020000000000003</v>
-      </c>
-      <c r="K140" t="n">
-        <v>-38.46153846153836</v>
-      </c>
-      <c r="L140" t="n">
-        <v>4.561999999999999</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
-        <v>4.572000000000001</v>
-      </c>
-      <c r="N140" t="n">
-        <v>4.570333333333338</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7437,26 +5321,10 @@
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>2.020000000000003</v>
-      </c>
-      <c r="K141" t="n">
-        <v>-38.46153846153836</v>
-      </c>
-      <c r="L141" t="n">
-        <v>4.556999999999999</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
-        <v>4.569000000000001</v>
-      </c>
-      <c r="N141" t="n">
-        <v>4.569000000000005</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7488,26 +5356,10 @@
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>2.020000000000003</v>
-      </c>
-      <c r="K142" t="n">
-        <v>-38.46153846153836</v>
-      </c>
-      <c r="L142" t="n">
-        <v>4.552</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
-        <v>4.5665</v>
-      </c>
-      <c r="N142" t="n">
-        <v>4.567000000000005</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7537,28 +5389,12 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>-0.01000000000000068</v>
-      </c>
-      <c r="J143" t="n">
-        <v>2.030000000000004</v>
-      </c>
-      <c r="K143" t="n">
-        <v>-27.27272727272742</v>
-      </c>
-      <c r="L143" t="n">
-        <v>4.545999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
-        <v>4.5635</v>
-      </c>
-      <c r="N143" t="n">
-        <v>4.565333333333339</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,28 +5424,12 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>-0.01000000000000068</v>
-      </c>
-      <c r="J144" t="n">
-        <v>2.030000000000004</v>
-      </c>
-      <c r="K144" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L144" t="n">
-        <v>4.542999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
-        <v>4.5605</v>
-      </c>
-      <c r="N144" t="n">
-        <v>4.563666666666673</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7639,28 +5459,12 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J145" t="n">
-        <v>2.060000000000004</v>
-      </c>
-      <c r="K145" t="n">
-        <v>-14.28571428571392</v>
-      </c>
-      <c r="L145" t="n">
-        <v>4.538999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
-        <v>4.559</v>
-      </c>
-      <c r="N145" t="n">
-        <v>4.563333333333341</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7690,28 +5494,12 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>0.02999999999999936</v>
-      </c>
-      <c r="J146" t="n">
-        <v>2.070000000000004</v>
-      </c>
-      <c r="K146" t="n">
-        <v>14.28571428571392</v>
-      </c>
-      <c r="L146" t="n">
-        <v>4.538999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
-        <v>4.558000000000001</v>
-      </c>
-      <c r="N146" t="n">
-        <v>4.563333333333341</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7741,28 +5529,12 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J147" t="n">
-        <v>2.080000000000004</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0</v>
-      </c>
-      <c r="L147" t="n">
-        <v>4.538999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
-        <v>4.556</v>
-      </c>
-      <c r="N147" t="n">
-        <v>4.563333333333341</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7792,28 +5564,12 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J148" t="n">
-        <v>2.080000000000004</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0</v>
-      </c>
-      <c r="L148" t="n">
-        <v>4.538999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
-        <v>4.5545</v>
-      </c>
-      <c r="N148" t="n">
-        <v>4.563000000000007</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7843,28 +5599,12 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>-0.01000000000000068</v>
-      </c>
-      <c r="J149" t="n">
-        <v>2.110000000000004</v>
-      </c>
-      <c r="K149" t="n">
-        <v>-11.11111111111177</v>
-      </c>
-      <c r="L149" t="n">
-        <v>4.535999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
-        <v>4.5515</v>
-      </c>
-      <c r="N149" t="n">
-        <v>4.561000000000007</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7894,28 +5634,12 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="J150" t="n">
-        <v>2.130000000000004</v>
-      </c>
-      <c r="K150" t="n">
-        <v>9.090909090908797</v>
-      </c>
-      <c r="L150" t="n">
-        <v>4.536999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
-        <v>4.5495</v>
-      </c>
-      <c r="N150" t="n">
-        <v>4.56033333333334</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7945,28 +5669,12 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>0.02999999999999936</v>
-      </c>
-      <c r="J151" t="n">
-        <v>2.150000000000004</v>
-      </c>
-      <c r="K151" t="n">
-        <v>23.07692307692244</v>
-      </c>
-      <c r="L151" t="n">
-        <v>4.539999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
-        <v>4.548500000000001</v>
-      </c>
-      <c r="N151" t="n">
-        <v>4.55933333333334</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7996,28 +5704,12 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>-0.03000000000000025</v>
-      </c>
-      <c r="J152" t="n">
-        <v>2.210000000000004</v>
-      </c>
-      <c r="K152" t="n">
-        <v>-11.11111111111089</v>
-      </c>
-      <c r="L152" t="n">
-        <v>4.536999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
-        <v>4.544500000000001</v>
-      </c>
-      <c r="N152" t="n">
-        <v>4.556666666666673</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8047,28 +5739,12 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>-0.02000000000000046</v>
-      </c>
-      <c r="J153" t="n">
-        <v>2.220000000000003</v>
-      </c>
-      <c r="K153" t="n">
-        <v>-5.263157894736744</v>
-      </c>
-      <c r="L153" t="n">
-        <v>4.535999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
-        <v>4.541000000000001</v>
-      </c>
-      <c r="N153" t="n">
-        <v>4.554333333333338</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8100,26 +5776,10 @@
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>2.240000000000004</v>
-      </c>
-      <c r="K154" t="n">
-        <v>-11.11111111111089</v>
-      </c>
-      <c r="L154" t="n">
-        <v>4.536999999999999</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
-        <v>4.540000000000001</v>
-      </c>
-      <c r="N154" t="n">
-        <v>4.552666666666672</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8149,28 +5809,12 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="J155" t="n">
-        <v>2.250000000000004</v>
-      </c>
-      <c r="K155" t="n">
-        <v>-11.11111111111089</v>
-      </c>
-      <c r="L155" t="n">
-        <v>4.536</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
-        <v>4.537500000000001</v>
-      </c>
-      <c r="N155" t="n">
-        <v>4.551333333333337</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8200,28 +5844,12 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>-0.03000000000000025</v>
-      </c>
-      <c r="J156" t="n">
-        <v>2.290000000000004</v>
-      </c>
-      <c r="K156" t="n">
-        <v>-23.80952380952373</v>
-      </c>
-      <c r="L156" t="n">
-        <v>4.529999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
-        <v>4.534500000000001</v>
-      </c>
-      <c r="N156" t="n">
-        <v>4.548666666666671</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8251,28 +5879,12 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J157" t="n">
-        <v>2.300000000000003</v>
-      </c>
-      <c r="K157" t="n">
-        <v>-27.27272727272713</v>
-      </c>
-      <c r="L157" t="n">
-        <v>4.523999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
-        <v>4.531500000000001</v>
-      </c>
-      <c r="N157" t="n">
-        <v>4.545333333333337</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8302,28 +5914,12 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J158" t="n">
-        <v>2.300000000000003</v>
-      </c>
-      <c r="K158" t="n">
-        <v>-15.78947368421023</v>
-      </c>
-      <c r="L158" t="n">
-        <v>4.518</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
-        <v>4.528500000000001</v>
-      </c>
-      <c r="N158" t="n">
-        <v>4.542333333333337</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8353,28 +5949,12 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J159" t="n">
-        <v>2.310000000000003</v>
-      </c>
-      <c r="K159" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L159" t="n">
-        <v>4.514</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
-        <v>4.525000000000001</v>
-      </c>
-      <c r="N159" t="n">
-        <v>4.539000000000003</v>
-      </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8404,28 +5984,12 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J160" t="n">
-        <v>2.310000000000003</v>
-      </c>
-      <c r="K160" t="n">
-        <v>-49.99999999999972</v>
-      </c>
-      <c r="L160" t="n">
-        <v>4.508000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
-        <v>4.522500000000002</v>
-      </c>
-      <c r="N160" t="n">
-        <v>4.535666666666669</v>
-      </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8455,28 +6019,12 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J161" t="n">
-        <v>2.310000000000003</v>
-      </c>
-      <c r="K161" t="n">
-        <v>-19.99999999999964</v>
-      </c>
-      <c r="L161" t="n">
-        <v>4.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
-        <v>4.520000000000001</v>
-      </c>
-      <c r="N161" t="n">
-        <v>4.532333333333336</v>
-      </c>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8506,28 +6054,12 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J162" t="n">
-        <v>2.350000000000003</v>
-      </c>
-      <c r="K162" t="n">
-        <v>-53.84615384615342</v>
-      </c>
-      <c r="L162" t="n">
-        <v>4.494</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
-        <v>4.515500000000001</v>
-      </c>
-      <c r="N162" t="n">
-        <v>4.527666666666668</v>
-      </c>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8557,28 +6089,12 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>-0.1000000000000005</v>
-      </c>
-      <c r="J163" t="n">
-        <v>2.360000000000004</v>
-      </c>
-      <c r="K163" t="n">
-        <v>-83.3333333333337</v>
-      </c>
-      <c r="L163" t="n">
-        <v>4.486</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
-        <v>4.511000000000002</v>
-      </c>
-      <c r="N163" t="n">
-        <v>4.522666666666668</v>
-      </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8608,28 +6124,12 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>-0.1100000000000003</v>
-      </c>
-      <c r="J164" t="n">
-        <v>2.370000000000004</v>
-      </c>
-      <c r="K164" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L164" t="n">
-        <v>4.475</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
-        <v>4.506000000000002</v>
-      </c>
-      <c r="N164" t="n">
-        <v>4.518333333333334</v>
-      </c>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8659,28 +6159,12 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>-0.1299999999999999</v>
-      </c>
-      <c r="J165" t="n">
-        <v>2.390000000000003</v>
-      </c>
-      <c r="K165" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L165" t="n">
-        <v>4.461</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
-        <v>4.498500000000003</v>
-      </c>
-      <c r="N165" t="n">
-        <v>4.512</v>
-      </c>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8710,28 +6194,12 @@
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>-0.07000000000000028</v>
-      </c>
-      <c r="J166" t="n">
-        <v>2.450000000000003</v>
-      </c>
-      <c r="K166" t="n">
-        <v>-20.00000000000024</v>
-      </c>
-      <c r="L166" t="n">
-        <v>4.457</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
-        <v>4.493500000000003</v>
-      </c>
-      <c r="N166" t="n">
-        <v>4.508666666666667</v>
-      </c>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8758,31 +6226,19 @@
         <v>4.539833333333321</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
-        <v>-0.0600000000000005</v>
+        <v>0</v>
       </c>
       <c r="J167" t="n">
-        <v>2.460000000000003</v>
+        <v>4.47</v>
       </c>
       <c r="K167" t="n">
-        <v>-12.50000000000035</v>
-      </c>
-      <c r="L167" t="n">
-        <v>4.455</v>
-      </c>
+        <v>4.47</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
-        <v>4.489500000000002</v>
-      </c>
-      <c r="N167" t="n">
-        <v>4.506</v>
-      </c>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8809,31 +6265,23 @@
         <v>4.538333333333322</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
-        <v>-0.04999999999999982</v>
+        <v>0</v>
       </c>
       <c r="J168" t="n">
-        <v>2.470000000000003</v>
+        <v>4.48</v>
       </c>
       <c r="K168" t="n">
-        <v>0</v>
-      </c>
-      <c r="L168" t="n">
-        <v>4.454</v>
+        <v>4.47</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M168" t="n">
-        <v>4.486000000000002</v>
-      </c>
-      <c r="N168" t="n">
-        <v>4.503666666666666</v>
-      </c>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8860,31 +6308,23 @@
         <v>4.536999999999988</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
-        <v>-0.02000000000000046</v>
+        <v>0</v>
       </c>
       <c r="J169" t="n">
-        <v>2.500000000000003</v>
+        <v>4.49</v>
       </c>
       <c r="K169" t="n">
-        <v>15.78947368421023</v>
-      </c>
-      <c r="L169" t="n">
-        <v>4.456999999999999</v>
+        <v>4.47</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M169" t="n">
-        <v>4.485500000000004</v>
-      </c>
-      <c r="N169" t="n">
-        <v>4.502333333333332</v>
-      </c>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8914,28 +6354,12 @@
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>-0.02000000000000046</v>
-      </c>
-      <c r="J170" t="n">
-        <v>2.500000000000003</v>
-      </c>
-      <c r="K170" t="n">
-        <v>15.78947368421023</v>
-      </c>
-      <c r="L170" t="n">
-        <v>4.459999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
-        <v>4.484000000000004</v>
-      </c>
-      <c r="N170" t="n">
-        <v>4.501666666666665</v>
-      </c>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8965,28 +6389,12 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>-0.03000000000000025</v>
-      </c>
-      <c r="J171" t="n">
-        <v>2.510000000000002</v>
-      </c>
-      <c r="K171" t="n">
-        <v>37.49999999999993</v>
-      </c>
-      <c r="L171" t="n">
-        <v>4.461999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
-        <v>4.481000000000003</v>
-      </c>
-      <c r="N171" t="n">
-        <v>4.500666666666665</v>
-      </c>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9016,28 +6424,12 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>-0.02000000000000046</v>
-      </c>
-      <c r="J172" t="n">
-        <v>2.520000000000002</v>
-      </c>
-      <c r="K172" t="n">
-        <v>50.00000000000055</v>
-      </c>
-      <c r="L172" t="n">
-        <v>4.468999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
-        <v>4.481500000000003</v>
-      </c>
-      <c r="N172" t="n">
-        <v>4.499999999999998</v>
-      </c>
-      <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9067,28 +6459,12 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>-0.01000000000000068</v>
-      </c>
-      <c r="J173" t="n">
-        <v>2.530000000000002</v>
-      </c>
-      <c r="K173" t="n">
-        <v>62.50000000000042</v>
-      </c>
-      <c r="L173" t="n">
-        <v>4.478</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
-        <v>4.482000000000003</v>
-      </c>
-      <c r="N173" t="n">
-        <v>4.499999999999998</v>
-      </c>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9118,28 +6494,12 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J174" t="n">
-        <v>2.560000000000001</v>
-      </c>
-      <c r="K174" t="n">
-        <v>52.94117647058872</v>
-      </c>
-      <c r="L174" t="n">
-        <v>4.484999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
-        <v>4.480000000000002</v>
-      </c>
-      <c r="N174" t="n">
-        <v>4.498999999999998</v>
-      </c>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9169,28 +6529,12 @@
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J175" t="n">
-        <v>2.560000000000001</v>
-      </c>
-      <c r="K175" t="n">
-        <v>27.27272727272786</v>
-      </c>
-      <c r="L175" t="n">
-        <v>4.494</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
-        <v>4.477500000000002</v>
-      </c>
-      <c r="N175" t="n">
-        <v>4.496999999999998</v>
-      </c>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9220,28 +6564,12 @@
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J176" t="n">
-        <v>2.560000000000001</v>
-      </c>
-      <c r="K176" t="n">
-        <v>20.00000000000071</v>
-      </c>
-      <c r="L176" t="n">
-        <v>4.497</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
-        <v>4.477000000000002</v>
-      </c>
-      <c r="N176" t="n">
-        <v>4.494666666666665</v>
-      </c>
-      <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
-      <c r="Q176" t="inlineStr"/>
-      <c r="R176" t="inlineStr"/>
-      <c r="S176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9271,28 +6599,12 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J177" t="n">
-        <v>2.610000000000001</v>
-      </c>
-      <c r="K177" t="n">
-        <v>-28.57142857142902</v>
-      </c>
-      <c r="L177" t="n">
-        <v>4.494</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
-        <v>4.474500000000002</v>
-      </c>
-      <c r="N177" t="n">
-        <v>4.490999999999998</v>
-      </c>
-      <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr"/>
-      <c r="Q177" t="inlineStr"/>
-      <c r="R177" t="inlineStr"/>
-      <c r="S177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9322,28 +6634,12 @@
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J178" t="n">
-        <v>2.610000000000001</v>
-      </c>
-      <c r="K178" t="n">
-        <v>-63.63636363636394</v>
-      </c>
-      <c r="L178" t="n">
-        <v>4.489999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
-        <v>4.472000000000002</v>
-      </c>
-      <c r="N178" t="n">
-        <v>4.48733333333333</v>
-      </c>
-      <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr"/>
-      <c r="R178" t="inlineStr"/>
-      <c r="S178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9373,28 +6669,12 @@
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J179" t="n">
-        <v>2.610000000000001</v>
-      </c>
-      <c r="K179" t="n">
-        <v>-63.63636363636394</v>
-      </c>
-      <c r="L179" t="n">
-        <v>4.482999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
-        <v>4.470000000000002</v>
-      </c>
-      <c r="N179" t="n">
-        <v>4.484666666666664</v>
-      </c>
-      <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="inlineStr"/>
-      <c r="S179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9421,31 +6701,21 @@
         <v>4.520333333333323</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
-        <v>-0.1200000000000001</v>
+        <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>2.640000000000001</v>
-      </c>
-      <c r="K180" t="n">
-        <v>-69.23076923076965</v>
-      </c>
-      <c r="L180" t="n">
-        <v>4.473</v>
+        <v>4.44</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M180" t="n">
-        <v>4.466500000000002</v>
-      </c>
-      <c r="N180" t="n">
-        <v>4.480333333333331</v>
-      </c>
-      <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9472,31 +6742,21 @@
         <v>4.517333333333323</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
-        <v>-0.1200000000000001</v>
+        <v>0</v>
       </c>
       <c r="J181" t="n">
-        <v>2.640000000000001</v>
-      </c>
-      <c r="K181" t="n">
-        <v>-83.33333333333358</v>
-      </c>
-      <c r="L181" t="n">
-        <v>4.464</v>
+        <v>4.4</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M181" t="n">
-        <v>4.463000000000001</v>
-      </c>
-      <c r="N181" t="n">
-        <v>4.47533333333333</v>
-      </c>
-      <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr"/>
-      <c r="Q181" t="inlineStr"/>
-      <c r="R181" t="inlineStr"/>
-      <c r="S181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9523,31 +6783,21 @@
         <v>4.514166666666656</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
-        <v>-0.1400000000000006</v>
+        <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>2.660000000000002</v>
-      </c>
-      <c r="K182" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L182" t="n">
-        <v>4.452</v>
+        <v>4.41</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M182" t="n">
-        <v>4.460500000000001</v>
-      </c>
-      <c r="N182" t="n">
-        <v>4.471666666666663</v>
-      </c>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
-      <c r="R182" t="inlineStr"/>
-      <c r="S182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9574,31 +6824,21 @@
         <v>4.511666666666657</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
-        <v>-0.1000000000000005</v>
+        <v>0</v>
       </c>
       <c r="J183" t="n">
-        <v>2.700000000000002</v>
-      </c>
-      <c r="K183" t="n">
-        <v>-42.85714285714304</v>
-      </c>
-      <c r="L183" t="n">
-        <v>4.443000000000001</v>
+        <v>4.42</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M183" t="n">
-        <v>4.460500000000001</v>
-      </c>
-      <c r="N183" t="n">
-        <v>4.468999999999997</v>
-      </c>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9625,31 +6865,21 @@
         <v>4.509166666666657</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
-        <v>-0.1000000000000005</v>
+        <v>0</v>
       </c>
       <c r="J184" t="n">
-        <v>2.700000000000002</v>
-      </c>
-      <c r="K184" t="n">
-        <v>-42.85714285714304</v>
-      </c>
-      <c r="L184" t="n">
-        <v>4.437</v>
+        <v>4.43</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M184" t="n">
-        <v>4.461</v>
-      </c>
-      <c r="N184" t="n">
-        <v>4.465666666666664</v>
-      </c>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
-      <c r="S184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9676,1102 +6906,21 @@
         <v>4.506333333333325</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
-        <v>-0.1200000000000001</v>
+        <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>2.720000000000002</v>
-      </c>
-      <c r="K185" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L185" t="n">
-        <v>4.429</v>
+        <v>4.42</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M185" t="n">
-        <v>4.4615</v>
-      </c>
-      <c r="N185" t="n">
-        <v>4.46133333333333</v>
-      </c>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
-      <c r="S185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="C186" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="D186" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="E186" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="F186" t="n">
-        <v>33936.6515</v>
-      </c>
-      <c r="G186" t="n">
-        <v>4.503666666666659</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>-0.1100000000000003</v>
-      </c>
-      <c r="J186" t="n">
-        <v>2.730000000000001</v>
-      </c>
-      <c r="K186" t="n">
-        <v>-16.66666666666704</v>
-      </c>
-      <c r="L186" t="n">
-        <v>4.422</v>
-      </c>
-      <c r="M186" t="n">
-        <v>4.4595</v>
-      </c>
-      <c r="N186" t="n">
-        <v>4.458666666666663</v>
-      </c>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
-      <c r="S186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="C187" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="D187" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="E187" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="F187" t="n">
-        <v>100</v>
-      </c>
-      <c r="G187" t="n">
-        <v>4.500499999999992</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>-0.1299999999999999</v>
-      </c>
-      <c r="J187" t="n">
-        <v>2.750000000000001</v>
-      </c>
-      <c r="K187" t="n">
-        <v>-28.57142857142867</v>
-      </c>
-      <c r="L187" t="n">
-        <v>4.418</v>
-      </c>
-      <c r="M187" t="n">
-        <v>4.456000000000001</v>
-      </c>
-      <c r="N187" t="n">
-        <v>4.455666666666663</v>
-      </c>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
-      <c r="S187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="C188" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="D188" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="E188" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="F188" t="n">
-        <v>6597.004</v>
-      </c>
-      <c r="G188" t="n">
-        <v>4.497333333333326</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>-0.1400000000000006</v>
-      </c>
-      <c r="J188" t="n">
-        <v>2.760000000000002</v>
-      </c>
-      <c r="K188" t="n">
-        <v>-33.33333333333373</v>
-      </c>
-      <c r="L188" t="n">
-        <v>4.413</v>
-      </c>
-      <c r="M188" t="n">
-        <v>4.451500000000001</v>
-      </c>
-      <c r="N188" t="n">
-        <v>4.452333333333329</v>
-      </c>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="inlineStr"/>
-      <c r="S188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="C189" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="D189" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="E189" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="F189" t="n">
-        <v>9419.413</v>
-      </c>
-      <c r="G189" t="n">
-        <v>4.494833333333326</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>-0.1000000000000005</v>
-      </c>
-      <c r="J189" t="n">
-        <v>2.800000000000002</v>
-      </c>
-      <c r="K189" t="n">
-        <v>12.49999999999972</v>
-      </c>
-      <c r="L189" t="n">
-        <v>4.412000000000001</v>
-      </c>
-      <c r="M189" t="n">
-        <v>4.4475</v>
-      </c>
-      <c r="N189" t="n">
-        <v>4.450666666666663</v>
-      </c>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
-      <c r="R189" t="inlineStr"/>
-      <c r="S189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="C190" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="D190" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="E190" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="F190" t="n">
-        <v>9398.1981</v>
-      </c>
-      <c r="G190" t="n">
-        <v>4.492499999999993</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J190" t="n">
-        <v>2.810000000000002</v>
-      </c>
-      <c r="K190" t="n">
-        <v>17.64705882352947</v>
-      </c>
-      <c r="L190" t="n">
-        <v>4.415000000000001</v>
-      </c>
-      <c r="M190" t="n">
-        <v>4.444</v>
-      </c>
-      <c r="N190" t="n">
-        <v>4.44933333333333</v>
-      </c>
-      <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr"/>
-      <c r="Q190" t="inlineStr"/>
-      <c r="R190" t="inlineStr"/>
-      <c r="S190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="C191" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="D191" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="E191" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="F191" t="n">
-        <v>27000</v>
-      </c>
-      <c r="G191" t="n">
-        <v>4.489833333333326</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>-0.1100000000000003</v>
-      </c>
-      <c r="J191" t="n">
-        <v>2.830000000000003</v>
-      </c>
-      <c r="K191" t="n">
-        <v>17.64705882352947</v>
-      </c>
-      <c r="L191" t="n">
-        <v>4.416000000000001</v>
-      </c>
-      <c r="M191" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="N191" t="n">
-        <v>4.44733333333333</v>
-      </c>
-      <c r="O191" t="inlineStr"/>
-      <c r="P191" t="inlineStr"/>
-      <c r="Q191" t="inlineStr"/>
-      <c r="R191" t="inlineStr"/>
-      <c r="S191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="C192" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="D192" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="E192" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="F192" t="n">
-        <v>161305.1194</v>
-      </c>
-      <c r="G192" t="n">
-        <v>4.48666666666666</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>-0.1400000000000006</v>
-      </c>
-      <c r="J192" t="n">
-        <v>2.860000000000003</v>
-      </c>
-      <c r="K192" t="n">
-        <v>-24.99999999999986</v>
-      </c>
-      <c r="L192" t="n">
-        <v>4.416000000000001</v>
-      </c>
-      <c r="M192" t="n">
-        <v>4.433999999999999</v>
-      </c>
-      <c r="N192" t="n">
-        <v>4.445666666666663</v>
-      </c>
-      <c r="O192" t="inlineStr"/>
-      <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
-      <c r="S192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="C193" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="D193" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="E193" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="F193" t="n">
-        <v>4420</v>
-      </c>
-      <c r="G193" t="n">
-        <v>4.483833333333327</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J193" t="n">
-        <v>2.880000000000003</v>
-      </c>
-      <c r="K193" t="n">
-        <v>-11.11111111111078</v>
-      </c>
-      <c r="L193" t="n">
-        <v>4.414000000000001</v>
-      </c>
-      <c r="M193" t="n">
-        <v>4.4285</v>
-      </c>
-      <c r="N193" t="n">
-        <v>4.444999999999996</v>
-      </c>
-      <c r="O193" t="inlineStr"/>
-      <c r="P193" t="inlineStr"/>
-      <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
-      <c r="S193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="C194" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="D194" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="E194" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="F194" t="n">
-        <v>71296.3382</v>
-      </c>
-      <c r="G194" t="n">
-        <v>4.481499999999994</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J194" t="n">
-        <v>2.880000000000003</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0</v>
-      </c>
-      <c r="L194" t="n">
-        <v>4.412000000000001</v>
-      </c>
-      <c r="M194" t="n">
-        <v>4.4245</v>
-      </c>
-      <c r="N194" t="n">
-        <v>4.444666666666663</v>
-      </c>
-      <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr"/>
-      <c r="Q194" t="inlineStr"/>
-      <c r="R194" t="inlineStr"/>
-      <c r="S194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="C195" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="D195" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="E195" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="F195" t="n">
-        <v>20125.668</v>
-      </c>
-      <c r="G195" t="n">
-        <v>4.478666666666661</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>-0.1100000000000003</v>
-      </c>
-      <c r="J195" t="n">
-        <v>2.890000000000003</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0</v>
-      </c>
-      <c r="L195" t="n">
-        <v>4.413000000000001</v>
-      </c>
-      <c r="M195" t="n">
-        <v>4.421</v>
-      </c>
-      <c r="N195" t="n">
-        <v>4.445333333333329</v>
-      </c>
-      <c r="O195" t="inlineStr"/>
-      <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
-      <c r="R195" t="inlineStr"/>
-      <c r="S195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="C196" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="D196" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="E196" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="F196" t="n">
-        <v>6179.2138</v>
-      </c>
-      <c r="G196" t="n">
-        <v>4.476333333333328</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>-0.1100000000000003</v>
-      </c>
-      <c r="J196" t="n">
-        <v>2.890000000000003</v>
-      </c>
-      <c r="K196" t="n">
-        <v>14.28571428571374</v>
-      </c>
-      <c r="L196" t="n">
-        <v>4.413000000000001</v>
-      </c>
-      <c r="M196" t="n">
-        <v>4.4175</v>
-      </c>
-      <c r="N196" t="n">
-        <v>4.443999999999995</v>
-      </c>
-      <c r="O196" t="inlineStr"/>
-      <c r="P196" t="inlineStr"/>
-      <c r="Q196" t="inlineStr"/>
-      <c r="R196" t="inlineStr"/>
-      <c r="S196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="C197" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="D197" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="E197" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="F197" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G197" t="n">
-        <v>4.474166666666662</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>-0.1100000000000003</v>
-      </c>
-      <c r="J197" t="n">
-        <v>2.890000000000003</v>
-      </c>
-      <c r="K197" t="n">
-        <v>23.07692307692297</v>
-      </c>
-      <c r="L197" t="n">
-        <v>4.415000000000001</v>
-      </c>
-      <c r="M197" t="n">
-        <v>4.416500000000001</v>
-      </c>
-      <c r="N197" t="n">
-        <v>4.442333333333328</v>
-      </c>
-      <c r="O197" t="inlineStr"/>
-      <c r="P197" t="inlineStr"/>
-      <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
-      <c r="S197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="C198" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="D198" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="E198" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="F198" t="n">
-        <v>10536.286</v>
-      </c>
-      <c r="G198" t="n">
-        <v>4.472166666666662</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>-0.1000000000000005</v>
-      </c>
-      <c r="J198" t="n">
-        <v>2.900000000000003</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0</v>
-      </c>
-      <c r="L198" t="n">
-        <v>4.419000000000001</v>
-      </c>
-      <c r="M198" t="n">
-        <v>4.416000000000001</v>
-      </c>
-      <c r="N198" t="n">
-        <v>4.440666666666662</v>
-      </c>
-      <c r="O198" t="inlineStr"/>
-      <c r="P198" t="inlineStr"/>
-      <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
-      <c r="S198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="C199" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="D199" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="E199" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="F199" t="n">
-        <v>20618.8832</v>
-      </c>
-      <c r="G199" t="n">
-        <v>4.470166666666661</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>-0.1000000000000005</v>
-      </c>
-      <c r="J199" t="n">
-        <v>2.900000000000003</v>
-      </c>
-      <c r="K199" t="n">
-        <v>-11.11111111111177</v>
-      </c>
-      <c r="L199" t="n">
-        <v>4.419000000000001</v>
-      </c>
-      <c r="M199" t="n">
-        <v>4.415500000000002</v>
-      </c>
-      <c r="N199" t="n">
-        <v>4.437999999999996</v>
-      </c>
-      <c r="O199" t="inlineStr"/>
-      <c r="P199" t="inlineStr"/>
-      <c r="Q199" t="inlineStr"/>
-      <c r="R199" t="inlineStr"/>
-      <c r="S199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="C200" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="D200" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="E200" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="F200" t="n">
-        <v>31155.1686</v>
-      </c>
-      <c r="G200" t="n">
-        <v>4.468666666666662</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J200" t="n">
-        <v>2.910000000000004</v>
-      </c>
-      <c r="K200" t="n">
-        <v>25.00000000000028</v>
-      </c>
-      <c r="L200" t="n">
-        <v>4.419000000000001</v>
-      </c>
-      <c r="M200" t="n">
-        <v>4.417000000000002</v>
-      </c>
-      <c r="N200" t="n">
-        <v>4.435666666666663</v>
-      </c>
-      <c r="O200" t="inlineStr"/>
-      <c r="P200" t="inlineStr"/>
-      <c r="Q200" t="inlineStr"/>
-      <c r="R200" t="inlineStr"/>
-      <c r="S200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="C201" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="D201" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="E201" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="F201" t="n">
-        <v>100</v>
-      </c>
-      <c r="G201" t="n">
-        <v>4.467499999999996</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>-0.07000000000000028</v>
-      </c>
-      <c r="J201" t="n">
-        <v>2.930000000000003</v>
-      </c>
-      <c r="K201" t="n">
-        <v>100</v>
-      </c>
-      <c r="L201" t="n">
-        <v>4.423000000000001</v>
-      </c>
-      <c r="M201" t="n">
-        <v>4.419500000000001</v>
-      </c>
-      <c r="N201" t="n">
-        <v>4.434333333333329</v>
-      </c>
-      <c r="O201" t="inlineStr"/>
-      <c r="P201" t="inlineStr"/>
-      <c r="Q201" t="inlineStr"/>
-      <c r="R201" t="inlineStr"/>
-      <c r="S201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C202" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D202" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E202" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F202" t="n">
-        <v>1466</v>
-      </c>
-      <c r="G202" t="n">
-        <v>4.466999999999996</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>-0.03000000000000025</v>
-      </c>
-      <c r="J202" t="n">
-        <v>2.970000000000003</v>
-      </c>
-      <c r="K202" t="n">
-        <v>100</v>
-      </c>
-      <c r="L202" t="n">
-        <v>4.434000000000001</v>
-      </c>
-      <c r="M202" t="n">
-        <v>4.425000000000002</v>
-      </c>
-      <c r="N202" t="n">
-        <v>4.433999999999997</v>
-      </c>
-      <c r="O202" t="inlineStr"/>
-      <c r="P202" t="inlineStr"/>
-      <c r="Q202" t="inlineStr"/>
-      <c r="R202" t="inlineStr"/>
-      <c r="S202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C203" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D203" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E203" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F203" t="n">
-        <v>120546.2222</v>
-      </c>
-      <c r="G203" t="n">
-        <v>4.466666666666663</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>-0.03000000000000025</v>
-      </c>
-      <c r="J203" t="n">
-        <v>2.970000000000003</v>
-      </c>
-      <c r="K203" t="n">
-        <v>100</v>
-      </c>
-      <c r="L203" t="n">
-        <v>4.443000000000001</v>
-      </c>
-      <c r="M203" t="n">
-        <v>4.428500000000001</v>
-      </c>
-      <c r="N203" t="n">
-        <v>4.433333333333329</v>
-      </c>
-      <c r="O203" t="inlineStr"/>
-      <c r="P203" t="inlineStr"/>
-      <c r="Q203" t="inlineStr"/>
-      <c r="R203" t="inlineStr"/>
-      <c r="S203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C204" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D204" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E204" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F204" t="n">
-        <v>49570.4836</v>
-      </c>
-      <c r="G204" t="n">
-        <v>4.466333333333329</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>-0.03000000000000025</v>
-      </c>
-      <c r="J204" t="n">
-        <v>2.970000000000003</v>
-      </c>
-      <c r="K204" t="n">
-        <v>100</v>
-      </c>
-      <c r="L204" t="n">
-        <v>4.452000000000001</v>
-      </c>
-      <c r="M204" t="n">
-        <v>4.432</v>
-      </c>
-      <c r="N204" t="n">
-        <v>4.433666666666663</v>
-      </c>
-      <c r="O204" t="inlineStr"/>
-      <c r="P204" t="inlineStr"/>
-      <c r="Q204" t="inlineStr"/>
-      <c r="R204" t="inlineStr"/>
-      <c r="S204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C205" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D205" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E205" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F205" t="n">
-        <v>35824.1415</v>
-      </c>
-      <c r="G205" t="n">
-        <v>4.465499999999996</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>-0.03000000000000025</v>
-      </c>
-      <c r="J205" t="n">
-        <v>2.970000000000003</v>
-      </c>
-      <c r="K205" t="n">
-        <v>100</v>
-      </c>
-      <c r="L205" t="n">
-        <v>4.460000000000001</v>
-      </c>
-      <c r="M205" t="n">
-        <v>4.436500000000001</v>
-      </c>
-      <c r="N205" t="n">
-        <v>4.433999999999996</v>
-      </c>
-      <c r="O205" t="inlineStr"/>
-      <c r="P205" t="inlineStr"/>
-      <c r="Q205" t="inlineStr"/>
-      <c r="R205" t="inlineStr"/>
-      <c r="S205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C206" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D206" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E206" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F206" t="n">
-        <v>12484.1762</v>
-      </c>
-      <c r="G206" t="n">
-        <v>4.464499999999997</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>-0.03000000000000025</v>
-      </c>
-      <c r="J206" t="n">
-        <v>2.970000000000003</v>
-      </c>
-      <c r="K206" t="n">
-        <v>100</v>
-      </c>
-      <c r="L206" t="n">
-        <v>4.468000000000001</v>
-      </c>
-      <c r="M206" t="n">
-        <v>4.440500000000001</v>
-      </c>
-      <c r="N206" t="n">
-        <v>4.434333333333329</v>
-      </c>
-      <c r="O206" t="inlineStr"/>
-      <c r="P206" t="inlineStr"/>
-      <c r="Q206" t="inlineStr"/>
-      <c r="R206" t="inlineStr"/>
-      <c r="S206" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-10 BackTest VET.xlsx
+++ b/BackTest/2019-10-10 BackTest VET.xlsx
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -6232,10 +6232,10 @@
         <v>0</v>
       </c>
       <c r="J167" t="n">
-        <v>4.47</v>
+        <v>4.46</v>
       </c>
       <c r="K167" t="n">
-        <v>4.47</v>
+        <v>4.46</v>
       </c>
       <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
@@ -6271,10 +6271,10 @@
         <v>0</v>
       </c>
       <c r="J168" t="n">
-        <v>4.48</v>
+        <v>4.47</v>
       </c>
       <c r="K168" t="n">
-        <v>4.47</v>
+        <v>4.46</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -6314,10 +6314,10 @@
         <v>0</v>
       </c>
       <c r="J169" t="n">
-        <v>4.49</v>
+        <v>4.48</v>
       </c>
       <c r="K169" t="n">
-        <v>4.47</v>
+        <v>4.46</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -6351,13 +6351,17 @@
         <v>4.535999999999988</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="K170" t="n">
+        <v>4.51</v>
+      </c>
       <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
@@ -6386,14 +6390,22 @@
         <v>4.534833333333322</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="K171" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6427,8 +6439,14 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6701,20 +6719,14 @@
         <v>4.520333333333323</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>4.44</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6742,20 +6754,14 @@
         <v>4.517333333333323</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>4.4</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6783,20 +6789,14 @@
         <v>4.514166666666656</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>4.41</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6824,20 +6824,14 @@
         <v>4.511666666666657</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
-        <v>4.42</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6865,20 +6859,14 @@
         <v>4.509166666666657</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>4.43</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6906,20 +6894,14 @@
         <v>4.506333333333325</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="n">
-        <v>4.42</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-10 BackTest VET.xlsx
+++ b/BackTest/2019-10-10 BackTest VET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M185"/>
+  <dimension ref="A1:M186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.52</v>
+        <v>4.54</v>
       </c>
       <c r="C2" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="E2" t="n">
         <v>4.53</v>
       </c>
-      <c r="D2" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="E2" t="n">
-        <v>4.52</v>
-      </c>
       <c r="F2" t="n">
-        <v>250376.8897</v>
+        <v>197840.7167</v>
       </c>
       <c r="G2" t="n">
-        <v>4.479833333333327</v>
+        <v>4.477333333333328</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="C3" t="n">
         <v>4.53</v>
       </c>
-      <c r="C3" t="n">
-        <v>4.54</v>
-      </c>
       <c r="D3" t="n">
-        <v>4.54</v>
+        <v>4.53</v>
       </c>
       <c r="E3" t="n">
-        <v>4.53</v>
+        <v>4.52</v>
       </c>
       <c r="F3" t="n">
-        <v>122506.024</v>
+        <v>250376.8897</v>
       </c>
       <c r="G3" t="n">
-        <v>4.482499999999994</v>
+        <v>4.479833333333327</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -506,25 +506,25 @@
         <v>4.53</v>
       </c>
       <c r="C4" t="n">
-        <v>4.57</v>
+        <v>4.54</v>
       </c>
       <c r="D4" t="n">
-        <v>4.57</v>
+        <v>4.54</v>
       </c>
       <c r="E4" t="n">
         <v>4.53</v>
       </c>
       <c r="F4" t="n">
-        <v>976832.6552</v>
+        <v>122506.024</v>
       </c>
       <c r="G4" t="n">
-        <v>4.485499999999994</v>
+        <v>4.482499999999994</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.56</v>
+        <v>4.53</v>
       </c>
       <c r="C5" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="D5" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="E5" t="n">
-        <v>4.56</v>
+        <v>4.53</v>
       </c>
       <c r="F5" t="n">
-        <v>446428.5713</v>
+        <v>976832.6552</v>
       </c>
       <c r="G5" t="n">
-        <v>4.488333333333328</v>
+        <v>4.485499999999994</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,28 +573,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="C6" t="n">
-        <v>4.58</v>
+        <v>4.56</v>
       </c>
       <c r="D6" t="n">
-        <v>4.59</v>
+        <v>4.56</v>
       </c>
       <c r="E6" t="n">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="F6" t="n">
-        <v>2340777.0924</v>
+        <v>446428.5713</v>
       </c>
       <c r="G6" t="n">
-        <v>4.491499999999994</v>
+        <v>4.488333333333328</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -611,19 +611,19 @@
         <v>4.57</v>
       </c>
       <c r="C7" t="n">
-        <v>4.56</v>
+        <v>4.58</v>
       </c>
       <c r="D7" t="n">
-        <v>4.61</v>
+        <v>4.59</v>
       </c>
       <c r="E7" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="F7" t="n">
-        <v>269511.6377</v>
+        <v>2340777.0924</v>
       </c>
       <c r="G7" t="n">
-        <v>4.494499999999994</v>
+        <v>4.491499999999994</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.58</v>
+        <v>4.57</v>
       </c>
       <c r="C8" t="n">
-        <v>4.59</v>
+        <v>4.56</v>
       </c>
       <c r="D8" t="n">
-        <v>4.59</v>
+        <v>4.61</v>
       </c>
       <c r="E8" t="n">
-        <v>4.58</v>
+        <v>4.56</v>
       </c>
       <c r="F8" t="n">
-        <v>20000</v>
+        <v>269511.6377</v>
       </c>
       <c r="G8" t="n">
-        <v>4.497166666666661</v>
+        <v>4.494499999999994</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="C9" t="n">
         <v>4.59</v>
       </c>
-      <c r="C9" t="n">
-        <v>4.56</v>
-      </c>
       <c r="D9" t="n">
-        <v>4.62</v>
+        <v>4.59</v>
       </c>
       <c r="E9" t="n">
-        <v>4.56</v>
+        <v>4.58</v>
       </c>
       <c r="F9" t="n">
-        <v>526946.1644</v>
+        <v>20000</v>
       </c>
       <c r="G9" t="n">
-        <v>4.499333333333327</v>
+        <v>4.497166666666661</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -713,28 +713,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="C10" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="D10" t="n">
-        <v>4.61</v>
+        <v>4.62</v>
       </c>
       <c r="E10" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="F10" t="n">
-        <v>127245.9838</v>
+        <v>526946.1644</v>
       </c>
       <c r="G10" t="n">
-        <v>4.501166666666661</v>
+        <v>4.499333333333327</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -748,28 +748,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.64</v>
+        <v>4.57</v>
       </c>
       <c r="C11" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="D11" t="n">
-        <v>4.64</v>
+        <v>4.61</v>
       </c>
       <c r="E11" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="F11" t="n">
-        <v>10370.6896</v>
+        <v>127245.9838</v>
       </c>
       <c r="G11" t="n">
-        <v>4.503999999999994</v>
+        <v>4.501166666666661</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.59</v>
+        <v>4.64</v>
       </c>
       <c r="C12" t="n">
-        <v>4.59</v>
+        <v>4.6</v>
       </c>
       <c r="D12" t="n">
-        <v>4.59</v>
+        <v>4.64</v>
       </c>
       <c r="E12" t="n">
-        <v>4.59</v>
+        <v>4.6</v>
       </c>
       <c r="F12" t="n">
-        <v>10000</v>
+        <v>10370.6896</v>
       </c>
       <c r="G12" t="n">
-        <v>4.506999999999993</v>
+        <v>4.503999999999994</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.6</v>
+        <v>4.59</v>
       </c>
       <c r="C13" t="n">
-        <v>4.6</v>
+        <v>4.59</v>
       </c>
       <c r="D13" t="n">
-        <v>4.6</v>
+        <v>4.59</v>
       </c>
       <c r="E13" t="n">
-        <v>4.6</v>
+        <v>4.59</v>
       </c>
       <c r="F13" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="G13" t="n">
-        <v>4.51016666666666</v>
+        <v>4.506999999999993</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.58</v>
+        <v>4.6</v>
       </c>
       <c r="C14" t="n">
-        <v>4.58</v>
+        <v>4.6</v>
       </c>
       <c r="D14" t="n">
-        <v>4.58</v>
+        <v>4.6</v>
       </c>
       <c r="E14" t="n">
-        <v>4.58</v>
+        <v>4.6</v>
       </c>
       <c r="F14" t="n">
-        <v>127301.1144</v>
+        <v>20000</v>
       </c>
       <c r="G14" t="n">
-        <v>4.513333333333327</v>
+        <v>4.51016666666666</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>4.58</v>
       </c>
       <c r="F15" t="n">
-        <v>10000</v>
+        <v>127301.1144</v>
       </c>
       <c r="G15" t="n">
-        <v>4.51566666666666</v>
+        <v>4.513333333333327</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -926,19 +926,19 @@
         <v>4.58</v>
       </c>
       <c r="C16" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="D16" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="E16" t="n">
         <v>4.58</v>
       </c>
       <c r="F16" t="n">
-        <v>55859.902</v>
+        <v>10000</v>
       </c>
       <c r="G16" t="n">
-        <v>4.517999999999993</v>
+        <v>4.51566666666666</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>4.58</v>
       </c>
       <c r="F17" t="n">
-        <v>59615.4014</v>
+        <v>55859.902</v>
       </c>
       <c r="G17" t="n">
-        <v>4.520833333333326</v>
+        <v>4.517999999999993</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="C18" t="n">
         <v>4.59</v>
@@ -1002,13 +1002,13 @@
         <v>4.59</v>
       </c>
       <c r="E18" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="F18" t="n">
-        <v>4283.8296</v>
+        <v>59615.4014</v>
       </c>
       <c r="G18" t="n">
-        <v>4.523166666666659</v>
+        <v>4.520833333333326</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.61</v>
+        <v>4.59</v>
       </c>
       <c r="C19" t="n">
-        <v>4.65</v>
+        <v>4.59</v>
       </c>
       <c r="D19" t="n">
-        <v>4.65</v>
+        <v>4.59</v>
       </c>
       <c r="E19" t="n">
-        <v>4.61</v>
+        <v>4.59</v>
       </c>
       <c r="F19" t="n">
-        <v>212264.7311</v>
+        <v>4283.8296</v>
       </c>
       <c r="G19" t="n">
-        <v>4.526166666666658</v>
+        <v>4.523166666666659</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.65</v>
+        <v>4.61</v>
       </c>
       <c r="C20" t="n">
         <v>4.65</v>
@@ -1072,13 +1072,13 @@
         <v>4.65</v>
       </c>
       <c r="E20" t="n">
-        <v>4.65</v>
+        <v>4.61</v>
       </c>
       <c r="F20" t="n">
-        <v>62.7956</v>
+        <v>212264.7311</v>
       </c>
       <c r="G20" t="n">
-        <v>4.529499999999991</v>
+        <v>4.526166666666658</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.62</v>
+        <v>4.65</v>
       </c>
       <c r="C21" t="n">
-        <v>4.62</v>
+        <v>4.65</v>
       </c>
       <c r="D21" t="n">
-        <v>4.62</v>
+        <v>4.65</v>
       </c>
       <c r="E21" t="n">
-        <v>4.62</v>
+        <v>4.65</v>
       </c>
       <c r="F21" t="n">
-        <v>8353.633099999999</v>
+        <v>62.7956</v>
       </c>
       <c r="G21" t="n">
-        <v>4.532333333333325</v>
+        <v>4.529499999999991</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.56</v>
+        <v>4.62</v>
       </c>
       <c r="C22" t="n">
-        <v>4.56</v>
+        <v>4.62</v>
       </c>
       <c r="D22" t="n">
-        <v>4.56</v>
+        <v>4.62</v>
       </c>
       <c r="E22" t="n">
-        <v>4.56</v>
+        <v>4.62</v>
       </c>
       <c r="F22" t="n">
-        <v>4632.4792</v>
+        <v>8353.633099999999</v>
       </c>
       <c r="G22" t="n">
-        <v>4.534166666666659</v>
+        <v>4.532333333333325</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.58</v>
+        <v>4.56</v>
       </c>
       <c r="C23" t="n">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="D23" t="n">
-        <v>4.58</v>
+        <v>4.56</v>
       </c>
       <c r="E23" t="n">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="F23" t="n">
-        <v>7115.3987</v>
+        <v>4632.4792</v>
       </c>
       <c r="G23" t="n">
-        <v>4.535499999999991</v>
+        <v>4.534166666666659</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.61</v>
+        <v>4.58</v>
       </c>
       <c r="C24" t="n">
-        <v>4.61</v>
+        <v>4.57</v>
       </c>
       <c r="D24" t="n">
-        <v>4.61</v>
+        <v>4.58</v>
       </c>
       <c r="E24" t="n">
-        <v>4.61</v>
+        <v>4.57</v>
       </c>
       <c r="F24" t="n">
-        <v>730.9942</v>
+        <v>7115.3987</v>
       </c>
       <c r="G24" t="n">
-        <v>4.537833333333325</v>
+        <v>4.535499999999991</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,7 +1238,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.58</v>
+        <v>4.61</v>
       </c>
       <c r="C25" t="n">
         <v>4.61</v>
@@ -1247,13 +1247,13 @@
         <v>4.61</v>
       </c>
       <c r="E25" t="n">
-        <v>4.58</v>
+        <v>4.61</v>
       </c>
       <c r="F25" t="n">
-        <v>2081.8438</v>
+        <v>730.9942</v>
       </c>
       <c r="G25" t="n">
-        <v>4.539999999999991</v>
+        <v>4.537833333333325</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.57</v>
+        <v>4.58</v>
       </c>
       <c r="C26" t="n">
-        <v>4.57</v>
+        <v>4.61</v>
       </c>
       <c r="D26" t="n">
-        <v>4.57</v>
+        <v>4.61</v>
       </c>
       <c r="E26" t="n">
-        <v>4.57</v>
+        <v>4.58</v>
       </c>
       <c r="F26" t="n">
-        <v>6512.8032</v>
+        <v>2081.8438</v>
       </c>
       <c r="G26" t="n">
-        <v>4.541333333333324</v>
+        <v>4.539999999999991</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>4.57</v>
       </c>
       <c r="F27" t="n">
-        <v>291297.7272</v>
+        <v>6512.8032</v>
       </c>
       <c r="G27" t="n">
-        <v>4.542666666666658</v>
+        <v>4.541333333333324</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="C28" t="n">
         <v>4.57</v>
@@ -1352,13 +1352,13 @@
         <v>4.57</v>
       </c>
       <c r="E28" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="F28" t="n">
-        <v>330157.8308</v>
+        <v>291297.7272</v>
       </c>
       <c r="G28" t="n">
-        <v>4.543833333333324</v>
+        <v>4.542666666666658</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="C29" t="n">
-        <v>4.6</v>
+        <v>4.57</v>
       </c>
       <c r="D29" t="n">
-        <v>4.6</v>
+        <v>4.57</v>
       </c>
       <c r="E29" t="n">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="F29" t="n">
-        <v>74324.0144</v>
+        <v>330157.8308</v>
       </c>
       <c r="G29" t="n">
-        <v>4.545499999999991</v>
+        <v>4.543833333333324</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1416,19 +1416,19 @@
         <v>4.57</v>
       </c>
       <c r="C30" t="n">
-        <v>4.58</v>
+        <v>4.6</v>
       </c>
       <c r="D30" t="n">
-        <v>4.58</v>
+        <v>4.6</v>
       </c>
       <c r="E30" t="n">
         <v>4.57</v>
       </c>
       <c r="F30" t="n">
-        <v>70000</v>
+        <v>74324.0144</v>
       </c>
       <c r="G30" t="n">
-        <v>4.546833333333324</v>
+        <v>4.545499999999991</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="C31" t="n">
-        <v>4.57</v>
+        <v>4.58</v>
       </c>
       <c r="D31" t="n">
-        <v>4.57</v>
+        <v>4.58</v>
       </c>
       <c r="E31" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="F31" t="n">
-        <v>517707.694</v>
+        <v>70000</v>
       </c>
       <c r="G31" t="n">
-        <v>4.548333333333323</v>
+        <v>4.546833333333324</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.56</v>
+        <v>4.55</v>
       </c>
       <c r="C32" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="D32" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="E32" t="n">
-        <v>4.56</v>
+        <v>4.55</v>
       </c>
       <c r="F32" t="n">
-        <v>2048.3508</v>
+        <v>517707.694</v>
       </c>
       <c r="G32" t="n">
-        <v>4.549833333333323</v>
+        <v>4.548333333333323</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>4.56</v>
       </c>
       <c r="F33" t="n">
-        <v>34264.5418</v>
+        <v>2048.3508</v>
       </c>
       <c r="G33" t="n">
-        <v>4.551166666666656</v>
+        <v>4.549833333333323</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1556,19 +1556,19 @@
         <v>4.56</v>
       </c>
       <c r="C34" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="D34" t="n">
         <v>4.56</v>
       </c>
       <c r="E34" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="F34" t="n">
-        <v>28300.6054</v>
+        <v>34264.5418</v>
       </c>
       <c r="G34" t="n">
-        <v>4.552166666666656</v>
+        <v>4.551166666666656</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,10 +1588,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="C35" t="n">
         <v>4.55</v>
-      </c>
-      <c r="C35" t="n">
-        <v>4.56</v>
       </c>
       <c r="D35" t="n">
         <v>4.56</v>
@@ -1600,10 +1600,10 @@
         <v>4.55</v>
       </c>
       <c r="F35" t="n">
-        <v>4096.7016</v>
+        <v>28300.6054</v>
       </c>
       <c r="G35" t="n">
-        <v>4.553166666666656</v>
+        <v>4.552166666666656</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1626,19 +1626,19 @@
         <v>4.55</v>
       </c>
       <c r="C36" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="D36" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="E36" t="n">
         <v>4.55</v>
       </c>
       <c r="F36" t="n">
-        <v>42486.683</v>
+        <v>4096.7016</v>
       </c>
       <c r="G36" t="n">
-        <v>4.55399999999999</v>
+        <v>4.553166666666656</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>4.55</v>
       </c>
       <c r="C37" t="n">
-        <v>4.56</v>
+        <v>4.55</v>
       </c>
       <c r="D37" t="n">
-        <v>4.56</v>
+        <v>4.55</v>
       </c>
       <c r="E37" t="n">
         <v>4.55</v>
       </c>
       <c r="F37" t="n">
-        <v>21951.7604</v>
+        <v>42486.683</v>
       </c>
       <c r="G37" t="n">
-        <v>4.555333333333323</v>
+        <v>4.55399999999999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.52</v>
+        <v>4.55</v>
       </c>
       <c r="C38" t="n">
-        <v>4.52</v>
+        <v>4.56</v>
       </c>
       <c r="D38" t="n">
-        <v>4.52</v>
+        <v>4.56</v>
       </c>
       <c r="E38" t="n">
-        <v>4.52</v>
+        <v>4.55</v>
       </c>
       <c r="F38" t="n">
-        <v>471858.9471</v>
+        <v>21951.7604</v>
       </c>
       <c r="G38" t="n">
-        <v>4.555666666666656</v>
+        <v>4.555333333333323</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.53</v>
+        <v>4.52</v>
       </c>
       <c r="C39" t="n">
-        <v>4.53</v>
+        <v>4.52</v>
       </c>
       <c r="D39" t="n">
-        <v>4.53</v>
+        <v>4.52</v>
       </c>
       <c r="E39" t="n">
-        <v>4.53</v>
+        <v>4.52</v>
       </c>
       <c r="F39" t="n">
-        <v>109894.7865</v>
+        <v>471858.9471</v>
       </c>
       <c r="G39" t="n">
-        <v>4.556166666666655</v>
+        <v>4.555666666666656</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1775,10 @@
         <v>4.53</v>
       </c>
       <c r="F40" t="n">
-        <v>1239.913</v>
+        <v>109894.7865</v>
       </c>
       <c r="G40" t="n">
-        <v>4.556499999999988</v>
+        <v>4.556166666666655</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1801,19 +1801,19 @@
         <v>4.53</v>
       </c>
       <c r="C41" t="n">
-        <v>4.58</v>
+        <v>4.53</v>
       </c>
       <c r="D41" t="n">
-        <v>4.58</v>
+        <v>4.53</v>
       </c>
       <c r="E41" t="n">
         <v>4.53</v>
       </c>
       <c r="F41" t="n">
-        <v>2293575.2108</v>
+        <v>1239.913</v>
       </c>
       <c r="G41" t="n">
-        <v>4.557666666666655</v>
+        <v>4.556499999999988</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.58</v>
+        <v>4.53</v>
       </c>
       <c r="C42" t="n">
-        <v>4.55</v>
+        <v>4.58</v>
       </c>
       <c r="D42" t="n">
         <v>4.58</v>
       </c>
       <c r="E42" t="n">
-        <v>4.55</v>
+        <v>4.53</v>
       </c>
       <c r="F42" t="n">
-        <v>25634.9942</v>
+        <v>2293575.2108</v>
       </c>
       <c r="G42" t="n">
-        <v>4.558499999999989</v>
+        <v>4.557666666666655</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.54</v>
+        <v>4.58</v>
       </c>
       <c r="C43" t="n">
-        <v>4.54</v>
+        <v>4.55</v>
       </c>
       <c r="D43" t="n">
-        <v>4.54</v>
+        <v>4.58</v>
       </c>
       <c r="E43" t="n">
-        <v>4.54</v>
+        <v>4.55</v>
       </c>
       <c r="F43" t="n">
-        <v>44746.7901</v>
+        <v>25634.9942</v>
       </c>
       <c r="G43" t="n">
-        <v>4.559166666666655</v>
+        <v>4.558499999999989</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>4.54</v>
       </c>
       <c r="F44" t="n">
-        <v>93.6123</v>
+        <v>44746.7901</v>
       </c>
       <c r="G44" t="n">
-        <v>4.559833333333322</v>
+        <v>4.559166666666655</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,19 +1938,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.52</v>
+        <v>4.54</v>
       </c>
       <c r="C45" t="n">
-        <v>4.52</v>
+        <v>4.54</v>
       </c>
       <c r="D45" t="n">
-        <v>4.52</v>
+        <v>4.54</v>
       </c>
       <c r="E45" t="n">
-        <v>4.52</v>
+        <v>4.54</v>
       </c>
       <c r="F45" t="n">
-        <v>1506323.2017</v>
+        <v>93.6123</v>
       </c>
       <c r="G45" t="n">
         <v>4.559833333333322</v>
@@ -1985,7 +1985,7 @@
         <v>4.52</v>
       </c>
       <c r="F46" t="n">
-        <v>325256.504</v>
+        <v>1506323.2017</v>
       </c>
       <c r="G46" t="n">
         <v>4.559833333333322</v>
@@ -2020,10 +2020,10 @@
         <v>4.52</v>
       </c>
       <c r="F47" t="n">
-        <v>50000</v>
+        <v>325256.504</v>
       </c>
       <c r="G47" t="n">
-        <v>4.559999999999989</v>
+        <v>4.559833333333322</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.53</v>
+        <v>4.52</v>
       </c>
       <c r="C48" t="n">
-        <v>4.53</v>
+        <v>4.52</v>
       </c>
       <c r="D48" t="n">
-        <v>4.53</v>
+        <v>4.52</v>
       </c>
       <c r="E48" t="n">
-        <v>4.53</v>
+        <v>4.52</v>
       </c>
       <c r="F48" t="n">
-        <v>403.9735</v>
+        <v>50000</v>
       </c>
       <c r="G48" t="n">
-        <v>4.559833333333321</v>
+        <v>4.559999999999989</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.52</v>
+        <v>4.53</v>
       </c>
       <c r="C49" t="n">
-        <v>4.52</v>
+        <v>4.53</v>
       </c>
       <c r="D49" t="n">
-        <v>4.52</v>
+        <v>4.53</v>
       </c>
       <c r="E49" t="n">
-        <v>4.52</v>
+        <v>4.53</v>
       </c>
       <c r="F49" t="n">
-        <v>362000</v>
+        <v>403.9735</v>
       </c>
       <c r="G49" t="n">
-        <v>4.559333333333321</v>
+        <v>4.559833333333321</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.53</v>
+        <v>4.52</v>
       </c>
       <c r="C50" t="n">
-        <v>4.53</v>
+        <v>4.52</v>
       </c>
       <c r="D50" t="n">
-        <v>4.53</v>
+        <v>4.52</v>
       </c>
       <c r="E50" t="n">
-        <v>4.53</v>
+        <v>4.52</v>
       </c>
       <c r="F50" t="n">
-        <v>18093.3774</v>
+        <v>362000</v>
       </c>
       <c r="G50" t="n">
-        <v>4.558999999999987</v>
+        <v>4.559333333333321</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>4.53</v>
       </c>
       <c r="F51" t="n">
-        <v>88330.68429999999</v>
+        <v>18093.3774</v>
       </c>
       <c r="G51" t="n">
-        <v>4.559166666666654</v>
+        <v>4.558999999999987</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.52</v>
+        <v>4.53</v>
       </c>
       <c r="C52" t="n">
-        <v>4.52</v>
+        <v>4.53</v>
       </c>
       <c r="D52" t="n">
-        <v>4.52</v>
+        <v>4.53</v>
       </c>
       <c r="E52" t="n">
-        <v>4.52</v>
+        <v>4.53</v>
       </c>
       <c r="F52" t="n">
-        <v>20117.049</v>
+        <v>88330.68429999999</v>
       </c>
       <c r="G52" t="n">
-        <v>4.55933333333332</v>
+        <v>4.559166666666654</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.53</v>
+        <v>4.52</v>
       </c>
       <c r="C53" t="n">
-        <v>4.53</v>
+        <v>4.52</v>
       </c>
       <c r="D53" t="n">
-        <v>4.53</v>
+        <v>4.52</v>
       </c>
       <c r="E53" t="n">
-        <v>4.53</v>
+        <v>4.52</v>
       </c>
       <c r="F53" t="n">
-        <v>78000</v>
+        <v>20117.049</v>
       </c>
       <c r="G53" t="n">
-        <v>4.559666666666653</v>
+        <v>4.55933333333332</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2265,10 +2265,10 @@
         <v>4.53</v>
       </c>
       <c r="F54" t="n">
-        <v>91000</v>
+        <v>78000</v>
       </c>
       <c r="G54" t="n">
-        <v>4.560166666666652</v>
+        <v>4.559666666666653</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.52</v>
+        <v>4.53</v>
       </c>
       <c r="C55" t="n">
-        <v>4.51</v>
+        <v>4.53</v>
       </c>
       <c r="D55" t="n">
-        <v>4.52</v>
+        <v>4.53</v>
       </c>
       <c r="E55" t="n">
-        <v>4.51</v>
+        <v>4.53</v>
       </c>
       <c r="F55" t="n">
-        <v>733397.8651000001</v>
+        <v>91000</v>
       </c>
       <c r="G55" t="n">
-        <v>4.559833333333319</v>
+        <v>4.560166666666652</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2326,19 +2326,19 @@
         <v>4.52</v>
       </c>
       <c r="C56" t="n">
-        <v>4.52</v>
+        <v>4.51</v>
       </c>
       <c r="D56" t="n">
         <v>4.52</v>
       </c>
       <c r="E56" t="n">
-        <v>4.52</v>
+        <v>4.51</v>
       </c>
       <c r="F56" t="n">
-        <v>1978.0855</v>
+        <v>733397.8651000001</v>
       </c>
       <c r="G56" t="n">
-        <v>4.559499999999986</v>
+        <v>4.559833333333319</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.5</v>
+        <v>4.52</v>
       </c>
       <c r="C57" t="n">
-        <v>4.5</v>
+        <v>4.52</v>
       </c>
       <c r="D57" t="n">
-        <v>4.5</v>
+        <v>4.52</v>
       </c>
       <c r="E57" t="n">
-        <v>4.5</v>
+        <v>4.52</v>
       </c>
       <c r="F57" t="n">
-        <v>57472.8888</v>
+        <v>1978.0855</v>
       </c>
       <c r="G57" t="n">
-        <v>4.558833333333319</v>
+        <v>4.559499999999986</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.49</v>
+        <v>4.5</v>
       </c>
       <c r="C58" t="n">
-        <v>4.49</v>
+        <v>4.5</v>
       </c>
       <c r="D58" t="n">
-        <v>4.49</v>
+        <v>4.5</v>
       </c>
       <c r="E58" t="n">
-        <v>4.49</v>
+        <v>4.5</v>
       </c>
       <c r="F58" t="n">
-        <v>50000</v>
+        <v>57472.8888</v>
       </c>
       <c r="G58" t="n">
-        <v>4.557999999999985</v>
+        <v>4.558833333333319</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.5</v>
+        <v>4.49</v>
       </c>
       <c r="C59" t="n">
-        <v>4.5</v>
+        <v>4.49</v>
       </c>
       <c r="D59" t="n">
-        <v>4.5</v>
+        <v>4.49</v>
       </c>
       <c r="E59" t="n">
-        <v>4.5</v>
+        <v>4.49</v>
       </c>
       <c r="F59" t="n">
-        <v>18747.9644</v>
+        <v>50000</v>
       </c>
       <c r="G59" t="n">
-        <v>4.557666666666652</v>
+        <v>4.557999999999985</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2466,19 +2466,19 @@
         <v>4.5</v>
       </c>
       <c r="C60" t="n">
-        <v>4.48</v>
+        <v>4.5</v>
       </c>
       <c r="D60" t="n">
         <v>4.5</v>
       </c>
       <c r="E60" t="n">
-        <v>4.46</v>
+        <v>4.5</v>
       </c>
       <c r="F60" t="n">
-        <v>766908.8157</v>
+        <v>18747.9644</v>
       </c>
       <c r="G60" t="n">
-        <v>4.556833333333319</v>
+        <v>4.557666666666652</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.48</v>
+        <v>4.5</v>
       </c>
       <c r="C61" t="n">
         <v>4.48</v>
       </c>
       <c r="D61" t="n">
-        <v>4.48</v>
+        <v>4.5</v>
       </c>
       <c r="E61" t="n">
-        <v>4.48</v>
+        <v>4.46</v>
       </c>
       <c r="F61" t="n">
-        <v>19203.4318</v>
+        <v>766908.8157</v>
       </c>
       <c r="G61" t="n">
-        <v>4.55583333333332</v>
+        <v>4.556833333333319</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.46</v>
+        <v>4.48</v>
       </c>
       <c r="C62" t="n">
-        <v>4.46</v>
+        <v>4.48</v>
       </c>
       <c r="D62" t="n">
-        <v>4.46</v>
+        <v>4.48</v>
       </c>
       <c r="E62" t="n">
-        <v>4.46</v>
+        <v>4.48</v>
       </c>
       <c r="F62" t="n">
-        <v>2232.6556</v>
+        <v>19203.4318</v>
       </c>
       <c r="G62" t="n">
-        <v>4.554666666666653</v>
+        <v>4.55583333333332</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2580,10 +2580,10 @@
         <v>4.46</v>
       </c>
       <c r="F63" t="n">
-        <v>140057.4183</v>
+        <v>2232.6556</v>
       </c>
       <c r="G63" t="n">
-        <v>4.553333333333319</v>
+        <v>4.554666666666653</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2606,19 +2606,19 @@
         <v>4.46</v>
       </c>
       <c r="C64" t="n">
-        <v>4.49</v>
+        <v>4.46</v>
       </c>
       <c r="D64" t="n">
-        <v>4.49</v>
+        <v>4.46</v>
       </c>
       <c r="E64" t="n">
         <v>4.46</v>
       </c>
       <c r="F64" t="n">
-        <v>78000</v>
+        <v>140057.4183</v>
       </c>
       <c r="G64" t="n">
-        <v>4.551999999999986</v>
+        <v>4.553333333333319</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.45</v>
+        <v>4.46</v>
       </c>
       <c r="C65" t="n">
-        <v>4.5</v>
+        <v>4.49</v>
       </c>
       <c r="D65" t="n">
-        <v>4.5</v>
+        <v>4.49</v>
       </c>
       <c r="E65" t="n">
-        <v>4.45</v>
+        <v>4.46</v>
       </c>
       <c r="F65" t="n">
-        <v>35682.1031</v>
+        <v>78000</v>
       </c>
       <c r="G65" t="n">
-        <v>4.550999999999986</v>
+        <v>4.551999999999986</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,7 +2673,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="C66" t="n">
         <v>4.5</v>
@@ -2682,13 +2682,13 @@
         <v>4.5</v>
       </c>
       <c r="E66" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="F66" t="n">
-        <v>110000.9999</v>
+        <v>35682.1031</v>
       </c>
       <c r="G66" t="n">
-        <v>4.549666666666653</v>
+        <v>4.550999999999986</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2720,10 +2720,10 @@
         <v>4.5</v>
       </c>
       <c r="F67" t="n">
-        <v>2022.2222</v>
+        <v>110000.9999</v>
       </c>
       <c r="G67" t="n">
-        <v>4.548666666666652</v>
+        <v>4.549666666666653</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.47</v>
+        <v>4.5</v>
       </c>
       <c r="C68" t="n">
-        <v>4.48</v>
+        <v>4.5</v>
       </c>
       <c r="D68" t="n">
-        <v>4.48</v>
+        <v>4.5</v>
       </c>
       <c r="E68" t="n">
-        <v>4.44</v>
+        <v>4.5</v>
       </c>
       <c r="F68" t="n">
-        <v>3700247.6565</v>
+        <v>2022.2222</v>
       </c>
       <c r="G68" t="n">
-        <v>4.54683333333332</v>
+        <v>4.548666666666652</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="C69" t="n">
         <v>4.48</v>
       </c>
-      <c r="C69" t="n">
-        <v>4.51</v>
-      </c>
       <c r="D69" t="n">
-        <v>4.51</v>
+        <v>4.48</v>
       </c>
       <c r="E69" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="F69" t="n">
-        <v>1899643.844122395</v>
+        <v>3700247.6565</v>
       </c>
       <c r="G69" t="n">
-        <v>4.545999999999987</v>
+        <v>4.54683333333332</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2816,19 +2816,19 @@
         <v>4.48</v>
       </c>
       <c r="C70" t="n">
-        <v>4.48</v>
+        <v>4.51</v>
       </c>
       <c r="D70" t="n">
-        <v>4.48</v>
+        <v>4.51</v>
       </c>
       <c r="E70" t="n">
         <v>4.48</v>
       </c>
       <c r="F70" t="n">
-        <v>2081.1709</v>
+        <v>1899643.844122395</v>
       </c>
       <c r="G70" t="n">
-        <v>4.54483333333332</v>
+        <v>4.545999999999987</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.46</v>
+        <v>4.48</v>
       </c>
       <c r="C71" t="n">
-        <v>4.46</v>
+        <v>4.48</v>
       </c>
       <c r="D71" t="n">
-        <v>4.46</v>
+        <v>4.48</v>
       </c>
       <c r="E71" t="n">
-        <v>4.46</v>
+        <v>4.48</v>
       </c>
       <c r="F71" t="n">
-        <v>3809.9407</v>
+        <v>2081.1709</v>
       </c>
       <c r="G71" t="n">
-        <v>4.542499999999986</v>
+        <v>4.54483333333332</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.48</v>
+        <v>4.46</v>
       </c>
       <c r="C72" t="n">
-        <v>4.48</v>
+        <v>4.46</v>
       </c>
       <c r="D72" t="n">
-        <v>4.48</v>
+        <v>4.46</v>
       </c>
       <c r="E72" t="n">
-        <v>4.48</v>
+        <v>4.46</v>
       </c>
       <c r="F72" t="n">
-        <v>113000</v>
+        <v>3809.9407</v>
       </c>
       <c r="G72" t="n">
-        <v>4.540666666666653</v>
+        <v>4.542499999999986</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.47</v>
+        <v>4.48</v>
       </c>
       <c r="C73" t="n">
-        <v>4.47</v>
+        <v>4.48</v>
       </c>
       <c r="D73" t="n">
-        <v>4.47</v>
+        <v>4.48</v>
       </c>
       <c r="E73" t="n">
-        <v>4.47</v>
+        <v>4.48</v>
       </c>
       <c r="F73" t="n">
-        <v>34199.4636</v>
+        <v>113000</v>
       </c>
       <c r="G73" t="n">
-        <v>4.538499999999987</v>
+        <v>4.540666666666653</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.48</v>
+        <v>4.47</v>
       </c>
       <c r="C74" t="n">
-        <v>4.48</v>
+        <v>4.47</v>
       </c>
       <c r="D74" t="n">
-        <v>4.48</v>
+        <v>4.47</v>
       </c>
       <c r="E74" t="n">
-        <v>4.48</v>
+        <v>4.47</v>
       </c>
       <c r="F74" t="n">
-        <v>208780.8035</v>
+        <v>34199.4636</v>
       </c>
       <c r="G74" t="n">
-        <v>4.536833333333321</v>
+        <v>4.538499999999987</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.52</v>
+        <v>4.48</v>
       </c>
       <c r="C75" t="n">
-        <v>4.52</v>
+        <v>4.48</v>
       </c>
       <c r="D75" t="n">
-        <v>4.52</v>
+        <v>4.48</v>
       </c>
       <c r="E75" t="n">
-        <v>4.52</v>
+        <v>4.48</v>
       </c>
       <c r="F75" t="n">
-        <v>53957.3008</v>
+        <v>208780.8035</v>
       </c>
       <c r="G75" t="n">
-        <v>4.53583333333332</v>
+        <v>4.536833333333321</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.54</v>
+        <v>4.52</v>
       </c>
       <c r="C76" t="n">
-        <v>4.56</v>
+        <v>4.52</v>
       </c>
       <c r="D76" t="n">
-        <v>4.56</v>
+        <v>4.52</v>
       </c>
       <c r="E76" t="n">
-        <v>4.54</v>
+        <v>4.52</v>
       </c>
       <c r="F76" t="n">
-        <v>78000</v>
+        <v>53957.3008</v>
       </c>
       <c r="G76" t="n">
-        <v>4.535333333333321</v>
+        <v>4.53583333333332</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.56</v>
+        <v>4.54</v>
       </c>
       <c r="C77" t="n">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="D77" t="n">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="E77" t="n">
-        <v>4.56</v>
+        <v>4.54</v>
       </c>
       <c r="F77" t="n">
-        <v>126000</v>
+        <v>78000</v>
       </c>
       <c r="G77" t="n">
-        <v>4.534999999999988</v>
+        <v>4.535333333333321</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.58</v>
+        <v>4.56</v>
       </c>
       <c r="C78" t="n">
-        <v>4.58</v>
+        <v>4.57</v>
       </c>
       <c r="D78" t="n">
-        <v>4.58</v>
+        <v>4.57</v>
       </c>
       <c r="E78" t="n">
-        <v>4.58</v>
+        <v>4.56</v>
       </c>
       <c r="F78" t="n">
-        <v>23000</v>
+        <v>126000</v>
       </c>
       <c r="G78" t="n">
-        <v>4.534833333333322</v>
+        <v>4.534999999999988</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3131,19 +3131,19 @@
         <v>4.58</v>
       </c>
       <c r="C79" t="n">
-        <v>4.6</v>
+        <v>4.58</v>
       </c>
       <c r="D79" t="n">
-        <v>4.6</v>
+        <v>4.58</v>
       </c>
       <c r="E79" t="n">
         <v>4.58</v>
       </c>
       <c r="F79" t="n">
-        <v>478273.9761552174</v>
+        <v>23000</v>
       </c>
       <c r="G79" t="n">
-        <v>4.533999999999989</v>
+        <v>4.534833333333322</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.57</v>
+        <v>4.58</v>
       </c>
       <c r="C80" t="n">
-        <v>4.56</v>
+        <v>4.6</v>
       </c>
       <c r="D80" t="n">
-        <v>4.57</v>
+        <v>4.6</v>
       </c>
       <c r="E80" t="n">
-        <v>4.56</v>
+        <v>4.58</v>
       </c>
       <c r="F80" t="n">
-        <v>13379.2722</v>
+        <v>478273.9761552174</v>
       </c>
       <c r="G80" t="n">
-        <v>4.532499999999989</v>
+        <v>4.533999999999989</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3201,19 +3201,19 @@
         <v>4.57</v>
       </c>
       <c r="C81" t="n">
-        <v>4.54</v>
+        <v>4.56</v>
       </c>
       <c r="D81" t="n">
         <v>4.57</v>
       </c>
       <c r="E81" t="n">
-        <v>4.54</v>
+        <v>4.56</v>
       </c>
       <c r="F81" t="n">
-        <v>234000</v>
+        <v>13379.2722</v>
       </c>
       <c r="G81" t="n">
-        <v>4.531166666666656</v>
+        <v>4.532499999999989</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3236,19 +3236,19 @@
         <v>4.57</v>
       </c>
       <c r="C82" t="n">
-        <v>4.57</v>
+        <v>4.54</v>
       </c>
       <c r="D82" t="n">
         <v>4.57</v>
       </c>
       <c r="E82" t="n">
-        <v>4.57</v>
+        <v>4.54</v>
       </c>
       <c r="F82" t="n">
-        <v>1000</v>
+        <v>234000</v>
       </c>
       <c r="G82" t="n">
-        <v>4.531333333333323</v>
+        <v>4.531166666666656</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="C83" t="n">
-        <v>4.58</v>
+        <v>4.57</v>
       </c>
       <c r="D83" t="n">
-        <v>4.58</v>
+        <v>4.57</v>
       </c>
       <c r="E83" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="F83" t="n">
-        <v>225000</v>
+        <v>1000</v>
       </c>
       <c r="G83" t="n">
-        <v>4.53149999999999</v>
+        <v>4.531333333333323</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="C84" t="n">
-        <v>4.6</v>
+        <v>4.58</v>
       </c>
       <c r="D84" t="n">
-        <v>4.6</v>
+        <v>4.58</v>
       </c>
       <c r="E84" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="F84" t="n">
-        <v>2205.5978</v>
+        <v>225000</v>
       </c>
       <c r="G84" t="n">
-        <v>4.531333333333323</v>
+        <v>4.53149999999999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3350,10 +3350,10 @@
         <v>4.6</v>
       </c>
       <c r="F85" t="n">
-        <v>11265.6521</v>
+        <v>2205.5978</v>
       </c>
       <c r="G85" t="n">
-        <v>4.531166666666656</v>
+        <v>4.531333333333323</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3385,10 +3385,10 @@
         <v>4.6</v>
       </c>
       <c r="F86" t="n">
-        <v>86769.23910000001</v>
+        <v>11265.6521</v>
       </c>
       <c r="G86" t="n">
-        <v>4.531666666666657</v>
+        <v>4.531166666666656</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,19 +3408,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.57</v>
+        <v>4.6</v>
       </c>
       <c r="C87" t="n">
-        <v>4.57</v>
+        <v>4.6</v>
       </c>
       <c r="D87" t="n">
-        <v>4.57</v>
+        <v>4.6</v>
       </c>
       <c r="E87" t="n">
-        <v>4.57</v>
+        <v>4.6</v>
       </c>
       <c r="F87" t="n">
-        <v>10000</v>
+        <v>86769.23910000001</v>
       </c>
       <c r="G87" t="n">
         <v>4.531666666666657</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.58</v>
+        <v>4.57</v>
       </c>
       <c r="C88" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="D88" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="E88" t="n">
-        <v>4.58</v>
+        <v>4.57</v>
       </c>
       <c r="F88" t="n">
-        <v>58342.8103</v>
+        <v>10000</v>
       </c>
       <c r="G88" t="n">
-        <v>4.53199999999999</v>
+        <v>4.531666666666657</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3481,19 +3481,19 @@
         <v>4.58</v>
       </c>
       <c r="C89" t="n">
-        <v>4.58</v>
+        <v>4.59</v>
       </c>
       <c r="D89" t="n">
-        <v>4.58</v>
+        <v>4.59</v>
       </c>
       <c r="E89" t="n">
         <v>4.58</v>
       </c>
       <c r="F89" t="n">
-        <v>90526.7205</v>
+        <v>58342.8103</v>
       </c>
       <c r="G89" t="n">
-        <v>4.531666666666656</v>
+        <v>4.53199999999999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="C90" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="D90" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="E90" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="F90" t="n">
-        <v>302080.61</v>
+        <v>90526.7205</v>
       </c>
       <c r="G90" t="n">
-        <v>4.531833333333322</v>
+        <v>4.531666666666656</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,19 +3548,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="C91" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="D91" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="E91" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="F91" t="n">
-        <v>17549</v>
+        <v>302080.61</v>
       </c>
       <c r="G91" t="n">
         <v>4.531833333333322</v>
@@ -3595,10 +3595,10 @@
         <v>4.57</v>
       </c>
       <c r="F92" t="n">
-        <v>50284.0437</v>
+        <v>17549</v>
       </c>
       <c r="G92" t="n">
-        <v>4.531999999999988</v>
+        <v>4.531833333333322</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,19 +3618,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="C93" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="D93" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="E93" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="F93" t="n">
-        <v>22758.414</v>
+        <v>50284.0437</v>
       </c>
       <c r="G93" t="n">
         <v>4.531999999999988</v>
@@ -3665,10 +3665,10 @@
         <v>4.56</v>
       </c>
       <c r="F94" t="n">
-        <v>184585.4081</v>
+        <v>22758.414</v>
       </c>
       <c r="G94" t="n">
-        <v>4.532166666666655</v>
+        <v>4.531999999999988</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3691,19 +3691,19 @@
         <v>4.56</v>
       </c>
       <c r="C95" t="n">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="D95" t="n">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="E95" t="n">
         <v>4.56</v>
       </c>
       <c r="F95" t="n">
-        <v>369000</v>
+        <v>184585.4081</v>
       </c>
       <c r="G95" t="n">
-        <v>4.532333333333322</v>
+        <v>4.532166666666655</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="C96" t="n">
         <v>4.57</v>
@@ -3732,13 +3732,13 @@
         <v>4.57</v>
       </c>
       <c r="E96" t="n">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="F96" t="n">
-        <v>25.3829</v>
+        <v>369000</v>
       </c>
       <c r="G96" t="n">
-        <v>4.532666666666655</v>
+        <v>4.532333333333322</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3761,19 +3761,19 @@
         <v>4.57</v>
       </c>
       <c r="C97" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="D97" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="E97" t="n">
         <v>4.57</v>
       </c>
       <c r="F97" t="n">
-        <v>249138.1730204793</v>
+        <v>25.3829</v>
       </c>
       <c r="G97" t="n">
-        <v>4.533166666666655</v>
+        <v>4.532666666666655</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>4.57</v>
       </c>
       <c r="C98" t="n">
-        <v>4.56</v>
+        <v>4.59</v>
       </c>
       <c r="D98" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="E98" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="F98" t="n">
-        <v>465536.1194</v>
+        <v>249138.1730204793</v>
       </c>
       <c r="G98" t="n">
-        <v>4.533833333333321</v>
+        <v>4.533166666666655</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="C99" t="n">
-        <v>4.59</v>
+        <v>4.56</v>
       </c>
       <c r="D99" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="E99" t="n">
-        <v>4.59</v>
+        <v>4.56</v>
       </c>
       <c r="F99" t="n">
-        <v>350000</v>
+        <v>465536.1194</v>
       </c>
       <c r="G99" t="n">
-        <v>4.534833333333322</v>
+        <v>4.533833333333321</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="C100" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="D100" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="E100" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="F100" t="n">
-        <v>10000</v>
+        <v>350000</v>
       </c>
       <c r="G100" t="n">
-        <v>4.535499999999988</v>
+        <v>4.534833333333322</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>4.57</v>
       </c>
       <c r="F101" t="n">
-        <v>145166.6666</v>
+        <v>10000</v>
       </c>
       <c r="G101" t="n">
-        <v>4.535333333333322</v>
+        <v>4.535499999999988</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="C102" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="D102" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="E102" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="F102" t="n">
-        <v>38000</v>
+        <v>145166.6666</v>
       </c>
       <c r="G102" t="n">
-        <v>4.535999999999988</v>
+        <v>4.535333333333322</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="C103" t="n">
-        <v>4.56</v>
+        <v>4.59</v>
       </c>
       <c r="D103" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="E103" t="n">
-        <v>4.56</v>
+        <v>4.59</v>
       </c>
       <c r="F103" t="n">
-        <v>314515.0045</v>
+        <v>38000</v>
       </c>
       <c r="G103" t="n">
-        <v>4.536333333333321</v>
+        <v>4.535999999999988</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.58</v>
+        <v>4.57</v>
       </c>
       <c r="C104" t="n">
-        <v>4.59</v>
+        <v>4.56</v>
       </c>
       <c r="D104" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="E104" t="n">
-        <v>4.58</v>
+        <v>4.56</v>
       </c>
       <c r="F104" t="n">
-        <v>156000</v>
+        <v>314515.0045</v>
       </c>
       <c r="G104" t="n">
-        <v>4.537166666666653</v>
+        <v>4.536333333333321</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,7 +4038,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.57</v>
+        <v>4.58</v>
       </c>
       <c r="C105" t="n">
         <v>4.59</v>
@@ -4047,13 +4047,13 @@
         <v>4.59</v>
       </c>
       <c r="E105" t="n">
-        <v>4.57</v>
+        <v>4.58</v>
       </c>
       <c r="F105" t="n">
-        <v>719.5137</v>
+        <v>156000</v>
       </c>
       <c r="G105" t="n">
-        <v>4.538333333333321</v>
+        <v>4.537166666666653</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="C106" t="n">
-        <v>4.56</v>
+        <v>4.59</v>
       </c>
       <c r="D106" t="n">
-        <v>4.56</v>
+        <v>4.59</v>
       </c>
       <c r="E106" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="F106" t="n">
-        <v>90526.7205</v>
+        <v>719.5137</v>
       </c>
       <c r="G106" t="n">
-        <v>4.538999999999987</v>
+        <v>4.538333333333321</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="C107" t="n">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="D107" t="n">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="E107" t="n">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="F107" t="n">
-        <v>200</v>
+        <v>90526.7205</v>
       </c>
       <c r="G107" t="n">
-        <v>4.539833333333321</v>
+        <v>4.538999999999987</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4155,10 +4155,10 @@
         <v>4.57</v>
       </c>
       <c r="F108" t="n">
-        <v>109800.3689</v>
+        <v>200</v>
       </c>
       <c r="G108" t="n">
-        <v>4.540499999999988</v>
+        <v>4.539833333333321</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4181,19 +4181,19 @@
         <v>4.57</v>
       </c>
       <c r="C109" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="D109" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="E109" t="n">
         <v>4.57</v>
       </c>
       <c r="F109" t="n">
-        <v>12682.41090239651</v>
+        <v>109800.3689</v>
       </c>
       <c r="G109" t="n">
-        <v>4.541666666666655</v>
+        <v>4.540499999999988</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4216,19 +4216,19 @@
         <v>4.57</v>
       </c>
       <c r="C110" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="D110" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="E110" t="n">
         <v>4.57</v>
       </c>
       <c r="F110" t="n">
-        <v>455978</v>
+        <v>12682.41090239651</v>
       </c>
       <c r="G110" t="n">
-        <v>4.542333333333321</v>
+        <v>4.541666666666655</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4260,10 +4260,10 @@
         <v>4.57</v>
       </c>
       <c r="F111" t="n">
-        <v>12408.1102</v>
+        <v>455978</v>
       </c>
       <c r="G111" t="n">
-        <v>4.542999999999989</v>
+        <v>4.542333333333321</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="C112" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="D112" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="E112" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="F112" t="n">
-        <v>137000</v>
+        <v>12408.1102</v>
       </c>
       <c r="G112" t="n">
-        <v>4.544166666666655</v>
+        <v>4.542999999999989</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="C113" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="D113" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="E113" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="F113" t="n">
-        <v>107000</v>
+        <v>137000</v>
       </c>
       <c r="G113" t="n">
-        <v>4.544833333333322</v>
+        <v>4.544166666666655</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4365,10 +4365,10 @@
         <v>4.57</v>
       </c>
       <c r="F114" t="n">
-        <v>35765.2445</v>
+        <v>107000</v>
       </c>
       <c r="G114" t="n">
-        <v>4.545499999999989</v>
+        <v>4.544833333333322</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4391,19 +4391,19 @@
         <v>4.57</v>
       </c>
       <c r="C115" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="D115" t="n">
         <v>4.57</v>
       </c>
       <c r="E115" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="F115" t="n">
-        <v>312000</v>
+        <v>35765.2445</v>
       </c>
       <c r="G115" t="n">
-        <v>4.546333333333322</v>
+        <v>4.545499999999989</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="C116" t="n">
         <v>4.56</v>
       </c>
       <c r="D116" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="E116" t="n">
         <v>4.56</v>
       </c>
       <c r="F116" t="n">
-        <v>75120.7298</v>
+        <v>312000</v>
       </c>
       <c r="G116" t="n">
-        <v>4.546999999999989</v>
+        <v>4.546333333333322</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="C117" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="D117" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="E117" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="F117" t="n">
-        <v>136000</v>
+        <v>75120.7298</v>
       </c>
       <c r="G117" t="n">
-        <v>4.547833333333323</v>
+        <v>4.546999999999989</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.56</v>
+        <v>4.55</v>
       </c>
       <c r="C118" t="n">
-        <v>4.56</v>
+        <v>4.55</v>
       </c>
       <c r="D118" t="n">
-        <v>4.56</v>
+        <v>4.55</v>
       </c>
       <c r="E118" t="n">
-        <v>4.56</v>
+        <v>4.55</v>
       </c>
       <c r="F118" t="n">
-        <v>43859.6491</v>
+        <v>136000</v>
       </c>
       <c r="G118" t="n">
-        <v>4.54899999999999</v>
+        <v>4.547833333333323</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.58</v>
+        <v>4.56</v>
       </c>
       <c r="C119" t="n">
-        <v>4.58</v>
+        <v>4.56</v>
       </c>
       <c r="D119" t="n">
-        <v>4.58</v>
+        <v>4.56</v>
       </c>
       <c r="E119" t="n">
-        <v>4.58</v>
+        <v>4.56</v>
       </c>
       <c r="F119" t="n">
-        <v>78000</v>
+        <v>43859.6491</v>
       </c>
       <c r="G119" t="n">
-        <v>4.550333333333323</v>
+        <v>4.54899999999999</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.56</v>
+        <v>4.58</v>
       </c>
       <c r="C120" t="n">
-        <v>4.56</v>
+        <v>4.58</v>
       </c>
       <c r="D120" t="n">
-        <v>4.56</v>
+        <v>4.58</v>
       </c>
       <c r="E120" t="n">
-        <v>4.56</v>
+        <v>4.58</v>
       </c>
       <c r="F120" t="n">
-        <v>47707.8291</v>
+        <v>78000</v>
       </c>
       <c r="G120" t="n">
-        <v>4.551666666666656</v>
+        <v>4.550333333333323</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4601,19 +4601,19 @@
         <v>4.56</v>
       </c>
       <c r="C121" t="n">
-        <v>4.59</v>
+        <v>4.56</v>
       </c>
       <c r="D121" t="n">
-        <v>4.59</v>
+        <v>4.56</v>
       </c>
       <c r="E121" t="n">
         <v>4.56</v>
       </c>
       <c r="F121" t="n">
-        <v>58433.76178910676</v>
+        <v>47707.8291</v>
       </c>
       <c r="G121" t="n">
-        <v>4.553499999999988</v>
+        <v>4.551666666666656</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.58</v>
+        <v>4.56</v>
       </c>
       <c r="C122" t="n">
-        <v>4.58</v>
+        <v>4.59</v>
       </c>
       <c r="D122" t="n">
-        <v>4.58</v>
+        <v>4.59</v>
       </c>
       <c r="E122" t="n">
-        <v>4.58</v>
+        <v>4.56</v>
       </c>
       <c r="F122" t="n">
-        <v>100000</v>
+        <v>58433.76178910676</v>
       </c>
       <c r="G122" t="n">
-        <v>4.555499999999989</v>
+        <v>4.553499999999988</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4680,10 +4680,10 @@
         <v>4.58</v>
       </c>
       <c r="F123" t="n">
-        <v>25933.869</v>
+        <v>100000</v>
       </c>
       <c r="G123" t="n">
-        <v>4.557499999999989</v>
+        <v>4.555499999999989</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4715,10 +4715,10 @@
         <v>4.58</v>
       </c>
       <c r="F124" t="n">
-        <v>53822.4076</v>
+        <v>25933.869</v>
       </c>
       <c r="G124" t="n">
-        <v>4.558999999999988</v>
+        <v>4.557499999999989</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4750,10 +4750,10 @@
         <v>4.58</v>
       </c>
       <c r="F125" t="n">
-        <v>33976.9823</v>
+        <v>53822.4076</v>
       </c>
       <c r="G125" t="n">
-        <v>4.560333333333321</v>
+        <v>4.558999999999988</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4785,10 +4785,10 @@
         <v>4.58</v>
       </c>
       <c r="F126" t="n">
-        <v>86000</v>
+        <v>33976.9823</v>
       </c>
       <c r="G126" t="n">
-        <v>4.561666666666654</v>
+        <v>4.560333333333321</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="C127" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="D127" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="E127" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="F127" t="n">
-        <v>364000</v>
+        <v>86000</v>
       </c>
       <c r="G127" t="n">
-        <v>4.563166666666654</v>
+        <v>4.561666666666654</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.58</v>
+        <v>4.59</v>
       </c>
       <c r="C128" t="n">
-        <v>4.58</v>
+        <v>4.59</v>
       </c>
       <c r="D128" t="n">
-        <v>4.58</v>
+        <v>4.59</v>
       </c>
       <c r="E128" t="n">
-        <v>4.58</v>
+        <v>4.59</v>
       </c>
       <c r="F128" t="n">
-        <v>134571.2552</v>
+        <v>364000</v>
       </c>
       <c r="G128" t="n">
-        <v>4.56483333333332</v>
+        <v>4.563166666666654</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4890,10 +4890,10 @@
         <v>4.58</v>
       </c>
       <c r="F129" t="n">
-        <v>349000</v>
+        <v>134571.2552</v>
       </c>
       <c r="G129" t="n">
-        <v>4.565999999999987</v>
+        <v>4.56483333333332</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4925,10 +4925,10 @@
         <v>4.58</v>
       </c>
       <c r="F130" t="n">
-        <v>68000</v>
+        <v>349000</v>
       </c>
       <c r="G130" t="n">
-        <v>4.567666666666653</v>
+        <v>4.565999999999987</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4960,10 +4960,10 @@
         <v>4.58</v>
       </c>
       <c r="F131" t="n">
-        <v>792000</v>
+        <v>68000</v>
       </c>
       <c r="G131" t="n">
-        <v>4.569666666666652</v>
+        <v>4.567666666666653</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4995,10 +4995,10 @@
         <v>4.58</v>
       </c>
       <c r="F132" t="n">
-        <v>242926</v>
+        <v>792000</v>
       </c>
       <c r="G132" t="n">
-        <v>4.571333333333318</v>
+        <v>4.569666666666652</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5030,10 +5030,10 @@
         <v>4.58</v>
       </c>
       <c r="F133" t="n">
-        <v>607315</v>
+        <v>242926</v>
       </c>
       <c r="G133" t="n">
-        <v>4.573166666666651</v>
+        <v>4.571333333333318</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5056,19 +5056,19 @@
         <v>4.58</v>
       </c>
       <c r="C134" t="n">
-        <v>4.55</v>
+        <v>4.58</v>
       </c>
       <c r="D134" t="n">
         <v>4.58</v>
       </c>
       <c r="E134" t="n">
-        <v>4.55</v>
+        <v>4.58</v>
       </c>
       <c r="F134" t="n">
-        <v>682000</v>
+        <v>607315</v>
       </c>
       <c r="G134" t="n">
-        <v>4.574333333333318</v>
+        <v>4.573166666666651</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="C135" t="n">
-        <v>4.59</v>
+        <v>4.55</v>
       </c>
       <c r="D135" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="E135" t="n">
-        <v>4.59</v>
+        <v>4.55</v>
       </c>
       <c r="F135" t="n">
-        <v>435.7298</v>
+        <v>682000</v>
       </c>
       <c r="G135" t="n">
-        <v>4.575499999999985</v>
+        <v>4.574333333333318</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,19 +5123,19 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.56</v>
+        <v>4.59</v>
       </c>
       <c r="C136" t="n">
-        <v>4.56</v>
+        <v>4.59</v>
       </c>
       <c r="D136" t="n">
-        <v>4.56</v>
+        <v>4.59</v>
       </c>
       <c r="E136" t="n">
-        <v>4.56</v>
+        <v>4.59</v>
       </c>
       <c r="F136" t="n">
-        <v>13284.8538</v>
+        <v>435.7298</v>
       </c>
       <c r="G136" t="n">
         <v>4.575499999999985</v>
@@ -5161,19 +5161,19 @@
         <v>4.56</v>
       </c>
       <c r="C137" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="D137" t="n">
         <v>4.56</v>
       </c>
       <c r="E137" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="F137" t="n">
-        <v>381000</v>
+        <v>13284.8538</v>
       </c>
       <c r="G137" t="n">
-        <v>4.575166666666651</v>
+        <v>4.575499999999985</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="C138" t="n">
         <v>4.55</v>
       </c>
       <c r="D138" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="E138" t="n">
         <v>4.55</v>
       </c>
       <c r="F138" t="n">
-        <v>32278.1332</v>
+        <v>381000</v>
       </c>
       <c r="G138" t="n">
-        <v>4.574666666666652</v>
+        <v>4.575166666666651</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5240,10 +5240,10 @@
         <v>4.55</v>
       </c>
       <c r="F139" t="n">
-        <v>22548.6627</v>
+        <v>32278.1332</v>
       </c>
       <c r="G139" t="n">
-        <v>4.573833333333318</v>
+        <v>4.574666666666652</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5266,19 +5266,19 @@
         <v>4.55</v>
       </c>
       <c r="C140" t="n">
-        <v>4.53</v>
+        <v>4.55</v>
       </c>
       <c r="D140" t="n">
         <v>4.55</v>
       </c>
       <c r="E140" t="n">
-        <v>4.53</v>
+        <v>4.55</v>
       </c>
       <c r="F140" t="n">
-        <v>302748.1788</v>
+        <v>22548.6627</v>
       </c>
       <c r="G140" t="n">
-        <v>4.573333333333318</v>
+        <v>4.573833333333318</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5298,22 +5298,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.53</v>
+        <v>4.55</v>
       </c>
       <c r="C141" t="n">
         <v>4.53</v>
       </c>
       <c r="D141" t="n">
-        <v>4.53</v>
+        <v>4.55</v>
       </c>
       <c r="E141" t="n">
         <v>4.53</v>
       </c>
       <c r="F141" t="n">
-        <v>232768.0597</v>
+        <v>302748.1788</v>
       </c>
       <c r="G141" t="n">
-        <v>4.57316666666665</v>
+        <v>4.573333333333318</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5345,10 +5345,10 @@
         <v>4.53</v>
       </c>
       <c r="F142" t="n">
-        <v>252958.8977</v>
+        <v>232768.0597</v>
       </c>
       <c r="G142" t="n">
-        <v>4.572499999999983</v>
+        <v>4.57316666666665</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5368,22 +5368,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54</v>
+        <v>4.53</v>
       </c>
       <c r="C143" t="n">
-        <v>4.52</v>
+        <v>4.53</v>
       </c>
       <c r="D143" t="n">
-        <v>4.54</v>
+        <v>4.53</v>
       </c>
       <c r="E143" t="n">
-        <v>4.52</v>
+        <v>4.53</v>
       </c>
       <c r="F143" t="n">
-        <v>157899.8448</v>
+        <v>252958.8977</v>
       </c>
       <c r="G143" t="n">
-        <v>4.571499999999983</v>
+        <v>4.572499999999983</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.53</v>
+        <v>4.54</v>
       </c>
       <c r="C144" t="n">
         <v>4.52</v>
       </c>
       <c r="D144" t="n">
-        <v>4.53</v>
+        <v>4.54</v>
       </c>
       <c r="E144" t="n">
         <v>4.52</v>
       </c>
       <c r="F144" t="n">
-        <v>326421.538</v>
+        <v>157899.8448</v>
       </c>
       <c r="G144" t="n">
-        <v>4.570166666666649</v>
+        <v>4.571499999999983</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5438,22 +5438,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.54</v>
+        <v>4.53</v>
       </c>
       <c r="C145" t="n">
-        <v>4.55</v>
+        <v>4.52</v>
       </c>
       <c r="D145" t="n">
-        <v>4.55</v>
+        <v>4.53</v>
       </c>
       <c r="E145" t="n">
-        <v>4.54</v>
+        <v>4.52</v>
       </c>
       <c r="F145" t="n">
-        <v>323118.9918</v>
+        <v>326421.538</v>
       </c>
       <c r="G145" t="n">
-        <v>4.569333333333316</v>
+        <v>4.570166666666649</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,22 +5473,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.56</v>
+        <v>4.54</v>
       </c>
       <c r="C146" t="n">
-        <v>4.56</v>
+        <v>4.55</v>
       </c>
       <c r="D146" t="n">
-        <v>4.56</v>
+        <v>4.55</v>
       </c>
       <c r="E146" t="n">
-        <v>4.56</v>
+        <v>4.54</v>
       </c>
       <c r="F146" t="n">
-        <v>15438.1278</v>
+        <v>323118.9918</v>
       </c>
       <c r="G146" t="n">
-        <v>4.568666666666648</v>
+        <v>4.569333333333316</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +5508,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="C147" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="D147" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="E147" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="F147" t="n">
-        <v>556000</v>
+        <v>15438.1278</v>
       </c>
       <c r="G147" t="n">
-        <v>4.568333333333316</v>
+        <v>4.568666666666648</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5555,10 +5555,10 @@
         <v>4.55</v>
       </c>
       <c r="F148" t="n">
-        <v>18759.6916</v>
+        <v>556000</v>
       </c>
       <c r="G148" t="n">
-        <v>4.56766666666665</v>
+        <v>4.568333333333316</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5578,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.54</v>
+        <v>4.55</v>
       </c>
       <c r="C149" t="n">
-        <v>4.52</v>
+        <v>4.55</v>
       </c>
       <c r="D149" t="n">
-        <v>4.54</v>
+        <v>4.55</v>
       </c>
       <c r="E149" t="n">
-        <v>4.52</v>
+        <v>4.55</v>
       </c>
       <c r="F149" t="n">
-        <v>1747191.778</v>
+        <v>18759.6916</v>
       </c>
       <c r="G149" t="n">
-        <v>4.56666666666665</v>
+        <v>4.56766666666665</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,22 +5613,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.53</v>
+        <v>4.54</v>
       </c>
       <c r="C150" t="n">
-        <v>4.54</v>
+        <v>4.52</v>
       </c>
       <c r="D150" t="n">
         <v>4.54</v>
       </c>
       <c r="E150" t="n">
-        <v>4.53</v>
+        <v>4.52</v>
       </c>
       <c r="F150" t="n">
-        <v>34095.3338</v>
+        <v>1747191.778</v>
       </c>
       <c r="G150" t="n">
-        <v>4.565833333333317</v>
+        <v>4.56666666666665</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5651,19 +5651,19 @@
         <v>4.53</v>
       </c>
       <c r="C151" t="n">
-        <v>4.56</v>
+        <v>4.54</v>
       </c>
       <c r="D151" t="n">
-        <v>4.57</v>
+        <v>4.54</v>
       </c>
       <c r="E151" t="n">
         <v>4.53</v>
       </c>
       <c r="F151" t="n">
-        <v>210021</v>
+        <v>34095.3338</v>
       </c>
       <c r="G151" t="n">
-        <v>4.56566666666665</v>
+        <v>4.565833333333317</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +5683,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.5</v>
+        <v>4.53</v>
       </c>
       <c r="C152" t="n">
-        <v>4.5</v>
+        <v>4.56</v>
       </c>
       <c r="D152" t="n">
-        <v>4.5</v>
+        <v>4.57</v>
       </c>
       <c r="E152" t="n">
-        <v>4.5</v>
+        <v>4.53</v>
       </c>
       <c r="F152" t="n">
-        <v>150</v>
+        <v>210021</v>
       </c>
       <c r="G152" t="n">
-        <v>4.564499999999984</v>
+        <v>4.56566666666665</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +5718,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.51</v>
+        <v>4.5</v>
       </c>
       <c r="C153" t="n">
-        <v>4.51</v>
+        <v>4.5</v>
       </c>
       <c r="D153" t="n">
-        <v>4.51</v>
+        <v>4.5</v>
       </c>
       <c r="E153" t="n">
-        <v>4.51</v>
+        <v>4.5</v>
       </c>
       <c r="F153" t="n">
         <v>150</v>
       </c>
       <c r="G153" t="n">
-        <v>4.56366666666665</v>
+        <v>4.564499999999984</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,22 +5753,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.53</v>
+        <v>4.51</v>
       </c>
       <c r="C154" t="n">
-        <v>4.53</v>
+        <v>4.51</v>
       </c>
       <c r="D154" t="n">
-        <v>4.53</v>
+        <v>4.51</v>
       </c>
       <c r="E154" t="n">
-        <v>4.53</v>
+        <v>4.51</v>
       </c>
       <c r="F154" t="n">
-        <v>96000</v>
+        <v>150</v>
       </c>
       <c r="G154" t="n">
-        <v>4.56316666666665</v>
+        <v>4.56366666666665</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5788,22 +5788,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.54</v>
+        <v>4.53</v>
       </c>
       <c r="C155" t="n">
-        <v>4.54</v>
+        <v>4.53</v>
       </c>
       <c r="D155" t="n">
-        <v>4.54</v>
+        <v>4.53</v>
       </c>
       <c r="E155" t="n">
-        <v>4.54</v>
+        <v>4.53</v>
       </c>
       <c r="F155" t="n">
-        <v>106000</v>
+        <v>96000</v>
       </c>
       <c r="G155" t="n">
-        <v>4.56266666666665</v>
+        <v>4.56316666666665</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5823,22 +5823,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.5</v>
+        <v>4.54</v>
       </c>
       <c r="C156" t="n">
-        <v>4.5</v>
+        <v>4.54</v>
       </c>
       <c r="D156" t="n">
-        <v>4.5</v>
+        <v>4.54</v>
       </c>
       <c r="E156" t="n">
-        <v>4.5</v>
+        <v>4.54</v>
       </c>
       <c r="F156" t="n">
-        <v>19554.5239</v>
+        <v>106000</v>
       </c>
       <c r="G156" t="n">
-        <v>4.561499999999984</v>
+        <v>4.56266666666665</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5858,22 +5858,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.49</v>
+        <v>4.5</v>
       </c>
       <c r="C157" t="n">
-        <v>4.49</v>
+        <v>4.5</v>
       </c>
       <c r="D157" t="n">
-        <v>4.49</v>
+        <v>4.5</v>
       </c>
       <c r="E157" t="n">
-        <v>4.49</v>
+        <v>4.5</v>
       </c>
       <c r="F157" t="n">
-        <v>50000</v>
+        <v>19554.5239</v>
       </c>
       <c r="G157" t="n">
-        <v>4.559833333333318</v>
+        <v>4.561499999999984</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5905,10 +5905,10 @@
         <v>4.49</v>
       </c>
       <c r="F158" t="n">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="G158" t="n">
-        <v>4.558666666666651</v>
+        <v>4.559833333333318</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5928,22 +5928,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.48</v>
+        <v>4.49</v>
       </c>
       <c r="C159" t="n">
-        <v>4.48</v>
+        <v>4.49</v>
       </c>
       <c r="D159" t="n">
-        <v>4.48</v>
+        <v>4.49</v>
       </c>
       <c r="E159" t="n">
-        <v>4.48</v>
+        <v>4.49</v>
       </c>
       <c r="F159" t="n">
-        <v>164501.8593</v>
+        <v>10000</v>
       </c>
       <c r="G159" t="n">
-        <v>4.556833333333318</v>
+        <v>4.558666666666651</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5975,10 +5975,10 @@
         <v>4.48</v>
       </c>
       <c r="F160" t="n">
-        <v>101055.0408</v>
+        <v>164501.8593</v>
       </c>
       <c r="G160" t="n">
-        <v>4.555333333333319</v>
+        <v>4.556833333333318</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6010,10 +6010,10 @@
         <v>4.48</v>
       </c>
       <c r="F161" t="n">
-        <v>19528.8141</v>
+        <v>101055.0408</v>
       </c>
       <c r="G161" t="n">
-        <v>4.553833333333319</v>
+        <v>4.555333333333319</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.45</v>
+        <v>4.48</v>
       </c>
       <c r="C162" t="n">
-        <v>4.44</v>
+        <v>4.48</v>
       </c>
       <c r="D162" t="n">
-        <v>4.45</v>
+        <v>4.48</v>
       </c>
       <c r="E162" t="n">
-        <v>4.44</v>
+        <v>4.48</v>
       </c>
       <c r="F162" t="n">
-        <v>164449.4112</v>
+        <v>19528.8141</v>
       </c>
       <c r="G162" t="n">
-        <v>4.55133333333332</v>
+        <v>4.553833333333319</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6068,22 +6068,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="C163" t="n">
         <v>4.44</v>
       </c>
-      <c r="C163" t="n">
-        <v>4.43</v>
-      </c>
       <c r="D163" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="E163" t="n">
         <v>4.44</v>
       </c>
-      <c r="E163" t="n">
-        <v>4.43</v>
-      </c>
       <c r="F163" t="n">
-        <v>429370.4621</v>
+        <v>164449.4112</v>
       </c>
       <c r="G163" t="n">
-        <v>4.549166666666653</v>
+        <v>4.55133333333332</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6103,22 +6103,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.42</v>
+        <v>4.44</v>
       </c>
       <c r="C164" t="n">
-        <v>4.42</v>
+        <v>4.43</v>
       </c>
       <c r="D164" t="n">
-        <v>4.42</v>
+        <v>4.44</v>
       </c>
       <c r="E164" t="n">
-        <v>4.42</v>
+        <v>4.43</v>
       </c>
       <c r="F164" t="n">
-        <v>11247.0853</v>
+        <v>429370.4621</v>
       </c>
       <c r="G164" t="n">
-        <v>4.546333333333321</v>
+        <v>4.549166666666653</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6138,22 +6138,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.41</v>
+        <v>4.42</v>
       </c>
       <c r="C165" t="n">
-        <v>4.4</v>
+        <v>4.42</v>
       </c>
       <c r="D165" t="n">
-        <v>4.41</v>
+        <v>4.42</v>
       </c>
       <c r="E165" t="n">
-        <v>4.4</v>
+        <v>4.42</v>
       </c>
       <c r="F165" t="n">
-        <v>440523.3661</v>
+        <v>11247.0853</v>
       </c>
       <c r="G165" t="n">
-        <v>4.543166666666654</v>
+        <v>4.546333333333321</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6173,32 +6173,38 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.44</v>
+        <v>4.41</v>
       </c>
       <c r="C166" t="n">
-        <v>4.46</v>
+        <v>4.4</v>
       </c>
       <c r="D166" t="n">
-        <v>4.46</v>
+        <v>4.41</v>
       </c>
       <c r="E166" t="n">
-        <v>4.44</v>
+        <v>4.4</v>
       </c>
       <c r="F166" t="n">
-        <v>349000</v>
+        <v>440523.3661</v>
       </c>
       <c r="G166" t="n">
-        <v>4.541499999999987</v>
+        <v>4.543166666666654</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>4.42</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6208,22 +6214,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.47</v>
+        <v>4.44</v>
       </c>
       <c r="C167" t="n">
-        <v>4.47</v>
+        <v>4.46</v>
       </c>
       <c r="D167" t="n">
-        <v>4.47</v>
+        <v>4.46</v>
       </c>
       <c r="E167" t="n">
-        <v>4.47</v>
+        <v>4.44</v>
       </c>
       <c r="F167" t="n">
-        <v>79104.9238</v>
+        <v>349000</v>
       </c>
       <c r="G167" t="n">
-        <v>4.539833333333321</v>
+        <v>4.541499999999987</v>
       </c>
       <c r="H167" t="n">
         <v>1</v>
@@ -6232,12 +6238,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="K167" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="L167" t="inlineStr"/>
+        <v>4.4</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6247,22 +6255,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.48</v>
+        <v>4.47</v>
       </c>
       <c r="C168" t="n">
-        <v>4.48</v>
+        <v>4.47</v>
       </c>
       <c r="D168" t="n">
-        <v>4.48</v>
+        <v>4.47</v>
       </c>
       <c r="E168" t="n">
-        <v>4.48</v>
+        <v>4.47</v>
       </c>
       <c r="F168" t="n">
-        <v>21211.2915</v>
+        <v>79104.9238</v>
       </c>
       <c r="G168" t="n">
-        <v>4.538333333333322</v>
+        <v>4.539833333333321</v>
       </c>
       <c r="H168" t="n">
         <v>1</v>
@@ -6271,14 +6279,12 @@
         <v>0</v>
       </c>
       <c r="J168" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="K168" t="n">
         <v>4.46</v>
       </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M168" t="n">
@@ -6290,38 +6296,34 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.49</v>
+        <v>4.48</v>
       </c>
       <c r="C169" t="n">
-        <v>4.51</v>
+        <v>4.48</v>
       </c>
       <c r="D169" t="n">
-        <v>4.51</v>
+        <v>4.48</v>
       </c>
       <c r="E169" t="n">
-        <v>4.49</v>
+        <v>4.48</v>
       </c>
       <c r="F169" t="n">
-        <v>1111402.2172</v>
+        <v>21211.2915</v>
       </c>
       <c r="G169" t="n">
-        <v>4.536999999999988</v>
+        <v>4.538333333333322</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="K169" t="n">
-        <v>4.46</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M169" t="n">
@@ -6333,7 +6335,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.51</v>
+        <v>4.49</v>
       </c>
       <c r="C170" t="n">
         <v>4.51</v>
@@ -6342,27 +6344,27 @@
         <v>4.51</v>
       </c>
       <c r="E170" t="n">
-        <v>4.51</v>
+        <v>4.49</v>
       </c>
       <c r="F170" t="n">
-        <v>1807.9822</v>
+        <v>1111402.2172</v>
       </c>
       <c r="G170" t="n">
-        <v>4.535999999999988</v>
+        <v>4.536999999999988</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="K170" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="L170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6372,38 +6374,34 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.5</v>
+        <v>4.51</v>
       </c>
       <c r="C171" t="n">
-        <v>4.5</v>
+        <v>4.51</v>
       </c>
       <c r="D171" t="n">
-        <v>4.5</v>
+        <v>4.51</v>
       </c>
       <c r="E171" t="n">
-        <v>4.5</v>
+        <v>4.51</v>
       </c>
       <c r="F171" t="n">
-        <v>70360</v>
+        <v>1807.9822</v>
       </c>
       <c r="G171" t="n">
-        <v>4.534833333333322</v>
+        <v>4.535999999999988</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="K171" t="n">
-        <v>4.51</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M171" t="n">
@@ -6415,22 +6413,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.51</v>
+        <v>4.5</v>
       </c>
       <c r="C172" t="n">
-        <v>4.51</v>
+        <v>4.5</v>
       </c>
       <c r="D172" t="n">
-        <v>4.51</v>
+        <v>4.5</v>
       </c>
       <c r="E172" t="n">
-        <v>4.51</v>
+        <v>4.5</v>
       </c>
       <c r="F172" t="n">
-        <v>2015.2909</v>
+        <v>70360</v>
       </c>
       <c r="G172" t="n">
-        <v>4.533499999999989</v>
+        <v>4.534833333333322</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6439,12 +6437,10 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>4.51</v>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M172" t="n">
@@ -6456,22 +6452,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.52</v>
+        <v>4.51</v>
       </c>
       <c r="C173" t="n">
-        <v>4.52</v>
+        <v>4.51</v>
       </c>
       <c r="D173" t="n">
-        <v>4.52</v>
+        <v>4.51</v>
       </c>
       <c r="E173" t="n">
-        <v>4.52</v>
+        <v>4.51</v>
       </c>
       <c r="F173" t="n">
-        <v>19798.0088</v>
+        <v>2015.2909</v>
       </c>
       <c r="G173" t="n">
-        <v>4.532666666666655</v>
+        <v>4.533499999999989</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6481,7 +6477,11 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6491,22 +6491,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.49</v>
+        <v>4.52</v>
       </c>
       <c r="C174" t="n">
-        <v>4.49</v>
+        <v>4.52</v>
       </c>
       <c r="D174" t="n">
-        <v>4.49</v>
+        <v>4.52</v>
       </c>
       <c r="E174" t="n">
-        <v>4.49</v>
+        <v>4.52</v>
       </c>
       <c r="F174" t="n">
-        <v>20071.3526</v>
+        <v>19798.0088</v>
       </c>
       <c r="G174" t="n">
-        <v>4.531333333333322</v>
+        <v>4.532666666666655</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6516,7 +6516,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6538,10 +6542,10 @@
         <v>4.49</v>
       </c>
       <c r="F175" t="n">
-        <v>21650.5981</v>
+        <v>20071.3526</v>
       </c>
       <c r="G175" t="n">
-        <v>4.530166666666656</v>
+        <v>4.531333333333322</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6551,7 +6555,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6573,10 +6581,10 @@
         <v>4.49</v>
       </c>
       <c r="F176" t="n">
-        <v>3700.7008</v>
+        <v>21650.5981</v>
       </c>
       <c r="G176" t="n">
-        <v>4.528999999999988</v>
+        <v>4.530166666666656</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6586,7 +6594,11 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6596,22 +6608,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.44</v>
+        <v>4.49</v>
       </c>
       <c r="C177" t="n">
-        <v>4.44</v>
+        <v>4.49</v>
       </c>
       <c r="D177" t="n">
-        <v>4.44</v>
+        <v>4.49</v>
       </c>
       <c r="E177" t="n">
-        <v>4.44</v>
+        <v>4.49</v>
       </c>
       <c r="F177" t="n">
-        <v>21758.7664</v>
+        <v>3700.7008</v>
       </c>
       <c r="G177" t="n">
-        <v>4.527166666666655</v>
+        <v>4.528999999999988</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6621,7 +6633,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6643,10 +6659,10 @@
         <v>4.44</v>
       </c>
       <c r="F178" t="n">
-        <v>217000</v>
+        <v>21758.7664</v>
       </c>
       <c r="G178" t="n">
-        <v>4.525166666666655</v>
+        <v>4.527166666666655</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6656,7 +6672,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6678,10 +6698,10 @@
         <v>4.44</v>
       </c>
       <c r="F179" t="n">
-        <v>228000</v>
+        <v>217000</v>
       </c>
       <c r="G179" t="n">
-        <v>4.522833333333322</v>
+        <v>4.525166666666655</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6691,7 +6711,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6704,19 +6728,19 @@
         <v>4.44</v>
       </c>
       <c r="C180" t="n">
-        <v>4.41</v>
+        <v>4.44</v>
       </c>
       <c r="D180" t="n">
         <v>4.44</v>
       </c>
       <c r="E180" t="n">
-        <v>4.41</v>
+        <v>4.44</v>
       </c>
       <c r="F180" t="n">
-        <v>161075.0173</v>
+        <v>228000</v>
       </c>
       <c r="G180" t="n">
-        <v>4.520333333333323</v>
+        <v>4.522833333333322</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6726,7 +6750,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6736,22 +6764,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>4.4</v>
+        <v>4.44</v>
       </c>
       <c r="C181" t="n">
         <v>4.41</v>
       </c>
       <c r="D181" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="E181" t="n">
         <v>4.41</v>
       </c>
-      <c r="E181" t="n">
-        <v>4.4</v>
-      </c>
       <c r="F181" t="n">
-        <v>622749.2506</v>
+        <v>161075.0173</v>
       </c>
       <c r="G181" t="n">
-        <v>4.517333333333323</v>
+        <v>4.520333333333323</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6761,7 +6789,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6771,22 +6803,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C182" t="n">
         <v>4.41</v>
-      </c>
-      <c r="C182" t="n">
-        <v>4.39</v>
       </c>
       <c r="D182" t="n">
         <v>4.41</v>
       </c>
       <c r="E182" t="n">
-        <v>4.39</v>
+        <v>4.4</v>
       </c>
       <c r="F182" t="n">
-        <v>78000</v>
+        <v>622749.2506</v>
       </c>
       <c r="G182" t="n">
-        <v>4.514166666666656</v>
+        <v>4.517333333333323</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6796,7 +6828,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6806,22 +6842,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>4.42</v>
+        <v>4.41</v>
       </c>
       <c r="C183" t="n">
-        <v>4.43</v>
+        <v>4.39</v>
       </c>
       <c r="D183" t="n">
-        <v>4.43</v>
+        <v>4.41</v>
       </c>
       <c r="E183" t="n">
-        <v>4.42</v>
+        <v>4.39</v>
       </c>
       <c r="F183" t="n">
-        <v>234000</v>
+        <v>78000</v>
       </c>
       <c r="G183" t="n">
-        <v>4.511666666666657</v>
+        <v>4.514166666666656</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6831,7 +6867,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6841,7 +6881,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>4.43</v>
+        <v>4.42</v>
       </c>
       <c r="C184" t="n">
         <v>4.43</v>
@@ -6850,13 +6890,13 @@
         <v>4.43</v>
       </c>
       <c r="E184" t="n">
-        <v>4.43</v>
+        <v>4.42</v>
       </c>
       <c r="F184" t="n">
-        <v>2471.9101</v>
+        <v>234000</v>
       </c>
       <c r="G184" t="n">
-        <v>4.509166666666657</v>
+        <v>4.511666666666657</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6866,7 +6906,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6876,22 +6920,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>4.42</v>
+        <v>4.43</v>
       </c>
       <c r="C185" t="n">
-        <v>4.41</v>
+        <v>4.43</v>
       </c>
       <c r="D185" t="n">
-        <v>4.42</v>
+        <v>4.43</v>
       </c>
       <c r="E185" t="n">
-        <v>4.41</v>
+        <v>4.43</v>
       </c>
       <c r="F185" t="n">
-        <v>53543.0539</v>
+        <v>2471.9101</v>
       </c>
       <c r="G185" t="n">
-        <v>4.506333333333325</v>
+        <v>4.509166666666657</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6901,8 +6945,51 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="C186" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="D186" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="E186" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="F186" t="n">
+        <v>53543.0539</v>
+      </c>
+      <c r="G186" t="n">
+        <v>4.506333333333325</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-10 BackTest VET.xlsx
+++ b/BackTest/2019-10-10 BackTest VET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M186"/>
+  <dimension ref="A1:N196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>197840.7167</v>
       </c>
       <c r="G2" t="n">
+        <v>4.528666666666665</v>
+      </c>
+      <c r="H2" t="n">
         <v>4.477333333333328</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>250376.8897</v>
       </c>
       <c r="G3" t="n">
+        <v>4.529999999999998</v>
+      </c>
+      <c r="H3" t="n">
         <v>4.479833333333327</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>122506.024</v>
       </c>
       <c r="G4" t="n">
+        <v>4.529999999999998</v>
+      </c>
+      <c r="H4" t="n">
         <v>4.482499999999994</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>976832.6552</v>
       </c>
       <c r="G5" t="n">
+        <v>4.531333333333333</v>
+      </c>
+      <c r="H5" t="n">
         <v>4.485499999999994</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>446428.5713</v>
       </c>
       <c r="G6" t="n">
+        <v>4.531999999999999</v>
+      </c>
+      <c r="H6" t="n">
         <v>4.488333333333328</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>2340777.0924</v>
       </c>
       <c r="G7" t="n">
+        <v>4.536</v>
+      </c>
+      <c r="H7" t="n">
         <v>4.491499999999994</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>269511.6377</v>
       </c>
       <c r="G8" t="n">
+        <v>4.539333333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>4.494499999999994</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>20000</v>
       </c>
       <c r="G9" t="n">
+        <v>4.544666666666666</v>
+      </c>
+      <c r="H9" t="n">
         <v>4.497166666666661</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>526946.1644</v>
       </c>
       <c r="G10" t="n">
+        <v>4.548666666666666</v>
+      </c>
+      <c r="H10" t="n">
         <v>4.499333333333327</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>127245.9838</v>
       </c>
       <c r="G11" t="n">
+        <v>4.549999999999999</v>
+      </c>
+      <c r="H11" t="n">
         <v>4.501166666666661</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>10370.6896</v>
       </c>
       <c r="G12" t="n">
+        <v>4.553999999999998</v>
+      </c>
+      <c r="H12" t="n">
         <v>4.503999999999994</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>10000</v>
       </c>
       <c r="G13" t="n">
+        <v>4.557333333333331</v>
+      </c>
+      <c r="H13" t="n">
         <v>4.506999999999993</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>20000</v>
       </c>
       <c r="G14" t="n">
+        <v>4.561333333333331</v>
+      </c>
+      <c r="H14" t="n">
         <v>4.51016666666666</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>127301.1144</v>
       </c>
       <c r="G15" t="n">
+        <v>4.565333333333331</v>
+      </c>
+      <c r="H15" t="n">
         <v>4.513333333333327</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>10000</v>
       </c>
       <c r="G16" t="n">
+        <v>4.568666666666664</v>
+      </c>
+      <c r="H16" t="n">
         <v>4.51566666666666</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>55859.902</v>
       </c>
       <c r="G17" t="n">
+        <v>4.571999999999997</v>
+      </c>
+      <c r="H17" t="n">
         <v>4.517999999999993</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>59615.4014</v>
       </c>
       <c r="G18" t="n">
+        <v>4.575999999999997</v>
+      </c>
+      <c r="H18" t="n">
         <v>4.520833333333326</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>4283.8296</v>
       </c>
       <c r="G19" t="n">
+        <v>4.57933333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>4.523166666666659</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>212264.7311</v>
       </c>
       <c r="G20" t="n">
+        <v>4.584666666666664</v>
+      </c>
+      <c r="H20" t="n">
         <v>4.526166666666658</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>62.7956</v>
       </c>
       <c r="G21" t="n">
+        <v>4.590666666666664</v>
+      </c>
+      <c r="H21" t="n">
         <v>4.529499999999991</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>8353.633099999999</v>
       </c>
       <c r="G22" t="n">
+        <v>4.593333333333331</v>
+      </c>
+      <c r="H22" t="n">
         <v>4.532333333333325</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>4632.4792</v>
       </c>
       <c r="G23" t="n">
+        <v>4.593333333333331</v>
+      </c>
+      <c r="H23" t="n">
         <v>4.534166666666659</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>7115.3987</v>
       </c>
       <c r="G24" t="n">
+        <v>4.591999999999998</v>
+      </c>
+      <c r="H24" t="n">
         <v>4.535499999999991</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>730.9942</v>
       </c>
       <c r="G25" t="n">
+        <v>4.595333333333331</v>
+      </c>
+      <c r="H25" t="n">
         <v>4.537833333333325</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>2081.8438</v>
       </c>
       <c r="G26" t="n">
+        <v>4.599333333333331</v>
+      </c>
+      <c r="H26" t="n">
         <v>4.539999999999991</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>6512.8032</v>
       </c>
       <c r="G27" t="n">
+        <v>4.597333333333332</v>
+      </c>
+      <c r="H27" t="n">
         <v>4.541333333333324</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>291297.7272</v>
       </c>
       <c r="G28" t="n">
+        <v>4.595999999999998</v>
+      </c>
+      <c r="H28" t="n">
         <v>4.542666666666658</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>330157.8308</v>
       </c>
       <c r="G29" t="n">
+        <v>4.593999999999998</v>
+      </c>
+      <c r="H29" t="n">
         <v>4.543833333333324</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>74324.0144</v>
       </c>
       <c r="G30" t="n">
+        <v>4.595333333333331</v>
+      </c>
+      <c r="H30" t="n">
         <v>4.545499999999991</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>70000</v>
       </c>
       <c r="G31" t="n">
+        <v>4.595333333333331</v>
+      </c>
+      <c r="H31" t="n">
         <v>4.546833333333324</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>517707.694</v>
       </c>
       <c r="G32" t="n">
+        <v>4.593999999999998</v>
+      </c>
+      <c r="H32" t="n">
         <v>4.548333333333323</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>2048.3508</v>
       </c>
       <c r="G33" t="n">
+        <v>4.591999999999998</v>
+      </c>
+      <c r="H33" t="n">
         <v>4.549833333333323</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>34264.5418</v>
       </c>
       <c r="G34" t="n">
+        <v>4.589999999999998</v>
+      </c>
+      <c r="H34" t="n">
         <v>4.551166666666656</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>28300.6054</v>
       </c>
       <c r="G35" t="n">
+        <v>4.58333333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>4.552166666666656</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>4096.7016</v>
       </c>
       <c r="G36" t="n">
+        <v>4.57733333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>4.553166666666656</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>42486.683</v>
       </c>
       <c r="G37" t="n">
+        <v>4.572666666666663</v>
+      </c>
+      <c r="H37" t="n">
         <v>4.55399999999999</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>21951.7604</v>
       </c>
       <c r="G38" t="n">
+        <v>4.572666666666663</v>
+      </c>
+      <c r="H38" t="n">
         <v>4.555333333333323</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>471858.9471</v>
       </c>
       <c r="G39" t="n">
+        <v>4.569333333333329</v>
+      </c>
+      <c r="H39" t="n">
         <v>4.555666666666656</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>109894.7865</v>
       </c>
       <c r="G40" t="n">
+        <v>4.563999999999996</v>
+      </c>
+      <c r="H40" t="n">
         <v>4.556166666666655</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>1239.913</v>
       </c>
       <c r="G41" t="n">
+        <v>4.558666666666663</v>
+      </c>
+      <c r="H41" t="n">
         <v>4.556499999999988</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>2293575.2108</v>
       </c>
       <c r="G42" t="n">
+        <v>4.559333333333329</v>
+      </c>
+      <c r="H42" t="n">
         <v>4.557666666666655</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>25634.9942</v>
       </c>
       <c r="G43" t="n">
+        <v>4.557999999999995</v>
+      </c>
+      <c r="H43" t="n">
         <v>4.558499999999989</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>44746.7901</v>
       </c>
       <c r="G44" t="n">
+        <v>4.555999999999995</v>
+      </c>
+      <c r="H44" t="n">
         <v>4.559166666666655</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>93.6123</v>
       </c>
       <c r="G45" t="n">
+        <v>4.551999999999995</v>
+      </c>
+      <c r="H45" t="n">
         <v>4.559833333333322</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>1506323.2017</v>
       </c>
       <c r="G46" t="n">
+        <v>4.547999999999996</v>
+      </c>
+      <c r="H46" t="n">
         <v>4.559833333333322</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>325256.504</v>
       </c>
       <c r="G47" t="n">
+        <v>4.544666666666662</v>
+      </c>
+      <c r="H47" t="n">
         <v>4.559833333333322</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>50000</v>
       </c>
       <c r="G48" t="n">
+        <v>4.541999999999995</v>
+      </c>
+      <c r="H48" t="n">
         <v>4.559999999999989</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>403.9735</v>
       </c>
       <c r="G49" t="n">
+        <v>4.539999999999995</v>
+      </c>
+      <c r="H49" t="n">
         <v>4.559833333333321</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>362000</v>
       </c>
       <c r="G50" t="n">
+        <v>4.537999999999995</v>
+      </c>
+      <c r="H50" t="n">
         <v>4.559333333333321</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>18093.3774</v>
       </c>
       <c r="G51" t="n">
+        <v>4.535999999999995</v>
+      </c>
+      <c r="H51" t="n">
         <v>4.558999999999987</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>88330.68429999999</v>
       </c>
       <c r="G52" t="n">
+        <v>4.534666666666662</v>
+      </c>
+      <c r="H52" t="n">
         <v>4.559166666666654</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>20117.049</v>
       </c>
       <c r="G53" t="n">
+        <v>4.531999999999995</v>
+      </c>
+      <c r="H53" t="n">
         <v>4.55933333333332</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>78000</v>
       </c>
       <c r="G54" t="n">
+        <v>4.532666666666661</v>
+      </c>
+      <c r="H54" t="n">
         <v>4.559666666666653</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>91000</v>
       </c>
       <c r="G55" t="n">
+        <v>4.532666666666661</v>
+      </c>
+      <c r="H55" t="n">
         <v>4.560166666666652</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>733397.8651000001</v>
       </c>
       <c r="G56" t="n">
+        <v>4.531333333333328</v>
+      </c>
+      <c r="H56" t="n">
         <v>4.559833333333319</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>1978.0855</v>
       </c>
       <c r="G57" t="n">
+        <v>4.527333333333329</v>
+      </c>
+      <c r="H57" t="n">
         <v>4.559499999999986</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>57472.8888</v>
       </c>
       <c r="G58" t="n">
+        <v>4.523999999999996</v>
+      </c>
+      <c r="H58" t="n">
         <v>4.558833333333319</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>50000</v>
       </c>
       <c r="G59" t="n">
+        <v>4.520666666666661</v>
+      </c>
+      <c r="H59" t="n">
         <v>4.557999999999985</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>18747.9644</v>
       </c>
       <c r="G60" t="n">
+        <v>4.517999999999994</v>
+      </c>
+      <c r="H60" t="n">
         <v>4.557666666666652</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>766908.8157</v>
       </c>
       <c r="G61" t="n">
+        <v>4.515333333333328</v>
+      </c>
+      <c r="H61" t="n">
         <v>4.556833333333319</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>19203.4318</v>
       </c>
       <c r="G62" t="n">
+        <v>4.512666666666662</v>
+      </c>
+      <c r="H62" t="n">
         <v>4.55583333333332</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>2232.6556</v>
       </c>
       <c r="G63" t="n">
+        <v>4.508666666666661</v>
+      </c>
+      <c r="H63" t="n">
         <v>4.554666666666653</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>140057.4183</v>
       </c>
       <c r="G64" t="n">
+        <v>4.503999999999994</v>
+      </c>
+      <c r="H64" t="n">
         <v>4.553333333333319</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>78000</v>
       </c>
       <c r="G65" t="n">
+        <v>4.501999999999994</v>
+      </c>
+      <c r="H65" t="n">
         <v>4.551999999999986</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>35682.1031</v>
       </c>
       <c r="G66" t="n">
+        <v>4.499999999999995</v>
+      </c>
+      <c r="H66" t="n">
         <v>4.550999999999986</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>110000.9999</v>
       </c>
       <c r="G67" t="n">
+        <v>4.497999999999994</v>
+      </c>
+      <c r="H67" t="n">
         <v>4.549666666666653</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>2022.2222</v>
       </c>
       <c r="G68" t="n">
+        <v>4.496666666666661</v>
+      </c>
+      <c r="H68" t="n">
         <v>4.548666666666652</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>3700247.6565</v>
       </c>
       <c r="G69" t="n">
+        <v>4.493333333333328</v>
+      </c>
+      <c r="H69" t="n">
         <v>4.54683333333332</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>1899643.844122395</v>
       </c>
       <c r="G70" t="n">
+        <v>4.491999999999995</v>
+      </c>
+      <c r="H70" t="n">
         <v>4.545999999999987</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>2081.1709</v>
       </c>
       <c r="G71" t="n">
+        <v>4.489999999999995</v>
+      </c>
+      <c r="H71" t="n">
         <v>4.54483333333332</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>3809.9407</v>
       </c>
       <c r="G72" t="n">
+        <v>4.485999999999994</v>
+      </c>
+      <c r="H72" t="n">
         <v>4.542499999999986</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>113000</v>
       </c>
       <c r="G73" t="n">
+        <v>4.484666666666661</v>
+      </c>
+      <c r="H73" t="n">
         <v>4.540666666666653</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>34199.4636</v>
       </c>
       <c r="G74" t="n">
+        <v>4.483333333333329</v>
+      </c>
+      <c r="H74" t="n">
         <v>4.538499999999987</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>208780.8035</v>
       </c>
       <c r="G75" t="n">
+        <v>4.481999999999996</v>
+      </c>
+      <c r="H75" t="n">
         <v>4.536833333333321</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>53957.3008</v>
       </c>
       <c r="G76" t="n">
+        <v>4.484666666666661</v>
+      </c>
+      <c r="H76" t="n">
         <v>4.53583333333332</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>78000</v>
       </c>
       <c r="G77" t="n">
+        <v>4.489999999999995</v>
+      </c>
+      <c r="H77" t="n">
         <v>4.535333333333321</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>126000</v>
       </c>
       <c r="G78" t="n">
+        <v>4.497333333333329</v>
+      </c>
+      <c r="H78" t="n">
         <v>4.534999999999988</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>23000</v>
       </c>
       <c r="G79" t="n">
+        <v>4.505333333333329</v>
+      </c>
+      <c r="H79" t="n">
         <v>4.534833333333322</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>478273.9761552174</v>
       </c>
       <c r="G80" t="n">
+        <v>4.512666666666663</v>
+      </c>
+      <c r="H80" t="n">
         <v>4.533999999999989</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>13379.2722</v>
       </c>
       <c r="G81" t="n">
+        <v>4.516666666666663</v>
+      </c>
+      <c r="H81" t="n">
         <v>4.532499999999989</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>234000</v>
       </c>
       <c r="G82" t="n">
+        <v>4.51933333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>4.531166666666656</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>1000</v>
       </c>
       <c r="G83" t="n">
+        <v>4.523999999999997</v>
+      </c>
+      <c r="H83" t="n">
         <v>4.531333333333323</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>225000</v>
       </c>
       <c r="G84" t="n">
+        <v>4.530666666666663</v>
+      </c>
+      <c r="H84" t="n">
         <v>4.53149999999999</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>2205.5978</v>
       </c>
       <c r="G85" t="n">
+        <v>4.536666666666663</v>
+      </c>
+      <c r="H85" t="n">
         <v>4.531333333333323</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>11265.6521</v>
       </c>
       <c r="G86" t="n">
+        <v>4.544666666666662</v>
+      </c>
+      <c r="H86" t="n">
         <v>4.531166666666656</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>86769.23910000001</v>
       </c>
       <c r="G87" t="n">
+        <v>4.553999999999996</v>
+      </c>
+      <c r="H87" t="n">
         <v>4.531666666666657</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>10000</v>
       </c>
       <c r="G88" t="n">
+        <v>4.559999999999996</v>
+      </c>
+      <c r="H88" t="n">
         <v>4.531666666666657</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>58342.8103</v>
       </c>
       <c r="G89" t="n">
+        <v>4.567999999999996</v>
+      </c>
+      <c r="H89" t="n">
         <v>4.53199999999999</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>90526.7205</v>
       </c>
       <c r="G90" t="n">
+        <v>4.574666666666662</v>
+      </c>
+      <c r="H90" t="n">
         <v>4.531666666666656</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>302080.61</v>
       </c>
       <c r="G91" t="n">
+        <v>4.579333333333329</v>
+      </c>
+      <c r="H91" t="n">
         <v>4.531833333333322</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>17549</v>
       </c>
       <c r="G92" t="n">
+        <v>4.579999999999996</v>
+      </c>
+      <c r="H92" t="n">
         <v>4.531833333333322</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>50284.0437</v>
       </c>
       <c r="G93" t="n">
+        <v>4.579999999999996</v>
+      </c>
+      <c r="H93" t="n">
         <v>4.531999999999988</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>22758.414</v>
       </c>
       <c r="G94" t="n">
+        <v>4.578666666666662</v>
+      </c>
+      <c r="H94" t="n">
         <v>4.531999999999988</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>184585.4081</v>
       </c>
       <c r="G95" t="n">
+        <v>4.575999999999996</v>
+      </c>
+      <c r="H95" t="n">
         <v>4.532166666666655</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>369000</v>
       </c>
       <c r="G96" t="n">
+        <v>4.576666666666664</v>
+      </c>
+      <c r="H96" t="n">
         <v>4.532333333333322</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>25.3829</v>
       </c>
       <c r="G97" t="n">
+        <v>4.578666666666662</v>
+      </c>
+      <c r="H97" t="n">
         <v>4.532666666666655</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>249138.1730204793</v>
       </c>
       <c r="G98" t="n">
+        <v>4.579999999999996</v>
+      </c>
+      <c r="H98" t="n">
         <v>4.533166666666655</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>465536.1194</v>
       </c>
       <c r="G99" t="n">
+        <v>4.578666666666662</v>
+      </c>
+      <c r="H99" t="n">
         <v>4.533833333333321</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>350000</v>
       </c>
       <c r="G100" t="n">
+        <v>4.577999999999997</v>
+      </c>
+      <c r="H100" t="n">
         <v>4.534833333333322</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>10000</v>
       </c>
       <c r="G101" t="n">
+        <v>4.575999999999997</v>
+      </c>
+      <c r="H101" t="n">
         <v>4.535499999999988</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>145166.6666</v>
       </c>
       <c r="G102" t="n">
+        <v>4.573999999999997</v>
+      </c>
+      <c r="H102" t="n">
         <v>4.535333333333322</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>38000</v>
       </c>
       <c r="G103" t="n">
+        <v>4.575333333333331</v>
+      </c>
+      <c r="H103" t="n">
         <v>4.535999999999988</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>314515.0045</v>
       </c>
       <c r="G104" t="n">
+        <v>4.573333333333331</v>
+      </c>
+      <c r="H104" t="n">
         <v>4.536333333333321</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>156000</v>
       </c>
       <c r="G105" t="n">
+        <v>4.573999999999998</v>
+      </c>
+      <c r="H105" t="n">
         <v>4.537166666666653</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>719.5137</v>
       </c>
       <c r="G106" t="n">
+        <v>4.573999999999998</v>
+      </c>
+      <c r="H106" t="n">
         <v>4.538333333333321</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>90526.7205</v>
       </c>
       <c r="G107" t="n">
+        <v>4.573333333333331</v>
+      </c>
+      <c r="H107" t="n">
         <v>4.538999999999987</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>200</v>
       </c>
       <c r="G108" t="n">
+        <v>4.573333333333331</v>
+      </c>
+      <c r="H108" t="n">
         <v>4.539833333333321</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>109800.3689</v>
       </c>
       <c r="G109" t="n">
+        <v>4.573999999999997</v>
+      </c>
+      <c r="H109" t="n">
         <v>4.540499999999988</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>12682.41090239651</v>
       </c>
       <c r="G110" t="n">
+        <v>4.575999999999997</v>
+      </c>
+      <c r="H110" t="n">
         <v>4.541666666666655</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>455978</v>
       </c>
       <c r="G111" t="n">
+        <v>4.575999999999997</v>
+      </c>
+      <c r="H111" t="n">
         <v>4.542333333333321</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>12408.1102</v>
       </c>
       <c r="G112" t="n">
+        <v>4.575999999999997</v>
+      </c>
+      <c r="H112" t="n">
         <v>4.542999999999989</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,21 @@
         <v>137000</v>
       </c>
       <c r="G113" t="n">
+        <v>4.575999999999997</v>
+      </c>
+      <c r="H113" t="n">
         <v>4.544166666666655</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4709,21 @@
         <v>107000</v>
       </c>
       <c r="G114" t="n">
+        <v>4.576666666666664</v>
+      </c>
+      <c r="H114" t="n">
         <v>4.544833333333322</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4747,21 @@
         <v>35765.2445</v>
       </c>
       <c r="G115" t="n">
+        <v>4.575333333333329</v>
+      </c>
+      <c r="H115" t="n">
         <v>4.545499999999989</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4785,21 @@
         <v>312000</v>
       </c>
       <c r="G116" t="n">
+        <v>4.574666666666663</v>
+      </c>
+      <c r="H116" t="n">
         <v>4.546333333333322</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4823,21 @@
         <v>75120.7298</v>
       </c>
       <c r="G117" t="n">
+        <v>4.573999999999997</v>
+      </c>
+      <c r="H117" t="n">
         <v>4.546999999999989</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4861,21 @@
         <v>136000</v>
       </c>
       <c r="G118" t="n">
+        <v>4.57133333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>4.547833333333323</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +4899,21 @@
         <v>43859.6491</v>
       </c>
       <c r="G119" t="n">
+        <v>4.57133333333333</v>
+      </c>
+      <c r="H119" t="n">
         <v>4.54899999999999</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +4937,21 @@
         <v>78000</v>
       </c>
       <c r="G120" t="n">
+        <v>4.570666666666663</v>
+      </c>
+      <c r="H120" t="n">
         <v>4.550333333333323</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +4975,21 @@
         <v>47707.8291</v>
       </c>
       <c r="G121" t="n">
+        <v>4.568666666666663</v>
+      </c>
+      <c r="H121" t="n">
         <v>4.551666666666656</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5013,21 @@
         <v>58433.76178910676</v>
       </c>
       <c r="G122" t="n">
+        <v>4.570666666666663</v>
+      </c>
+      <c r="H122" t="n">
         <v>4.553499999999988</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5051,21 @@
         <v>100000</v>
       </c>
       <c r="G123" t="n">
+        <v>4.571333333333329</v>
+      </c>
+      <c r="H123" t="n">
         <v>4.555499999999989</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5089,21 @@
         <v>25933.869</v>
       </c>
       <c r="G124" t="n">
+        <v>4.571999999999995</v>
+      </c>
+      <c r="H124" t="n">
         <v>4.557499999999989</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5127,21 @@
         <v>53822.4076</v>
       </c>
       <c r="G125" t="n">
+        <v>4.571333333333328</v>
+      </c>
+      <c r="H125" t="n">
         <v>4.558999999999988</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5165,21 @@
         <v>33976.9823</v>
       </c>
       <c r="G126" t="n">
+        <v>4.571999999999995</v>
+      </c>
+      <c r="H126" t="n">
         <v>4.560333333333321</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5203,21 @@
         <v>86000</v>
       </c>
       <c r="G127" t="n">
+        <v>4.572666666666661</v>
+      </c>
+      <c r="H127" t="n">
         <v>4.561666666666654</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5241,21 @@
         <v>364000</v>
       </c>
       <c r="G128" t="n">
+        <v>4.572666666666661</v>
+      </c>
+      <c r="H128" t="n">
         <v>4.563166666666654</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5279,21 @@
         <v>134571.2552</v>
       </c>
       <c r="G129" t="n">
+        <v>4.573333333333327</v>
+      </c>
+      <c r="H129" t="n">
         <v>4.56483333333332</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5317,21 @@
         <v>349000</v>
       </c>
       <c r="G130" t="n">
+        <v>4.573999999999994</v>
+      </c>
+      <c r="H130" t="n">
         <v>4.565999999999987</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5355,21 @@
         <v>68000</v>
       </c>
       <c r="G131" t="n">
+        <v>4.575333333333327</v>
+      </c>
+      <c r="H131" t="n">
         <v>4.567666666666653</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5393,21 @@
         <v>792000</v>
       </c>
       <c r="G132" t="n">
+        <v>4.576666666666659</v>
+      </c>
+      <c r="H132" t="n">
         <v>4.569666666666652</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5431,21 @@
         <v>242926</v>
       </c>
       <c r="G133" t="n">
+        <v>4.57866666666666</v>
+      </c>
+      <c r="H133" t="n">
         <v>4.571333333333318</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5469,21 @@
         <v>607315</v>
       </c>
       <c r="G134" t="n">
+        <v>4.579999999999993</v>
+      </c>
+      <c r="H134" t="n">
         <v>4.573166666666651</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5507,21 @@
         <v>682000</v>
       </c>
       <c r="G135" t="n">
+        <v>4.577999999999992</v>
+      </c>
+      <c r="H135" t="n">
         <v>4.574333333333318</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5545,21 @@
         <v>435.7298</v>
       </c>
       <c r="G136" t="n">
+        <v>4.579999999999993</v>
+      </c>
+      <c r="H136" t="n">
         <v>4.575499999999985</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5583,21 @@
         <v>13284.8538</v>
       </c>
       <c r="G137" t="n">
+        <v>4.577999999999992</v>
+      </c>
+      <c r="H137" t="n">
         <v>4.575499999999985</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5621,21 @@
         <v>381000</v>
       </c>
       <c r="G138" t="n">
+        <v>4.575999999999993</v>
+      </c>
+      <c r="H138" t="n">
         <v>4.575166666666651</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5659,21 @@
         <v>32278.1332</v>
       </c>
       <c r="G139" t="n">
+        <v>4.573999999999993</v>
+      </c>
+      <c r="H139" t="n">
         <v>4.574666666666652</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +5697,21 @@
         <v>22548.6627</v>
       </c>
       <c r="G140" t="n">
+        <v>4.571999999999992</v>
+      </c>
+      <c r="H140" t="n">
         <v>4.573833333333318</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +5735,21 @@
         <v>302748.1788</v>
       </c>
       <c r="G141" t="n">
+        <v>4.568666666666659</v>
+      </c>
+      <c r="H141" t="n">
         <v>4.573333333333318</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +5773,21 @@
         <v>232768.0597</v>
       </c>
       <c r="G142" t="n">
+        <v>4.565333333333326</v>
+      </c>
+      <c r="H142" t="n">
         <v>4.57316666666665</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +5811,21 @@
         <v>252958.8977</v>
       </c>
       <c r="G143" t="n">
+        <v>4.561333333333326</v>
+      </c>
+      <c r="H143" t="n">
         <v>4.572499999999983</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +5849,21 @@
         <v>157899.8448</v>
       </c>
       <c r="G144" t="n">
+        <v>4.557333333333326</v>
+      </c>
+      <c r="H144" t="n">
         <v>4.571499999999983</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +5887,21 @@
         <v>326421.538</v>
       </c>
       <c r="G145" t="n">
+        <v>4.553333333333326</v>
+      </c>
+      <c r="H145" t="n">
         <v>4.570166666666649</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +5925,21 @@
         <v>323118.9918</v>
       </c>
       <c r="G146" t="n">
+        <v>4.551333333333326</v>
+      </c>
+      <c r="H146" t="n">
         <v>4.569333333333316</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,18 +5963,21 @@
         <v>15438.1278</v>
       </c>
       <c r="G147" t="n">
+        <v>4.549999999999993</v>
+      </c>
+      <c r="H147" t="n">
         <v>4.568666666666648</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6001,21 @@
         <v>556000</v>
       </c>
       <c r="G148" t="n">
+        <v>4.547999999999992</v>
+      </c>
+      <c r="H148" t="n">
         <v>4.568333333333316</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6039,21 @@
         <v>18759.6916</v>
       </c>
       <c r="G149" t="n">
+        <v>4.545999999999992</v>
+      </c>
+      <c r="H149" t="n">
         <v>4.56766666666665</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6077,21 @@
         <v>1747191.778</v>
       </c>
       <c r="G150" t="n">
+        <v>4.543999999999992</v>
+      </c>
+      <c r="H150" t="n">
         <v>4.56666666666665</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6115,21 @@
         <v>34095.3338</v>
       </c>
       <c r="G151" t="n">
+        <v>4.540666666666659</v>
+      </c>
+      <c r="H151" t="n">
         <v>4.565833333333317</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6153,21 @@
         <v>210021</v>
       </c>
       <c r="G152" t="n">
+        <v>4.540666666666659</v>
+      </c>
+      <c r="H152" t="n">
         <v>4.56566666666665</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6191,21 @@
         <v>150</v>
       </c>
       <c r="G153" t="n">
+        <v>4.537333333333326</v>
+      </c>
+      <c r="H153" t="n">
         <v>4.564499999999984</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6229,21 @@
         <v>150</v>
       </c>
       <c r="G154" t="n">
+        <v>4.53466666666666</v>
+      </c>
+      <c r="H154" t="n">
         <v>4.56366666666665</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6267,21 @@
         <v>96000</v>
       </c>
       <c r="G155" t="n">
+        <v>4.533333333333327</v>
+      </c>
+      <c r="H155" t="n">
         <v>4.56316666666665</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,18 +6305,21 @@
         <v>106000</v>
       </c>
       <c r="G156" t="n">
+        <v>4.533999999999994</v>
+      </c>
+      <c r="H156" t="n">
         <v>4.56266666666665</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6343,21 @@
         <v>19554.5239</v>
       </c>
       <c r="G157" t="n">
+        <v>4.531999999999994</v>
+      </c>
+      <c r="H157" t="n">
         <v>4.561499999999984</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6381,21 @@
         <v>50000</v>
       </c>
       <c r="G158" t="n">
+        <v>4.529333333333327</v>
+      </c>
+      <c r="H158" t="n">
         <v>4.559833333333318</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +6419,21 @@
         <v>10000</v>
       </c>
       <c r="G159" t="n">
+        <v>4.527333333333327</v>
+      </c>
+      <c r="H159" t="n">
         <v>4.558666666666651</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +6457,21 @@
         <v>164501.8593</v>
       </c>
       <c r="G160" t="n">
+        <v>4.52466666666666</v>
+      </c>
+      <c r="H160" t="n">
         <v>4.556833333333318</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +6495,21 @@
         <v>101055.0408</v>
       </c>
       <c r="G161" t="n">
+        <v>4.519999999999994</v>
+      </c>
+      <c r="H161" t="n">
         <v>4.555333333333319</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,18 +6533,21 @@
         <v>19528.8141</v>
       </c>
       <c r="G162" t="n">
+        <v>4.514666666666661</v>
+      </c>
+      <c r="H162" t="n">
         <v>4.553833333333319</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,18 +6571,21 @@
         <v>164449.4112</v>
       </c>
       <c r="G163" t="n">
+        <v>4.507333333333327</v>
+      </c>
+      <c r="H163" t="n">
         <v>4.55133333333332</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,18 +6609,21 @@
         <v>429370.4621</v>
       </c>
       <c r="G164" t="n">
+        <v>4.499333333333327</v>
+      </c>
+      <c r="H164" t="n">
         <v>4.549166666666653</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,18 +6647,21 @@
         <v>11247.0853</v>
       </c>
       <c r="G165" t="n">
+        <v>4.492666666666661</v>
+      </c>
+      <c r="H165" t="n">
         <v>4.546333333333321</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,24 +6685,21 @@
         <v>440523.3661</v>
       </c>
       <c r="G166" t="n">
+        <v>4.483333333333328</v>
+      </c>
+      <c r="H166" t="n">
         <v>4.543166666666654</v>
       </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>4.42</v>
+        <v>0</v>
       </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6229,24 +6723,21 @@
         <v>349000</v>
       </c>
       <c r="G167" t="n">
+        <v>4.47666666666666</v>
+      </c>
+      <c r="H167" t="n">
         <v>4.541499999999987</v>
       </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
       <c r="J167" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6270,24 +6761,21 @@
         <v>79104.9238</v>
       </c>
       <c r="G168" t="n">
+        <v>4.474666666666661</v>
+      </c>
+      <c r="H168" t="n">
         <v>4.539833333333321</v>
       </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
       <c r="J168" t="n">
-        <v>4.46</v>
+        <v>0</v>
       </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6311,22 +6799,21 @@
         <v>21211.2915</v>
       </c>
       <c r="G169" t="n">
+        <v>4.47266666666666</v>
+      </c>
+      <c r="H169" t="n">
         <v>4.538333333333322</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6350,22 +6837,21 @@
         <v>1111402.2172</v>
       </c>
       <c r="G170" t="n">
+        <v>4.471333333333328</v>
+      </c>
+      <c r="H170" t="n">
         <v>4.536999999999988</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6389,22 +6875,21 @@
         <v>1807.9822</v>
       </c>
       <c r="G171" t="n">
+        <v>4.469333333333327</v>
+      </c>
+      <c r="H171" t="n">
         <v>4.535999999999988</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6428,22 +6913,21 @@
         <v>70360</v>
       </c>
       <c r="G172" t="n">
+        <v>4.469333333333327</v>
+      </c>
+      <c r="H172" t="n">
         <v>4.534833333333322</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6467,22 +6951,21 @@
         <v>2015.2909</v>
       </c>
       <c r="G173" t="n">
+        <v>4.470666666666661</v>
+      </c>
+      <c r="H173" t="n">
         <v>4.533499999999989</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6506,22 +6989,21 @@
         <v>19798.0088</v>
       </c>
       <c r="G174" t="n">
+        <v>4.472666666666661</v>
+      </c>
+      <c r="H174" t="n">
         <v>4.532666666666655</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6545,22 +7027,21 @@
         <v>20071.3526</v>
       </c>
       <c r="G175" t="n">
+        <v>4.473333333333327</v>
+      </c>
+      <c r="H175" t="n">
         <v>4.531333333333322</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6584,22 +7065,21 @@
         <v>21650.5981</v>
       </c>
       <c r="G176" t="n">
+        <v>4.473999999999993</v>
+      </c>
+      <c r="H176" t="n">
         <v>4.530166666666656</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6623,22 +7103,21 @@
         <v>3700.7008</v>
       </c>
       <c r="G177" t="n">
+        <v>4.47466666666666</v>
+      </c>
+      <c r="H177" t="n">
         <v>4.528999999999988</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6662,22 +7141,21 @@
         <v>21758.7664</v>
       </c>
       <c r="G178" t="n">
+        <v>4.47466666666666</v>
+      </c>
+      <c r="H178" t="n">
         <v>4.527166666666655</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6701,22 +7179,21 @@
         <v>217000</v>
       </c>
       <c r="G179" t="n">
+        <v>4.475333333333325</v>
+      </c>
+      <c r="H179" t="n">
         <v>4.525166666666655</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6740,22 +7217,21 @@
         <v>228000</v>
       </c>
       <c r="G180" t="n">
+        <v>4.476666666666659</v>
+      </c>
+      <c r="H180" t="n">
         <v>4.522833333333322</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6779,22 +7255,21 @@
         <v>161075.0173</v>
       </c>
       <c r="G181" t="n">
+        <v>4.477333333333324</v>
+      </c>
+      <c r="H181" t="n">
         <v>4.520333333333323</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6818,22 +7293,21 @@
         <v>622749.2506</v>
       </c>
       <c r="G182" t="n">
+        <v>4.473999999999991</v>
+      </c>
+      <c r="H182" t="n">
         <v>4.517333333333323</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6857,22 +7331,21 @@
         <v>78000</v>
       </c>
       <c r="G183" t="n">
+        <v>4.468666666666659</v>
+      </c>
+      <c r="H183" t="n">
         <v>4.514166666666656</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6896,22 +7369,21 @@
         <v>234000</v>
       </c>
       <c r="G184" t="n">
+        <v>4.465333333333324</v>
+      </c>
+      <c r="H184" t="n">
         <v>4.511666666666657</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6935,22 +7407,21 @@
         <v>2471.9101</v>
       </c>
       <c r="G185" t="n">
+        <v>4.45999999999999</v>
+      </c>
+      <c r="H185" t="n">
         <v>4.509166666666657</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6974,22 +7445,453 @@
         <v>53543.0539</v>
       </c>
       <c r="G186" t="n">
+        <v>4.453333333333322</v>
+      </c>
+      <c r="H186" t="n">
         <v>4.506333333333325</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="C187" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="D187" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="E187" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F187" t="n">
+        <v>33936.6515</v>
+      </c>
+      <c r="G187" t="n">
+        <v>4.44799999999999</v>
+      </c>
+      <c r="H187" t="n">
+        <v>4.503666666666659</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C188" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D188" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E188" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F188" t="n">
+        <v>100</v>
+      </c>
+      <c r="G188" t="n">
+        <v>4.440666666666656</v>
+      </c>
+      <c r="H188" t="n">
+        <v>4.500499999999992</v>
+      </c>
+      <c r="I188" t="n">
+        <v>1</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="L188" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="C189" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="D189" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="E189" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="F189" t="n">
+        <v>6597.004</v>
+      </c>
+      <c r="G189" t="n">
+        <v>4.43199999999999</v>
+      </c>
+      <c r="H189" t="n">
+        <v>4.497333333333326</v>
+      </c>
+      <c r="I189" t="n">
+        <v>1</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L189" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="M189" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M186" t="n">
+      <c r="N189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="C190" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="D190" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="E190" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F190" t="n">
+        <v>9419.413</v>
+      </c>
+      <c r="G190" t="n">
+        <v>4.427999999999991</v>
+      </c>
+      <c r="H190" t="n">
+        <v>4.494833333333326</v>
+      </c>
+      <c r="I190" t="n">
+        <v>1</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="L190" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="C191" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="D191" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="E191" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F191" t="n">
+        <v>9398.1981</v>
+      </c>
+      <c r="G191" t="n">
+        <v>4.424666666666657</v>
+      </c>
+      <c r="H191" t="n">
+        <v>4.492499999999993</v>
+      </c>
+      <c r="I191" t="n">
+        <v>1</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="L191" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="C192" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="D192" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="E192" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F192" t="n">
+        <v>27000</v>
+      </c>
+      <c r="G192" t="n">
+        <v>4.419999999999991</v>
+      </c>
+      <c r="H192" t="n">
+        <v>4.489833333333326</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="C193" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="D193" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="E193" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="F193" t="n">
+        <v>161305.1194</v>
+      </c>
+      <c r="G193" t="n">
+        <v>4.416666666666658</v>
+      </c>
+      <c r="H193" t="n">
+        <v>4.48666666666666</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="C194" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="D194" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="E194" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="F194" t="n">
+        <v>4420</v>
+      </c>
+      <c r="G194" t="n">
+        <v>4.414666666666658</v>
+      </c>
+      <c r="H194" t="n">
+        <v>4.483833333333327</v>
+      </c>
+      <c r="I194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="L194" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="C195" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="D195" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="E195" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="F195" t="n">
+        <v>71296.3382</v>
+      </c>
+      <c r="G195" t="n">
+        <v>4.412666666666658</v>
+      </c>
+      <c r="H195" t="n">
+        <v>4.481499999999994</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="C196" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="D196" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="E196" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F196" t="n">
+        <v>20125.668</v>
+      </c>
+      <c r="G196" t="n">
+        <v>4.413333333333325</v>
+      </c>
+      <c r="H196" t="n">
+        <v>4.478666666666661</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-10 BackTest VET.xlsx
+++ b/BackTest/2019-10-10 BackTest VET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.58</v>
+        <v>4.4</v>
       </c>
       <c r="C2" t="n">
-        <v>4.58</v>
+        <v>4.38</v>
       </c>
       <c r="D2" t="n">
-        <v>4.58</v>
+        <v>4.4</v>
       </c>
       <c r="E2" t="n">
-        <v>4.58</v>
+        <v>4.38</v>
       </c>
       <c r="F2" t="n">
-        <v>127301.1144</v>
+        <v>31190.2747</v>
       </c>
       <c r="G2" t="n">
-        <v>6755922.697355654</v>
+        <v>3014086.078355655</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,31 +474,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.58</v>
+        <v>4.41</v>
       </c>
       <c r="C3" t="n">
-        <v>4.58</v>
+        <v>4.39</v>
       </c>
       <c r="D3" t="n">
-        <v>4.58</v>
+        <v>4.41</v>
       </c>
       <c r="E3" t="n">
-        <v>4.58</v>
+        <v>4.39</v>
       </c>
       <c r="F3" t="n">
-        <v>10000</v>
+        <v>470927.6389</v>
       </c>
       <c r="G3" t="n">
-        <v>6755922.697355654</v>
+        <v>3485013.717255655</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.38</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -510,32 +514,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.58</v>
+        <v>4.39</v>
       </c>
       <c r="C4" t="n">
-        <v>4.59</v>
+        <v>4.39</v>
       </c>
       <c r="D4" t="n">
-        <v>4.59</v>
+        <v>4.39</v>
       </c>
       <c r="E4" t="n">
-        <v>4.58</v>
+        <v>4.39</v>
       </c>
       <c r="F4" t="n">
-        <v>55859.902</v>
+        <v>6166.608</v>
       </c>
       <c r="G4" t="n">
-        <v>6811782.599355654</v>
+        <v>3485013.717255655</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.58</v>
+        <v>4.39</v>
       </c>
       <c r="C5" t="n">
-        <v>4.59</v>
+        <v>4.39</v>
       </c>
       <c r="D5" t="n">
-        <v>4.59</v>
+        <v>4.39</v>
       </c>
       <c r="E5" t="n">
-        <v>4.58</v>
+        <v>4.39</v>
       </c>
       <c r="F5" t="n">
-        <v>59615.4014</v>
+        <v>1999.6176</v>
       </c>
       <c r="G5" t="n">
-        <v>6811782.599355654</v>
+        <v>3485013.717255655</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,31 +602,35 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.59</v>
+        <v>4.38</v>
       </c>
       <c r="C6" t="n">
-        <v>4.59</v>
+        <v>4.38</v>
       </c>
       <c r="D6" t="n">
-        <v>4.59</v>
+        <v>4.38</v>
       </c>
       <c r="E6" t="n">
-        <v>4.59</v>
+        <v>4.38</v>
       </c>
       <c r="F6" t="n">
-        <v>4283.8296</v>
+        <v>4844.6967</v>
       </c>
       <c r="G6" t="n">
-        <v>6811782.599355654</v>
+        <v>3480169.020555655</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.39</v>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -618,32 +642,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.61</v>
+        <v>4.43</v>
       </c>
       <c r="C7" t="n">
-        <v>4.65</v>
+        <v>4.43</v>
       </c>
       <c r="D7" t="n">
-        <v>4.65</v>
+        <v>4.43</v>
       </c>
       <c r="E7" t="n">
-        <v>4.61</v>
+        <v>4.43</v>
       </c>
       <c r="F7" t="n">
-        <v>212264.7311</v>
+        <v>2257.3363</v>
       </c>
       <c r="G7" t="n">
-        <v>7024047.330455654</v>
+        <v>3482426.356855655</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,32 +686,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.65</v>
+        <v>4.43</v>
       </c>
       <c r="C8" t="n">
-        <v>4.65</v>
+        <v>4.43</v>
       </c>
       <c r="D8" t="n">
-        <v>4.65</v>
+        <v>4.43</v>
       </c>
       <c r="E8" t="n">
-        <v>4.65</v>
+        <v>4.43</v>
       </c>
       <c r="F8" t="n">
-        <v>62.7956</v>
+        <v>22747.4052</v>
       </c>
       <c r="G8" t="n">
-        <v>7024047.330455654</v>
+        <v>3482426.356855655</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,31 +730,35 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.62</v>
+        <v>4.44</v>
       </c>
       <c r="C9" t="n">
-        <v>4.62</v>
+        <v>4.44</v>
       </c>
       <c r="D9" t="n">
-        <v>4.62</v>
+        <v>4.44</v>
       </c>
       <c r="E9" t="n">
-        <v>4.62</v>
+        <v>4.44</v>
       </c>
       <c r="F9" t="n">
-        <v>8353.633099999999</v>
+        <v>1813.063</v>
       </c>
       <c r="G9" t="n">
-        <v>7015693.697355654</v>
+        <v>3484239.419855655</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.43</v>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
@@ -726,32 +770,38 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.56</v>
+        <v>4.43</v>
       </c>
       <c r="C10" t="n">
-        <v>4.56</v>
+        <v>4.43</v>
       </c>
       <c r="D10" t="n">
-        <v>4.56</v>
+        <v>4.43</v>
       </c>
       <c r="E10" t="n">
-        <v>4.56</v>
+        <v>4.43</v>
       </c>
       <c r="F10" t="n">
-        <v>4632.4792</v>
+        <v>4340.6309</v>
       </c>
       <c r="G10" t="n">
-        <v>7011061.218155654</v>
+        <v>3479898.788955655</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,32 +812,38 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.58</v>
+        <v>4.41</v>
       </c>
       <c r="C11" t="n">
-        <v>4.57</v>
+        <v>4.41</v>
       </c>
       <c r="D11" t="n">
-        <v>4.58</v>
+        <v>4.41</v>
       </c>
       <c r="E11" t="n">
-        <v>4.57</v>
+        <v>4.41</v>
       </c>
       <c r="F11" t="n">
-        <v>7115.3987</v>
+        <v>2044.3475</v>
       </c>
       <c r="G11" t="n">
-        <v>7018176.616855654</v>
+        <v>3477854.441455655</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,31 +854,35 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.61</v>
+        <v>4.41</v>
       </c>
       <c r="C12" t="n">
-        <v>4.61</v>
+        <v>4.41</v>
       </c>
       <c r="D12" t="n">
-        <v>4.61</v>
+        <v>4.41</v>
       </c>
       <c r="E12" t="n">
-        <v>4.61</v>
+        <v>4.41</v>
       </c>
       <c r="F12" t="n">
-        <v>730.9942</v>
+        <v>27860.1421</v>
       </c>
       <c r="G12" t="n">
-        <v>7018907.611055654</v>
+        <v>3477854.441455655</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4.41</v>
+      </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
@@ -834,32 +894,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.58</v>
+        <v>4.4</v>
       </c>
       <c r="C13" t="n">
-        <v>4.61</v>
+        <v>4.39</v>
       </c>
       <c r="D13" t="n">
-        <v>4.61</v>
+        <v>4.4</v>
       </c>
       <c r="E13" t="n">
-        <v>4.58</v>
+        <v>4.39</v>
       </c>
       <c r="F13" t="n">
-        <v>2081.8438</v>
+        <v>317050.572</v>
       </c>
       <c r="G13" t="n">
-        <v>7018907.611055654</v>
+        <v>3160803.869455655</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,32 +938,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.57</v>
+        <v>4.43</v>
       </c>
       <c r="C14" t="n">
-        <v>4.57</v>
+        <v>4.44</v>
       </c>
       <c r="D14" t="n">
-        <v>4.57</v>
+        <v>4.44</v>
       </c>
       <c r="E14" t="n">
-        <v>4.57</v>
+        <v>4.43</v>
       </c>
       <c r="F14" t="n">
-        <v>6512.8032</v>
+        <v>78000</v>
       </c>
       <c r="G14" t="n">
-        <v>7012394.807855654</v>
+        <v>3238803.869455655</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,32 +982,38 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.57</v>
+        <v>4.45</v>
       </c>
       <c r="C15" t="n">
-        <v>4.57</v>
+        <v>4.45</v>
       </c>
       <c r="D15" t="n">
-        <v>4.57</v>
+        <v>4.45</v>
       </c>
       <c r="E15" t="n">
-        <v>4.57</v>
+        <v>4.45</v>
       </c>
       <c r="F15" t="n">
-        <v>291297.7272</v>
+        <v>49267.7971</v>
       </c>
       <c r="G15" t="n">
-        <v>7012394.807855654</v>
+        <v>3288071.666555655</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,32 +1024,38 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.56</v>
+        <v>4.42</v>
       </c>
       <c r="C16" t="n">
-        <v>4.57</v>
+        <v>4.42</v>
       </c>
       <c r="D16" t="n">
-        <v>4.57</v>
+        <v>4.42</v>
       </c>
       <c r="E16" t="n">
-        <v>4.56</v>
+        <v>4.42</v>
       </c>
       <c r="F16" t="n">
-        <v>330157.8308</v>
+        <v>157599.3303</v>
       </c>
       <c r="G16" t="n">
-        <v>7012394.807855654</v>
+        <v>3130472.336255655</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,22 +1066,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.57</v>
+        <v>4.44</v>
       </c>
       <c r="C17" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="D17" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="E17" t="n">
-        <v>4.57</v>
+        <v>4.44</v>
       </c>
       <c r="F17" t="n">
-        <v>74324.0144</v>
+        <v>213000</v>
       </c>
       <c r="G17" t="n">
-        <v>7086718.822255653</v>
+        <v>3343472.336255655</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1002,8 +1090,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,32 +1108,38 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.57</v>
+        <v>4.45</v>
       </c>
       <c r="C18" t="n">
-        <v>4.58</v>
+        <v>4.47</v>
       </c>
       <c r="D18" t="n">
-        <v>4.58</v>
+        <v>4.47</v>
       </c>
       <c r="E18" t="n">
-        <v>4.57</v>
+        <v>4.45</v>
       </c>
       <c r="F18" t="n">
-        <v>70000</v>
+        <v>725273.726</v>
       </c>
       <c r="G18" t="n">
-        <v>7016718.822255653</v>
+        <v>4068746.062255654</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,32 +1150,38 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="C19" t="n">
-        <v>4.57</v>
+        <v>4.45</v>
       </c>
       <c r="D19" t="n">
-        <v>4.57</v>
+        <v>4.45</v>
       </c>
       <c r="E19" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="F19" t="n">
-        <v>517707.694</v>
+        <v>158306.9481</v>
       </c>
       <c r="G19" t="n">
-        <v>6499011.128255653</v>
+        <v>3910439.114155654</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,32 +1192,38 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.56</v>
+        <v>4.45</v>
       </c>
       <c r="C20" t="n">
-        <v>4.56</v>
+        <v>4.45</v>
       </c>
       <c r="D20" t="n">
-        <v>4.56</v>
+        <v>4.45</v>
       </c>
       <c r="E20" t="n">
-        <v>4.56</v>
+        <v>4.45</v>
       </c>
       <c r="F20" t="n">
-        <v>2048.3508</v>
+        <v>192403.8743</v>
       </c>
       <c r="G20" t="n">
-        <v>6496962.777455653</v>
+        <v>3910439.114155654</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,32 +1234,38 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.56</v>
+        <v>4.45</v>
       </c>
       <c r="C21" t="n">
-        <v>4.56</v>
+        <v>4.45</v>
       </c>
       <c r="D21" t="n">
-        <v>4.56</v>
+        <v>4.45</v>
       </c>
       <c r="E21" t="n">
-        <v>4.56</v>
+        <v>4.45</v>
       </c>
       <c r="F21" t="n">
-        <v>34264.5418</v>
+        <v>28592.0807</v>
       </c>
       <c r="G21" t="n">
-        <v>6496962.777455653</v>
+        <v>3910439.114155654</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,22 +1276,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.56</v>
+        <v>4.47</v>
       </c>
       <c r="C22" t="n">
-        <v>4.55</v>
+        <v>4.49</v>
       </c>
       <c r="D22" t="n">
-        <v>4.56</v>
+        <v>4.49</v>
       </c>
       <c r="E22" t="n">
-        <v>4.55</v>
+        <v>4.47</v>
       </c>
       <c r="F22" t="n">
-        <v>28300.6054</v>
+        <v>930107.5723</v>
       </c>
       <c r="G22" t="n">
-        <v>6468662.172055653</v>
+        <v>4840546.686455654</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1182,8 +1300,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,22 +1318,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.55</v>
+        <v>4.47</v>
       </c>
       <c r="C23" t="n">
-        <v>4.56</v>
+        <v>4.47</v>
       </c>
       <c r="D23" t="n">
-        <v>4.56</v>
+        <v>4.47</v>
       </c>
       <c r="E23" t="n">
-        <v>4.55</v>
+        <v>4.47</v>
       </c>
       <c r="F23" t="n">
-        <v>4096.7016</v>
+        <v>2184.5218</v>
       </c>
       <c r="G23" t="n">
-        <v>6472758.873655654</v>
+        <v>4838362.164655654</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1218,8 +1342,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,22 +1360,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.55</v>
+        <v>4.48</v>
       </c>
       <c r="C24" t="n">
-        <v>4.55</v>
+        <v>4.48</v>
       </c>
       <c r="D24" t="n">
-        <v>4.55</v>
+        <v>4.48</v>
       </c>
       <c r="E24" t="n">
-        <v>4.55</v>
+        <v>4.48</v>
       </c>
       <c r="F24" t="n">
-        <v>42486.683</v>
+        <v>2184.5218</v>
       </c>
       <c r="G24" t="n">
-        <v>6430272.190655653</v>
+        <v>4840546.686455654</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1254,8 +1384,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,22 +1402,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.55</v>
+        <v>4.49</v>
       </c>
       <c r="C25" t="n">
-        <v>4.56</v>
+        <v>4.49</v>
       </c>
       <c r="D25" t="n">
-        <v>4.56</v>
+        <v>4.49</v>
       </c>
       <c r="E25" t="n">
-        <v>4.55</v>
+        <v>4.49</v>
       </c>
       <c r="F25" t="n">
-        <v>21951.7604</v>
+        <v>83.79730000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>6452223.951055653</v>
+        <v>4840630.483755654</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1290,8 +1426,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,22 +1444,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.52</v>
+        <v>4.49</v>
       </c>
       <c r="C26" t="n">
-        <v>4.52</v>
+        <v>4.49</v>
       </c>
       <c r="D26" t="n">
-        <v>4.52</v>
+        <v>4.49</v>
       </c>
       <c r="E26" t="n">
-        <v>4.52</v>
+        <v>4.49</v>
       </c>
       <c r="F26" t="n">
-        <v>471858.9471</v>
+        <v>62114.4843</v>
       </c>
       <c r="G26" t="n">
-        <v>5980365.003955653</v>
+        <v>4840630.483755654</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1326,8 +1468,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,22 +1486,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="C27" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="D27" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="E27" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="F27" t="n">
-        <v>109894.7865</v>
+        <v>90.1253</v>
       </c>
       <c r="G27" t="n">
-        <v>6090259.790455653</v>
+        <v>4840720.609055654</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1362,8 +1510,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,22 +1528,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="C28" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="D28" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="E28" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="F28" t="n">
-        <v>1239.913</v>
+        <v>964.6666</v>
       </c>
       <c r="G28" t="n">
-        <v>6090259.790455653</v>
+        <v>4840720.609055654</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1398,8 +1552,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,22 +1570,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="C29" t="n">
-        <v>4.58</v>
+        <v>4.5</v>
       </c>
       <c r="D29" t="n">
-        <v>4.58</v>
+        <v>4.5</v>
       </c>
       <c r="E29" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="F29" t="n">
-        <v>2293575.2108</v>
+        <v>33.6864</v>
       </c>
       <c r="G29" t="n">
-        <v>8383835.001255654</v>
+        <v>4840720.609055654</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1434,8 +1594,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,22 +1612,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.58</v>
+        <v>4.48</v>
       </c>
       <c r="C30" t="n">
-        <v>4.55</v>
+        <v>4.48</v>
       </c>
       <c r="D30" t="n">
-        <v>4.58</v>
+        <v>4.48</v>
       </c>
       <c r="E30" t="n">
-        <v>4.55</v>
+        <v>4.48</v>
       </c>
       <c r="F30" t="n">
-        <v>25634.9942</v>
+        <v>120</v>
       </c>
       <c r="G30" t="n">
-        <v>8358200.007055654</v>
+        <v>4840600.609055654</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1470,8 +1636,14 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,22 +1654,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.54</v>
+        <v>4.48</v>
       </c>
       <c r="C31" t="n">
-        <v>4.54</v>
+        <v>4.47</v>
       </c>
       <c r="D31" t="n">
-        <v>4.54</v>
+        <v>4.48</v>
       </c>
       <c r="E31" t="n">
-        <v>4.54</v>
+        <v>4.47</v>
       </c>
       <c r="F31" t="n">
-        <v>44746.7901</v>
+        <v>128344.7191</v>
       </c>
       <c r="G31" t="n">
-        <v>8313453.216955654</v>
+        <v>4712255.889955654</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1506,8 +1678,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,32 +1696,38 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.54</v>
+        <v>4.48</v>
       </c>
       <c r="C32" t="n">
-        <v>4.54</v>
+        <v>4.48</v>
       </c>
       <c r="D32" t="n">
-        <v>4.54</v>
+        <v>4.48</v>
       </c>
       <c r="E32" t="n">
-        <v>4.54</v>
+        <v>4.48</v>
       </c>
       <c r="F32" t="n">
-        <v>93.6123</v>
+        <v>2024.6585</v>
       </c>
       <c r="G32" t="n">
-        <v>8313453.216955654</v>
+        <v>4714280.548455654</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,32 +1738,38 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.52</v>
+        <v>4.48</v>
       </c>
       <c r="C33" t="n">
-        <v>4.52</v>
+        <v>4.49</v>
       </c>
       <c r="D33" t="n">
-        <v>4.52</v>
+        <v>4.49</v>
       </c>
       <c r="E33" t="n">
-        <v>4.52</v>
+        <v>4.48</v>
       </c>
       <c r="F33" t="n">
-        <v>1506323.2017</v>
+        <v>451665.3061</v>
       </c>
       <c r="G33" t="n">
-        <v>6807130.015255654</v>
+        <v>5165945.854555653</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,32 +1780,38 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.52</v>
+        <v>4.5</v>
       </c>
       <c r="C34" t="n">
-        <v>4.52</v>
+        <v>4.5</v>
       </c>
       <c r="D34" t="n">
-        <v>4.52</v>
+        <v>4.5</v>
       </c>
       <c r="E34" t="n">
-        <v>4.52</v>
+        <v>4.5</v>
       </c>
       <c r="F34" t="n">
-        <v>325256.504</v>
+        <v>44444.4444</v>
       </c>
       <c r="G34" t="n">
-        <v>6807130.015255654</v>
+        <v>5210390.298955654</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,32 +1822,38 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.52</v>
+        <v>4.5</v>
       </c>
       <c r="C35" t="n">
-        <v>4.52</v>
+        <v>4.5</v>
       </c>
       <c r="D35" t="n">
-        <v>4.52</v>
+        <v>4.5</v>
       </c>
       <c r="E35" t="n">
-        <v>4.52</v>
+        <v>4.5</v>
       </c>
       <c r="F35" t="n">
-        <v>50000</v>
+        <v>123128</v>
       </c>
       <c r="G35" t="n">
-        <v>6807130.015255654</v>
+        <v>5210390.298955654</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1662,22 +1864,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="C36" t="n">
-        <v>4.53</v>
+        <v>4.48</v>
       </c>
       <c r="D36" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="E36" t="n">
-        <v>4.53</v>
+        <v>4.48</v>
       </c>
       <c r="F36" t="n">
-        <v>403.9735</v>
+        <v>193000</v>
       </c>
       <c r="G36" t="n">
-        <v>6807533.988755655</v>
+        <v>5017390.298955654</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1686,8 +1888,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1698,32 +1906,38 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.52</v>
+        <v>4.5</v>
       </c>
       <c r="C37" t="n">
-        <v>4.52</v>
+        <v>4.5</v>
       </c>
       <c r="D37" t="n">
-        <v>4.52</v>
+        <v>4.5</v>
       </c>
       <c r="E37" t="n">
-        <v>4.52</v>
+        <v>4.5</v>
       </c>
       <c r="F37" t="n">
-        <v>362000</v>
+        <v>166.2222</v>
       </c>
       <c r="G37" t="n">
-        <v>6445533.988755655</v>
+        <v>5017556.521155654</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,22 +1948,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="C38" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="D38" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="E38" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="F38" t="n">
-        <v>18093.3774</v>
+        <v>9948.6284</v>
       </c>
       <c r="G38" t="n">
-        <v>6463627.366155654</v>
+        <v>5017556.521155654</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1758,8 +1972,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,32 +1990,38 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.53</v>
+        <v>4.51</v>
       </c>
       <c r="C39" t="n">
-        <v>4.53</v>
+        <v>4.51</v>
       </c>
       <c r="D39" t="n">
-        <v>4.53</v>
+        <v>4.51</v>
       </c>
       <c r="E39" t="n">
-        <v>4.53</v>
+        <v>4.51</v>
       </c>
       <c r="F39" t="n">
-        <v>88330.68429999999</v>
+        <v>37595.8739</v>
       </c>
       <c r="G39" t="n">
-        <v>6463627.366155654</v>
+        <v>5055152.395055654</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,32 +2032,38 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.52</v>
+        <v>4.51</v>
       </c>
       <c r="C40" t="n">
-        <v>4.52</v>
+        <v>4.51</v>
       </c>
       <c r="D40" t="n">
-        <v>4.52</v>
+        <v>4.51</v>
       </c>
       <c r="E40" t="n">
-        <v>4.52</v>
+        <v>4.51</v>
       </c>
       <c r="F40" t="n">
-        <v>20117.049</v>
+        <v>75660.7773</v>
       </c>
       <c r="G40" t="n">
-        <v>6443510.317155655</v>
+        <v>5055152.395055654</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1842,22 +2074,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="C41" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="D41" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="E41" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="F41" t="n">
-        <v>78000</v>
+        <v>21669.3888</v>
       </c>
       <c r="G41" t="n">
-        <v>6521510.317155655</v>
+        <v>5033483.006255654</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1866,8 +2098,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1878,22 +2116,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="C42" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="D42" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="E42" t="n">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="F42" t="n">
-        <v>91000</v>
+        <v>39030.0951</v>
       </c>
       <c r="G42" t="n">
-        <v>6521510.317155655</v>
+        <v>5033483.006255654</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1902,8 +2140,14 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1914,32 +2158,38 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.52</v>
+        <v>4.5</v>
       </c>
       <c r="C43" t="n">
-        <v>4.51</v>
+        <v>4.5</v>
       </c>
       <c r="D43" t="n">
-        <v>4.52</v>
+        <v>4.5</v>
       </c>
       <c r="E43" t="n">
-        <v>4.51</v>
+        <v>4.5</v>
       </c>
       <c r="F43" t="n">
-        <v>733397.8651000001</v>
+        <v>18725.7697</v>
       </c>
       <c r="G43" t="n">
-        <v>5788112.452055654</v>
+        <v>5033483.006255654</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1962,20 +2212,26 @@
         <v>4.52</v>
       </c>
       <c r="F44" t="n">
-        <v>1978.0855</v>
+        <v>10</v>
       </c>
       <c r="G44" t="n">
-        <v>5790090.537555655</v>
+        <v>5033493.006255654</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1986,32 +2242,38 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.5</v>
+        <v>4.52</v>
       </c>
       <c r="C45" t="n">
-        <v>4.5</v>
+        <v>4.52</v>
       </c>
       <c r="D45" t="n">
-        <v>4.5</v>
+        <v>4.52</v>
       </c>
       <c r="E45" t="n">
-        <v>4.5</v>
+        <v>4.52</v>
       </c>
       <c r="F45" t="n">
-        <v>57472.8888</v>
+        <v>40385.1585</v>
       </c>
       <c r="G45" t="n">
-        <v>5732617.648755655</v>
+        <v>5033493.006255654</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2022,32 +2284,38 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.49</v>
+        <v>4.51</v>
       </c>
       <c r="C46" t="n">
-        <v>4.49</v>
+        <v>4.51</v>
       </c>
       <c r="D46" t="n">
-        <v>4.49</v>
+        <v>4.51</v>
       </c>
       <c r="E46" t="n">
-        <v>4.49</v>
+        <v>4.51</v>
       </c>
       <c r="F46" t="n">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="G46" t="n">
-        <v>5682617.648755655</v>
+        <v>5013493.006255654</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2058,32 +2326,38 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.5</v>
+        <v>4.53</v>
       </c>
       <c r="C47" t="n">
-        <v>4.5</v>
+        <v>4.54</v>
       </c>
       <c r="D47" t="n">
-        <v>4.5</v>
+        <v>4.54</v>
       </c>
       <c r="E47" t="n">
-        <v>4.5</v>
+        <v>4.53</v>
       </c>
       <c r="F47" t="n">
-        <v>18747.9644</v>
+        <v>209181.6693</v>
       </c>
       <c r="G47" t="n">
-        <v>5701365.613155655</v>
+        <v>5222674.675555654</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2094,32 +2368,38 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="C48" t="n">
-        <v>4.48</v>
+        <v>4.55</v>
       </c>
       <c r="D48" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="E48" t="n">
-        <v>4.46</v>
+        <v>4.55</v>
       </c>
       <c r="F48" t="n">
-        <v>766908.8157</v>
+        <v>77331.6483</v>
       </c>
       <c r="G48" t="n">
-        <v>4934456.797455654</v>
+        <v>5300006.323855653</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2130,22 +2410,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.48</v>
+        <v>4.55</v>
       </c>
       <c r="C49" t="n">
-        <v>4.48</v>
+        <v>4.55</v>
       </c>
       <c r="D49" t="n">
-        <v>4.48</v>
+        <v>4.55</v>
       </c>
       <c r="E49" t="n">
-        <v>4.48</v>
+        <v>4.55</v>
       </c>
       <c r="F49" t="n">
-        <v>19203.4318</v>
+        <v>33333.3333</v>
       </c>
       <c r="G49" t="n">
-        <v>4934456.797455654</v>
+        <v>5300006.323855653</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2154,8 +2434,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2166,22 +2452,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.46</v>
+        <v>4.52</v>
       </c>
       <c r="C50" t="n">
-        <v>4.46</v>
+        <v>4.52</v>
       </c>
       <c r="D50" t="n">
-        <v>4.46</v>
+        <v>4.52</v>
       </c>
       <c r="E50" t="n">
-        <v>4.46</v>
+        <v>4.52</v>
       </c>
       <c r="F50" t="n">
-        <v>2232.6556</v>
+        <v>2435.2351</v>
       </c>
       <c r="G50" t="n">
-        <v>4932224.141855654</v>
+        <v>5297571.088755653</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2190,8 +2476,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2202,22 +2494,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.46</v>
+        <v>4.52</v>
       </c>
       <c r="C51" t="n">
-        <v>4.46</v>
+        <v>4.51</v>
       </c>
       <c r="D51" t="n">
-        <v>4.46</v>
+        <v>4.52</v>
       </c>
       <c r="E51" t="n">
-        <v>4.46</v>
+        <v>4.51</v>
       </c>
       <c r="F51" t="n">
-        <v>140057.4183</v>
+        <v>425860.3643</v>
       </c>
       <c r="G51" t="n">
-        <v>4932224.141855654</v>
+        <v>4871710.724455653</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2226,8 +2518,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2238,22 +2536,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.46</v>
+        <v>4.51</v>
       </c>
       <c r="C52" t="n">
-        <v>4.49</v>
+        <v>4.51</v>
       </c>
       <c r="D52" t="n">
-        <v>4.49</v>
+        <v>4.51</v>
       </c>
       <c r="E52" t="n">
-        <v>4.46</v>
+        <v>4.51</v>
       </c>
       <c r="F52" t="n">
-        <v>78000</v>
+        <v>79224.07580000001</v>
       </c>
       <c r="G52" t="n">
-        <v>5010224.141855654</v>
+        <v>4871710.724455653</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2262,8 +2560,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2274,7 +2578,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="C53" t="n">
         <v>4.5</v>
@@ -2283,13 +2587,13 @@
         <v>4.5</v>
       </c>
       <c r="E53" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="F53" t="n">
-        <v>35682.1031</v>
+        <v>87204.7261</v>
       </c>
       <c r="G53" t="n">
-        <v>5045906.244955654</v>
+        <v>4784505.998355653</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2298,8 +2602,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2310,22 +2620,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.5</v>
+        <v>4.53</v>
       </c>
       <c r="C54" t="n">
-        <v>4.5</v>
+        <v>4.53</v>
       </c>
       <c r="D54" t="n">
-        <v>4.5</v>
+        <v>4.53</v>
       </c>
       <c r="E54" t="n">
-        <v>4.5</v>
+        <v>4.53</v>
       </c>
       <c r="F54" t="n">
-        <v>110000.9999</v>
+        <v>2005.4992</v>
       </c>
       <c r="G54" t="n">
-        <v>5045906.244955654</v>
+        <v>4786511.497555654</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2334,8 +2644,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2346,22 +2662,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.5</v>
+        <v>4.54</v>
       </c>
       <c r="C55" t="n">
-        <v>4.5</v>
+        <v>4.54</v>
       </c>
       <c r="D55" t="n">
-        <v>4.5</v>
+        <v>4.54</v>
       </c>
       <c r="E55" t="n">
-        <v>4.5</v>
+        <v>4.54</v>
       </c>
       <c r="F55" t="n">
-        <v>2022.2222</v>
+        <v>38894.3832</v>
       </c>
       <c r="G55" t="n">
-        <v>5045906.244955654</v>
+        <v>4825405.880755654</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2370,8 +2686,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2382,22 +2704,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="C56" t="n">
-        <v>4.48</v>
+        <v>4.54</v>
       </c>
       <c r="D56" t="n">
-        <v>4.48</v>
+        <v>4.54</v>
       </c>
       <c r="E56" t="n">
-        <v>4.44</v>
+        <v>4.54</v>
       </c>
       <c r="F56" t="n">
-        <v>3700247.6565</v>
+        <v>29170.8149</v>
       </c>
       <c r="G56" t="n">
-        <v>1345658.588455654</v>
+        <v>4825405.880755654</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2406,8 +2728,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2418,22 +2746,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.48</v>
+        <v>4.54</v>
       </c>
       <c r="C57" t="n">
-        <v>4.51</v>
+        <v>4.54</v>
       </c>
       <c r="D57" t="n">
-        <v>4.51</v>
+        <v>4.54</v>
       </c>
       <c r="E57" t="n">
-        <v>4.48</v>
+        <v>4.54</v>
       </c>
       <c r="F57" t="n">
-        <v>1899643.844122395</v>
+        <v>40483.9207</v>
       </c>
       <c r="G57" t="n">
-        <v>3245302.432578049</v>
+        <v>4825405.880755654</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2442,8 +2770,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2454,22 +2788,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.48</v>
+        <v>4.52</v>
       </c>
       <c r="C58" t="n">
-        <v>4.48</v>
+        <v>4.52</v>
       </c>
       <c r="D58" t="n">
-        <v>4.48</v>
+        <v>4.52</v>
       </c>
       <c r="E58" t="n">
-        <v>4.48</v>
+        <v>4.52</v>
       </c>
       <c r="F58" t="n">
-        <v>2081.1709</v>
+        <v>5776.5488</v>
       </c>
       <c r="G58" t="n">
-        <v>3243221.261678049</v>
+        <v>4819629.331955654</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2478,8 +2812,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2490,22 +2830,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.46</v>
+        <v>4.53</v>
       </c>
       <c r="C59" t="n">
-        <v>4.46</v>
+        <v>4.53</v>
       </c>
       <c r="D59" t="n">
-        <v>4.46</v>
+        <v>4.53</v>
       </c>
       <c r="E59" t="n">
-        <v>4.46</v>
+        <v>4.53</v>
       </c>
       <c r="F59" t="n">
-        <v>3809.9407</v>
+        <v>5776.5488</v>
       </c>
       <c r="G59" t="n">
-        <v>3239411.320978049</v>
+        <v>4825405.880755654</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2514,8 +2854,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2526,22 +2872,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.48</v>
+        <v>4.54</v>
       </c>
       <c r="C60" t="n">
-        <v>4.48</v>
+        <v>4.54</v>
       </c>
       <c r="D60" t="n">
-        <v>4.48</v>
+        <v>4.54</v>
       </c>
       <c r="E60" t="n">
-        <v>4.48</v>
+        <v>4.53</v>
       </c>
       <c r="F60" t="n">
-        <v>113000</v>
+        <v>197840.7167</v>
       </c>
       <c r="G60" t="n">
-        <v>3352411.320978049</v>
+        <v>5023246.597455653</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2550,8 +2896,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2562,22 +2914,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.47</v>
+        <v>4.52</v>
       </c>
       <c r="C61" t="n">
-        <v>4.47</v>
+        <v>4.53</v>
       </c>
       <c r="D61" t="n">
-        <v>4.47</v>
+        <v>4.53</v>
       </c>
       <c r="E61" t="n">
-        <v>4.47</v>
+        <v>4.52</v>
       </c>
       <c r="F61" t="n">
-        <v>34199.4636</v>
+        <v>250376.8897</v>
       </c>
       <c r="G61" t="n">
-        <v>3318211.857378049</v>
+        <v>4772869.707755653</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2586,8 +2938,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2598,22 +2956,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.48</v>
+        <v>4.53</v>
       </c>
       <c r="C62" t="n">
-        <v>4.48</v>
+        <v>4.54</v>
       </c>
       <c r="D62" t="n">
-        <v>4.48</v>
+        <v>4.54</v>
       </c>
       <c r="E62" t="n">
-        <v>4.48</v>
+        <v>4.53</v>
       </c>
       <c r="F62" t="n">
-        <v>208780.8035</v>
+        <v>122506.024</v>
       </c>
       <c r="G62" t="n">
-        <v>3526992.660878049</v>
+        <v>4895375.731755653</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2622,8 +2980,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2634,22 +2998,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.52</v>
+        <v>4.53</v>
       </c>
       <c r="C63" t="n">
-        <v>4.52</v>
+        <v>4.57</v>
       </c>
       <c r="D63" t="n">
-        <v>4.52</v>
+        <v>4.57</v>
       </c>
       <c r="E63" t="n">
-        <v>4.52</v>
+        <v>4.53</v>
       </c>
       <c r="F63" t="n">
-        <v>53957.3008</v>
+        <v>976832.6552</v>
       </c>
       <c r="G63" t="n">
-        <v>3580949.961678049</v>
+        <v>5872208.386955653</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2658,8 +3022,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2670,7 +3040,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.54</v>
+        <v>4.56</v>
       </c>
       <c r="C64" t="n">
         <v>4.56</v>
@@ -2679,13 +3049,13 @@
         <v>4.56</v>
       </c>
       <c r="E64" t="n">
-        <v>4.54</v>
+        <v>4.56</v>
       </c>
       <c r="F64" t="n">
-        <v>78000</v>
+        <v>446428.5713</v>
       </c>
       <c r="G64" t="n">
-        <v>3658949.961678049</v>
+        <v>5425779.815655653</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2694,8 +3064,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2706,22 +3082,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="C65" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="D65" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="E65" t="n">
         <v>4.57</v>
       </c>
-      <c r="D65" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="E65" t="n">
-        <v>4.56</v>
-      </c>
       <c r="F65" t="n">
-        <v>126000</v>
+        <v>2340777.0924</v>
       </c>
       <c r="G65" t="n">
-        <v>3784949.961678049</v>
+        <v>7766556.908055654</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2730,8 +3106,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2742,34 +3124,40 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.58</v>
+        <v>4.57</v>
       </c>
       <c r="C66" t="n">
-        <v>4.58</v>
+        <v>4.56</v>
       </c>
       <c r="D66" t="n">
-        <v>4.58</v>
+        <v>4.61</v>
       </c>
       <c r="E66" t="n">
-        <v>4.58</v>
+        <v>4.56</v>
       </c>
       <c r="F66" t="n">
-        <v>23000</v>
+        <v>269511.6377</v>
       </c>
       <c r="G66" t="n">
-        <v>3807949.961678049</v>
+        <v>7497045.270355654</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M66" t="n">
-        <v>1</v>
+        <v>1.029013605442177</v>
       </c>
       <c r="N66" t="inlineStr"/>
     </row>
@@ -2781,25 +3169,25 @@
         <v>4.58</v>
       </c>
       <c r="C67" t="n">
-        <v>4.6</v>
+        <v>4.59</v>
       </c>
       <c r="D67" t="n">
-        <v>4.6</v>
+        <v>4.59</v>
       </c>
       <c r="E67" t="n">
         <v>4.58</v>
       </c>
       <c r="F67" t="n">
-        <v>478273.9761552174</v>
+        <v>20000</v>
       </c>
       <c r="G67" t="n">
-        <v>4286223.937833266</v>
+        <v>7517045.270355654</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2814,28 +3202,28 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="C68" t="n">
         <v>4.56</v>
       </c>
       <c r="D68" t="n">
-        <v>4.57</v>
+        <v>4.62</v>
       </c>
       <c r="E68" t="n">
         <v>4.56</v>
       </c>
       <c r="F68" t="n">
-        <v>13379.2722</v>
+        <v>526946.1644</v>
       </c>
       <c r="G68" t="n">
-        <v>4272844.665633267</v>
+        <v>6990099.105955654</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -2853,19 +3241,19 @@
         <v>4.57</v>
       </c>
       <c r="C69" t="n">
-        <v>4.54</v>
+        <v>4.55</v>
       </c>
       <c r="D69" t="n">
-        <v>4.57</v>
+        <v>4.61</v>
       </c>
       <c r="E69" t="n">
-        <v>4.54</v>
+        <v>4.55</v>
       </c>
       <c r="F69" t="n">
-        <v>234000</v>
+        <v>127245.9838</v>
       </c>
       <c r="G69" t="n">
-        <v>4038844.665633267</v>
+        <v>6862853.122155654</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,28 +3274,28 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.57</v>
+        <v>4.64</v>
       </c>
       <c r="C70" t="n">
-        <v>4.57</v>
+        <v>4.6</v>
       </c>
       <c r="D70" t="n">
-        <v>4.57</v>
+        <v>4.64</v>
       </c>
       <c r="E70" t="n">
-        <v>4.57</v>
+        <v>4.6</v>
       </c>
       <c r="F70" t="n">
-        <v>1000</v>
+        <v>10370.6896</v>
       </c>
       <c r="G70" t="n">
-        <v>4039844.665633267</v>
+        <v>6873223.811755654</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -2922,28 +3310,28 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.55</v>
+        <v>4.59</v>
       </c>
       <c r="C71" t="n">
-        <v>4.58</v>
+        <v>4.59</v>
       </c>
       <c r="D71" t="n">
-        <v>4.58</v>
+        <v>4.59</v>
       </c>
       <c r="E71" t="n">
-        <v>4.55</v>
+        <v>4.59</v>
       </c>
       <c r="F71" t="n">
-        <v>225000</v>
+        <v>10000</v>
       </c>
       <c r="G71" t="n">
-        <v>4264844.665633267</v>
+        <v>6863223.811755654</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -2970,16 +3358,16 @@
         <v>4.6</v>
       </c>
       <c r="F72" t="n">
-        <v>2205.5978</v>
+        <v>20000</v>
       </c>
       <c r="G72" t="n">
-        <v>4267050.263433266</v>
+        <v>6883223.811755654</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -2994,28 +3382,28 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.6</v>
+        <v>4.58</v>
       </c>
       <c r="C73" t="n">
-        <v>4.6</v>
+        <v>4.58</v>
       </c>
       <c r="D73" t="n">
-        <v>4.6</v>
+        <v>4.58</v>
       </c>
       <c r="E73" t="n">
-        <v>4.6</v>
+        <v>4.58</v>
       </c>
       <c r="F73" t="n">
-        <v>11265.6521</v>
+        <v>127301.1144</v>
       </c>
       <c r="G73" t="n">
-        <v>4267050.263433266</v>
+        <v>6755922.697355654</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3030,28 +3418,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.6</v>
+        <v>4.58</v>
       </c>
       <c r="C74" t="n">
-        <v>4.6</v>
+        <v>4.58</v>
       </c>
       <c r="D74" t="n">
-        <v>4.6</v>
+        <v>4.58</v>
       </c>
       <c r="E74" t="n">
-        <v>4.6</v>
+        <v>4.58</v>
       </c>
       <c r="F74" t="n">
-        <v>86769.23910000001</v>
+        <v>10000</v>
       </c>
       <c r="G74" t="n">
-        <v>4267050.263433266</v>
+        <v>6755922.697355654</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3066,28 +3454,28 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.57</v>
+        <v>4.58</v>
       </c>
       <c r="C75" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="D75" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="E75" t="n">
-        <v>4.57</v>
+        <v>4.58</v>
       </c>
       <c r="F75" t="n">
-        <v>10000</v>
+        <v>55859.902</v>
       </c>
       <c r="G75" t="n">
-        <v>4257050.263433266</v>
+        <v>6811782.599355654</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3114,16 +3502,16 @@
         <v>4.58</v>
       </c>
       <c r="F76" t="n">
-        <v>58342.8103</v>
+        <v>59615.4014</v>
       </c>
       <c r="G76" t="n">
-        <v>4315393.073733266</v>
+        <v>6811782.599355654</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3138,28 +3526,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.58</v>
+        <v>4.59</v>
       </c>
       <c r="C77" t="n">
-        <v>4.58</v>
+        <v>4.59</v>
       </c>
       <c r="D77" t="n">
-        <v>4.58</v>
+        <v>4.59</v>
       </c>
       <c r="E77" t="n">
-        <v>4.58</v>
+        <v>4.59</v>
       </c>
       <c r="F77" t="n">
-        <v>90526.7205</v>
+        <v>4283.8296</v>
       </c>
       <c r="G77" t="n">
-        <v>4224866.353233267</v>
+        <v>6811782.599355654</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3174,28 +3562,28 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.59</v>
+        <v>4.61</v>
       </c>
       <c r="C78" t="n">
-        <v>4.59</v>
+        <v>4.65</v>
       </c>
       <c r="D78" t="n">
-        <v>4.59</v>
+        <v>4.65</v>
       </c>
       <c r="E78" t="n">
-        <v>4.59</v>
+        <v>4.61</v>
       </c>
       <c r="F78" t="n">
-        <v>302080.61</v>
+        <v>212264.7311</v>
       </c>
       <c r="G78" t="n">
-        <v>4526946.963233267</v>
+        <v>7024047.330455654</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3210,28 +3598,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.57</v>
+        <v>4.65</v>
       </c>
       <c r="C79" t="n">
-        <v>4.57</v>
+        <v>4.65</v>
       </c>
       <c r="D79" t="n">
-        <v>4.57</v>
+        <v>4.65</v>
       </c>
       <c r="E79" t="n">
-        <v>4.57</v>
+        <v>4.65</v>
       </c>
       <c r="F79" t="n">
-        <v>17549</v>
+        <v>62.7956</v>
       </c>
       <c r="G79" t="n">
-        <v>4509397.963233267</v>
+        <v>7024047.330455654</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3246,28 +3634,28 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.57</v>
+        <v>4.62</v>
       </c>
       <c r="C80" t="n">
-        <v>4.57</v>
+        <v>4.62</v>
       </c>
       <c r="D80" t="n">
-        <v>4.57</v>
+        <v>4.62</v>
       </c>
       <c r="E80" t="n">
-        <v>4.57</v>
+        <v>4.62</v>
       </c>
       <c r="F80" t="n">
-        <v>50284.0437</v>
+        <v>8353.633099999999</v>
       </c>
       <c r="G80" t="n">
-        <v>4509397.963233267</v>
+        <v>7015693.697355654</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3294,16 +3682,16 @@
         <v>4.56</v>
       </c>
       <c r="F81" t="n">
-        <v>22758.414</v>
+        <v>4632.4792</v>
       </c>
       <c r="G81" t="n">
-        <v>4486639.549233267</v>
+        <v>7011061.218155654</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3318,28 +3706,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.56</v>
+        <v>4.58</v>
       </c>
       <c r="C82" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="D82" t="n">
-        <v>4.56</v>
+        <v>4.58</v>
       </c>
       <c r="E82" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="F82" t="n">
-        <v>184585.4081</v>
+        <v>7115.3987</v>
       </c>
       <c r="G82" t="n">
-        <v>4486639.549233267</v>
+        <v>7018176.616855654</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3354,28 +3742,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.56</v>
+        <v>4.61</v>
       </c>
       <c r="C83" t="n">
-        <v>4.57</v>
+        <v>4.61</v>
       </c>
       <c r="D83" t="n">
-        <v>4.57</v>
+        <v>4.61</v>
       </c>
       <c r="E83" t="n">
-        <v>4.56</v>
+        <v>4.61</v>
       </c>
       <c r="F83" t="n">
-        <v>369000</v>
+        <v>730.9942</v>
       </c>
       <c r="G83" t="n">
-        <v>4855639.549233267</v>
+        <v>7018907.611055654</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3390,28 +3778,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.57</v>
+        <v>4.58</v>
       </c>
       <c r="C84" t="n">
-        <v>4.57</v>
+        <v>4.61</v>
       </c>
       <c r="D84" t="n">
-        <v>4.57</v>
+        <v>4.61</v>
       </c>
       <c r="E84" t="n">
-        <v>4.57</v>
+        <v>4.58</v>
       </c>
       <c r="F84" t="n">
-        <v>25.3829</v>
+        <v>2081.8438</v>
       </c>
       <c r="G84" t="n">
-        <v>4855639.549233267</v>
+        <v>7018907.611055654</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3429,25 +3817,25 @@
         <v>4.57</v>
       </c>
       <c r="C85" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="D85" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="E85" t="n">
         <v>4.57</v>
       </c>
       <c r="F85" t="n">
-        <v>249138.1730204793</v>
+        <v>6512.8032</v>
       </c>
       <c r="G85" t="n">
-        <v>5104777.722253746</v>
+        <v>7012394.807855654</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3465,25 +3853,25 @@
         <v>4.57</v>
       </c>
       <c r="C86" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="D86" t="n">
         <v>4.57</v>
       </c>
       <c r="E86" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="F86" t="n">
-        <v>465536.1194</v>
+        <v>291297.7272</v>
       </c>
       <c r="G86" t="n">
-        <v>4639241.602853746</v>
+        <v>7012394.807855654</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3498,28 +3886,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.59</v>
+        <v>4.56</v>
       </c>
       <c r="C87" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="D87" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="E87" t="n">
-        <v>4.59</v>
+        <v>4.56</v>
       </c>
       <c r="F87" t="n">
-        <v>350000</v>
+        <v>330157.8308</v>
       </c>
       <c r="G87" t="n">
-        <v>4989241.602853746</v>
+        <v>7012394.807855654</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3537,25 +3925,25 @@
         <v>4.57</v>
       </c>
       <c r="C88" t="n">
-        <v>4.57</v>
+        <v>4.6</v>
       </c>
       <c r="D88" t="n">
-        <v>4.57</v>
+        <v>4.6</v>
       </c>
       <c r="E88" t="n">
         <v>4.57</v>
       </c>
       <c r="F88" t="n">
-        <v>10000</v>
+        <v>74324.0144</v>
       </c>
       <c r="G88" t="n">
-        <v>4979241.602853746</v>
+        <v>7086718.822255653</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3573,25 +3961,25 @@
         <v>4.57</v>
       </c>
       <c r="C89" t="n">
-        <v>4.57</v>
+        <v>4.58</v>
       </c>
       <c r="D89" t="n">
-        <v>4.57</v>
+        <v>4.58</v>
       </c>
       <c r="E89" t="n">
         <v>4.57</v>
       </c>
       <c r="F89" t="n">
-        <v>145166.6666</v>
+        <v>70000</v>
       </c>
       <c r="G89" t="n">
-        <v>4979241.602853746</v>
+        <v>7016718.822255653</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3606,28 +3994,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.59</v>
+        <v>4.55</v>
       </c>
       <c r="C90" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="D90" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="E90" t="n">
-        <v>4.59</v>
+        <v>4.55</v>
       </c>
       <c r="F90" t="n">
-        <v>38000</v>
+        <v>517707.694</v>
       </c>
       <c r="G90" t="n">
-        <v>5017241.602853746</v>
+        <v>6499011.128255653</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3642,28 +4030,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="C91" t="n">
         <v>4.56</v>
       </c>
       <c r="D91" t="n">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="E91" t="n">
         <v>4.56</v>
       </c>
       <c r="F91" t="n">
-        <v>314515.0045</v>
+        <v>2048.3508</v>
       </c>
       <c r="G91" t="n">
-        <v>4702726.598353746</v>
+        <v>6496962.777455653</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3678,22 +4066,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.58</v>
+        <v>4.56</v>
       </c>
       <c r="C92" t="n">
-        <v>4.59</v>
+        <v>4.56</v>
       </c>
       <c r="D92" t="n">
-        <v>4.59</v>
+        <v>4.56</v>
       </c>
       <c r="E92" t="n">
-        <v>4.58</v>
+        <v>4.56</v>
       </c>
       <c r="F92" t="n">
-        <v>156000</v>
+        <v>34264.5418</v>
       </c>
       <c r="G92" t="n">
-        <v>4858726.598353746</v>
+        <v>6496962.777455653</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3714,28 +4102,28 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="C93" t="n">
-        <v>4.59</v>
+        <v>4.55</v>
       </c>
       <c r="D93" t="n">
-        <v>4.59</v>
+        <v>4.56</v>
       </c>
       <c r="E93" t="n">
-        <v>4.57</v>
+        <v>4.55</v>
       </c>
       <c r="F93" t="n">
-        <v>719.5137</v>
+        <v>28300.6054</v>
       </c>
       <c r="G93" t="n">
-        <v>4858726.598353746</v>
+        <v>6468662.172055653</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3750,7 +4138,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.56</v>
+        <v>4.55</v>
       </c>
       <c r="C94" t="n">
         <v>4.56</v>
@@ -3759,19 +4147,19 @@
         <v>4.56</v>
       </c>
       <c r="E94" t="n">
-        <v>4.56</v>
+        <v>4.55</v>
       </c>
       <c r="F94" t="n">
-        <v>90526.7205</v>
+        <v>4096.7016</v>
       </c>
       <c r="G94" t="n">
-        <v>4768199.877853747</v>
+        <v>6472758.873655654</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3786,28 +4174,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.57</v>
+        <v>4.55</v>
       </c>
       <c r="C95" t="n">
-        <v>4.57</v>
+        <v>4.55</v>
       </c>
       <c r="D95" t="n">
-        <v>4.57</v>
+        <v>4.55</v>
       </c>
       <c r="E95" t="n">
-        <v>4.57</v>
+        <v>4.55</v>
       </c>
       <c r="F95" t="n">
-        <v>200</v>
+        <v>42486.683</v>
       </c>
       <c r="G95" t="n">
-        <v>4768399.877853747</v>
+        <v>6430272.190655653</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3822,22 +4210,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.57</v>
+        <v>4.55</v>
       </c>
       <c r="C96" t="n">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="D96" t="n">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="E96" t="n">
-        <v>4.57</v>
+        <v>4.55</v>
       </c>
       <c r="F96" t="n">
-        <v>109800.3689</v>
+        <v>21951.7604</v>
       </c>
       <c r="G96" t="n">
-        <v>4768399.877853747</v>
+        <v>6452223.951055653</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3858,28 +4246,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.57</v>
+        <v>4.52</v>
       </c>
       <c r="C97" t="n">
-        <v>4.59</v>
+        <v>4.52</v>
       </c>
       <c r="D97" t="n">
-        <v>4.59</v>
+        <v>4.52</v>
       </c>
       <c r="E97" t="n">
-        <v>4.57</v>
+        <v>4.52</v>
       </c>
       <c r="F97" t="n">
-        <v>12682.41090239651</v>
+        <v>471858.9471</v>
       </c>
       <c r="G97" t="n">
-        <v>4781082.288756143</v>
+        <v>5980365.003955653</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -3894,28 +4282,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.57</v>
+        <v>4.53</v>
       </c>
       <c r="C98" t="n">
-        <v>4.57</v>
+        <v>4.53</v>
       </c>
       <c r="D98" t="n">
-        <v>4.57</v>
+        <v>4.53</v>
       </c>
       <c r="E98" t="n">
-        <v>4.57</v>
+        <v>4.53</v>
       </c>
       <c r="F98" t="n">
-        <v>455978</v>
+        <v>109894.7865</v>
       </c>
       <c r="G98" t="n">
-        <v>4325104.288756143</v>
+        <v>6090259.790455653</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -3930,28 +4318,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.57</v>
+        <v>4.53</v>
       </c>
       <c r="C99" t="n">
-        <v>4.57</v>
+        <v>4.53</v>
       </c>
       <c r="D99" t="n">
-        <v>4.57</v>
+        <v>4.53</v>
       </c>
       <c r="E99" t="n">
-        <v>4.57</v>
+        <v>4.53</v>
       </c>
       <c r="F99" t="n">
-        <v>12408.1102</v>
+        <v>1239.913</v>
       </c>
       <c r="G99" t="n">
-        <v>4325104.288756143</v>
+        <v>6090259.790455653</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -3966,28 +4354,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.59</v>
+        <v>4.53</v>
       </c>
       <c r="C100" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="D100" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="E100" t="n">
-        <v>4.59</v>
+        <v>4.53</v>
       </c>
       <c r="F100" t="n">
-        <v>137000</v>
+        <v>2293575.2108</v>
       </c>
       <c r="G100" t="n">
-        <v>4462104.288756143</v>
+        <v>8383835.001255654</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4002,28 +4390,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.57</v>
+        <v>4.58</v>
       </c>
       <c r="C101" t="n">
-        <v>4.57</v>
+        <v>4.55</v>
       </c>
       <c r="D101" t="n">
-        <v>4.57</v>
+        <v>4.58</v>
       </c>
       <c r="E101" t="n">
-        <v>4.57</v>
+        <v>4.55</v>
       </c>
       <c r="F101" t="n">
-        <v>107000</v>
+        <v>25634.9942</v>
       </c>
       <c r="G101" t="n">
-        <v>4355104.288756143</v>
+        <v>8358200.007055654</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4038,28 +4426,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.57</v>
+        <v>4.54</v>
       </c>
       <c r="C102" t="n">
-        <v>4.57</v>
+        <v>4.54</v>
       </c>
       <c r="D102" t="n">
-        <v>4.57</v>
+        <v>4.54</v>
       </c>
       <c r="E102" t="n">
-        <v>4.57</v>
+        <v>4.54</v>
       </c>
       <c r="F102" t="n">
-        <v>35765.2445</v>
+        <v>44746.7901</v>
       </c>
       <c r="G102" t="n">
-        <v>4355104.288756143</v>
+        <v>8313453.216955654</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4074,28 +4462,28 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.57</v>
+        <v>4.54</v>
       </c>
       <c r="C103" t="n">
-        <v>4.56</v>
+        <v>4.54</v>
       </c>
       <c r="D103" t="n">
-        <v>4.57</v>
+        <v>4.54</v>
       </c>
       <c r="E103" t="n">
-        <v>4.56</v>
+        <v>4.54</v>
       </c>
       <c r="F103" t="n">
-        <v>312000</v>
+        <v>93.6123</v>
       </c>
       <c r="G103" t="n">
-        <v>4043104.288756143</v>
+        <v>8313453.216955654</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4110,28 +4498,28 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.56</v>
+        <v>4.52</v>
       </c>
       <c r="C104" t="n">
-        <v>4.56</v>
+        <v>4.52</v>
       </c>
       <c r="D104" t="n">
-        <v>4.56</v>
+        <v>4.52</v>
       </c>
       <c r="E104" t="n">
-        <v>4.56</v>
+        <v>4.52</v>
       </c>
       <c r="F104" t="n">
-        <v>75120.7298</v>
+        <v>1506323.2017</v>
       </c>
       <c r="G104" t="n">
-        <v>4043104.288756143</v>
+        <v>6807130.015255654</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4146,28 +4534,28 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.55</v>
+        <v>4.52</v>
       </c>
       <c r="C105" t="n">
-        <v>4.55</v>
+        <v>4.52</v>
       </c>
       <c r="D105" t="n">
-        <v>4.55</v>
+        <v>4.52</v>
       </c>
       <c r="E105" t="n">
-        <v>4.55</v>
+        <v>4.52</v>
       </c>
       <c r="F105" t="n">
-        <v>136000</v>
+        <v>325256.504</v>
       </c>
       <c r="G105" t="n">
-        <v>3907104.288756143</v>
+        <v>6807130.015255654</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4182,28 +4570,28 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.56</v>
+        <v>4.52</v>
       </c>
       <c r="C106" t="n">
-        <v>4.56</v>
+        <v>4.52</v>
       </c>
       <c r="D106" t="n">
-        <v>4.56</v>
+        <v>4.52</v>
       </c>
       <c r="E106" t="n">
-        <v>4.56</v>
+        <v>4.52</v>
       </c>
       <c r="F106" t="n">
-        <v>43859.6491</v>
+        <v>50000</v>
       </c>
       <c r="G106" t="n">
-        <v>3950963.937856143</v>
+        <v>6807130.015255654</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4218,28 +4606,28 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.58</v>
+        <v>4.53</v>
       </c>
       <c r="C107" t="n">
-        <v>4.58</v>
+        <v>4.53</v>
       </c>
       <c r="D107" t="n">
-        <v>4.58</v>
+        <v>4.53</v>
       </c>
       <c r="E107" t="n">
-        <v>4.58</v>
+        <v>4.53</v>
       </c>
       <c r="F107" t="n">
-        <v>78000</v>
+        <v>403.9735</v>
       </c>
       <c r="G107" t="n">
-        <v>4028963.937856143</v>
+        <v>6807533.988755655</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4254,28 +4642,28 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.56</v>
+        <v>4.52</v>
       </c>
       <c r="C108" t="n">
-        <v>4.56</v>
+        <v>4.52</v>
       </c>
       <c r="D108" t="n">
-        <v>4.56</v>
+        <v>4.52</v>
       </c>
       <c r="E108" t="n">
-        <v>4.56</v>
+        <v>4.52</v>
       </c>
       <c r="F108" t="n">
-        <v>47707.8291</v>
+        <v>362000</v>
       </c>
       <c r="G108" t="n">
-        <v>3981256.108756143</v>
+        <v>6445533.988755655</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4290,28 +4678,28 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.56</v>
+        <v>4.53</v>
       </c>
       <c r="C109" t="n">
-        <v>4.59</v>
+        <v>4.53</v>
       </c>
       <c r="D109" t="n">
-        <v>4.59</v>
+        <v>4.53</v>
       </c>
       <c r="E109" t="n">
-        <v>4.56</v>
+        <v>4.53</v>
       </c>
       <c r="F109" t="n">
-        <v>58433.76178910676</v>
+        <v>18093.3774</v>
       </c>
       <c r="G109" t="n">
-        <v>4039689.87054525</v>
+        <v>6463627.366155654</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4326,22 +4714,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.58</v>
+        <v>4.53</v>
       </c>
       <c r="C110" t="n">
-        <v>4.58</v>
+        <v>4.53</v>
       </c>
       <c r="D110" t="n">
-        <v>4.58</v>
+        <v>4.53</v>
       </c>
       <c r="E110" t="n">
-        <v>4.58</v>
+        <v>4.53</v>
       </c>
       <c r="F110" t="n">
-        <v>100000</v>
+        <v>88330.68429999999</v>
       </c>
       <c r="G110" t="n">
-        <v>3939689.87054525</v>
+        <v>6463627.366155654</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4362,28 +4750,28 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.58</v>
+        <v>4.52</v>
       </c>
       <c r="C111" t="n">
-        <v>4.58</v>
+        <v>4.52</v>
       </c>
       <c r="D111" t="n">
-        <v>4.58</v>
+        <v>4.52</v>
       </c>
       <c r="E111" t="n">
-        <v>4.58</v>
+        <v>4.52</v>
       </c>
       <c r="F111" t="n">
-        <v>25933.869</v>
+        <v>20117.049</v>
       </c>
       <c r="G111" t="n">
-        <v>3939689.87054525</v>
+        <v>6443510.317155655</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4398,28 +4786,28 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.58</v>
+        <v>4.53</v>
       </c>
       <c r="C112" t="n">
-        <v>4.58</v>
+        <v>4.53</v>
       </c>
       <c r="D112" t="n">
-        <v>4.58</v>
+        <v>4.53</v>
       </c>
       <c r="E112" t="n">
-        <v>4.58</v>
+        <v>4.53</v>
       </c>
       <c r="F112" t="n">
-        <v>53822.4076</v>
+        <v>78000</v>
       </c>
       <c r="G112" t="n">
-        <v>3939689.87054525</v>
+        <v>6521510.317155655</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4434,28 +4822,28 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.58</v>
+        <v>4.53</v>
       </c>
       <c r="C113" t="n">
-        <v>4.58</v>
+        <v>4.53</v>
       </c>
       <c r="D113" t="n">
-        <v>4.58</v>
+        <v>4.53</v>
       </c>
       <c r="E113" t="n">
-        <v>4.58</v>
+        <v>4.53</v>
       </c>
       <c r="F113" t="n">
-        <v>33976.9823</v>
+        <v>91000</v>
       </c>
       <c r="G113" t="n">
-        <v>3939689.87054525</v>
+        <v>6521510.317155655</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4470,28 +4858,28 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.58</v>
+        <v>4.52</v>
       </c>
       <c r="C114" t="n">
-        <v>4.58</v>
+        <v>4.51</v>
       </c>
       <c r="D114" t="n">
-        <v>4.58</v>
+        <v>4.52</v>
       </c>
       <c r="E114" t="n">
-        <v>4.58</v>
+        <v>4.51</v>
       </c>
       <c r="F114" t="n">
-        <v>86000</v>
+        <v>733397.8651000001</v>
       </c>
       <c r="G114" t="n">
-        <v>3939689.87054525</v>
+        <v>5788112.452055654</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4506,28 +4894,28 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.59</v>
+        <v>4.52</v>
       </c>
       <c r="C115" t="n">
-        <v>4.59</v>
+        <v>4.52</v>
       </c>
       <c r="D115" t="n">
-        <v>4.59</v>
+        <v>4.52</v>
       </c>
       <c r="E115" t="n">
-        <v>4.59</v>
+        <v>4.52</v>
       </c>
       <c r="F115" t="n">
-        <v>364000</v>
+        <v>1978.0855</v>
       </c>
       <c r="G115" t="n">
-        <v>4303689.870545249</v>
+        <v>5790090.537555655</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4542,28 +4930,28 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.58</v>
+        <v>4.5</v>
       </c>
       <c r="C116" t="n">
-        <v>4.58</v>
+        <v>4.5</v>
       </c>
       <c r="D116" t="n">
-        <v>4.58</v>
+        <v>4.5</v>
       </c>
       <c r="E116" t="n">
-        <v>4.58</v>
+        <v>4.5</v>
       </c>
       <c r="F116" t="n">
-        <v>134571.2552</v>
+        <v>57472.8888</v>
       </c>
       <c r="G116" t="n">
-        <v>4169118.615345249</v>
+        <v>5732617.648755655</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4578,28 +4966,28 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.58</v>
+        <v>4.49</v>
       </c>
       <c r="C117" t="n">
-        <v>4.58</v>
+        <v>4.49</v>
       </c>
       <c r="D117" t="n">
-        <v>4.58</v>
+        <v>4.49</v>
       </c>
       <c r="E117" t="n">
-        <v>4.58</v>
+        <v>4.49</v>
       </c>
       <c r="F117" t="n">
-        <v>349000</v>
+        <v>50000</v>
       </c>
       <c r="G117" t="n">
-        <v>4169118.615345249</v>
+        <v>5682617.648755655</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4614,28 +5002,28 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.58</v>
+        <v>4.5</v>
       </c>
       <c r="C118" t="n">
-        <v>4.58</v>
+        <v>4.5</v>
       </c>
       <c r="D118" t="n">
-        <v>4.58</v>
+        <v>4.5</v>
       </c>
       <c r="E118" t="n">
-        <v>4.58</v>
+        <v>4.5</v>
       </c>
       <c r="F118" t="n">
-        <v>68000</v>
+        <v>18747.9644</v>
       </c>
       <c r="G118" t="n">
-        <v>4169118.615345249</v>
+        <v>5701365.613155655</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4650,28 +5038,28 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.58</v>
+        <v>4.5</v>
       </c>
       <c r="C119" t="n">
-        <v>4.58</v>
+        <v>4.48</v>
       </c>
       <c r="D119" t="n">
-        <v>4.58</v>
+        <v>4.5</v>
       </c>
       <c r="E119" t="n">
-        <v>4.58</v>
+        <v>4.46</v>
       </c>
       <c r="F119" t="n">
-        <v>792000</v>
+        <v>766908.8157</v>
       </c>
       <c r="G119" t="n">
-        <v>4169118.615345249</v>
+        <v>4934456.797455654</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4686,28 +5074,28 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.58</v>
+        <v>4.48</v>
       </c>
       <c r="C120" t="n">
-        <v>4.58</v>
+        <v>4.48</v>
       </c>
       <c r="D120" t="n">
-        <v>4.58</v>
+        <v>4.48</v>
       </c>
       <c r="E120" t="n">
-        <v>4.58</v>
+        <v>4.48</v>
       </c>
       <c r="F120" t="n">
-        <v>242926</v>
+        <v>19203.4318</v>
       </c>
       <c r="G120" t="n">
-        <v>4169118.615345249</v>
+        <v>4934456.797455654</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -4722,28 +5110,28 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.58</v>
+        <v>4.46</v>
       </c>
       <c r="C121" t="n">
-        <v>4.58</v>
+        <v>4.46</v>
       </c>
       <c r="D121" t="n">
-        <v>4.58</v>
+        <v>4.46</v>
       </c>
       <c r="E121" t="n">
-        <v>4.58</v>
+        <v>4.46</v>
       </c>
       <c r="F121" t="n">
-        <v>607315</v>
+        <v>2232.6556</v>
       </c>
       <c r="G121" t="n">
-        <v>4169118.615345249</v>
+        <v>4932224.141855654</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -4758,28 +5146,28 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.58</v>
+        <v>4.46</v>
       </c>
       <c r="C122" t="n">
-        <v>4.55</v>
+        <v>4.46</v>
       </c>
       <c r="D122" t="n">
-        <v>4.58</v>
+        <v>4.46</v>
       </c>
       <c r="E122" t="n">
-        <v>4.55</v>
+        <v>4.46</v>
       </c>
       <c r="F122" t="n">
-        <v>682000</v>
+        <v>140057.4183</v>
       </c>
       <c r="G122" t="n">
-        <v>3487118.615345249</v>
+        <v>4932224.141855654</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -4794,28 +5182,28 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.59</v>
+        <v>4.46</v>
       </c>
       <c r="C123" t="n">
-        <v>4.59</v>
+        <v>4.49</v>
       </c>
       <c r="D123" t="n">
-        <v>4.59</v>
+        <v>4.49</v>
       </c>
       <c r="E123" t="n">
-        <v>4.59</v>
+        <v>4.46</v>
       </c>
       <c r="F123" t="n">
-        <v>435.7298</v>
+        <v>78000</v>
       </c>
       <c r="G123" t="n">
-        <v>3487554.345145249</v>
+        <v>5010224.141855654</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -4830,28 +5218,28 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.56</v>
+        <v>4.45</v>
       </c>
       <c r="C124" t="n">
-        <v>4.56</v>
+        <v>4.5</v>
       </c>
       <c r="D124" t="n">
-        <v>4.56</v>
+        <v>4.5</v>
       </c>
       <c r="E124" t="n">
-        <v>4.56</v>
+        <v>4.45</v>
       </c>
       <c r="F124" t="n">
-        <v>13284.8538</v>
+        <v>35682.1031</v>
       </c>
       <c r="G124" t="n">
-        <v>3474269.491345249</v>
+        <v>5045906.244955654</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -4866,28 +5254,28 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.56</v>
+        <v>4.5</v>
       </c>
       <c r="C125" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="D125" t="n">
-        <v>4.56</v>
+        <v>4.5</v>
       </c>
       <c r="E125" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="F125" t="n">
-        <v>381000</v>
+        <v>110000.9999</v>
       </c>
       <c r="G125" t="n">
-        <v>3093269.491345249</v>
+        <v>5045906.244955654</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -4902,28 +5290,28 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="C126" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="D126" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="E126" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="F126" t="n">
-        <v>32278.1332</v>
+        <v>2022.2222</v>
       </c>
       <c r="G126" t="n">
-        <v>3093269.491345249</v>
+        <v>5045906.244955654</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -4938,28 +5326,28 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.55</v>
+        <v>4.47</v>
       </c>
       <c r="C127" t="n">
-        <v>4.55</v>
+        <v>4.48</v>
       </c>
       <c r="D127" t="n">
-        <v>4.55</v>
+        <v>4.48</v>
       </c>
       <c r="E127" t="n">
-        <v>4.55</v>
+        <v>4.44</v>
       </c>
       <c r="F127" t="n">
-        <v>22548.6627</v>
+        <v>3700247.6565</v>
       </c>
       <c r="G127" t="n">
-        <v>3093269.491345249</v>
+        <v>1345658.588455654</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -4974,22 +5362,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.55</v>
+        <v>4.48</v>
       </c>
       <c r="C128" t="n">
-        <v>4.53</v>
+        <v>4.51</v>
       </c>
       <c r="D128" t="n">
-        <v>4.55</v>
+        <v>4.51</v>
       </c>
       <c r="E128" t="n">
-        <v>4.53</v>
+        <v>4.48</v>
       </c>
       <c r="F128" t="n">
-        <v>302748.1788</v>
+        <v>1899643.844122395</v>
       </c>
       <c r="G128" t="n">
-        <v>2790521.312545249</v>
+        <v>3245302.432578049</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5010,22 +5398,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.53</v>
+        <v>4.48</v>
       </c>
       <c r="C129" t="n">
-        <v>4.53</v>
+        <v>4.48</v>
       </c>
       <c r="D129" t="n">
-        <v>4.53</v>
+        <v>4.48</v>
       </c>
       <c r="E129" t="n">
-        <v>4.53</v>
+        <v>4.48</v>
       </c>
       <c r="F129" t="n">
-        <v>232768.0597</v>
+        <v>2081.1709</v>
       </c>
       <c r="G129" t="n">
-        <v>2790521.312545249</v>
+        <v>3243221.261678049</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5046,22 +5434,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.53</v>
+        <v>4.46</v>
       </c>
       <c r="C130" t="n">
-        <v>4.53</v>
+        <v>4.46</v>
       </c>
       <c r="D130" t="n">
-        <v>4.53</v>
+        <v>4.46</v>
       </c>
       <c r="E130" t="n">
-        <v>4.53</v>
+        <v>4.46</v>
       </c>
       <c r="F130" t="n">
-        <v>252958.8977</v>
+        <v>3809.9407</v>
       </c>
       <c r="G130" t="n">
-        <v>2790521.312545249</v>
+        <v>3239411.320978049</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5082,22 +5470,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.54</v>
+        <v>4.48</v>
       </c>
       <c r="C131" t="n">
-        <v>4.52</v>
+        <v>4.48</v>
       </c>
       <c r="D131" t="n">
-        <v>4.54</v>
+        <v>4.48</v>
       </c>
       <c r="E131" t="n">
-        <v>4.52</v>
+        <v>4.48</v>
       </c>
       <c r="F131" t="n">
-        <v>157899.8448</v>
+        <v>113000</v>
       </c>
       <c r="G131" t="n">
-        <v>2632621.467745249</v>
+        <v>3352411.320978049</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5118,22 +5506,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.53</v>
+        <v>4.47</v>
       </c>
       <c r="C132" t="n">
-        <v>4.52</v>
+        <v>4.47</v>
       </c>
       <c r="D132" t="n">
-        <v>4.53</v>
+        <v>4.47</v>
       </c>
       <c r="E132" t="n">
-        <v>4.52</v>
+        <v>4.47</v>
       </c>
       <c r="F132" t="n">
-        <v>326421.538</v>
+        <v>34199.4636</v>
       </c>
       <c r="G132" t="n">
-        <v>2632621.467745249</v>
+        <v>3318211.857378049</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5154,22 +5542,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.54</v>
+        <v>4.48</v>
       </c>
       <c r="C133" t="n">
-        <v>4.55</v>
+        <v>4.48</v>
       </c>
       <c r="D133" t="n">
-        <v>4.55</v>
+        <v>4.48</v>
       </c>
       <c r="E133" t="n">
-        <v>4.54</v>
+        <v>4.48</v>
       </c>
       <c r="F133" t="n">
-        <v>323118.9918</v>
+        <v>208780.8035</v>
       </c>
       <c r="G133" t="n">
-        <v>2955740.459545249</v>
+        <v>3526992.660878049</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5190,22 +5578,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.56</v>
+        <v>4.52</v>
       </c>
       <c r="C134" t="n">
-        <v>4.56</v>
+        <v>4.52</v>
       </c>
       <c r="D134" t="n">
-        <v>4.56</v>
+        <v>4.52</v>
       </c>
       <c r="E134" t="n">
-        <v>4.56</v>
+        <v>4.52</v>
       </c>
       <c r="F134" t="n">
-        <v>15438.1278</v>
+        <v>53957.3008</v>
       </c>
       <c r="G134" t="n">
-        <v>2971178.587345249</v>
+        <v>3580949.961678049</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5226,22 +5614,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.55</v>
+        <v>4.54</v>
       </c>
       <c r="C135" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="D135" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="E135" t="n">
-        <v>4.55</v>
+        <v>4.54</v>
       </c>
       <c r="F135" t="n">
-        <v>556000</v>
+        <v>78000</v>
       </c>
       <c r="G135" t="n">
-        <v>2415178.587345249</v>
+        <v>3658949.961678049</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5262,22 +5650,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="C136" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="D136" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="E136" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="F136" t="n">
-        <v>18759.6916</v>
+        <v>126000</v>
       </c>
       <c r="G136" t="n">
-        <v>2415178.587345249</v>
+        <v>3784949.961678049</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5298,22 +5686,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.54</v>
+        <v>4.58</v>
       </c>
       <c r="C137" t="n">
-        <v>4.52</v>
+        <v>4.58</v>
       </c>
       <c r="D137" t="n">
-        <v>4.54</v>
+        <v>4.58</v>
       </c>
       <c r="E137" t="n">
-        <v>4.52</v>
+        <v>4.58</v>
       </c>
       <c r="F137" t="n">
-        <v>1747191.778</v>
+        <v>23000</v>
       </c>
       <c r="G137" t="n">
-        <v>667986.8093452491</v>
+        <v>3807949.961678049</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5334,22 +5722,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.53</v>
+        <v>4.58</v>
       </c>
       <c r="C138" t="n">
-        <v>4.54</v>
+        <v>4.6</v>
       </c>
       <c r="D138" t="n">
-        <v>4.54</v>
+        <v>4.6</v>
       </c>
       <c r="E138" t="n">
-        <v>4.53</v>
+        <v>4.58</v>
       </c>
       <c r="F138" t="n">
-        <v>34095.3338</v>
+        <v>478273.9761552174</v>
       </c>
       <c r="G138" t="n">
-        <v>702082.1431452491</v>
+        <v>4286223.937833266</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5370,7 +5758,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.53</v>
+        <v>4.57</v>
       </c>
       <c r="C139" t="n">
         <v>4.56</v>
@@ -5379,13 +5767,13 @@
         <v>4.57</v>
       </c>
       <c r="E139" t="n">
-        <v>4.53</v>
+        <v>4.56</v>
       </c>
       <c r="F139" t="n">
-        <v>210021</v>
+        <v>13379.2722</v>
       </c>
       <c r="G139" t="n">
-        <v>912103.1431452491</v>
+        <v>4272844.665633267</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5406,22 +5794,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.5</v>
+        <v>4.57</v>
       </c>
       <c r="C140" t="n">
-        <v>4.5</v>
+        <v>4.54</v>
       </c>
       <c r="D140" t="n">
-        <v>4.5</v>
+        <v>4.57</v>
       </c>
       <c r="E140" t="n">
-        <v>4.5</v>
+        <v>4.54</v>
       </c>
       <c r="F140" t="n">
-        <v>150</v>
+        <v>234000</v>
       </c>
       <c r="G140" t="n">
-        <v>911953.1431452491</v>
+        <v>4038844.665633267</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5442,22 +5830,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.51</v>
+        <v>4.57</v>
       </c>
       <c r="C141" t="n">
-        <v>4.51</v>
+        <v>4.57</v>
       </c>
       <c r="D141" t="n">
-        <v>4.51</v>
+        <v>4.57</v>
       </c>
       <c r="E141" t="n">
-        <v>4.51</v>
+        <v>4.57</v>
       </c>
       <c r="F141" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="G141" t="n">
-        <v>912103.1431452491</v>
+        <v>4039844.665633267</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5478,22 +5866,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.53</v>
+        <v>4.55</v>
       </c>
       <c r="C142" t="n">
-        <v>4.53</v>
+        <v>4.58</v>
       </c>
       <c r="D142" t="n">
-        <v>4.53</v>
+        <v>4.58</v>
       </c>
       <c r="E142" t="n">
-        <v>4.53</v>
+        <v>4.55</v>
       </c>
       <c r="F142" t="n">
-        <v>96000</v>
+        <v>225000</v>
       </c>
       <c r="G142" t="n">
-        <v>1008103.143145249</v>
+        <v>4264844.665633267</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5514,22 +5902,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54</v>
+        <v>4.6</v>
       </c>
       <c r="C143" t="n">
-        <v>4.54</v>
+        <v>4.6</v>
       </c>
       <c r="D143" t="n">
-        <v>4.54</v>
+        <v>4.6</v>
       </c>
       <c r="E143" t="n">
-        <v>4.54</v>
+        <v>4.6</v>
       </c>
       <c r="F143" t="n">
-        <v>106000</v>
+        <v>2205.5978</v>
       </c>
       <c r="G143" t="n">
-        <v>1114103.143145249</v>
+        <v>4267050.263433266</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5550,22 +5938,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="C144" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="D144" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="E144" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="F144" t="n">
-        <v>19554.5239</v>
+        <v>11265.6521</v>
       </c>
       <c r="G144" t="n">
-        <v>1094548.619245249</v>
+        <v>4267050.263433266</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5586,22 +5974,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.49</v>
+        <v>4.6</v>
       </c>
       <c r="C145" t="n">
-        <v>4.49</v>
+        <v>4.6</v>
       </c>
       <c r="D145" t="n">
-        <v>4.49</v>
+        <v>4.6</v>
       </c>
       <c r="E145" t="n">
-        <v>4.49</v>
+        <v>4.6</v>
       </c>
       <c r="F145" t="n">
-        <v>50000</v>
+        <v>86769.23910000001</v>
       </c>
       <c r="G145" t="n">
-        <v>1044548.619245249</v>
+        <v>4267050.263433266</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5622,22 +6010,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.49</v>
+        <v>4.57</v>
       </c>
       <c r="C146" t="n">
-        <v>4.49</v>
+        <v>4.57</v>
       </c>
       <c r="D146" t="n">
-        <v>4.49</v>
+        <v>4.57</v>
       </c>
       <c r="E146" t="n">
-        <v>4.49</v>
+        <v>4.57</v>
       </c>
       <c r="F146" t="n">
         <v>10000</v>
       </c>
       <c r="G146" t="n">
-        <v>1044548.619245249</v>
+        <v>4257050.263433266</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5658,22 +6046,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.48</v>
+        <v>4.58</v>
       </c>
       <c r="C147" t="n">
-        <v>4.48</v>
+        <v>4.59</v>
       </c>
       <c r="D147" t="n">
-        <v>4.48</v>
+        <v>4.59</v>
       </c>
       <c r="E147" t="n">
-        <v>4.48</v>
+        <v>4.58</v>
       </c>
       <c r="F147" t="n">
-        <v>164501.8593</v>
+        <v>58342.8103</v>
       </c>
       <c r="G147" t="n">
-        <v>880046.7599452493</v>
+        <v>4315393.073733266</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5694,22 +6082,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.48</v>
+        <v>4.58</v>
       </c>
       <c r="C148" t="n">
-        <v>4.48</v>
+        <v>4.58</v>
       </c>
       <c r="D148" t="n">
-        <v>4.48</v>
+        <v>4.58</v>
       </c>
       <c r="E148" t="n">
-        <v>4.48</v>
+        <v>4.58</v>
       </c>
       <c r="F148" t="n">
-        <v>101055.0408</v>
+        <v>90526.7205</v>
       </c>
       <c r="G148" t="n">
-        <v>880046.7599452493</v>
+        <v>4224866.353233267</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5730,22 +6118,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.48</v>
+        <v>4.59</v>
       </c>
       <c r="C149" t="n">
-        <v>4.48</v>
+        <v>4.59</v>
       </c>
       <c r="D149" t="n">
-        <v>4.48</v>
+        <v>4.59</v>
       </c>
       <c r="E149" t="n">
-        <v>4.48</v>
+        <v>4.59</v>
       </c>
       <c r="F149" t="n">
-        <v>19528.8141</v>
+        <v>302080.61</v>
       </c>
       <c r="G149" t="n">
-        <v>880046.7599452493</v>
+        <v>4526946.963233267</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5766,22 +6154,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.45</v>
+        <v>4.57</v>
       </c>
       <c r="C150" t="n">
-        <v>4.44</v>
+        <v>4.57</v>
       </c>
       <c r="D150" t="n">
-        <v>4.45</v>
+        <v>4.57</v>
       </c>
       <c r="E150" t="n">
-        <v>4.44</v>
+        <v>4.57</v>
       </c>
       <c r="F150" t="n">
-        <v>164449.4112</v>
+        <v>17549</v>
       </c>
       <c r="G150" t="n">
-        <v>715597.3487452493</v>
+        <v>4509397.963233267</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5802,22 +6190,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.44</v>
+        <v>4.57</v>
       </c>
       <c r="C151" t="n">
-        <v>4.43</v>
+        <v>4.57</v>
       </c>
       <c r="D151" t="n">
-        <v>4.44</v>
+        <v>4.57</v>
       </c>
       <c r="E151" t="n">
-        <v>4.43</v>
+        <v>4.57</v>
       </c>
       <c r="F151" t="n">
-        <v>429370.4621</v>
+        <v>50284.0437</v>
       </c>
       <c r="G151" t="n">
-        <v>286226.8866452493</v>
+        <v>4509397.963233267</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5838,35 +6226,31 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.42</v>
+        <v>4.56</v>
       </c>
       <c r="C152" t="n">
-        <v>4.42</v>
+        <v>4.56</v>
       </c>
       <c r="D152" t="n">
-        <v>4.42</v>
+        <v>4.56</v>
       </c>
       <c r="E152" t="n">
-        <v>4.42</v>
+        <v>4.56</v>
       </c>
       <c r="F152" t="n">
-        <v>11247.0853</v>
+        <v>22758.414</v>
       </c>
       <c r="G152" t="n">
-        <v>274979.8013452493</v>
+        <v>4486639.549233267</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="K152" t="n">
-        <v>4.43</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
@@ -5878,40 +6262,32 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.41</v>
+        <v>4.56</v>
       </c>
       <c r="C153" t="n">
-        <v>4.4</v>
+        <v>4.56</v>
       </c>
       <c r="D153" t="n">
-        <v>4.41</v>
+        <v>4.56</v>
       </c>
       <c r="E153" t="n">
-        <v>4.4</v>
+        <v>4.56</v>
       </c>
       <c r="F153" t="n">
-        <v>440523.3661</v>
+        <v>184585.4081</v>
       </c>
       <c r="G153" t="n">
-        <v>-165543.5647547506</v>
+        <v>4486639.549233267</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="K153" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5922,40 +6298,32 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.44</v>
+        <v>4.56</v>
       </c>
       <c r="C154" t="n">
-        <v>4.46</v>
+        <v>4.57</v>
       </c>
       <c r="D154" t="n">
-        <v>4.46</v>
+        <v>4.57</v>
       </c>
       <c r="E154" t="n">
-        <v>4.44</v>
+        <v>4.56</v>
       </c>
       <c r="F154" t="n">
-        <v>349000</v>
+        <v>369000</v>
       </c>
       <c r="G154" t="n">
-        <v>183456.4352452494</v>
+        <v>4855639.549233267</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K154" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5966,40 +6334,32 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.47</v>
+        <v>4.57</v>
       </c>
       <c r="C155" t="n">
-        <v>4.47</v>
+        <v>4.57</v>
       </c>
       <c r="D155" t="n">
-        <v>4.47</v>
+        <v>4.57</v>
       </c>
       <c r="E155" t="n">
-        <v>4.47</v>
+        <v>4.57</v>
       </c>
       <c r="F155" t="n">
-        <v>79104.9238</v>
+        <v>25.3829</v>
       </c>
       <c r="G155" t="n">
-        <v>262561.3590452494</v>
+        <v>4855639.549233267</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="K155" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6010,40 +6370,32 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.48</v>
+        <v>4.57</v>
       </c>
       <c r="C156" t="n">
-        <v>4.48</v>
+        <v>4.59</v>
       </c>
       <c r="D156" t="n">
-        <v>4.48</v>
+        <v>4.59</v>
       </c>
       <c r="E156" t="n">
-        <v>4.48</v>
+        <v>4.57</v>
       </c>
       <c r="F156" t="n">
-        <v>21211.2915</v>
+        <v>249138.1730204793</v>
       </c>
       <c r="G156" t="n">
-        <v>283772.6505452493</v>
+        <v>5104777.722253746</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="K156" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6054,40 +6406,32 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.49</v>
+        <v>4.57</v>
       </c>
       <c r="C157" t="n">
-        <v>4.51</v>
+        <v>4.56</v>
       </c>
       <c r="D157" t="n">
-        <v>4.51</v>
+        <v>4.57</v>
       </c>
       <c r="E157" t="n">
-        <v>4.49</v>
+        <v>4.56</v>
       </c>
       <c r="F157" t="n">
-        <v>1111402.2172</v>
+        <v>465536.1194</v>
       </c>
       <c r="G157" t="n">
-        <v>1395174.86774525</v>
+        <v>4639241.602853746</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="K157" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6098,22 +6442,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.51</v>
+        <v>4.59</v>
       </c>
       <c r="C158" t="n">
-        <v>4.51</v>
+        <v>4.59</v>
       </c>
       <c r="D158" t="n">
-        <v>4.51</v>
+        <v>4.59</v>
       </c>
       <c r="E158" t="n">
-        <v>4.51</v>
+        <v>4.59</v>
       </c>
       <c r="F158" t="n">
-        <v>1807.9822</v>
+        <v>350000</v>
       </c>
       <c r="G158" t="n">
-        <v>1395174.86774525</v>
+        <v>4989241.602853746</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6122,14 +6466,8 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6140,22 +6478,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.5</v>
+        <v>4.57</v>
       </c>
       <c r="C159" t="n">
-        <v>4.5</v>
+        <v>4.57</v>
       </c>
       <c r="D159" t="n">
-        <v>4.5</v>
+        <v>4.57</v>
       </c>
       <c r="E159" t="n">
-        <v>4.5</v>
+        <v>4.57</v>
       </c>
       <c r="F159" t="n">
-        <v>70360</v>
+        <v>10000</v>
       </c>
       <c r="G159" t="n">
-        <v>1324814.86774525</v>
+        <v>4979241.602853746</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6164,14 +6502,8 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6182,22 +6514,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.51</v>
+        <v>4.57</v>
       </c>
       <c r="C160" t="n">
-        <v>4.51</v>
+        <v>4.57</v>
       </c>
       <c r="D160" t="n">
-        <v>4.51</v>
+        <v>4.57</v>
       </c>
       <c r="E160" t="n">
-        <v>4.51</v>
+        <v>4.57</v>
       </c>
       <c r="F160" t="n">
-        <v>2015.2909</v>
+        <v>145166.6666</v>
       </c>
       <c r="G160" t="n">
-        <v>1326830.158645249</v>
+        <v>4979241.602853746</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6206,14 +6538,8 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6224,22 +6550,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.52</v>
+        <v>4.59</v>
       </c>
       <c r="C161" t="n">
-        <v>4.52</v>
+        <v>4.59</v>
       </c>
       <c r="D161" t="n">
-        <v>4.52</v>
+        <v>4.59</v>
       </c>
       <c r="E161" t="n">
-        <v>4.52</v>
+        <v>4.59</v>
       </c>
       <c r="F161" t="n">
-        <v>19798.0088</v>
+        <v>38000</v>
       </c>
       <c r="G161" t="n">
-        <v>1346628.167445249</v>
+        <v>5017241.602853746</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6248,14 +6574,8 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6266,22 +6586,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.49</v>
+        <v>4.57</v>
       </c>
       <c r="C162" t="n">
-        <v>4.49</v>
+        <v>4.56</v>
       </c>
       <c r="D162" t="n">
-        <v>4.49</v>
+        <v>4.57</v>
       </c>
       <c r="E162" t="n">
-        <v>4.49</v>
+        <v>4.56</v>
       </c>
       <c r="F162" t="n">
-        <v>20071.3526</v>
+        <v>314515.0045</v>
       </c>
       <c r="G162" t="n">
-        <v>1326556.814845249</v>
+        <v>4702726.598353746</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6290,14 +6610,8 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6308,22 +6622,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.49</v>
+        <v>4.58</v>
       </c>
       <c r="C163" t="n">
-        <v>4.49</v>
+        <v>4.59</v>
       </c>
       <c r="D163" t="n">
-        <v>4.49</v>
+        <v>4.59</v>
       </c>
       <c r="E163" t="n">
-        <v>4.49</v>
+        <v>4.58</v>
       </c>
       <c r="F163" t="n">
-        <v>21650.5981</v>
+        <v>156000</v>
       </c>
       <c r="G163" t="n">
-        <v>1326556.814845249</v>
+        <v>4858726.598353746</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6332,14 +6646,8 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6350,22 +6658,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.49</v>
+        <v>4.57</v>
       </c>
       <c r="C164" t="n">
-        <v>4.49</v>
+        <v>4.59</v>
       </c>
       <c r="D164" t="n">
-        <v>4.49</v>
+        <v>4.59</v>
       </c>
       <c r="E164" t="n">
-        <v>4.49</v>
+        <v>4.57</v>
       </c>
       <c r="F164" t="n">
-        <v>3700.7008</v>
+        <v>719.5137</v>
       </c>
       <c r="G164" t="n">
-        <v>1326556.814845249</v>
+        <v>4858726.598353746</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6374,14 +6682,8 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6392,22 +6694,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.44</v>
+        <v>4.56</v>
       </c>
       <c r="C165" t="n">
-        <v>4.44</v>
+        <v>4.56</v>
       </c>
       <c r="D165" t="n">
-        <v>4.44</v>
+        <v>4.56</v>
       </c>
       <c r="E165" t="n">
-        <v>4.44</v>
+        <v>4.56</v>
       </c>
       <c r="F165" t="n">
-        <v>21758.7664</v>
+        <v>90526.7205</v>
       </c>
       <c r="G165" t="n">
-        <v>1304798.048445249</v>
+        <v>4768199.877853747</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6416,14 +6718,8 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6434,22 +6730,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.44</v>
+        <v>4.57</v>
       </c>
       <c r="C166" t="n">
-        <v>4.44</v>
+        <v>4.57</v>
       </c>
       <c r="D166" t="n">
-        <v>4.44</v>
+        <v>4.57</v>
       </c>
       <c r="E166" t="n">
-        <v>4.44</v>
+        <v>4.57</v>
       </c>
       <c r="F166" t="n">
-        <v>217000</v>
+        <v>200</v>
       </c>
       <c r="G166" t="n">
-        <v>1304798.048445249</v>
+        <v>4768399.877853747</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6458,14 +6754,8 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6476,22 +6766,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.44</v>
+        <v>4.57</v>
       </c>
       <c r="C167" t="n">
-        <v>4.44</v>
+        <v>4.57</v>
       </c>
       <c r="D167" t="n">
-        <v>4.44</v>
+        <v>4.57</v>
       </c>
       <c r="E167" t="n">
-        <v>4.44</v>
+        <v>4.57</v>
       </c>
       <c r="F167" t="n">
-        <v>228000</v>
+        <v>109800.3689</v>
       </c>
       <c r="G167" t="n">
-        <v>1304798.048445249</v>
+        <v>4768399.877853747</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6500,14 +6790,8 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6518,22 +6802,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.44</v>
+        <v>4.57</v>
       </c>
       <c r="C168" t="n">
-        <v>4.41</v>
+        <v>4.59</v>
       </c>
       <c r="D168" t="n">
-        <v>4.44</v>
+        <v>4.59</v>
       </c>
       <c r="E168" t="n">
-        <v>4.41</v>
+        <v>4.57</v>
       </c>
       <c r="F168" t="n">
-        <v>161075.0173</v>
+        <v>12682.41090239651</v>
       </c>
       <c r="G168" t="n">
-        <v>1143723.031145249</v>
+        <v>4781082.288756143</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6542,14 +6826,8 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6560,22 +6838,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.4</v>
+        <v>4.57</v>
       </c>
       <c r="C169" t="n">
-        <v>4.41</v>
+        <v>4.57</v>
       </c>
       <c r="D169" t="n">
-        <v>4.41</v>
+        <v>4.57</v>
       </c>
       <c r="E169" t="n">
-        <v>4.4</v>
+        <v>4.57</v>
       </c>
       <c r="F169" t="n">
-        <v>622749.2506</v>
+        <v>455978</v>
       </c>
       <c r="G169" t="n">
-        <v>1143723.031145249</v>
+        <v>4325104.288756143</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6584,14 +6862,8 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6602,40 +6874,32 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.41</v>
+        <v>4.57</v>
       </c>
       <c r="C170" t="n">
-        <v>4.39</v>
+        <v>4.57</v>
       </c>
       <c r="D170" t="n">
-        <v>4.41</v>
+        <v>4.57</v>
       </c>
       <c r="E170" t="n">
-        <v>4.39</v>
+        <v>4.57</v>
       </c>
       <c r="F170" t="n">
-        <v>78000</v>
+        <v>12408.1102</v>
       </c>
       <c r="G170" t="n">
-        <v>1065723.031145249</v>
+        <v>4325104.288756143</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K170" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6646,40 +6910,32 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.42</v>
+        <v>4.59</v>
       </c>
       <c r="C171" t="n">
-        <v>4.43</v>
+        <v>4.59</v>
       </c>
       <c r="D171" t="n">
-        <v>4.43</v>
+        <v>4.59</v>
       </c>
       <c r="E171" t="n">
-        <v>4.42</v>
+        <v>4.59</v>
       </c>
       <c r="F171" t="n">
-        <v>234000</v>
+        <v>137000</v>
       </c>
       <c r="G171" t="n">
-        <v>1299723.031145249</v>
+        <v>4462104.288756143</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="K171" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6690,40 +6946,32 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.43</v>
+        <v>4.57</v>
       </c>
       <c r="C172" t="n">
-        <v>4.43</v>
+        <v>4.57</v>
       </c>
       <c r="D172" t="n">
-        <v>4.43</v>
+        <v>4.57</v>
       </c>
       <c r="E172" t="n">
-        <v>4.43</v>
+        <v>4.57</v>
       </c>
       <c r="F172" t="n">
-        <v>2471.9101</v>
+        <v>107000</v>
       </c>
       <c r="G172" t="n">
-        <v>1299723.031145249</v>
+        <v>4355104.288756143</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="K172" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6734,40 +6982,32 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.42</v>
+        <v>4.57</v>
       </c>
       <c r="C173" t="n">
-        <v>4.41</v>
+        <v>4.57</v>
       </c>
       <c r="D173" t="n">
-        <v>4.42</v>
+        <v>4.57</v>
       </c>
       <c r="E173" t="n">
-        <v>4.41</v>
+        <v>4.57</v>
       </c>
       <c r="F173" t="n">
-        <v>53543.0539</v>
+        <v>35765.2445</v>
       </c>
       <c r="G173" t="n">
-        <v>1246179.977245249</v>
+        <v>4355104.288756143</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="K173" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6778,40 +7018,32 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.42</v>
+        <v>4.57</v>
       </c>
       <c r="C174" t="n">
-        <v>4.42</v>
+        <v>4.56</v>
       </c>
       <c r="D174" t="n">
-        <v>4.42</v>
+        <v>4.57</v>
       </c>
       <c r="E174" t="n">
-        <v>4.42</v>
+        <v>4.56</v>
       </c>
       <c r="F174" t="n">
-        <v>33936.6515</v>
+        <v>312000</v>
       </c>
       <c r="G174" t="n">
-        <v>1280116.628745249</v>
+        <v>4043104.288756143</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K174" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6822,40 +7054,32 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.4</v>
+        <v>4.56</v>
       </c>
       <c r="C175" t="n">
-        <v>4.4</v>
+        <v>4.56</v>
       </c>
       <c r="D175" t="n">
-        <v>4.4</v>
+        <v>4.56</v>
       </c>
       <c r="E175" t="n">
-        <v>4.4</v>
+        <v>4.56</v>
       </c>
       <c r="F175" t="n">
-        <v>100</v>
+        <v>75120.7298</v>
       </c>
       <c r="G175" t="n">
-        <v>1280016.628745249</v>
+        <v>4043104.288756143</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="K175" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6866,40 +7090,32 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.39</v>
+        <v>4.55</v>
       </c>
       <c r="C176" t="n">
-        <v>4.39</v>
+        <v>4.55</v>
       </c>
       <c r="D176" t="n">
-        <v>4.39</v>
+        <v>4.55</v>
       </c>
       <c r="E176" t="n">
-        <v>4.39</v>
+        <v>4.55</v>
       </c>
       <c r="F176" t="n">
-        <v>6597.004</v>
+        <v>136000</v>
       </c>
       <c r="G176" t="n">
-        <v>1273419.624745249</v>
+        <v>3907104.288756143</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K176" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6910,40 +7126,32 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.43</v>
+        <v>4.56</v>
       </c>
       <c r="C177" t="n">
-        <v>4.43</v>
+        <v>4.56</v>
       </c>
       <c r="D177" t="n">
-        <v>4.43</v>
+        <v>4.56</v>
       </c>
       <c r="E177" t="n">
-        <v>4.43</v>
+        <v>4.56</v>
       </c>
       <c r="F177" t="n">
-        <v>9419.413</v>
+        <v>43859.6491</v>
       </c>
       <c r="G177" t="n">
-        <v>1282839.037745249</v>
+        <v>3950963.937856143</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="K177" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6954,40 +7162,32 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.44</v>
+        <v>4.58</v>
       </c>
       <c r="C178" t="n">
-        <v>4.44</v>
+        <v>4.58</v>
       </c>
       <c r="D178" t="n">
-        <v>4.44</v>
+        <v>4.58</v>
       </c>
       <c r="E178" t="n">
-        <v>4.44</v>
+        <v>4.58</v>
       </c>
       <c r="F178" t="n">
-        <v>9398.1981</v>
+        <v>78000</v>
       </c>
       <c r="G178" t="n">
-        <v>1292237.235845249</v>
+        <v>4028963.937856143</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="K178" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6998,40 +7198,32 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>4.42</v>
+        <v>4.56</v>
       </c>
       <c r="C179" t="n">
-        <v>4.42</v>
+        <v>4.56</v>
       </c>
       <c r="D179" t="n">
-        <v>4.42</v>
+        <v>4.56</v>
       </c>
       <c r="E179" t="n">
-        <v>4.42</v>
+        <v>4.56</v>
       </c>
       <c r="F179" t="n">
-        <v>27000</v>
+        <v>47707.8291</v>
       </c>
       <c r="G179" t="n">
-        <v>1265237.235845249</v>
+        <v>3981256.108756143</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="K179" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7042,22 +7234,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>4.39</v>
+        <v>4.56</v>
       </c>
       <c r="C180" t="n">
-        <v>4.39</v>
+        <v>4.59</v>
       </c>
       <c r="D180" t="n">
-        <v>4.39</v>
+        <v>4.59</v>
       </c>
       <c r="E180" t="n">
-        <v>4.39</v>
+        <v>4.56</v>
       </c>
       <c r="F180" t="n">
-        <v>161305.1194</v>
+        <v>58433.76178910676</v>
       </c>
       <c r="G180" t="n">
-        <v>1103932.116445249</v>
+        <v>4039689.87054525</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7066,14 +7258,8 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7084,40 +7270,32 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>4.41</v>
+        <v>4.58</v>
       </c>
       <c r="C181" t="n">
-        <v>4.41</v>
+        <v>4.58</v>
       </c>
       <c r="D181" t="n">
-        <v>4.41</v>
+        <v>4.58</v>
       </c>
       <c r="E181" t="n">
-        <v>4.41</v>
+        <v>4.58</v>
       </c>
       <c r="F181" t="n">
-        <v>4420</v>
+        <v>100000</v>
       </c>
       <c r="G181" t="n">
-        <v>1108352.116445249</v>
+        <v>3939689.87054525</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="K181" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7128,40 +7306,32 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>4.41</v>
+        <v>4.58</v>
       </c>
       <c r="C182" t="n">
-        <v>4.41</v>
+        <v>4.58</v>
       </c>
       <c r="D182" t="n">
-        <v>4.41</v>
+        <v>4.58</v>
       </c>
       <c r="E182" t="n">
-        <v>4.41</v>
+        <v>4.58</v>
       </c>
       <c r="F182" t="n">
-        <v>71296.3382</v>
+        <v>25933.869</v>
       </c>
       <c r="G182" t="n">
-        <v>1108352.116445249</v>
+        <v>3939689.87054525</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K182" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7172,44 +7342,2592 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="C183" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="D183" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="E183" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="F183" t="n">
+        <v>53822.4076</v>
+      </c>
+      <c r="G183" t="n">
+        <v>3939689.87054525</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="C184" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="D184" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="E184" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="F184" t="n">
+        <v>33976.9823</v>
+      </c>
+      <c r="G184" t="n">
+        <v>3939689.87054525</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="C185" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="D185" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="E185" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="F185" t="n">
+        <v>86000</v>
+      </c>
+      <c r="G185" t="n">
+        <v>3939689.87054525</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="C186" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="D186" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="E186" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="F186" t="n">
+        <v>364000</v>
+      </c>
+      <c r="G186" t="n">
+        <v>4303689.870545249</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="C187" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="D187" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="E187" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="F187" t="n">
+        <v>134571.2552</v>
+      </c>
+      <c r="G187" t="n">
+        <v>4169118.615345249</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="C188" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="D188" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="E188" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="F188" t="n">
+        <v>349000</v>
+      </c>
+      <c r="G188" t="n">
+        <v>4169118.615345249</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="C189" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="D189" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="E189" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="F189" t="n">
+        <v>68000</v>
+      </c>
+      <c r="G189" t="n">
+        <v>4169118.615345249</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="C190" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="D190" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="E190" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="F190" t="n">
+        <v>792000</v>
+      </c>
+      <c r="G190" t="n">
+        <v>4169118.615345249</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="C191" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="D191" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="E191" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="F191" t="n">
+        <v>242926</v>
+      </c>
+      <c r="G191" t="n">
+        <v>4169118.615345249</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="C192" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="D192" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="E192" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="F192" t="n">
+        <v>607315</v>
+      </c>
+      <c r="G192" t="n">
+        <v>4169118.615345249</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="C193" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="D193" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="E193" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="F193" t="n">
+        <v>682000</v>
+      </c>
+      <c r="G193" t="n">
+        <v>3487118.615345249</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="C194" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="D194" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="E194" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="F194" t="n">
+        <v>435.7298</v>
+      </c>
+      <c r="G194" t="n">
+        <v>3487554.345145249</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="C195" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="D195" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="E195" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="F195" t="n">
+        <v>13284.8538</v>
+      </c>
+      <c r="G195" t="n">
+        <v>3474269.491345249</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="C196" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="D196" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="E196" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="F196" t="n">
+        <v>381000</v>
+      </c>
+      <c r="G196" t="n">
+        <v>3093269.491345249</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="C197" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="D197" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="E197" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="F197" t="n">
+        <v>32278.1332</v>
+      </c>
+      <c r="G197" t="n">
+        <v>3093269.491345249</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="C198" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="D198" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="E198" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="F198" t="n">
+        <v>22548.6627</v>
+      </c>
+      <c r="G198" t="n">
+        <v>3093269.491345249</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="C199" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D199" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="E199" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="F199" t="n">
+        <v>302748.1788</v>
+      </c>
+      <c r="G199" t="n">
+        <v>2790521.312545249</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="C200" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D200" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E200" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="F200" t="n">
+        <v>232768.0597</v>
+      </c>
+      <c r="G200" t="n">
+        <v>2790521.312545249</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="C201" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D201" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E201" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="F201" t="n">
+        <v>252958.8977</v>
+      </c>
+      <c r="G201" t="n">
+        <v>2790521.312545249</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="C202" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="D202" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="E202" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="F202" t="n">
+        <v>157899.8448</v>
+      </c>
+      <c r="G202" t="n">
+        <v>2632621.467745249</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="C203" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="D203" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E203" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="F203" t="n">
+        <v>326421.538</v>
+      </c>
+      <c r="G203" t="n">
+        <v>2632621.467745249</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="C204" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="D204" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="E204" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="F204" t="n">
+        <v>323118.9918</v>
+      </c>
+      <c r="G204" t="n">
+        <v>2955740.459545249</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="C205" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="D205" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="E205" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="F205" t="n">
+        <v>15438.1278</v>
+      </c>
+      <c r="G205" t="n">
+        <v>2971178.587345249</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="C206" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="D206" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="E206" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="F206" t="n">
+        <v>556000</v>
+      </c>
+      <c r="G206" t="n">
+        <v>2415178.587345249</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="C207" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="D207" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="E207" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="F207" t="n">
+        <v>18759.6916</v>
+      </c>
+      <c r="G207" t="n">
+        <v>2415178.587345249</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="C208" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="D208" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="E208" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1747191.778</v>
+      </c>
+      <c r="G208" t="n">
+        <v>667986.8093452491</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="C209" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="D209" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="E209" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="F209" t="n">
+        <v>34095.3338</v>
+      </c>
+      <c r="G209" t="n">
+        <v>702082.1431452491</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="C210" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="D210" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="E210" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="F210" t="n">
+        <v>210021</v>
+      </c>
+      <c r="G210" t="n">
+        <v>912103.1431452491</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C211" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D211" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E211" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F211" t="n">
+        <v>150</v>
+      </c>
+      <c r="G211" t="n">
+        <v>911953.1431452491</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="C212" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="D212" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="E212" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="F212" t="n">
+        <v>150</v>
+      </c>
+      <c r="G212" t="n">
+        <v>912103.1431452491</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="C213" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D213" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E213" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="F213" t="n">
+        <v>96000</v>
+      </c>
+      <c r="G213" t="n">
+        <v>1008103.143145249</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="C214" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="D214" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="E214" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="F214" t="n">
+        <v>106000</v>
+      </c>
+      <c r="G214" t="n">
+        <v>1114103.143145249</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C215" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D215" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E215" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F215" t="n">
+        <v>19554.5239</v>
+      </c>
+      <c r="G215" t="n">
+        <v>1094548.619245249</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="C216" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="D216" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="E216" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="F216" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G216" t="n">
+        <v>1044548.619245249</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="C217" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="D217" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="E217" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="F217" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G217" t="n">
+        <v>1044548.619245249</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="C218" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="D218" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="E218" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="F218" t="n">
+        <v>164501.8593</v>
+      </c>
+      <c r="G218" t="n">
+        <v>880046.7599452493</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="C219" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="D219" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="E219" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="F219" t="n">
+        <v>101055.0408</v>
+      </c>
+      <c r="G219" t="n">
+        <v>880046.7599452493</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="C220" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="D220" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="E220" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="F220" t="n">
+        <v>19528.8141</v>
+      </c>
+      <c r="G220" t="n">
+        <v>880046.7599452493</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="C221" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="D221" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="E221" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F221" t="n">
+        <v>164449.4112</v>
+      </c>
+      <c r="G221" t="n">
+        <v>715597.3487452493</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="C222" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="D222" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="E222" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F222" t="n">
+        <v>429370.4621</v>
+      </c>
+      <c r="G222" t="n">
+        <v>286226.8866452493</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
         <v>4.42</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C223" t="n">
         <v>4.42</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D223" t="n">
         <v>4.42</v>
       </c>
-      <c r="E183" t="n">
+      <c r="E223" t="n">
         <v>4.42</v>
       </c>
-      <c r="F183" t="n">
+      <c r="F223" t="n">
+        <v>11247.0853</v>
+      </c>
+      <c r="G223" t="n">
+        <v>274979.8013452493</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="C224" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D224" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="E224" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F224" t="n">
+        <v>440523.3661</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-165543.5647547506</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="C225" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="D225" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="E225" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F225" t="n">
+        <v>349000</v>
+      </c>
+      <c r="G225" t="n">
+        <v>183456.4352452494</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="C226" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="D226" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="E226" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="F226" t="n">
+        <v>79104.9238</v>
+      </c>
+      <c r="G226" t="n">
+        <v>262561.3590452494</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="C227" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="D227" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="E227" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="F227" t="n">
+        <v>21211.2915</v>
+      </c>
+      <c r="G227" t="n">
+        <v>283772.6505452493</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="C228" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="D228" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="E228" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1111402.2172</v>
+      </c>
+      <c r="G228" t="n">
+        <v>1395174.86774525</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="C229" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="D229" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="E229" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="F229" t="n">
+        <v>1807.9822</v>
+      </c>
+      <c r="G229" t="n">
+        <v>1395174.86774525</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C230" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D230" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E230" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F230" t="n">
+        <v>70360</v>
+      </c>
+      <c r="G230" t="n">
+        <v>1324814.86774525</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="C231" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="D231" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="E231" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="F231" t="n">
+        <v>2015.2909</v>
+      </c>
+      <c r="G231" t="n">
+        <v>1326830.158645249</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="C232" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="D232" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="E232" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="F232" t="n">
+        <v>19798.0088</v>
+      </c>
+      <c r="G232" t="n">
+        <v>1346628.167445249</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="C233" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="D233" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="E233" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="F233" t="n">
+        <v>20071.3526</v>
+      </c>
+      <c r="G233" t="n">
+        <v>1326556.814845249</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="C234" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="D234" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="E234" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="F234" t="n">
+        <v>21650.5981</v>
+      </c>
+      <c r="G234" t="n">
+        <v>1326556.814845249</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="C235" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="D235" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="E235" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="F235" t="n">
+        <v>3700.7008</v>
+      </c>
+      <c r="G235" t="n">
+        <v>1326556.814845249</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="C236" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="D236" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="E236" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F236" t="n">
+        <v>21758.7664</v>
+      </c>
+      <c r="G236" t="n">
+        <v>1304798.048445249</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="C237" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="D237" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="E237" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F237" t="n">
+        <v>217000</v>
+      </c>
+      <c r="G237" t="n">
+        <v>1304798.048445249</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="C238" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="D238" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="E238" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F238" t="n">
+        <v>228000</v>
+      </c>
+      <c r="G238" t="n">
+        <v>1304798.048445249</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="C239" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="D239" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="E239" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="F239" t="n">
+        <v>161075.0173</v>
+      </c>
+      <c r="G239" t="n">
+        <v>1143723.031145249</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C240" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="D240" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="E240" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F240" t="n">
+        <v>622749.2506</v>
+      </c>
+      <c r="G240" t="n">
+        <v>1143723.031145249</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="C241" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="D241" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="E241" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="F241" t="n">
+        <v>78000</v>
+      </c>
+      <c r="G241" t="n">
+        <v>1065723.031145249</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="C242" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="D242" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="E242" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F242" t="n">
+        <v>234000</v>
+      </c>
+      <c r="G242" t="n">
+        <v>1299723.031145249</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="C243" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="D243" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="E243" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F243" t="n">
+        <v>2471.9101</v>
+      </c>
+      <c r="G243" t="n">
+        <v>1299723.031145249</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="C244" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="D244" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="E244" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="F244" t="n">
+        <v>53543.0539</v>
+      </c>
+      <c r="G244" t="n">
+        <v>1246179.977245249</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="C245" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="D245" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="E245" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F245" t="n">
+        <v>33936.6515</v>
+      </c>
+      <c r="G245" t="n">
+        <v>1280116.628745249</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C246" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D246" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E246" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F246" t="n">
+        <v>100</v>
+      </c>
+      <c r="G246" t="n">
+        <v>1280016.628745249</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+      <c r="N246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="C247" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="D247" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="E247" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="F247" t="n">
+        <v>6597.004</v>
+      </c>
+      <c r="G247" t="n">
+        <v>1273419.624745249</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="N247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="C248" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="D248" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="E248" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F248" t="n">
+        <v>9419.413</v>
+      </c>
+      <c r="G248" t="n">
+        <v>1282839.037745249</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="n">
+        <v>1</v>
+      </c>
+      <c r="N248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="C249" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="D249" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="E249" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F249" t="n">
+        <v>9398.1981</v>
+      </c>
+      <c r="G249" t="n">
+        <v>1292237.235845249</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="n">
+        <v>1</v>
+      </c>
+      <c r="N249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="C250" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="D250" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="E250" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F250" t="n">
+        <v>27000</v>
+      </c>
+      <c r="G250" t="n">
+        <v>1265237.235845249</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+      <c r="N250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="C251" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="D251" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="E251" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="F251" t="n">
+        <v>161305.1194</v>
+      </c>
+      <c r="G251" t="n">
+        <v>1103932.116445249</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="n">
+        <v>1</v>
+      </c>
+      <c r="N251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="C252" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="D252" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="E252" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="F252" t="n">
+        <v>4420</v>
+      </c>
+      <c r="G252" t="n">
+        <v>1108352.116445249</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="n">
+        <v>1</v>
+      </c>
+      <c r="N252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="C253" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="D253" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="E253" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="F253" t="n">
+        <v>71296.3382</v>
+      </c>
+      <c r="G253" t="n">
+        <v>1108352.116445249</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+      <c r="N253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="C254" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="D254" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="E254" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F254" t="n">
         <v>20125.668</v>
       </c>
-      <c r="G183" t="n">
+      <c r="G254" t="n">
         <v>1128477.784445249</v>
       </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K183" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
+      <c r="M254" t="n">
+        <v>1</v>
+      </c>
+      <c r="N254" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-10 BackTest VET.xlsx
+++ b/BackTest/2019-10-10 BackTest VET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N254"/>
+  <dimension ref="A1:M254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>3014086.078355655</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>3485013.717255655</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.38</v>
       </c>
       <c r="J3" t="n">
         <v>4.38</v>
       </c>
-      <c r="K3" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>3485013.717255655</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.39</v>
       </c>
       <c r="J4" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="K4" t="n">
         <v>4.38</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>3485013.717255655</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>4.39</v>
       </c>
       <c r="J5" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="K5" t="n">
         <v>4.38</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,22 +603,19 @@
         <v>3480169.020555655</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>4.39</v>
       </c>
       <c r="J6" t="n">
         <v>4.39</v>
       </c>
-      <c r="K6" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,26 +640,23 @@
         <v>3482426.356855655</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4.38</v>
       </c>
       <c r="J7" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K7" t="n">
         <v>4.39</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -704,26 +681,23 @@
         <v>3482426.356855655</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>4.43</v>
       </c>
       <c r="J8" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="K8" t="n">
         <v>4.39</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -748,22 +722,19 @@
         <v>3484239.419855655</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>4.43</v>
       </c>
       <c r="J9" t="n">
         <v>4.43</v>
       </c>
-      <c r="K9" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -790,22 +761,19 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
         <v>4.43</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -830,24 +798,23 @@
         <v>3477854.441455655</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
         <v>4.43</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="J11" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -872,22 +839,15 @@
         <v>3477854.441455655</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -912,26 +872,21 @@
         <v>3160803.869455655</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
         <v>4.41</v>
       </c>
-      <c r="K13" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -956,26 +911,19 @@
         <v>3238803.869455655</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L14" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1002,22 +950,17 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1044,22 +987,17 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1086,22 +1024,17 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1128,22 +1061,17 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1170,22 +1098,17 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1212,22 +1135,17 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1254,22 +1172,17 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1296,22 +1209,17 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1338,22 +1246,17 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1380,22 +1283,17 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1422,22 +1320,17 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1462,24 +1355,17 @@
         <v>4840630.483755654</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1506,22 +1392,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1548,22 +1425,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1590,22 +1458,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1632,22 +1491,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1674,22 +1524,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1714,24 +1555,15 @@
         <v>4714280.548455654</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1758,22 +1590,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1800,22 +1623,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1842,22 +1656,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1884,22 +1689,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1926,22 +1722,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1966,24 +1753,15 @@
         <v>5017556.521155654</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2010,22 +1788,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2052,22 +1821,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2094,22 +1854,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2136,22 +1887,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2176,24 +1918,15 @@
         <v>5033483.006255654</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2220,22 +1953,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2262,22 +1986,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2302,24 +2017,15 @@
         <v>5013493.006255654</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2346,22 +2052,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2388,22 +2085,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2430,22 +2118,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2470,24 +2149,15 @@
         <v>5297571.088755653</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2514,22 +2184,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2556,22 +2217,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2598,22 +2250,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2640,22 +2283,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2682,22 +2316,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2724,22 +2349,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2766,22 +2382,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2808,22 +2415,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2850,22 +2448,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2892,22 +2481,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2934,22 +2514,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2974,24 +2545,15 @@
         <v>4895375.731755653</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3018,22 +2580,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3060,22 +2613,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3102,22 +2646,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3142,24 +2677,15 @@
         <v>7497045.270355654</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1.029013605442177</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3186,16 +2712,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3220,18 +2743,15 @@
         <v>6990099.105955654</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3256,18 +2776,15 @@
         <v>6862853.122155654</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3292,18 +2809,15 @@
         <v>6873223.811755654</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3328,18 +2842,15 @@
         <v>6863223.811755654</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3364,18 +2875,15 @@
         <v>6883223.811755654</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3400,18 +2908,15 @@
         <v>6755922.697355654</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3436,18 +2941,15 @@
         <v>6755922.697355654</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3472,18 +2974,15 @@
         <v>6811782.599355654</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3510,16 +3009,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3546,16 +3042,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3582,16 +3075,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3618,16 +3108,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3654,16 +3141,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3688,18 +3172,15 @@
         <v>7011061.218155654</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3724,18 +3205,15 @@
         <v>7018176.616855654</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3760,18 +3238,15 @@
         <v>7018907.611055654</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3796,18 +3271,15 @@
         <v>7018907.611055654</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3832,18 +3304,15 @@
         <v>7012394.807855654</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3870,16 +3339,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3906,16 +3372,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3942,16 +3405,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3978,16 +3438,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4014,16 +3471,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4050,16 +3504,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4086,16 +3537,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4122,16 +3570,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4158,16 +3603,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4194,16 +3636,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4230,16 +3669,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4266,16 +3702,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4302,16 +3735,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4336,18 +3766,15 @@
         <v>6090259.790455653</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4374,16 +3801,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4410,16 +3834,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4446,16 +3867,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4482,16 +3900,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4518,16 +3933,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4554,16 +3966,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4590,16 +3999,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4626,16 +4032,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4662,16 +4065,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4698,16 +4098,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4734,16 +4131,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4770,16 +4164,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4806,16 +4197,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4842,16 +4230,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4878,16 +4263,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4914,16 +4296,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4950,16 +4329,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4986,16 +4362,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5022,16 +4395,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5058,16 +4428,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5094,16 +4461,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5130,16 +4494,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5164,18 +4525,15 @@
         <v>4932224.141855654</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5202,16 +4560,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5238,16 +4593,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5274,16 +4626,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5310,16 +4659,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5346,16 +4692,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5382,16 +4725,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5418,16 +4758,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5454,16 +4791,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5490,16 +4824,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5526,16 +4857,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5562,16 +4890,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5598,16 +4923,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5634,16 +4956,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5670,16 +4989,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5706,16 +5022,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5742,16 +5055,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5778,16 +5088,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5814,16 +5121,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5850,16 +5154,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5886,16 +5187,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5922,16 +5220,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5958,16 +5253,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5994,16 +5286,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6028,18 +5317,15 @@
         <v>4257050.263433266</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6064,18 +5350,15 @@
         <v>4315393.073733266</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6100,18 +5383,15 @@
         <v>4224866.353233267</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6136,18 +5416,15 @@
         <v>4526946.963233267</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6172,18 +5449,15 @@
         <v>4509397.963233267</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6208,18 +5482,15 @@
         <v>4509397.963233267</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6244,18 +5515,15 @@
         <v>4486639.549233267</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6282,16 +5550,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6318,16 +5583,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6354,16 +5616,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6390,16 +5649,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6426,16 +5682,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6460,18 +5713,15 @@
         <v>4989241.602853746</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6496,18 +5746,15 @@
         <v>4979241.602853746</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6534,16 +5781,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6570,16 +5814,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6606,16 +5847,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6642,16 +5880,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6678,16 +5913,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6712,18 +5944,15 @@
         <v>4768199.877853747</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6750,16 +5979,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6786,16 +6012,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6820,18 +6043,15 @@
         <v>4781082.288756143</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6856,18 +6076,15 @@
         <v>4325104.288756143</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6894,16 +6111,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6930,16 +6144,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6966,16 +6177,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7002,16 +6210,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7038,16 +6243,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7074,16 +6276,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7110,16 +6309,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7144,18 +6340,15 @@
         <v>3950963.937856143</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7182,16 +6375,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7218,16 +6408,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7254,16 +6441,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7290,16 +6474,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7326,16 +6507,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7362,16 +6540,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7398,16 +6573,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7434,16 +6606,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7470,16 +6639,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7506,16 +6672,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7542,16 +6705,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7578,16 +6738,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7614,16 +6771,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7650,16 +6804,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7686,16 +6837,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7722,16 +6870,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7758,16 +6903,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7794,16 +6936,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7830,16 +6969,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7866,16 +7002,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7902,16 +7035,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7938,16 +7068,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7974,16 +7101,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8010,16 +7134,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8046,16 +7167,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8082,16 +7200,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8118,16 +7233,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8154,16 +7266,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8190,16 +7299,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8226,16 +7332,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8262,16 +7365,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8298,16 +7398,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8334,16 +7431,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8370,16 +7464,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8406,16 +7497,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8442,16 +7530,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8478,16 +7563,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8514,16 +7596,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8550,16 +7629,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8586,16 +7662,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8622,16 +7695,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8658,16 +7728,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8694,16 +7761,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8730,16 +7794,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8766,16 +7827,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8802,16 +7860,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8838,16 +7893,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8874,16 +7926,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8910,16 +7959,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8946,16 +7992,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8982,16 +8025,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9018,16 +8058,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9052,18 +8089,15 @@
         <v>1324814.86774525</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9090,16 +8124,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9126,16 +8157,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9162,16 +8190,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9198,16 +8223,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9234,16 +8256,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9270,16 +8289,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9306,16 +8322,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9340,18 +8353,15 @@
         <v>1304798.048445249</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9378,16 +8388,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9414,16 +8421,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9450,16 +8454,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9486,16 +8487,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9522,16 +8520,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9558,16 +8553,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9594,16 +8586,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9630,16 +8619,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9666,16 +8652,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9702,16 +8685,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9738,16 +8718,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9774,16 +8751,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9810,16 +8784,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9846,16 +8817,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9882,16 +8850,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9918,18 +8883,15 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-10 BackTest VET.xlsx
+++ b/BackTest/2019-10-10 BackTest VET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>3014086.078355655</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>3485013.717255655</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>4.38</v>
@@ -521,7 +521,7 @@
         <v>3485013.717255655</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>4.39</v>
@@ -562,7 +562,7 @@
         <v>3485013.717255655</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>4.39</v>
@@ -603,7 +603,7 @@
         <v>3480169.020555655</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>4.39</v>
@@ -640,7 +640,7 @@
         <v>3482426.356855655</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>4.38</v>
@@ -681,7 +681,7 @@
         <v>3482426.356855655</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>4.43</v>
@@ -722,7 +722,7 @@
         <v>3484239.419855655</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>4.43</v>
@@ -759,9 +759,11 @@
         <v>3479898.788955655</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.44</v>
+      </c>
       <c r="J10" t="n">
         <v>4.43</v>
       </c>
@@ -798,7 +800,7 @@
         <v>3477854.441455655</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>4.43</v>
@@ -839,10 +841,14 @@
         <v>3477854.441455655</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.41</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -872,12 +878,14 @@
         <v>3160803.869455655</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>4.41</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>4.41</v>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -911,10 +919,14 @@
         <v>3238803.869455655</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.41</v>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -948,10 +960,14 @@
         <v>3288071.666555655</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.41</v>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -985,10 +1001,14 @@
         <v>3130472.336255655</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4.41</v>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1025,7 +1045,9 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>4.41</v>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1062,7 +1084,9 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>4.41</v>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1099,7 +1123,9 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>4.41</v>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1136,7 +1162,9 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>4.41</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1173,7 +1201,9 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>4.41</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1210,7 +1240,9 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>4.41</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1247,7 +1279,9 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>4.41</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1284,7 +1318,9 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>4.41</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1321,7 +1357,9 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>4.41</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1355,1467 +1393,1735 @@
         <v>4840630.483755654</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>4.41</v>
+      </c>
       <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F27" t="n">
+        <v>90.1253</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4840720.609055654</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>964.6666</v>
+      </c>
+      <c r="G28" t="n">
+        <v>4840720.609055654</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>33.6864</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4840720.609055654</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="D30" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="F30" t="n">
+        <v>120</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4840600.609055654</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="D31" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="E31" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="F31" t="n">
+        <v>128344.7191</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4712255.889955654</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2024.6585</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4714280.548455654</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="C33" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="D33" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="F33" t="n">
+        <v>451665.3061</v>
+      </c>
+      <c r="G33" t="n">
+        <v>5165945.854555653</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F34" t="n">
+        <v>44444.4444</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5210390.298955654</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D35" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E35" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F35" t="n">
+        <v>123128</v>
+      </c>
+      <c r="G35" t="n">
+        <v>5210390.298955654</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C36" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="D36" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E36" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="F36" t="n">
+        <v>193000</v>
+      </c>
+      <c r="G36" t="n">
+        <v>5017390.298955654</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C37" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D37" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E37" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F37" t="n">
+        <v>166.2222</v>
+      </c>
+      <c r="G37" t="n">
+        <v>5017556.521155654</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C38" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D38" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E38" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F38" t="n">
+        <v>9948.6284</v>
+      </c>
+      <c r="G38" t="n">
+        <v>5017556.521155654</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="D39" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="F39" t="n">
+        <v>37595.8739</v>
+      </c>
+      <c r="G39" t="n">
+        <v>5055152.395055654</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="D40" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="F40" t="n">
+        <v>75660.7773</v>
+      </c>
+      <c r="G40" t="n">
+        <v>5055152.395055654</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C41" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D41" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E41" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F41" t="n">
+        <v>21669.3888</v>
+      </c>
+      <c r="G41" t="n">
+        <v>5033483.006255654</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C42" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F42" t="n">
+        <v>39030.0951</v>
+      </c>
+      <c r="G42" t="n">
+        <v>5033483.006255654</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C43" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D43" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E43" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F43" t="n">
+        <v>18725.7697</v>
+      </c>
+      <c r="G43" t="n">
+        <v>5033483.006255654</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="C44" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="D44" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="E44" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="F44" t="n">
+        <v>10</v>
+      </c>
+      <c r="G44" t="n">
+        <v>5033493.006255654</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="C45" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="D45" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="E45" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="F45" t="n">
+        <v>40385.1585</v>
+      </c>
+      <c r="G45" t="n">
+        <v>5033493.006255654</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="C46" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="D46" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="E46" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="F46" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G46" t="n">
+        <v>5013493.006255654</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="C47" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="D47" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="E47" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="F47" t="n">
+        <v>209181.6693</v>
+      </c>
+      <c r="G47" t="n">
+        <v>5222674.675555654</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="C48" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="D48" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="E48" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="F48" t="n">
+        <v>77331.6483</v>
+      </c>
+      <c r="G48" t="n">
+        <v>5300006.323855653</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="D49" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="E49" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="F49" t="n">
+        <v>33333.3333</v>
+      </c>
+      <c r="G49" t="n">
+        <v>5300006.323855653</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="C50" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="D50" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="E50" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2435.2351</v>
+      </c>
+      <c r="G50" t="n">
+        <v>5297571.088755653</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="C51" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="D51" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="E51" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="F51" t="n">
+        <v>425860.3643</v>
+      </c>
+      <c r="G51" t="n">
+        <v>4871710.724455653</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="C52" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="D52" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="E52" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="F52" t="n">
+        <v>79224.07580000001</v>
+      </c>
+      <c r="G52" t="n">
+        <v>4871710.724455653</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C53" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D53" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E53" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F53" t="n">
+        <v>87204.7261</v>
+      </c>
+      <c r="G53" t="n">
+        <v>4784505.998355653</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="C54" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D54" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E54" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2005.4992</v>
+      </c>
+      <c r="G54" t="n">
+        <v>4786511.497555654</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="C55" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="D55" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="F55" t="n">
+        <v>38894.3832</v>
+      </c>
+      <c r="G55" t="n">
+        <v>4825405.880755654</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="D56" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="E56" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="F56" t="n">
+        <v>29170.8149</v>
+      </c>
+      <c r="G56" t="n">
+        <v>4825405.880755654</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="D57" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="E57" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="F57" t="n">
+        <v>40483.9207</v>
+      </c>
+      <c r="G57" t="n">
+        <v>4825405.880755654</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="C58" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="D58" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="E58" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="F58" t="n">
+        <v>5776.5488</v>
+      </c>
+      <c r="G58" t="n">
+        <v>4819629.331955654</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="C59" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D59" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E59" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="F59" t="n">
+        <v>5776.5488</v>
+      </c>
+      <c r="G59" t="n">
+        <v>4825405.880755654</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="C60" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="D60" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="E60" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="F60" t="n">
+        <v>197840.7167</v>
+      </c>
+      <c r="G60" t="n">
+        <v>5023246.597455653</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="C61" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D61" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E61" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="F61" t="n">
+        <v>250376.8897</v>
+      </c>
+      <c r="G61" t="n">
+        <v>4772869.707755653</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="C62" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="D62" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="E62" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="F62" t="n">
+        <v>122506.024</v>
+      </c>
+      <c r="G62" t="n">
+        <v>4895375.731755653</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="C63" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="D63" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="E63" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="F63" t="n">
+        <v>976832.6552</v>
+      </c>
+      <c r="G63" t="n">
+        <v>5872208.386955653</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="C64" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="D64" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="E64" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="F64" t="n">
+        <v>446428.5713</v>
+      </c>
+      <c r="G64" t="n">
+        <v>5425779.815655653</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="C65" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="D65" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="E65" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2340777.0924</v>
+      </c>
+      <c r="G65" t="n">
+        <v>7766556.908055654</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="C66" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="D66" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="E66" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="F66" t="n">
+        <v>269511.6377</v>
+      </c>
+      <c r="G66" t="n">
+        <v>7497045.270355654</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="C67" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="D67" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="E67" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="F67" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G67" t="n">
+        <v>7517045.270355654</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="C68" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="D68" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="E68" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="F68" t="n">
+        <v>526946.1644</v>
+      </c>
+      <c r="G68" t="n">
+        <v>6990099.105955654</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="C69" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="D69" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="E69" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="F69" t="n">
+        <v>127245.9838</v>
+      </c>
+      <c r="G69" t="n">
+        <v>6862853.122155654</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="C70" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D70" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="E70" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F70" t="n">
+        <v>10370.6896</v>
+      </c>
+      <c r="G70" t="n">
+        <v>6873223.811755654</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K70" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C27" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D27" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E27" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F27" t="n">
-        <v>90.1253</v>
-      </c>
-      <c r="G27" t="n">
-        <v>4840720.609055654</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C28" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D28" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E28" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F28" t="n">
-        <v>964.6666</v>
-      </c>
-      <c r="G28" t="n">
-        <v>4840720.609055654</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C29" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D29" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E29" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F29" t="n">
-        <v>33.6864</v>
-      </c>
-      <c r="G29" t="n">
-        <v>4840720.609055654</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="C30" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="D30" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="E30" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="F30" t="n">
-        <v>120</v>
-      </c>
-      <c r="G30" t="n">
-        <v>4840600.609055654</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="C31" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D31" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="E31" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="F31" t="n">
-        <v>128344.7191</v>
-      </c>
-      <c r="G31" t="n">
-        <v>4712255.889955654</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="C32" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="D32" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="E32" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="F32" t="n">
-        <v>2024.6585</v>
-      </c>
-      <c r="G32" t="n">
-        <v>4714280.548455654</v>
-      </c>
-      <c r="H32" t="n">
-        <v>3</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="C33" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="D33" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="E33" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="F33" t="n">
-        <v>451665.3061</v>
-      </c>
-      <c r="G33" t="n">
-        <v>5165945.854555653</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C34" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D34" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E34" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F34" t="n">
-        <v>44444.4444</v>
-      </c>
-      <c r="G34" t="n">
-        <v>5210390.298955654</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C35" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D35" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E35" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F35" t="n">
-        <v>123128</v>
-      </c>
-      <c r="G35" t="n">
-        <v>5210390.298955654</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C36" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="D36" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E36" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="F36" t="n">
-        <v>193000</v>
-      </c>
-      <c r="G36" t="n">
-        <v>5017390.298955654</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C37" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D37" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E37" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F37" t="n">
-        <v>166.2222</v>
-      </c>
-      <c r="G37" t="n">
-        <v>5017556.521155654</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C38" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D38" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E38" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F38" t="n">
-        <v>9948.6284</v>
-      </c>
-      <c r="G38" t="n">
-        <v>5017556.521155654</v>
-      </c>
-      <c r="H38" t="n">
-        <v>3</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="C39" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="D39" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="E39" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="F39" t="n">
-        <v>37595.8739</v>
-      </c>
-      <c r="G39" t="n">
-        <v>5055152.395055654</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="C40" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="D40" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="E40" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="F40" t="n">
-        <v>75660.7773</v>
-      </c>
-      <c r="G40" t="n">
-        <v>5055152.395055654</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C41" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D41" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E41" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F41" t="n">
-        <v>21669.3888</v>
-      </c>
-      <c r="G41" t="n">
-        <v>5033483.006255654</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C42" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D42" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E42" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F42" t="n">
-        <v>39030.0951</v>
-      </c>
-      <c r="G42" t="n">
-        <v>5033483.006255654</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C43" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D43" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E43" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F43" t="n">
-        <v>18725.7697</v>
-      </c>
-      <c r="G43" t="n">
-        <v>5033483.006255654</v>
-      </c>
-      <c r="H43" t="n">
-        <v>3</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="C44" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="D44" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="E44" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="F44" t="n">
-        <v>10</v>
-      </c>
-      <c r="G44" t="n">
-        <v>5033493.006255654</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="C45" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="D45" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="E45" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="F45" t="n">
-        <v>40385.1585</v>
-      </c>
-      <c r="G45" t="n">
-        <v>5033493.006255654</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="C46" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="D46" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="E46" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="F46" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G46" t="n">
-        <v>5013493.006255654</v>
-      </c>
-      <c r="H46" t="n">
-        <v>3</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="C47" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="D47" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="E47" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="F47" t="n">
-        <v>209181.6693</v>
-      </c>
-      <c r="G47" t="n">
-        <v>5222674.675555654</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="C48" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="D48" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="E48" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="F48" t="n">
-        <v>77331.6483</v>
-      </c>
-      <c r="G48" t="n">
-        <v>5300006.323855653</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="C49" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="D49" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="E49" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="F49" t="n">
-        <v>33333.3333</v>
-      </c>
-      <c r="G49" t="n">
-        <v>5300006.323855653</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="C50" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="D50" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="E50" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="F50" t="n">
-        <v>2435.2351</v>
-      </c>
-      <c r="G50" t="n">
-        <v>5297571.088755653</v>
-      </c>
-      <c r="H50" t="n">
-        <v>3</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="C51" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="D51" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="E51" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="F51" t="n">
-        <v>425860.3643</v>
-      </c>
-      <c r="G51" t="n">
-        <v>4871710.724455653</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="C52" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="D52" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="E52" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="F52" t="n">
-        <v>79224.07580000001</v>
-      </c>
-      <c r="G52" t="n">
-        <v>4871710.724455653</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C53" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D53" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E53" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F53" t="n">
-        <v>87204.7261</v>
-      </c>
-      <c r="G53" t="n">
-        <v>4784505.998355653</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="C54" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="D54" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="E54" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="F54" t="n">
-        <v>2005.4992</v>
-      </c>
-      <c r="G54" t="n">
-        <v>4786511.497555654</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="C55" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="E55" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="F55" t="n">
-        <v>38894.3832</v>
-      </c>
-      <c r="G55" t="n">
-        <v>4825405.880755654</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="C56" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="D56" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="F56" t="n">
-        <v>29170.8149</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4825405.880755654</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="C57" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="D57" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="E57" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="F57" t="n">
-        <v>40483.9207</v>
-      </c>
-      <c r="G57" t="n">
-        <v>4825405.880755654</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="C58" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="D58" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="E58" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5776.5488</v>
-      </c>
-      <c r="G58" t="n">
-        <v>4819629.331955654</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="C59" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="D59" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="E59" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="F59" t="n">
-        <v>5776.5488</v>
-      </c>
-      <c r="G59" t="n">
-        <v>4825405.880755654</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="C60" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="D60" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="E60" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="F60" t="n">
-        <v>197840.7167</v>
-      </c>
-      <c r="G60" t="n">
-        <v>5023246.597455653</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="C61" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="D61" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="E61" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="F61" t="n">
-        <v>250376.8897</v>
-      </c>
-      <c r="G61" t="n">
-        <v>4772869.707755653</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="C62" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="D62" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="E62" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="F62" t="n">
-        <v>122506.024</v>
-      </c>
-      <c r="G62" t="n">
-        <v>4895375.731755653</v>
-      </c>
-      <c r="H62" t="n">
-        <v>3</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="C63" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="D63" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="E63" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="F63" t="n">
-        <v>976832.6552</v>
-      </c>
-      <c r="G63" t="n">
-        <v>5872208.386955653</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="C64" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="D64" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="E64" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="F64" t="n">
-        <v>446428.5713</v>
-      </c>
-      <c r="G64" t="n">
-        <v>5425779.815655653</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="C65" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="D65" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="E65" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="F65" t="n">
-        <v>2340777.0924</v>
-      </c>
-      <c r="G65" t="n">
-        <v>7766556.908055654</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="C66" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="D66" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="E66" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="F66" t="n">
-        <v>269511.6377</v>
-      </c>
-      <c r="G66" t="n">
-        <v>7497045.270355654</v>
-      </c>
-      <c r="H66" t="n">
-        <v>3</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="C67" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="D67" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="E67" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="F67" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G67" t="n">
-        <v>7517045.270355654</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="C68" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="D68" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="E68" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="F68" t="n">
-        <v>526946.1644</v>
-      </c>
-      <c r="G68" t="n">
-        <v>6990099.105955654</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="C69" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="D69" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="E69" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="F69" t="n">
-        <v>127245.9838</v>
-      </c>
-      <c r="G69" t="n">
-        <v>6862853.122155654</v>
-      </c>
-      <c r="H69" t="n">
-        <v>3</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="C70" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="D70" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="E70" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="F70" t="n">
-        <v>10370.6896</v>
-      </c>
-      <c r="G70" t="n">
-        <v>6873223.811755654</v>
-      </c>
-      <c r="H70" t="n">
-        <v>3</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
-        <v>1</v>
+        <v>1.038083900226757</v>
       </c>
       <c r="M70" t="inlineStr"/>
     </row>
@@ -2842,7 +3148,7 @@
         <v>6863223.811755654</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2875,7 +3181,7 @@
         <v>6883223.811755654</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2908,7 +3214,7 @@
         <v>6755922.697355654</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2941,7 +3247,7 @@
         <v>6755922.697355654</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2974,7 +3280,7 @@
         <v>6811782.599355654</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3007,7 +3313,7 @@
         <v>6811782.599355654</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3040,7 +3346,7 @@
         <v>6811782.599355654</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3073,7 +3379,7 @@
         <v>7024047.330455654</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3106,7 +3412,7 @@
         <v>7024047.330455654</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3172,7 +3478,7 @@
         <v>7011061.218155654</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3205,7 +3511,7 @@
         <v>7018176.616855654</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3238,7 +3544,7 @@
         <v>7018907.611055654</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3271,7 +3577,7 @@
         <v>7018907.611055654</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3304,7 +3610,7 @@
         <v>7012394.807855654</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3337,7 +3643,7 @@
         <v>7012394.807855654</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3370,7 +3676,7 @@
         <v>7012394.807855654</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3403,7 +3709,7 @@
         <v>7086718.822255653</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3436,7 +3742,7 @@
         <v>7016718.822255653</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3469,7 +3775,7 @@
         <v>6499011.128255653</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3502,7 +3808,7 @@
         <v>6496962.777455653</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3535,7 +3841,7 @@
         <v>6496962.777455653</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3568,7 +3874,7 @@
         <v>6468662.172055653</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3601,7 +3907,7 @@
         <v>6472758.873655654</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3634,7 +3940,7 @@
         <v>6430272.190655653</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3667,7 +3973,7 @@
         <v>6452223.951055653</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3700,7 +4006,7 @@
         <v>5980365.003955653</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3733,7 +4039,7 @@
         <v>6090259.790455653</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3766,7 +4072,7 @@
         <v>6090259.790455653</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3799,7 +4105,7 @@
         <v>8383835.001255654</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3832,7 +4138,7 @@
         <v>8358200.007055654</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4195,7 +4501,7 @@
         <v>6521510.317155655</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4228,7 +4534,7 @@
         <v>6521510.317155655</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4261,7 +4567,7 @@
         <v>5788112.452055654</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4294,7 +4600,7 @@
         <v>5790090.537555655</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4327,7 +4633,7 @@
         <v>5732617.648755655</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4360,7 +4666,7 @@
         <v>5682617.648755655</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4393,7 +4699,7 @@
         <v>5701365.613155655</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4426,7 +4732,7 @@
         <v>4934456.797455654</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4459,7 +4765,7 @@
         <v>4934456.797455654</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4492,7 +4798,7 @@
         <v>4932224.141855654</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4525,7 +4831,7 @@
         <v>4932224.141855654</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4558,7 +4864,7 @@
         <v>5010224.141855654</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4591,7 +4897,7 @@
         <v>5045906.244955654</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4624,7 +4930,7 @@
         <v>5045906.244955654</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4657,7 +4963,7 @@
         <v>5045906.244955654</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4690,7 +4996,7 @@
         <v>1345658.588455654</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5119,7 +5425,7 @@
         <v>4038844.665633267</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5317,7 +5623,7 @@
         <v>4257050.263433266</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5350,7 +5656,7 @@
         <v>4315393.073733266</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5383,7 +5689,7 @@
         <v>4224866.353233267</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5416,7 +5722,7 @@
         <v>4526946.963233267</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5449,7 +5755,7 @@
         <v>4509397.963233267</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5482,7 +5788,7 @@
         <v>4509397.963233267</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5515,7 +5821,7 @@
         <v>4486639.549233267</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5713,7 +6019,7 @@
         <v>4989241.602853746</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5746,7 +6052,7 @@
         <v>4979241.602853746</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5845,7 +6151,7 @@
         <v>4702726.598353746</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5878,7 +6184,7 @@
         <v>4858726.598353746</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5911,7 +6217,7 @@
         <v>4858726.598353746</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5944,7 +6250,7 @@
         <v>4768199.877853747</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5977,7 +6283,7 @@
         <v>4768399.877853747</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6043,7 +6349,7 @@
         <v>4781082.288756143</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6076,7 +6382,7 @@
         <v>4325104.288756143</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6142,7 +6448,7 @@
         <v>4462104.288756143</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6175,7 +6481,7 @@
         <v>4355104.288756143</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6208,7 +6514,7 @@
         <v>4355104.288756143</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6241,7 +6547,7 @@
         <v>4043104.288756143</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6274,7 +6580,7 @@
         <v>4043104.288756143</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6307,7 +6613,7 @@
         <v>3907104.288756143</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6340,7 +6646,7 @@
         <v>3950963.937856143</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6373,7 +6679,7 @@
         <v>4028963.937856143</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6406,7 +6712,7 @@
         <v>3981256.108756143</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6439,7 +6745,7 @@
         <v>4039689.87054525</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6472,7 +6778,7 @@
         <v>3939689.87054525</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6505,7 +6811,7 @@
         <v>3939689.87054525</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6538,7 +6844,7 @@
         <v>3939689.87054525</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6571,7 +6877,7 @@
         <v>3939689.87054525</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6604,7 +6910,7 @@
         <v>3939689.87054525</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6637,7 +6943,7 @@
         <v>4303689.870545249</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6670,7 +6976,7 @@
         <v>4169118.615345249</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6703,7 +7009,7 @@
         <v>4169118.615345249</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6736,7 +7042,7 @@
         <v>4169118.615345249</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6769,7 +7075,7 @@
         <v>4169118.615345249</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6802,7 +7108,7 @@
         <v>4169118.615345249</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6835,7 +7141,7 @@
         <v>4169118.615345249</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6868,7 +7174,7 @@
         <v>3487118.615345249</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6901,7 +7207,7 @@
         <v>3487554.345145249</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6934,7 +7240,7 @@
         <v>3474269.491345249</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6967,7 +7273,7 @@
         <v>3093269.491345249</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7000,7 +7306,7 @@
         <v>3093269.491345249</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7033,7 +7339,7 @@
         <v>3093269.491345249</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7066,7 +7372,7 @@
         <v>2790521.312545249</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7099,7 +7405,7 @@
         <v>2790521.312545249</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7132,7 +7438,7 @@
         <v>2790521.312545249</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7165,7 +7471,7 @@
         <v>2632621.467745249</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7198,7 +7504,7 @@
         <v>2632621.467745249</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7231,7 +7537,7 @@
         <v>2955740.459545249</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7264,7 +7570,7 @@
         <v>2971178.587345249</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7297,7 +7603,7 @@
         <v>2415178.587345249</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7330,7 +7636,7 @@
         <v>2415178.587345249</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7363,7 +7669,7 @@
         <v>667986.8093452491</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7396,7 +7702,7 @@
         <v>702082.1431452491</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8089,7 +8395,7 @@
         <v>1324814.86774525</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8353,7 +8659,7 @@
         <v>1304798.048445249</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8650,10 +8956,14 @@
         <v>1273419.624745249</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J247" t="n">
+        <v>4.4</v>
+      </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
@@ -8683,11 +8993,19 @@
         <v>1282839.037745249</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="J248" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8716,11 +9034,19 @@
         <v>1292237.235845249</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="J249" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8749,10 +9075,14 @@
         <v>1265237.235845249</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="J250" t="n">
+        <v>4.44</v>
+      </c>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
@@ -8782,11 +9112,19 @@
         <v>1103932.116445249</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="J251" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8815,11 +9153,19 @@
         <v>1108352.116445249</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="J252" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8848,10 +9194,14 @@
         <v>1108352.116445249</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J253" t="n">
+        <v>4.41</v>
+      </c>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
@@ -8881,17 +9231,25 @@
         <v>1128477.784445249</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J254" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
       <c r="M254" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-10 BackTest VET.xlsx
+++ b/BackTest/2019-10-10 BackTest VET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>3014086.078355655</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>3485013.717255655</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.38</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>3485013.717255655</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>3485013.717255655</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>3480169.020555655</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.39</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,19 +616,11 @@
         <v>3482426.356855655</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,19 +649,11 @@
         <v>3482426.356855655</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -722,14 +682,10 @@
         <v>3484239.419855655</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.43</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -759,19 +715,11 @@
         <v>3479898.788955655</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -800,19 +748,11 @@
         <v>3477854.441455655</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -841,14 +781,10 @@
         <v>3477854.441455655</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4.41</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -878,19 +814,11 @@
         <v>3160803.869455655</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -919,19 +847,11 @@
         <v>3238803.869455655</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -960,19 +880,11 @@
         <v>3288071.666555655</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1001,19 +913,11 @@
         <v>3130472.336255655</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1042,17 +946,11 @@
         <v>3343472.336255655</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1084,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1120,17 +1012,11 @@
         <v>3910439.114155654</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1162,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1201,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1240,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1276,17 +1144,11 @@
         <v>4838362.164655654</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1315,17 +1177,11 @@
         <v>4840546.686455654</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1354,17 +1210,11 @@
         <v>4840630.483755654</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1393,17 +1243,11 @@
         <v>4840630.483755654</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1432,17 +1276,11 @@
         <v>4840720.609055654</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1471,17 +1309,11 @@
         <v>4840720.609055654</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1510,17 +1342,11 @@
         <v>4840720.609055654</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1549,17 +1375,11 @@
         <v>4840600.609055654</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1588,17 +1408,11 @@
         <v>4712255.889955654</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1627,17 +1441,11 @@
         <v>4714280.548455654</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1666,17 +1474,11 @@
         <v>5165945.854555653</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1705,17 +1507,11 @@
         <v>5210390.298955654</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1744,17 +1540,11 @@
         <v>5210390.298955654</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1783,17 +1573,11 @@
         <v>5017390.298955654</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1822,17 +1606,11 @@
         <v>5017556.521155654</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1861,17 +1639,11 @@
         <v>5017556.521155654</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1900,17 +1672,11 @@
         <v>5055152.395055654</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1939,17 +1705,11 @@
         <v>5055152.395055654</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1978,17 +1738,11 @@
         <v>5033483.006255654</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2017,17 +1771,11 @@
         <v>5033483.006255654</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2056,17 +1804,11 @@
         <v>5033483.006255654</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2095,17 +1837,11 @@
         <v>5033493.006255654</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2134,17 +1870,11 @@
         <v>5033493.006255654</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2173,17 +1903,11 @@
         <v>5013493.006255654</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2212,17 +1936,11 @@
         <v>5222674.675555654</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2251,17 +1969,11 @@
         <v>5300006.323855653</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2290,17 +2002,11 @@
         <v>5300006.323855653</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2329,17 +2035,11 @@
         <v>5297571.088755653</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2368,17 +2068,11 @@
         <v>4871710.724455653</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2407,17 +2101,11 @@
         <v>4871710.724455653</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2446,17 +2134,11 @@
         <v>4784505.998355653</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2485,17 +2167,11 @@
         <v>4786511.497555654</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2524,17 +2200,11 @@
         <v>4825405.880755654</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2563,17 +2233,11 @@
         <v>4825405.880755654</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2602,17 +2266,11 @@
         <v>4825405.880755654</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2644,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2683,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2722,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2761,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2797,17 +2431,11 @@
         <v>4895375.731755653</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2836,17 +2464,11 @@
         <v>5872208.386955653</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2878,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2917,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2956,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2995,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3034,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3073,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3109,19 +2695,13 @@
         <v>6873223.811755654</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
-        <v>1.038083900226757</v>
+        <v>1</v>
       </c>
       <c r="M70" t="inlineStr"/>
     </row>
@@ -3148,7 +2728,7 @@
         <v>6863223.811755654</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3181,7 +2761,7 @@
         <v>6883223.811755654</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3214,7 +2794,7 @@
         <v>6755922.697355654</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3247,7 +2827,7 @@
         <v>6755922.697355654</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3280,7 +2860,7 @@
         <v>6811782.599355654</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3313,7 +2893,7 @@
         <v>6811782.599355654</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3346,7 +2926,7 @@
         <v>6811782.599355654</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3379,7 +2959,7 @@
         <v>7024047.330455654</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3412,7 +2992,7 @@
         <v>7024047.330455654</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3478,7 +3058,7 @@
         <v>7011061.218155654</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3511,7 +3091,7 @@
         <v>7018176.616855654</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3544,7 +3124,7 @@
         <v>7018907.611055654</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3577,7 +3157,7 @@
         <v>7018907.611055654</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3610,7 +3190,7 @@
         <v>7012394.807855654</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3643,7 +3223,7 @@
         <v>7012394.807855654</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3676,7 +3256,7 @@
         <v>7012394.807855654</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3709,7 +3289,7 @@
         <v>7086718.822255653</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3742,7 +3322,7 @@
         <v>7016718.822255653</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3775,7 +3355,7 @@
         <v>6499011.128255653</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3808,7 +3388,7 @@
         <v>6496962.777455653</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3841,7 +3421,7 @@
         <v>6496962.777455653</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3874,7 +3454,7 @@
         <v>6468662.172055653</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3907,7 +3487,7 @@
         <v>6472758.873655654</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3940,7 +3520,7 @@
         <v>6430272.190655653</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3973,7 +3553,7 @@
         <v>6452223.951055653</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4006,7 +3586,7 @@
         <v>5980365.003955653</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4039,7 +3619,7 @@
         <v>6090259.790455653</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4072,7 +3652,7 @@
         <v>6090259.790455653</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4105,7 +3685,7 @@
         <v>8383835.001255654</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4138,7 +3718,7 @@
         <v>8358200.007055654</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4501,7 +4081,7 @@
         <v>6521510.317155655</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4534,7 +4114,7 @@
         <v>6521510.317155655</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4567,7 +4147,7 @@
         <v>5788112.452055654</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4600,7 +4180,7 @@
         <v>5790090.537555655</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4633,7 +4213,7 @@
         <v>5732617.648755655</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4666,7 +4246,7 @@
         <v>5682617.648755655</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4699,7 +4279,7 @@
         <v>5701365.613155655</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4732,7 +4312,7 @@
         <v>4934456.797455654</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4765,7 +4345,7 @@
         <v>4934456.797455654</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4798,7 +4378,7 @@
         <v>4932224.141855654</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4831,7 +4411,7 @@
         <v>4932224.141855654</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4864,7 +4444,7 @@
         <v>5010224.141855654</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4897,7 +4477,7 @@
         <v>5045906.244955654</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4930,7 +4510,7 @@
         <v>5045906.244955654</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4963,7 +4543,7 @@
         <v>5045906.244955654</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4996,7 +4576,7 @@
         <v>1345658.588455654</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5425,7 +5005,7 @@
         <v>4038844.665633267</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5788,7 +5368,7 @@
         <v>4509397.963233267</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6019,7 +5599,7 @@
         <v>4989241.602853746</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6151,7 +5731,7 @@
         <v>4702726.598353746</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6184,7 +5764,7 @@
         <v>4858726.598353746</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6217,7 +5797,7 @@
         <v>4858726.598353746</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6250,7 +5830,7 @@
         <v>4768199.877853747</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6283,7 +5863,7 @@
         <v>4768399.877853747</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6448,7 +6028,7 @@
         <v>4462104.288756143</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6481,7 +6061,7 @@
         <v>4355104.288756143</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6514,7 +6094,7 @@
         <v>4355104.288756143</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6547,7 +6127,7 @@
         <v>4043104.288756143</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6580,7 +6160,7 @@
         <v>4043104.288756143</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6613,7 +6193,7 @@
         <v>3907104.288756143</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6646,7 +6226,7 @@
         <v>3950963.937856143</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6679,7 +6259,7 @@
         <v>4028963.937856143</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6712,7 +6292,7 @@
         <v>3981256.108756143</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6745,7 +6325,7 @@
         <v>4039689.87054525</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6778,7 +6358,7 @@
         <v>3939689.87054525</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6811,7 +6391,7 @@
         <v>3939689.87054525</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6844,7 +6424,7 @@
         <v>3939689.87054525</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6877,7 +6457,7 @@
         <v>3939689.87054525</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6910,7 +6490,7 @@
         <v>3939689.87054525</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6943,7 +6523,7 @@
         <v>4303689.870545249</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6976,7 +6556,7 @@
         <v>4169118.615345249</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7009,7 +6589,7 @@
         <v>4169118.615345249</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7042,7 +6622,7 @@
         <v>4169118.615345249</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7075,7 +6655,7 @@
         <v>4169118.615345249</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7108,7 +6688,7 @@
         <v>4169118.615345249</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7141,7 +6721,7 @@
         <v>4169118.615345249</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7174,7 +6754,7 @@
         <v>3487118.615345249</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7207,7 +6787,7 @@
         <v>3487554.345145249</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7240,7 +6820,7 @@
         <v>3474269.491345249</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7273,7 +6853,7 @@
         <v>3093269.491345249</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7306,7 +6886,7 @@
         <v>3093269.491345249</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7339,7 +6919,7 @@
         <v>3093269.491345249</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7372,7 +6952,7 @@
         <v>2790521.312545249</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7405,7 +6985,7 @@
         <v>2790521.312545249</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7438,7 +7018,7 @@
         <v>2790521.312545249</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7471,7 +7051,7 @@
         <v>2632621.467745249</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7504,7 +7084,7 @@
         <v>2632621.467745249</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7537,7 +7117,7 @@
         <v>2955740.459545249</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7570,7 +7150,7 @@
         <v>2971178.587345249</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7603,7 +7183,7 @@
         <v>2415178.587345249</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7636,7 +7216,7 @@
         <v>2415178.587345249</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7669,7 +7249,7 @@
         <v>667986.8093452491</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7702,7 +7282,7 @@
         <v>702082.1431452491</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8956,14 +8536,10 @@
         <v>1273419.624745249</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J247" t="n">
-        <v>4.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
@@ -8993,216 +8569,188 @@
         <v>1282839.037745249</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="C249" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="D249" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="E249" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F249" t="n">
+        <v>9398.1981</v>
+      </c>
+      <c r="G249" t="n">
+        <v>1292237.235845249</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="C250" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="D250" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="E250" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F250" t="n">
+        <v>27000</v>
+      </c>
+      <c r="G250" t="n">
+        <v>1265237.235845249</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
         <v>4.39</v>
       </c>
-      <c r="J248" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K248" t="inlineStr">
+      <c r="C251" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="D251" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="E251" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="F251" t="n">
+        <v>161305.1194</v>
+      </c>
+      <c r="G251" t="n">
+        <v>1103932.116445249</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="C252" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="D252" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="E252" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="F252" t="n">
+        <v>4420</v>
+      </c>
+      <c r="G252" t="n">
+        <v>1108352.116445249</v>
+      </c>
+      <c r="H252" t="n">
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="J252" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="C253" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="D253" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="E253" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="F253" t="n">
+        <v>71296.3382</v>
+      </c>
+      <c r="G253" t="n">
+        <v>1108352.116445249</v>
+      </c>
+      <c r="H253" t="n">
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J253" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="K253" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="C249" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="D249" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="E249" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="F249" t="n">
-        <v>9398.1981</v>
-      </c>
-      <c r="G249" t="n">
-        <v>1292237.235845249</v>
-      </c>
-      <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="J249" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="C250" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="D250" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="E250" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="F250" t="n">
-        <v>27000</v>
-      </c>
-      <c r="G250" t="n">
-        <v>1265237.235845249</v>
-      </c>
-      <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="J250" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="C251" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="D251" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="E251" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="F251" t="n">
-        <v>161305.1194</v>
-      </c>
-      <c r="G251" t="n">
-        <v>1103932.116445249</v>
-      </c>
-      <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="J251" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="C252" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="D252" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="E252" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="F252" t="n">
-        <v>4420</v>
-      </c>
-      <c r="G252" t="n">
-        <v>1108352.116445249</v>
-      </c>
-      <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="J252" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="C253" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="D253" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="E253" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="F253" t="n">
-        <v>71296.3382</v>
-      </c>
-      <c r="G253" t="n">
-        <v>1108352.116445249</v>
-      </c>
-      <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="J253" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9237,7 +8785,7 @@
         <v>4.41</v>
       </c>
       <c r="J254" t="n">
-        <v>4.41</v>
+        <v>4.39</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -9250,6 +8798,6 @@
       <c r="M254" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-10 BackTest VET.xlsx
+++ b/BackTest/2019-10-10 BackTest VET.xlsx
@@ -451,7 +451,7 @@
         <v>3014086.078355655</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>3485013.717255655</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.38</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>3485013.717255655</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>3485013.717255655</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>3480169.020555655</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.39</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>3482426.356855655</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +681,19 @@
         <v>3482426.356855655</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,7 +722,7 @@
         <v>3484239.419855655</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +755,7 @@
         <v>3479898.788955655</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +788,7 @@
         <v>3477854.441455655</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +821,7 @@
         <v>3477854.441455655</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +854,7 @@
         <v>3160803.869455655</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +887,7 @@
         <v>3238803.869455655</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +920,7 @@
         <v>3288071.666555655</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +953,7 @@
         <v>3130472.336255655</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +986,7 @@
         <v>3343472.336255655</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1012,7 +1052,7 @@
         <v>3910439.114155654</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1144,7 +1184,7 @@
         <v>4838362.164655654</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1217,7 @@
         <v>4840546.686455654</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1250,7 @@
         <v>4840630.483755654</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1283,7 @@
         <v>4840630.483755654</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1316,7 @@
         <v>4840720.609055654</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1349,7 @@
         <v>4840720.609055654</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1382,7 @@
         <v>4840720.609055654</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1415,7 @@
         <v>4840600.609055654</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1448,7 @@
         <v>4712255.889955654</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1481,7 @@
         <v>4714280.548455654</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1514,7 @@
         <v>5165945.854555653</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1547,7 @@
         <v>5210390.298955654</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1580,7 @@
         <v>5210390.298955654</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1613,7 @@
         <v>5017390.298955654</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1646,7 @@
         <v>5017556.521155654</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1679,7 @@
         <v>5017556.521155654</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1712,7 @@
         <v>5055152.395055654</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1745,7 @@
         <v>5055152.395055654</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1778,7 @@
         <v>5033483.006255654</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1811,7 @@
         <v>5033483.006255654</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1844,7 @@
         <v>5033483.006255654</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1877,7 @@
         <v>5033493.006255654</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1910,7 @@
         <v>5033493.006255654</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1943,7 @@
         <v>5013493.006255654</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1976,7 @@
         <v>5222674.675555654</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +2009,7 @@
         <v>5300006.323855653</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2042,7 @@
         <v>5300006.323855653</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2075,7 @@
         <v>5297571.088755653</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2108,7 @@
         <v>4871710.724455653</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2141,7 @@
         <v>4871710.724455653</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2174,7 @@
         <v>4784505.998355653</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2207,7 @@
         <v>4786511.497555654</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2240,7 @@
         <v>4825405.880755654</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2273,7 @@
         <v>4825405.880755654</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2306,7 @@
         <v>4825405.880755654</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2431,7 +2471,7 @@
         <v>4895375.731755653</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2504,7 @@
         <v>5872208.386955653</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2728,7 +2768,7 @@
         <v>6863223.811755654</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2801,7 @@
         <v>6883223.811755654</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2926,7 +2966,7 @@
         <v>6811782.599355654</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2999,7 @@
         <v>7024047.330455654</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +3032,7 @@
         <v>7024047.330455654</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3065,7 @@
         <v>7015693.697355654</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3098,7 @@
         <v>7011061.218155654</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3157,7 +3197,7 @@
         <v>7018907.611055654</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3230,7 @@
         <v>7012394.807855654</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3256,7 +3296,7 @@
         <v>7012394.807855654</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3388,7 +3428,7 @@
         <v>6496962.777455653</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -8701,14 +8741,10 @@
         <v>1108352.116445249</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="J252" t="n">
-        <v>4.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
@@ -8738,19 +8774,11 @@
         <v>1108352.116445249</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="J253" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8779,19 +8807,11 @@
         <v>1128477.784445249</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="J254" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-10 BackTest VET.xlsx
+++ b/BackTest/2019-10-10 BackTest VET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M254"/>
+  <dimension ref="A1:L254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>31190.2747</v>
       </c>
       <c r="G2" t="n">
-        <v>3014086.078355655</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>470927.6389</v>
       </c>
       <c r="G3" t="n">
-        <v>3485013.717255655</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4.38</v>
       </c>
       <c r="I3" t="n">
         <v>4.38</v>
       </c>
-      <c r="J3" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>6166.608</v>
       </c>
       <c r="G4" t="n">
-        <v>3485013.717255655</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>4.39</v>
       </c>
       <c r="I4" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="J4" t="n">
         <v>4.38</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,23 @@
         <v>1999.6176</v>
       </c>
       <c r="G5" t="n">
-        <v>3485013.717255655</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>4.39</v>
       </c>
       <c r="I5" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="J5" t="n">
         <v>4.38</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,22 +583,19 @@
         <v>4844.6967</v>
       </c>
       <c r="G6" t="n">
-        <v>3480169.020555655</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>4.39</v>
       </c>
       <c r="I6" t="n">
         <v>4.39</v>
       </c>
-      <c r="J6" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,26 +617,23 @@
         <v>2257.3363</v>
       </c>
       <c r="G7" t="n">
-        <v>3482426.356855655</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>4.38</v>
       </c>
       <c r="I7" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="J7" t="n">
         <v>4.39</v>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -678,26 +655,21 @@
         <v>22747.4052</v>
       </c>
       <c r="G8" t="n">
-        <v>3482426.356855655</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="J8" t="n">
         <v>4.39</v>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -719,18 +691,15 @@
         <v>1813.063</v>
       </c>
       <c r="G9" t="n">
-        <v>3484239.419855655</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -752,18 +721,15 @@
         <v>4340.6309</v>
       </c>
       <c r="G10" t="n">
-        <v>3479898.788955655</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -785,18 +751,15 @@
         <v>2044.3475</v>
       </c>
       <c r="G11" t="n">
-        <v>3477854.441455655</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,18 +781,15 @@
         <v>27860.1421</v>
       </c>
       <c r="G12" t="n">
-        <v>3477854.441455655</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -851,18 +811,15 @@
         <v>317050.572</v>
       </c>
       <c r="G13" t="n">
-        <v>3160803.869455655</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -884,18 +841,15 @@
         <v>78000</v>
       </c>
       <c r="G14" t="n">
-        <v>3238803.869455655</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,18 +871,15 @@
         <v>49267.7971</v>
       </c>
       <c r="G15" t="n">
-        <v>3288071.666555655</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -950,18 +901,15 @@
         <v>157599.3303</v>
       </c>
       <c r="G16" t="n">
-        <v>3130472.336255655</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -983,18 +931,15 @@
         <v>213000</v>
       </c>
       <c r="G17" t="n">
-        <v>3343472.336255655</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1016,18 +961,15 @@
         <v>725273.726</v>
       </c>
       <c r="G18" t="n">
-        <v>4068746.062255654</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1049,18 +991,15 @@
         <v>158306.9481</v>
       </c>
       <c r="G19" t="n">
-        <v>3910439.114155654</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1082,18 +1021,15 @@
         <v>192403.8743</v>
       </c>
       <c r="G20" t="n">
-        <v>3910439.114155654</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1115,18 +1051,15 @@
         <v>28592.0807</v>
       </c>
       <c r="G21" t="n">
-        <v>3910439.114155654</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1148,18 +1081,15 @@
         <v>930107.5723</v>
       </c>
       <c r="G22" t="n">
-        <v>4840546.686455654</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1181,18 +1111,15 @@
         <v>2184.5218</v>
       </c>
       <c r="G23" t="n">
-        <v>4838362.164655654</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1214,18 +1141,15 @@
         <v>2184.5218</v>
       </c>
       <c r="G24" t="n">
-        <v>4840546.686455654</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1247,18 +1171,15 @@
         <v>83.79730000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>4840630.483755654</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1280,18 +1201,15 @@
         <v>62114.4843</v>
       </c>
       <c r="G26" t="n">
-        <v>4840630.483755654</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1313,18 +1231,15 @@
         <v>90.1253</v>
       </c>
       <c r="G27" t="n">
-        <v>4840720.609055654</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1346,18 +1261,15 @@
         <v>964.6666</v>
       </c>
       <c r="G28" t="n">
-        <v>4840720.609055654</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1379,18 +1291,15 @@
         <v>33.6864</v>
       </c>
       <c r="G29" t="n">
-        <v>4840720.609055654</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1412,18 +1321,15 @@
         <v>120</v>
       </c>
       <c r="G30" t="n">
-        <v>4840600.609055654</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1445,18 +1351,15 @@
         <v>128344.7191</v>
       </c>
       <c r="G31" t="n">
-        <v>4712255.889955654</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1478,18 +1381,15 @@
         <v>2024.6585</v>
       </c>
       <c r="G32" t="n">
-        <v>4714280.548455654</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1511,18 +1411,15 @@
         <v>451665.3061</v>
       </c>
       <c r="G33" t="n">
-        <v>5165945.854555653</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1544,18 +1441,15 @@
         <v>44444.4444</v>
       </c>
       <c r="G34" t="n">
-        <v>5210390.298955654</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1577,18 +1471,15 @@
         <v>123128</v>
       </c>
       <c r="G35" t="n">
-        <v>5210390.298955654</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1610,18 +1501,15 @@
         <v>193000</v>
       </c>
       <c r="G36" t="n">
-        <v>5017390.298955654</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1643,18 +1531,15 @@
         <v>166.2222</v>
       </c>
       <c r="G37" t="n">
-        <v>5017556.521155654</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1676,18 +1561,15 @@
         <v>9948.6284</v>
       </c>
       <c r="G38" t="n">
-        <v>5017556.521155654</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1709,18 +1591,15 @@
         <v>37595.8739</v>
       </c>
       <c r="G39" t="n">
-        <v>5055152.395055654</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1742,18 +1621,15 @@
         <v>75660.7773</v>
       </c>
       <c r="G40" t="n">
-        <v>5055152.395055654</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1775,18 +1651,15 @@
         <v>21669.3888</v>
       </c>
       <c r="G41" t="n">
-        <v>5033483.006255654</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1808,18 +1681,15 @@
         <v>39030.0951</v>
       </c>
       <c r="G42" t="n">
-        <v>5033483.006255654</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1841,18 +1711,15 @@
         <v>18725.7697</v>
       </c>
       <c r="G43" t="n">
-        <v>5033483.006255654</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1874,18 +1741,15 @@
         <v>10</v>
       </c>
       <c r="G44" t="n">
-        <v>5033493.006255654</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1907,18 +1771,15 @@
         <v>40385.1585</v>
       </c>
       <c r="G45" t="n">
-        <v>5033493.006255654</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1940,18 +1801,15 @@
         <v>20000</v>
       </c>
       <c r="G46" t="n">
-        <v>5013493.006255654</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1973,18 +1831,15 @@
         <v>209181.6693</v>
       </c>
       <c r="G47" t="n">
-        <v>5222674.675555654</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2006,18 +1861,15 @@
         <v>77331.6483</v>
       </c>
       <c r="G48" t="n">
-        <v>5300006.323855653</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2039,18 +1891,15 @@
         <v>33333.3333</v>
       </c>
       <c r="G49" t="n">
-        <v>5300006.323855653</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2072,18 +1921,15 @@
         <v>2435.2351</v>
       </c>
       <c r="G50" t="n">
-        <v>5297571.088755653</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2105,18 +1951,15 @@
         <v>425860.3643</v>
       </c>
       <c r="G51" t="n">
-        <v>4871710.724455653</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2138,18 +1981,15 @@
         <v>79224.07580000001</v>
       </c>
       <c r="G52" t="n">
-        <v>4871710.724455653</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2171,18 +2011,15 @@
         <v>87204.7261</v>
       </c>
       <c r="G53" t="n">
-        <v>4784505.998355653</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2204,18 +2041,15 @@
         <v>2005.4992</v>
       </c>
       <c r="G54" t="n">
-        <v>4786511.497555654</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2237,18 +2071,15 @@
         <v>38894.3832</v>
       </c>
       <c r="G55" t="n">
-        <v>4825405.880755654</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2270,18 +2101,15 @@
         <v>29170.8149</v>
       </c>
       <c r="G56" t="n">
-        <v>4825405.880755654</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2303,18 +2131,15 @@
         <v>40483.9207</v>
       </c>
       <c r="G57" t="n">
-        <v>4825405.880755654</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2336,18 +2161,15 @@
         <v>5776.5488</v>
       </c>
       <c r="G58" t="n">
-        <v>4819629.331955654</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2369,18 +2191,15 @@
         <v>5776.5488</v>
       </c>
       <c r="G59" t="n">
-        <v>4825405.880755654</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2402,18 +2221,15 @@
         <v>197840.7167</v>
       </c>
       <c r="G60" t="n">
-        <v>5023246.597455653</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2435,18 +2251,15 @@
         <v>250376.8897</v>
       </c>
       <c r="G61" t="n">
-        <v>4772869.707755653</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2468,18 +2281,15 @@
         <v>122506.024</v>
       </c>
       <c r="G62" t="n">
-        <v>4895375.731755653</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2501,18 +2311,15 @@
         <v>976832.6552</v>
       </c>
       <c r="G63" t="n">
-        <v>5872208.386955653</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2534,18 +2341,15 @@
         <v>446428.5713</v>
       </c>
       <c r="G64" t="n">
-        <v>5425779.815655653</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2567,18 +2371,15 @@
         <v>2340777.0924</v>
       </c>
       <c r="G65" t="n">
-        <v>7766556.908055654</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2600,18 +2401,15 @@
         <v>269511.6377</v>
       </c>
       <c r="G66" t="n">
-        <v>7497045.270355654</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2633,18 +2431,15 @@
         <v>20000</v>
       </c>
       <c r="G67" t="n">
-        <v>7517045.270355654</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2666,18 +2461,15 @@
         <v>526946.1644</v>
       </c>
       <c r="G68" t="n">
-        <v>6990099.105955654</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2699,18 +2491,15 @@
         <v>127245.9838</v>
       </c>
       <c r="G69" t="n">
-        <v>6862853.122155654</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2732,18 +2521,15 @@
         <v>10370.6896</v>
       </c>
       <c r="G70" t="n">
-        <v>6873223.811755654</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2765,18 +2551,15 @@
         <v>10000</v>
       </c>
       <c r="G71" t="n">
-        <v>6863223.811755654</v>
-      </c>
-      <c r="H71" t="n">
         <v>2</v>
       </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2798,18 +2581,15 @@
         <v>20000</v>
       </c>
       <c r="G72" t="n">
-        <v>6883223.811755654</v>
-      </c>
-      <c r="H72" t="n">
         <v>2</v>
       </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2831,18 +2611,15 @@
         <v>127301.1144</v>
       </c>
       <c r="G73" t="n">
-        <v>6755922.697355654</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2864,18 +2641,15 @@
         <v>10000</v>
       </c>
       <c r="G74" t="n">
-        <v>6755922.697355654</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2897,18 +2671,15 @@
         <v>55859.902</v>
       </c>
       <c r="G75" t="n">
-        <v>6811782.599355654</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2930,18 +2701,15 @@
         <v>59615.4014</v>
       </c>
       <c r="G76" t="n">
-        <v>6811782.599355654</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2963,18 +2731,15 @@
         <v>4283.8296</v>
       </c>
       <c r="G77" t="n">
-        <v>6811782.599355654</v>
-      </c>
-      <c r="H77" t="n">
         <v>2</v>
       </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2996,18 +2761,15 @@
         <v>212264.7311</v>
       </c>
       <c r="G78" t="n">
-        <v>7024047.330455654</v>
-      </c>
-      <c r="H78" t="n">
         <v>2</v>
       </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3029,18 +2791,15 @@
         <v>62.7956</v>
       </c>
       <c r="G79" t="n">
-        <v>7024047.330455654</v>
-      </c>
-      <c r="H79" t="n">
         <v>2</v>
       </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3062,18 +2821,15 @@
         <v>8353.633099999999</v>
       </c>
       <c r="G80" t="n">
-        <v>7015693.697355654</v>
-      </c>
-      <c r="H80" t="n">
         <v>2</v>
       </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3095,18 +2851,15 @@
         <v>4632.4792</v>
       </c>
       <c r="G81" t="n">
-        <v>7011061.218155654</v>
-      </c>
-      <c r="H81" t="n">
         <v>2</v>
       </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3128,18 +2881,15 @@
         <v>7115.3987</v>
       </c>
       <c r="G82" t="n">
-        <v>7018176.616855654</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3161,18 +2911,15 @@
         <v>730.9942</v>
       </c>
       <c r="G83" t="n">
-        <v>7018907.611055654</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3194,18 +2941,15 @@
         <v>2081.8438</v>
       </c>
       <c r="G84" t="n">
-        <v>7018907.611055654</v>
-      </c>
-      <c r="H84" t="n">
         <v>2</v>
       </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3227,18 +2971,15 @@
         <v>6512.8032</v>
       </c>
       <c r="G85" t="n">
-        <v>7012394.807855654</v>
-      </c>
-      <c r="H85" t="n">
         <v>2</v>
       </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3260,18 +3001,15 @@
         <v>291297.7272</v>
       </c>
       <c r="G86" t="n">
-        <v>7012394.807855654</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3293,18 +3031,15 @@
         <v>330157.8308</v>
       </c>
       <c r="G87" t="n">
-        <v>7012394.807855654</v>
-      </c>
-      <c r="H87" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3326,18 +3061,15 @@
         <v>74324.0144</v>
       </c>
       <c r="G88" t="n">
-        <v>7086718.822255653</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3359,18 +3091,15 @@
         <v>70000</v>
       </c>
       <c r="G89" t="n">
-        <v>7016718.822255653</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3392,18 +3121,15 @@
         <v>517707.694</v>
       </c>
       <c r="G90" t="n">
-        <v>6499011.128255653</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3425,18 +3151,15 @@
         <v>2048.3508</v>
       </c>
       <c r="G91" t="n">
-        <v>6496962.777455653</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3458,18 +3181,15 @@
         <v>34264.5418</v>
       </c>
       <c r="G92" t="n">
-        <v>6496962.777455653</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3491,18 +3211,15 @@
         <v>28300.6054</v>
       </c>
       <c r="G93" t="n">
-        <v>6468662.172055653</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3524,18 +3241,15 @@
         <v>4096.7016</v>
       </c>
       <c r="G94" t="n">
-        <v>6472758.873655654</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3557,18 +3271,15 @@
         <v>42486.683</v>
       </c>
       <c r="G95" t="n">
-        <v>6430272.190655653</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3590,18 +3301,15 @@
         <v>21951.7604</v>
       </c>
       <c r="G96" t="n">
-        <v>6452223.951055653</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3623,18 +3331,15 @@
         <v>471858.9471</v>
       </c>
       <c r="G97" t="n">
-        <v>5980365.003955653</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3656,18 +3361,15 @@
         <v>109894.7865</v>
       </c>
       <c r="G98" t="n">
-        <v>6090259.790455653</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3689,18 +3391,15 @@
         <v>1239.913</v>
       </c>
       <c r="G99" t="n">
-        <v>6090259.790455653</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3722,18 +3421,15 @@
         <v>2293575.2108</v>
       </c>
       <c r="G100" t="n">
-        <v>8383835.001255654</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3755,18 +3451,15 @@
         <v>25634.9942</v>
       </c>
       <c r="G101" t="n">
-        <v>8358200.007055654</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3788,18 +3481,15 @@
         <v>44746.7901</v>
       </c>
       <c r="G102" t="n">
-        <v>8313453.216955654</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3821,18 +3511,15 @@
         <v>93.6123</v>
       </c>
       <c r="G103" t="n">
-        <v>8313453.216955654</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3854,18 +3541,15 @@
         <v>1506323.2017</v>
       </c>
       <c r="G104" t="n">
-        <v>6807130.015255654</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3887,18 +3571,15 @@
         <v>325256.504</v>
       </c>
       <c r="G105" t="n">
-        <v>6807130.015255654</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3920,18 +3601,15 @@
         <v>50000</v>
       </c>
       <c r="G106" t="n">
-        <v>6807130.015255654</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3953,18 +3631,15 @@
         <v>403.9735</v>
       </c>
       <c r="G107" t="n">
-        <v>6807533.988755655</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3986,18 +3661,15 @@
         <v>362000</v>
       </c>
       <c r="G108" t="n">
-        <v>6445533.988755655</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4019,18 +3691,15 @@
         <v>18093.3774</v>
       </c>
       <c r="G109" t="n">
-        <v>6463627.366155654</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4052,18 +3721,15 @@
         <v>88330.68429999999</v>
       </c>
       <c r="G110" t="n">
-        <v>6463627.366155654</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4085,18 +3751,15 @@
         <v>20117.049</v>
       </c>
       <c r="G111" t="n">
-        <v>6443510.317155655</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4118,18 +3781,15 @@
         <v>78000</v>
       </c>
       <c r="G112" t="n">
-        <v>6521510.317155655</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4151,18 +3811,15 @@
         <v>91000</v>
       </c>
       <c r="G113" t="n">
-        <v>6521510.317155655</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4184,18 +3841,15 @@
         <v>733397.8651000001</v>
       </c>
       <c r="G114" t="n">
-        <v>5788112.452055654</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4217,18 +3871,15 @@
         <v>1978.0855</v>
       </c>
       <c r="G115" t="n">
-        <v>5790090.537555655</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4250,18 +3901,15 @@
         <v>57472.8888</v>
       </c>
       <c r="G116" t="n">
-        <v>5732617.648755655</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4283,18 +3931,15 @@
         <v>50000</v>
       </c>
       <c r="G117" t="n">
-        <v>5682617.648755655</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4316,18 +3961,15 @@
         <v>18747.9644</v>
       </c>
       <c r="G118" t="n">
-        <v>5701365.613155655</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4349,18 +3991,15 @@
         <v>766908.8157</v>
       </c>
       <c r="G119" t="n">
-        <v>4934456.797455654</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4382,18 +4021,15 @@
         <v>19203.4318</v>
       </c>
       <c r="G120" t="n">
-        <v>4934456.797455654</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4415,18 +4051,15 @@
         <v>2232.6556</v>
       </c>
       <c r="G121" t="n">
-        <v>4932224.141855654</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4448,18 +4081,15 @@
         <v>140057.4183</v>
       </c>
       <c r="G122" t="n">
-        <v>4932224.141855654</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4481,18 +4111,15 @@
         <v>78000</v>
       </c>
       <c r="G123" t="n">
-        <v>5010224.141855654</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4514,18 +4141,15 @@
         <v>35682.1031</v>
       </c>
       <c r="G124" t="n">
-        <v>5045906.244955654</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4547,18 +4171,15 @@
         <v>110000.9999</v>
       </c>
       <c r="G125" t="n">
-        <v>5045906.244955654</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4580,18 +4201,15 @@
         <v>2022.2222</v>
       </c>
       <c r="G126" t="n">
-        <v>5045906.244955654</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4613,18 +4231,15 @@
         <v>3700247.6565</v>
       </c>
       <c r="G127" t="n">
-        <v>1345658.588455654</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4646,18 +4261,15 @@
         <v>1899643.844122395</v>
       </c>
       <c r="G128" t="n">
-        <v>3245302.432578049</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4679,18 +4291,15 @@
         <v>2081.1709</v>
       </c>
       <c r="G129" t="n">
-        <v>3243221.261678049</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4712,18 +4321,15 @@
         <v>3809.9407</v>
       </c>
       <c r="G130" t="n">
-        <v>3239411.320978049</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4745,18 +4351,15 @@
         <v>113000</v>
       </c>
       <c r="G131" t="n">
-        <v>3352411.320978049</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4778,18 +4381,15 @@
         <v>34199.4636</v>
       </c>
       <c r="G132" t="n">
-        <v>3318211.857378049</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4811,18 +4411,15 @@
         <v>208780.8035</v>
       </c>
       <c r="G133" t="n">
-        <v>3526992.660878049</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4844,18 +4441,15 @@
         <v>53957.3008</v>
       </c>
       <c r="G134" t="n">
-        <v>3580949.961678049</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4877,18 +4471,15 @@
         <v>78000</v>
       </c>
       <c r="G135" t="n">
-        <v>3658949.961678049</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4910,18 +4501,15 @@
         <v>126000</v>
       </c>
       <c r="G136" t="n">
-        <v>3784949.961678049</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4943,18 +4531,15 @@
         <v>23000</v>
       </c>
       <c r="G137" t="n">
-        <v>3807949.961678049</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4976,18 +4561,15 @@
         <v>478273.9761552174</v>
       </c>
       <c r="G138" t="n">
-        <v>4286223.937833266</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5009,18 +4591,15 @@
         <v>13379.2722</v>
       </c>
       <c r="G139" t="n">
-        <v>4272844.665633267</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5042,18 +4621,15 @@
         <v>234000</v>
       </c>
       <c r="G140" t="n">
-        <v>4038844.665633267</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5075,18 +4651,15 @@
         <v>1000</v>
       </c>
       <c r="G141" t="n">
-        <v>4039844.665633267</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5108,18 +4681,15 @@
         <v>225000</v>
       </c>
       <c r="G142" t="n">
-        <v>4264844.665633267</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5141,18 +4711,15 @@
         <v>2205.5978</v>
       </c>
       <c r="G143" t="n">
-        <v>4267050.263433266</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5174,18 +4741,15 @@
         <v>11265.6521</v>
       </c>
       <c r="G144" t="n">
-        <v>4267050.263433266</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5207,18 +4771,15 @@
         <v>86769.23910000001</v>
       </c>
       <c r="G145" t="n">
-        <v>4267050.263433266</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5240,18 +4801,15 @@
         <v>10000</v>
       </c>
       <c r="G146" t="n">
-        <v>4257050.263433266</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5273,18 +4831,15 @@
         <v>58342.8103</v>
       </c>
       <c r="G147" t="n">
-        <v>4315393.073733266</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5306,18 +4861,15 @@
         <v>90526.7205</v>
       </c>
       <c r="G148" t="n">
-        <v>4224866.353233267</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5339,18 +4891,15 @@
         <v>302080.61</v>
       </c>
       <c r="G149" t="n">
-        <v>4526946.963233267</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5372,18 +4921,15 @@
         <v>17549</v>
       </c>
       <c r="G150" t="n">
-        <v>4509397.963233267</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5405,18 +4951,15 @@
         <v>50284.0437</v>
       </c>
       <c r="G151" t="n">
-        <v>4509397.963233267</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5438,18 +4981,15 @@
         <v>22758.414</v>
       </c>
       <c r="G152" t="n">
-        <v>4486639.549233267</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5471,18 +5011,15 @@
         <v>184585.4081</v>
       </c>
       <c r="G153" t="n">
-        <v>4486639.549233267</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5504,18 +5041,15 @@
         <v>369000</v>
       </c>
       <c r="G154" t="n">
-        <v>4855639.549233267</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5537,18 +5071,15 @@
         <v>25.3829</v>
       </c>
       <c r="G155" t="n">
-        <v>4855639.549233267</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5570,18 +5101,15 @@
         <v>249138.1730204793</v>
       </c>
       <c r="G156" t="n">
-        <v>5104777.722253746</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5603,18 +5131,15 @@
         <v>465536.1194</v>
       </c>
       <c r="G157" t="n">
-        <v>4639241.602853746</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5636,18 +5161,15 @@
         <v>350000</v>
       </c>
       <c r="G158" t="n">
-        <v>4989241.602853746</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5669,18 +5191,15 @@
         <v>10000</v>
       </c>
       <c r="G159" t="n">
-        <v>4979241.602853746</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5702,18 +5221,15 @@
         <v>145166.6666</v>
       </c>
       <c r="G160" t="n">
-        <v>4979241.602853746</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5735,18 +5251,15 @@
         <v>38000</v>
       </c>
       <c r="G161" t="n">
-        <v>5017241.602853746</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5768,18 +5281,15 @@
         <v>314515.0045</v>
       </c>
       <c r="G162" t="n">
-        <v>4702726.598353746</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5801,18 +5311,15 @@
         <v>156000</v>
       </c>
       <c r="G163" t="n">
-        <v>4858726.598353746</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5834,18 +5341,15 @@
         <v>719.5137</v>
       </c>
       <c r="G164" t="n">
-        <v>4858726.598353746</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5867,18 +5371,15 @@
         <v>90526.7205</v>
       </c>
       <c r="G165" t="n">
-        <v>4768199.877853747</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5900,18 +5401,15 @@
         <v>200</v>
       </c>
       <c r="G166" t="n">
-        <v>4768399.877853747</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5933,18 +5431,15 @@
         <v>109800.3689</v>
       </c>
       <c r="G167" t="n">
-        <v>4768399.877853747</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5966,18 +5461,15 @@
         <v>12682.41090239651</v>
       </c>
       <c r="G168" t="n">
-        <v>4781082.288756143</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5999,18 +5491,15 @@
         <v>455978</v>
       </c>
       <c r="G169" t="n">
-        <v>4325104.288756143</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6032,18 +5521,15 @@
         <v>12408.1102</v>
       </c>
       <c r="G170" t="n">
-        <v>4325104.288756143</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6065,18 +5551,15 @@
         <v>137000</v>
       </c>
       <c r="G171" t="n">
-        <v>4462104.288756143</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6098,18 +5581,15 @@
         <v>107000</v>
       </c>
       <c r="G172" t="n">
-        <v>4355104.288756143</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6131,18 +5611,15 @@
         <v>35765.2445</v>
       </c>
       <c r="G173" t="n">
-        <v>4355104.288756143</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6164,18 +5641,15 @@
         <v>312000</v>
       </c>
       <c r="G174" t="n">
-        <v>4043104.288756143</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6197,18 +5671,15 @@
         <v>75120.7298</v>
       </c>
       <c r="G175" t="n">
-        <v>4043104.288756143</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6230,18 +5701,15 @@
         <v>136000</v>
       </c>
       <c r="G176" t="n">
-        <v>3907104.288756143</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6263,18 +5731,15 @@
         <v>43859.6491</v>
       </c>
       <c r="G177" t="n">
-        <v>3950963.937856143</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6296,18 +5761,15 @@
         <v>78000</v>
       </c>
       <c r="G178" t="n">
-        <v>4028963.937856143</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6329,18 +5791,15 @@
         <v>47707.8291</v>
       </c>
       <c r="G179" t="n">
-        <v>3981256.108756143</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6362,18 +5821,15 @@
         <v>58433.76178910676</v>
       </c>
       <c r="G180" t="n">
-        <v>4039689.87054525</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6395,18 +5851,15 @@
         <v>100000</v>
       </c>
       <c r="G181" t="n">
-        <v>3939689.87054525</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6428,18 +5881,15 @@
         <v>25933.869</v>
       </c>
       <c r="G182" t="n">
-        <v>3939689.87054525</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6461,18 +5911,15 @@
         <v>53822.4076</v>
       </c>
       <c r="G183" t="n">
-        <v>3939689.87054525</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6494,18 +5941,15 @@
         <v>33976.9823</v>
       </c>
       <c r="G184" t="n">
-        <v>3939689.87054525</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6527,18 +5971,15 @@
         <v>86000</v>
       </c>
       <c r="G185" t="n">
-        <v>3939689.87054525</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6560,18 +6001,15 @@
         <v>364000</v>
       </c>
       <c r="G186" t="n">
-        <v>4303689.870545249</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6593,18 +6031,15 @@
         <v>134571.2552</v>
       </c>
       <c r="G187" t="n">
-        <v>4169118.615345249</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6626,18 +6061,15 @@
         <v>349000</v>
       </c>
       <c r="G188" t="n">
-        <v>4169118.615345249</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6659,18 +6091,15 @@
         <v>68000</v>
       </c>
       <c r="G189" t="n">
-        <v>4169118.615345249</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6692,18 +6121,15 @@
         <v>792000</v>
       </c>
       <c r="G190" t="n">
-        <v>4169118.615345249</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6725,18 +6151,15 @@
         <v>242926</v>
       </c>
       <c r="G191" t="n">
-        <v>4169118.615345249</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6758,18 +6181,15 @@
         <v>607315</v>
       </c>
       <c r="G192" t="n">
-        <v>4169118.615345249</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6791,18 +6211,15 @@
         <v>682000</v>
       </c>
       <c r="G193" t="n">
-        <v>3487118.615345249</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6824,18 +6241,15 @@
         <v>435.7298</v>
       </c>
       <c r="G194" t="n">
-        <v>3487554.345145249</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6857,18 +6271,15 @@
         <v>13284.8538</v>
       </c>
       <c r="G195" t="n">
-        <v>3474269.491345249</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6890,18 +6301,15 @@
         <v>381000</v>
       </c>
       <c r="G196" t="n">
-        <v>3093269.491345249</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6923,18 +6331,15 @@
         <v>32278.1332</v>
       </c>
       <c r="G197" t="n">
-        <v>3093269.491345249</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6956,18 +6361,15 @@
         <v>22548.6627</v>
       </c>
       <c r="G198" t="n">
-        <v>3093269.491345249</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6989,18 +6391,15 @@
         <v>302748.1788</v>
       </c>
       <c r="G199" t="n">
-        <v>2790521.312545249</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7022,18 +6421,15 @@
         <v>232768.0597</v>
       </c>
       <c r="G200" t="n">
-        <v>2790521.312545249</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7055,18 +6451,15 @@
         <v>252958.8977</v>
       </c>
       <c r="G201" t="n">
-        <v>2790521.312545249</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7088,18 +6481,15 @@
         <v>157899.8448</v>
       </c>
       <c r="G202" t="n">
-        <v>2632621.467745249</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7121,18 +6511,15 @@
         <v>326421.538</v>
       </c>
       <c r="G203" t="n">
-        <v>2632621.467745249</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7154,18 +6541,15 @@
         <v>323118.9918</v>
       </c>
       <c r="G204" t="n">
-        <v>2955740.459545249</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7187,18 +6571,15 @@
         <v>15438.1278</v>
       </c>
       <c r="G205" t="n">
-        <v>2971178.587345249</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7220,18 +6601,15 @@
         <v>556000</v>
       </c>
       <c r="G206" t="n">
-        <v>2415178.587345249</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7253,18 +6631,15 @@
         <v>18759.6916</v>
       </c>
       <c r="G207" t="n">
-        <v>2415178.587345249</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7286,18 +6661,15 @@
         <v>1747191.778</v>
       </c>
       <c r="G208" t="n">
-        <v>667986.8093452491</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7319,18 +6691,15 @@
         <v>34095.3338</v>
       </c>
       <c r="G209" t="n">
-        <v>702082.1431452491</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7352,18 +6721,15 @@
         <v>210021</v>
       </c>
       <c r="G210" t="n">
-        <v>912103.1431452491</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7385,18 +6751,15 @@
         <v>150</v>
       </c>
       <c r="G211" t="n">
-        <v>911953.1431452491</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7418,18 +6781,15 @@
         <v>150</v>
       </c>
       <c r="G212" t="n">
-        <v>912103.1431452491</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7451,18 +6811,15 @@
         <v>96000</v>
       </c>
       <c r="G213" t="n">
-        <v>1008103.143145249</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7484,18 +6841,15 @@
         <v>106000</v>
       </c>
       <c r="G214" t="n">
-        <v>1114103.143145249</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7517,18 +6871,15 @@
         <v>19554.5239</v>
       </c>
       <c r="G215" t="n">
-        <v>1094548.619245249</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7550,18 +6901,15 @@
         <v>50000</v>
       </c>
       <c r="G216" t="n">
-        <v>1044548.619245249</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7583,18 +6931,15 @@
         <v>10000</v>
       </c>
       <c r="G217" t="n">
-        <v>1044548.619245249</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7616,18 +6961,15 @@
         <v>164501.8593</v>
       </c>
       <c r="G218" t="n">
-        <v>880046.7599452493</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7649,18 +6991,15 @@
         <v>101055.0408</v>
       </c>
       <c r="G219" t="n">
-        <v>880046.7599452493</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7682,18 +7021,15 @@
         <v>19528.8141</v>
       </c>
       <c r="G220" t="n">
-        <v>880046.7599452493</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7715,18 +7051,15 @@
         <v>164449.4112</v>
       </c>
       <c r="G221" t="n">
-        <v>715597.3487452493</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7748,18 +7081,15 @@
         <v>429370.4621</v>
       </c>
       <c r="G222" t="n">
-        <v>286226.8866452493</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7781,18 +7111,15 @@
         <v>11247.0853</v>
       </c>
       <c r="G223" t="n">
-        <v>274979.8013452493</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7814,18 +7141,15 @@
         <v>440523.3661</v>
       </c>
       <c r="G224" t="n">
-        <v>-165543.5647547506</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7847,18 +7171,15 @@
         <v>349000</v>
       </c>
       <c r="G225" t="n">
-        <v>183456.4352452494</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7880,18 +7201,15 @@
         <v>79104.9238</v>
       </c>
       <c r="G226" t="n">
-        <v>262561.3590452494</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7913,18 +7231,15 @@
         <v>21211.2915</v>
       </c>
       <c r="G227" t="n">
-        <v>283772.6505452493</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7946,18 +7261,15 @@
         <v>1111402.2172</v>
       </c>
       <c r="G228" t="n">
-        <v>1395174.86774525</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7979,18 +7291,15 @@
         <v>1807.9822</v>
       </c>
       <c r="G229" t="n">
-        <v>1395174.86774525</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8012,18 +7321,15 @@
         <v>70360</v>
       </c>
       <c r="G230" t="n">
-        <v>1324814.86774525</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8045,18 +7351,15 @@
         <v>2015.2909</v>
       </c>
       <c r="G231" t="n">
-        <v>1326830.158645249</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8078,18 +7381,15 @@
         <v>19798.0088</v>
       </c>
       <c r="G232" t="n">
-        <v>1346628.167445249</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8111,18 +7411,15 @@
         <v>20071.3526</v>
       </c>
       <c r="G233" t="n">
-        <v>1326556.814845249</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8144,18 +7441,15 @@
         <v>21650.5981</v>
       </c>
       <c r="G234" t="n">
-        <v>1326556.814845249</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8177,18 +7471,15 @@
         <v>3700.7008</v>
       </c>
       <c r="G235" t="n">
-        <v>1326556.814845249</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8210,18 +7501,15 @@
         <v>21758.7664</v>
       </c>
       <c r="G236" t="n">
-        <v>1304798.048445249</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8243,18 +7531,15 @@
         <v>217000</v>
       </c>
       <c r="G237" t="n">
-        <v>1304798.048445249</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8276,18 +7561,15 @@
         <v>228000</v>
       </c>
       <c r="G238" t="n">
-        <v>1304798.048445249</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8309,18 +7591,15 @@
         <v>161075.0173</v>
       </c>
       <c r="G239" t="n">
-        <v>1143723.031145249</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8342,18 +7621,15 @@
         <v>622749.2506</v>
       </c>
       <c r="G240" t="n">
-        <v>1143723.031145249</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8375,18 +7651,15 @@
         <v>78000</v>
       </c>
       <c r="G241" t="n">
-        <v>1065723.031145249</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8408,18 +7681,15 @@
         <v>234000</v>
       </c>
       <c r="G242" t="n">
-        <v>1299723.031145249</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8441,18 +7711,15 @@
         <v>2471.9101</v>
       </c>
       <c r="G243" t="n">
-        <v>1299723.031145249</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8474,18 +7741,15 @@
         <v>53543.0539</v>
       </c>
       <c r="G244" t="n">
-        <v>1246179.977245249</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8507,18 +7771,15 @@
         <v>33936.6515</v>
       </c>
       <c r="G245" t="n">
-        <v>1280116.628745249</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8540,18 +7801,15 @@
         <v>100</v>
       </c>
       <c r="G246" t="n">
-        <v>1280016.628745249</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8573,18 +7831,19 @@
         <v>6597.004</v>
       </c>
       <c r="G247" t="n">
-        <v>1273419.624745249</v>
+        <v>1</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>4.4</v>
+      </c>
+      <c r="I247" t="n">
+        <v>4.4</v>
+      </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8606,18 +7865,23 @@
         <v>9419.413</v>
       </c>
       <c r="G248" t="n">
-        <v>1282839.037745249</v>
+        <v>1</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+        <v>4.39</v>
+      </c>
+      <c r="I248" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8639,18 +7903,23 @@
         <v>9398.1981</v>
       </c>
       <c r="G249" t="n">
-        <v>1292237.235845249</v>
+        <v>1</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+        <v>4.43</v>
+      </c>
+      <c r="I249" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8672,18 +7941,15 @@
         <v>27000</v>
       </c>
       <c r="G250" t="n">
-        <v>1265237.235845249</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8705,18 +7971,15 @@
         <v>161305.1194</v>
       </c>
       <c r="G251" t="n">
-        <v>1103932.116445249</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8738,18 +8001,19 @@
         <v>4420</v>
       </c>
       <c r="G252" t="n">
-        <v>1108352.116445249</v>
+        <v>1</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>4.39</v>
+      </c>
+      <c r="I252" t="n">
+        <v>4.39</v>
+      </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8771,18 +8035,21 @@
         <v>71296.3382</v>
       </c>
       <c r="G253" t="n">
-        <v>1108352.116445249</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8804,18 +8071,23 @@
         <v>20125.668</v>
       </c>
       <c r="G254" t="n">
-        <v>1128477.784445249</v>
+        <v>1</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+        <v>4.41</v>
+      </c>
+      <c r="I254" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
